--- a/const/technologies.xlsx
+++ b/const/technologies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="0" windowWidth="22960" windowHeight="16440" tabRatio="739" firstSheet="8" activeTab="15"/>
+    <workbookView xWindow="40" yWindow="0" windowWidth="22960" windowHeight="16440" tabRatio="739" firstSheet="8" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="住宅" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="残暴" sheetId="18" r:id="rId18"/>
     <sheet name="掠夺" sheetId="19" r:id="rId19"/>
     <sheet name="智慧" sheetId="21" r:id="rId20"/>
-    <sheet name="Sheet10" sheetId="22" r:id="rId21"/>
+    <sheet name="define" sheetId="22" r:id="rId21"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -6543,7 +6543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
@@ -11049,7 +11049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>

--- a/const/technologies.xlsx
+++ b/const/technologies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="0" windowWidth="22960" windowHeight="16440" tabRatio="739" firstSheet="8" activeTab="20"/>
+    <workbookView xWindow="1080" yWindow="0" windowWidth="22960" windowHeight="16440" tabRatio="739" firstSheet="8" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="住宅" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="83">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,6 +288,85 @@
     <t>dinosaur_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>name_en</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>residential</t>
+  </si>
+  <si>
+    <t>lumbering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mining</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hunting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>farming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hatching</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>raising</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>worshipping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>researching</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alchemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>courage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fortitude</t>
+  </si>
+  <si>
+    <t>loyalty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mercy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discovery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>violence</t>
+  </si>
+  <si>
+    <t>plunder</t>
+  </si>
+  <si>
+    <t>wisdom</t>
+  </si>
 </sst>
 </file>
 
@@ -296,7 +375,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,6 +408,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -347,8 +444,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -384,7 +487,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -687,7 +792,7 @@
   <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -11047,188 +11152,254 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="4"/>
+    <col min="1" max="2" width="8.83203125" style="4"/>
+    <col min="3" max="3" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>53</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/const/technologies.xlsx
+++ b/const/technologies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" firstSheet="8" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" firstSheet="9" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="住宅" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="96">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -364,10 +364,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>time(s)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -389,6 +385,14 @@
   </si>
   <si>
     <t>lv_limit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkerNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HouseMax</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -508,7 +512,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -659,8 +663,32 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -706,8 +734,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="58">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
@@ -733,6 +764,10 @@
     <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="46" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="56" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
@@ -757,6 +792,10 @@
     <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1056,10 +1095,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1070,142 +1109,157 @@
     <col min="5" max="5" width="17.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.1640625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="1"/>
+    <col min="8" max="8" width="8.83203125" style="1"/>
+    <col min="9" max="9" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12" t="s">
+      <c r="K1" s="15"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="15"/>
+      <c r="B2" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="12"/>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="12"/>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:17" s="11" customFormat="1">
-      <c r="A3" s="11">
-        <v>0</v>
-      </c>
-      <c r="B3" s="11">
-        <v>0</v>
-      </c>
-      <c r="C3" s="11">
-        <v>0</v>
-      </c>
-      <c r="D3" s="11">
-        <v>0</v>
-      </c>
-      <c r="E3" s="11">
-        <v>0</v>
-      </c>
-      <c r="F3" s="11">
-        <v>0</v>
-      </c>
-      <c r="G3" s="11">
-        <v>0</v>
-      </c>
-      <c r="H3" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="I2" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:17" s="12" customFormat="1">
+      <c r="A3" s="12">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12">
+        <v>0</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="11" customFormat="1">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <f>E4/2</f>
+        <v>50</v>
+      </c>
+      <c r="E4" s="2">
         <v>100</v>
-      </c>
-      <c r="C4" s="2">
-        <v>100</v>
-      </c>
-      <c r="D4" s="2">
-        <v>100</v>
-      </c>
-      <c r="E4" s="2">
-        <v>120</v>
       </c>
       <c r="F4" s="2">
         <v>50</v>
       </c>
       <c r="G4" s="2">
+        <v>300</v>
+      </c>
+      <c r="H4" s="3">
         <v>100</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
+        <v>200</v>
+      </c>
+      <c r="J4" s="3">
         <v>1</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="2">
+      <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
-        <v>400</v>
-      </c>
-      <c r="C5" s="3">
-        <v>400</v>
-      </c>
-      <c r="D5" s="3">
-        <v>400</v>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" ref="D5:D9" si="0">E5/2</f>
+        <v>1250</v>
       </c>
       <c r="E5" s="2">
-        <v>3600</v>
-      </c>
-      <c r="F5" s="3">
-        <v>100</v>
+        <v>2500</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1250</v>
       </c>
       <c r="G5" s="3">
-        <v>200</v>
+        <v>1800</v>
       </c>
       <c r="H5" s="2">
+        <v>700</v>
+      </c>
+      <c r="I5" s="2">
+        <v>500</v>
+      </c>
+      <c r="J5" s="2">
         <v>1</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="2"/>
+      <c r="K5" s="3"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1218,29 +1272,34 @@
         <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>900</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2">
-        <v>900</v>
-      </c>
-      <c r="D6" s="2">
-        <v>900</v>
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>5000</v>
       </c>
       <c r="E6" s="3">
-        <v>7200</v>
+        <v>10000</v>
       </c>
       <c r="F6" s="2">
-        <v>200</v>
+        <v>5000</v>
       </c>
       <c r="G6" s="2">
-        <v>300</v>
+        <v>18000</v>
       </c>
       <c r="H6" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J6" s="3">
         <v>1</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="3"/>
+      <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1249,32 +1308,37 @@
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="2">
+      <c r="A7" s="12">
         <v>4</v>
       </c>
-      <c r="B7" s="3">
-        <v>1600</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1600</v>
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
       </c>
       <c r="D7" s="3">
-        <v>1600</v>
-      </c>
-      <c r="E7" s="2">
-        <v>10800</v>
-      </c>
-      <c r="F7" s="3">
-        <v>400</v>
-      </c>
-      <c r="G7" s="3">
-        <v>400</v>
+        <f t="shared" si="0"/>
+        <v>7200</v>
+      </c>
+      <c r="E7" s="3">
+        <v>14400</v>
+      </c>
+      <c r="F7" s="2">
+        <v>7200</v>
+      </c>
+      <c r="G7" s="2">
+        <v>57600</v>
       </c>
       <c r="H7" s="3">
+        <v>6600</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J7" s="3">
         <v>1</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1288,28 +1352,33 @@
         <v>5</v>
       </c>
       <c r="B8" s="2">
-        <v>2500</v>
+        <v>4</v>
       </c>
       <c r="C8" s="2">
-        <v>2500</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2500</v>
+        <v>3</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>9800</v>
       </c>
       <c r="E8" s="3">
-        <v>14400</v>
+        <v>19600</v>
       </c>
       <c r="F8" s="2">
-        <v>700</v>
+        <v>9800</v>
       </c>
       <c r="G8" s="2">
-        <v>500</v>
+        <v>129600</v>
       </c>
       <c r="H8" s="3">
+        <v>10200</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J8" s="3">
         <v>1</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
       <c r="K8" s="3"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1319,32 +1388,37 @@
       <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="2">
+      <c r="A9" s="12">
         <v>6</v>
       </c>
-      <c r="B9" s="3">
-        <v>3600</v>
-      </c>
-      <c r="C9" s="3">
-        <v>3600</v>
-      </c>
-      <c r="D9" s="3">
-        <v>3600</v>
+      <c r="B9" s="2">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>14450</v>
       </c>
       <c r="E9" s="2">
-        <v>18000</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1100</v>
+        <v>28900</v>
+      </c>
+      <c r="F9" s="2">
+        <v>14450</v>
       </c>
       <c r="G9" s="3">
-        <v>600</v>
-      </c>
-      <c r="H9" s="3">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+        <v>259200</v>
+      </c>
+      <c r="H9" s="2">
+        <v>17500</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1700</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
       <c r="K9" s="3"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1357,29 +1431,34 @@
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="2">
-        <v>4900</v>
-      </c>
-      <c r="C10" s="2">
-        <v>4900</v>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4</v>
       </c>
       <c r="D10" s="2">
-        <v>4900</v>
+        <f>E10/2</f>
+        <v>22050</v>
       </c>
       <c r="E10" s="3">
-        <v>21600</v>
+        <v>44100</v>
       </c>
       <c r="F10" s="2">
-        <v>1600</v>
+        <v>22050</v>
       </c>
       <c r="G10" s="2">
-        <v>700</v>
+        <v>432000</v>
       </c>
       <c r="H10" s="3">
-        <v>5</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+        <v>32000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>44100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
       <c r="K10" s="3"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1389,32 +1468,16 @@
       <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="2">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3">
-        <v>6400</v>
-      </c>
-      <c r="C11" s="3">
-        <v>6400</v>
-      </c>
-      <c r="D11" s="3">
-        <v>6400</v>
-      </c>
-      <c r="E11" s="2">
-        <v>25200</v>
-      </c>
-      <c r="F11" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G11" s="3">
-        <v>800</v>
-      </c>
-      <c r="H11" s="3">
-        <v>5</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
       <c r="K11" s="3"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1424,32 +1487,16 @@
       <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="2">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2">
-        <v>8100</v>
-      </c>
-      <c r="C12" s="2">
-        <v>8100</v>
-      </c>
-      <c r="D12" s="2">
-        <v>8100</v>
-      </c>
-      <c r="E12" s="3">
-        <v>28800</v>
-      </c>
-      <c r="F12" s="2">
-        <v>3000</v>
-      </c>
-      <c r="G12" s="2">
-        <v>900</v>
-      </c>
-      <c r="H12" s="3">
-        <v>5</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1459,32 +1506,16 @@
       <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="2">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3">
-        <v>10000</v>
-      </c>
-      <c r="C13" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D13" s="3">
-        <v>10000</v>
-      </c>
-      <c r="E13" s="2">
-        <v>32400</v>
-      </c>
-      <c r="F13" s="3">
-        <v>4000</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H13" s="3">
-        <v>5</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
       <c r="K13" s="3"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1494,32 +1525,16 @@
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="2">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2">
-        <v>12100</v>
-      </c>
-      <c r="C14" s="2">
-        <v>12100</v>
-      </c>
-      <c r="D14" s="2">
-        <v>12100</v>
-      </c>
-      <c r="E14" s="3">
-        <v>36000</v>
-      </c>
-      <c r="F14" s="2">
-        <v>5200</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1100</v>
-      </c>
-      <c r="H14" s="3">
-        <v>10</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1529,32 +1544,16 @@
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="2">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3">
-        <v>14400</v>
-      </c>
-      <c r="C15" s="3">
-        <v>14400</v>
-      </c>
-      <c r="D15" s="3">
-        <v>14400</v>
-      </c>
-      <c r="E15" s="2">
-        <v>39600</v>
-      </c>
-      <c r="F15" s="3">
-        <v>6600</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H15" s="3">
-        <v>10</v>
-      </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
       <c r="K15" s="3"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1564,32 +1563,16 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="2">
-        <v>13</v>
-      </c>
-      <c r="B16" s="2">
-        <v>16900</v>
-      </c>
-      <c r="C16" s="2">
-        <v>16900</v>
-      </c>
-      <c r="D16" s="2">
-        <v>16900</v>
-      </c>
-      <c r="E16" s="3">
-        <v>43200</v>
-      </c>
-      <c r="F16" s="2">
-        <v>8300</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1300</v>
-      </c>
-      <c r="H16" s="3">
-        <v>10</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -1599,32 +1582,16 @@
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="2">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3">
-        <v>19600</v>
-      </c>
-      <c r="C17" s="3">
-        <v>19600</v>
-      </c>
-      <c r="D17" s="3">
-        <v>19600</v>
-      </c>
-      <c r="E17" s="2">
-        <v>46800</v>
-      </c>
-      <c r="F17" s="3">
-        <v>10200</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1400</v>
-      </c>
-      <c r="H17" s="3">
-        <v>10</v>
-      </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
       <c r="K17" s="3"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -1634,32 +1601,16 @@
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="2">
-        <v>15</v>
-      </c>
-      <c r="B18" s="2">
-        <v>22500</v>
-      </c>
-      <c r="C18" s="2">
-        <v>22500</v>
-      </c>
-      <c r="D18" s="2">
-        <v>22500</v>
-      </c>
-      <c r="E18" s="3">
-        <v>50400</v>
-      </c>
-      <c r="F18" s="2">
-        <v>12300</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1500</v>
-      </c>
-      <c r="H18" s="3">
-        <v>10</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1669,32 +1620,16 @@
       <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="2">
-        <v>16</v>
-      </c>
-      <c r="B19" s="3">
-        <v>25600</v>
-      </c>
-      <c r="C19" s="3">
-        <v>25600</v>
-      </c>
-      <c r="D19" s="3">
-        <v>25600</v>
-      </c>
-      <c r="E19" s="2">
-        <v>54000</v>
-      </c>
-      <c r="F19" s="3">
-        <v>14800</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H19" s="3">
-        <v>15</v>
-      </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
       <c r="K19" s="3"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1704,32 +1639,16 @@
       <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="2">
-        <v>17</v>
-      </c>
-      <c r="B20" s="2">
-        <v>28900</v>
-      </c>
-      <c r="C20" s="2">
-        <v>28900</v>
-      </c>
-      <c r="D20" s="2">
-        <v>28900</v>
-      </c>
-      <c r="E20" s="3">
-        <v>57600</v>
-      </c>
-      <c r="F20" s="2">
-        <v>17500</v>
-      </c>
-      <c r="G20" s="2">
-        <v>1700</v>
-      </c>
-      <c r="H20" s="3">
-        <v>15</v>
-      </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -1739,30 +1658,14 @@
       <c r="Q20" s="2"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="2">
-        <v>18</v>
-      </c>
-      <c r="B21" s="2">
-        <v>32400</v>
-      </c>
-      <c r="C21" s="2">
-        <v>32400</v>
-      </c>
-      <c r="D21" s="2">
-        <v>32400</v>
-      </c>
-      <c r="E21" s="2">
-        <v>61200</v>
-      </c>
-      <c r="F21" s="2">
-        <v>20600</v>
-      </c>
-      <c r="G21" s="2">
-        <v>1800</v>
-      </c>
-      <c r="H21" s="3">
-        <v>15</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="3"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="3"/>
@@ -1774,32 +1677,16 @@
       <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="2">
-        <v>19</v>
-      </c>
-      <c r="B22" s="3">
-        <v>36100</v>
-      </c>
-      <c r="C22" s="3">
-        <v>36100</v>
-      </c>
-      <c r="D22" s="3">
-        <v>36100</v>
-      </c>
-      <c r="E22" s="2">
-        <v>64800</v>
-      </c>
-      <c r="F22" s="3">
-        <v>24000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1900</v>
-      </c>
-      <c r="H22" s="3">
-        <v>15</v>
-      </c>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
       <c r="K22" s="3"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -1809,32 +1696,16 @@
       <c r="Q22" s="2"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="2">
-        <v>20</v>
-      </c>
-      <c r="B23" s="2">
-        <v>40000</v>
-      </c>
-      <c r="C23" s="2">
-        <v>40000</v>
-      </c>
-      <c r="D23" s="2">
-        <v>40000</v>
-      </c>
-      <c r="E23" s="3">
-        <v>68400</v>
-      </c>
-      <c r="F23" s="2">
-        <v>27800</v>
-      </c>
-      <c r="G23" s="2">
-        <v>2000</v>
-      </c>
-      <c r="H23" s="3">
-        <v>15</v>
-      </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -1844,51 +1715,36 @@
       <c r="Q23" s="2"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="2">
-        <v>21</v>
-      </c>
-      <c r="B24" s="2">
-        <v>44100</v>
-      </c>
-      <c r="C24" s="3">
-        <v>44100</v>
-      </c>
-      <c r="D24" s="3">
-        <v>44100</v>
-      </c>
-      <c r="E24" s="2">
-        <v>72000</v>
-      </c>
-      <c r="F24" s="3">
-        <v>32000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>44100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>15</v>
-      </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
       <c r="K24" s="3"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -2111,16 +1967,34 @@
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="J1:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2144,27 +2018,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -2183,7 +2057,7 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="12"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="11">
@@ -2883,27 +2757,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -2922,7 +2796,7 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="12"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="11">
@@ -3605,34 +3479,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -3651,7 +3525,7 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="12"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="11">
@@ -4324,29 +4198,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="15" t="s">
         <v>52</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -4365,7 +4239,7 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="12"/>
+      <c r="I2" s="15"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
@@ -5131,27 +5005,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -5170,7 +5044,7 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="12"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="11">
@@ -5844,27 +5718,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -5883,7 +5757,7 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="12"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="11">
@@ -6558,27 +6432,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -6597,7 +6471,7 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="12"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="11">
@@ -7272,27 +7146,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -7311,7 +7185,7 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="12"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="11">
@@ -8007,27 +7881,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -8046,7 +7920,7 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="12"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="11">
@@ -8736,30 +8610,31 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -8778,7 +8653,7 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="12"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="11">
@@ -9438,46 +9313,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="F2" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="20.83203125" customWidth="1"/>
     <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="10"/>
       <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="12" t="s">
+      <c r="I1" s="15" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+    <row r="2" spans="1:9">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="10" t="s">
         <v>79</v>
       </c>
@@ -9496,12 +9369,9 @@
       <c r="H2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" s="12"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="I2" s="15"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="11">
         <v>0</v>
       </c>
@@ -9529,11 +9399,8 @@
       <c r="I3" s="11">
         <v>0</v>
       </c>
-      <c r="J3" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -9551,22 +9418,19 @@
         <v>50</v>
       </c>
       <c r="F4" s="2">
+        <v>60</v>
+      </c>
+      <c r="G4" s="2">
+        <v>50</v>
+      </c>
+      <c r="H4" s="2">
         <v>100</v>
       </c>
-      <c r="G4" s="2">
-        <v>60</v>
-      </c>
-      <c r="H4" s="2">
-        <v>50</v>
-      </c>
-      <c r="I4" s="2">
-        <v>100</v>
-      </c>
-      <c r="J4" s="3">
+      <c r="I4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:9">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -9583,23 +9447,20 @@
       <c r="E5" s="2">
         <v>200</v>
       </c>
-      <c r="F5" s="3">
-        <v>400</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>300</v>
       </c>
+      <c r="G5" s="3">
+        <v>100</v>
+      </c>
       <c r="H5" s="3">
-        <v>100</v>
-      </c>
-      <c r="I5" s="3">
         <v>200</v>
       </c>
-      <c r="J5" s="2">
+      <c r="I5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -9616,23 +9477,20 @@
       <c r="E6" s="2">
         <v>450</v>
       </c>
-      <c r="F6" s="2">
-        <v>900</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="F6" s="3">
         <v>600</v>
       </c>
+      <c r="G6" s="2">
+        <v>200</v>
+      </c>
       <c r="H6" s="2">
-        <v>200</v>
-      </c>
-      <c r="I6" s="2">
         <v>300</v>
       </c>
-      <c r="J6" s="3">
+      <c r="I6" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:9">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -9649,23 +9507,20 @@
       <c r="E7" s="2">
         <v>800</v>
       </c>
-      <c r="F7" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>900</v>
+      </c>
+      <c r="G7" s="3">
+        <v>400</v>
       </c>
       <c r="H7" s="3">
         <v>400</v>
       </c>
       <c r="I7" s="3">
-        <v>400</v>
-      </c>
-      <c r="J7" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -9682,23 +9537,20 @@
       <c r="E8" s="2">
         <v>1250</v>
       </c>
-      <c r="F8" s="2">
-        <v>2500</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="F8" s="3">
         <v>1800</v>
       </c>
+      <c r="G8" s="2">
+        <v>700</v>
+      </c>
       <c r="H8" s="2">
-        <v>700</v>
-      </c>
-      <c r="I8" s="2">
         <v>500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="I8" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:9">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -9715,23 +9567,20 @@
       <c r="E9" s="2">
         <v>1800</v>
       </c>
-      <c r="F9" s="3">
-        <v>3600</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>2700</v>
       </c>
+      <c r="G9" s="3">
+        <v>1100</v>
+      </c>
       <c r="H9" s="3">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="I9" s="3">
-        <v>600</v>
-      </c>
-      <c r="J9" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:9">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -9748,23 +9597,20 @@
       <c r="E10" s="2">
         <v>2450</v>
       </c>
-      <c r="F10" s="2">
-        <v>4900</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="F10" s="3">
         <v>3600</v>
       </c>
+      <c r="G10" s="2">
+        <v>1600</v>
+      </c>
       <c r="H10" s="2">
-        <v>1600</v>
-      </c>
-      <c r="I10" s="2">
         <v>700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="I10" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:9">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -9781,23 +9627,20 @@
       <c r="E11" s="2">
         <v>3200</v>
       </c>
-      <c r="F11" s="3">
-        <v>6400</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>7200</v>
       </c>
+      <c r="G11" s="3">
+        <v>2200</v>
+      </c>
       <c r="H11" s="3">
-        <v>2200</v>
+        <v>800</v>
       </c>
       <c r="I11" s="3">
-        <v>800</v>
-      </c>
-      <c r="J11" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:9">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -9814,23 +9657,20 @@
       <c r="E12" s="2">
         <v>4050</v>
       </c>
-      <c r="F12" s="2">
-        <v>8100</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="F12" s="3">
         <v>10800</v>
       </c>
+      <c r="G12" s="2">
+        <v>3000</v>
+      </c>
       <c r="H12" s="2">
-        <v>3000</v>
-      </c>
-      <c r="I12" s="2">
         <v>900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="I12" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:9">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -9847,23 +9687,20 @@
       <c r="E13" s="2">
         <v>5000</v>
       </c>
-      <c r="F13" s="3">
-        <v>10000</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>18000</v>
       </c>
+      <c r="G13" s="3">
+        <v>4000</v>
+      </c>
       <c r="H13" s="3">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="I13" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J13" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:9">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -9880,23 +9717,20 @@
       <c r="E14" s="2">
         <v>6050</v>
       </c>
-      <c r="F14" s="2">
-        <v>12100</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="F14" s="3">
         <v>36000</v>
       </c>
+      <c r="G14" s="2">
+        <v>5200</v>
+      </c>
       <c r="H14" s="2">
-        <v>5200</v>
-      </c>
-      <c r="I14" s="2">
         <v>1100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="I14" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:9">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -9913,23 +9747,20 @@
       <c r="E15" s="2">
         <v>7200</v>
       </c>
-      <c r="F15" s="3">
-        <v>14400</v>
-      </c>
-      <c r="G15" s="2">
+      <c r="F15" s="2">
         <v>57600</v>
       </c>
+      <c r="G15" s="3">
+        <v>6600</v>
+      </c>
       <c r="H15" s="3">
-        <v>6600</v>
+        <v>1200</v>
       </c>
       <c r="I15" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J15" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:9">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -9946,23 +9777,20 @@
       <c r="E16" s="2">
         <v>8450</v>
       </c>
-      <c r="F16" s="2">
-        <v>16900</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="F16" s="3">
         <v>86400</v>
       </c>
+      <c r="G16" s="2">
+        <v>8300</v>
+      </c>
       <c r="H16" s="2">
-        <v>8300</v>
-      </c>
-      <c r="I16" s="2">
         <v>1300</v>
       </c>
-      <c r="J16" s="3">
+      <c r="I16" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:9">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -9979,23 +9807,20 @@
       <c r="E17" s="2">
         <v>9800</v>
       </c>
-      <c r="F17" s="3">
-        <v>19600</v>
-      </c>
-      <c r="G17" s="2">
+      <c r="F17" s="2">
         <v>129600</v>
       </c>
+      <c r="G17" s="3">
+        <v>10200</v>
+      </c>
       <c r="H17" s="3">
-        <v>10200</v>
+        <v>1400</v>
       </c>
       <c r="I17" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J17" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:9">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -10012,23 +9837,20 @@
       <c r="E18" s="2">
         <v>11250</v>
       </c>
-      <c r="F18" s="2">
-        <v>22500</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="F18" s="3">
         <v>172800</v>
       </c>
+      <c r="G18" s="2">
+        <v>12300</v>
+      </c>
       <c r="H18" s="2">
-        <v>12300</v>
-      </c>
-      <c r="I18" s="2">
         <v>1500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="I18" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:9">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -10045,23 +9867,20 @@
       <c r="E19" s="2">
         <v>12800</v>
       </c>
-      <c r="F19" s="3">
-        <v>25600</v>
-      </c>
-      <c r="G19" s="2">
+      <c r="F19" s="2">
         <v>216000</v>
       </c>
+      <c r="G19" s="3">
+        <v>14800</v>
+      </c>
       <c r="H19" s="3">
-        <v>14800</v>
+        <v>1600</v>
       </c>
       <c r="I19" s="3">
-        <v>1600</v>
-      </c>
-      <c r="J19" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:9">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -10078,23 +9897,20 @@
       <c r="E20" s="2">
         <v>14450</v>
       </c>
-      <c r="F20" s="2">
-        <v>28900</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="F20" s="3">
         <v>259200</v>
       </c>
+      <c r="G20" s="2">
+        <v>17500</v>
+      </c>
       <c r="H20" s="2">
-        <v>17500</v>
-      </c>
-      <c r="I20" s="2">
         <v>1700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="I20" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:9">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -10112,22 +9928,19 @@
         <v>16200</v>
       </c>
       <c r="F21" s="2">
-        <v>32400</v>
+        <v>302400</v>
       </c>
       <c r="G21" s="2">
-        <v>302400</v>
+        <v>20600</v>
       </c>
       <c r="H21" s="2">
-        <v>20600</v>
-      </c>
-      <c r="I21" s="2">
         <v>1800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="I21" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:9">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -10144,23 +9957,20 @@
       <c r="E22" s="2">
         <v>18050</v>
       </c>
-      <c r="F22" s="3">
-        <v>36100</v>
-      </c>
-      <c r="G22" s="2">
+      <c r="F22" s="2">
         <v>345600</v>
       </c>
+      <c r="G22" s="3">
+        <v>24000</v>
+      </c>
       <c r="H22" s="3">
-        <v>24000</v>
+        <v>1900</v>
       </c>
       <c r="I22" s="3">
-        <v>1900</v>
-      </c>
-      <c r="J22" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:9">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -10177,23 +9987,20 @@
       <c r="E23" s="2">
         <v>20000</v>
       </c>
-      <c r="F23" s="2">
-        <v>40000</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="F23" s="3">
         <v>388800</v>
       </c>
+      <c r="G23" s="2">
+        <v>27800</v>
+      </c>
       <c r="H23" s="2">
-        <v>27800</v>
-      </c>
-      <c r="I23" s="2">
         <v>2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="I23" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:9">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -10210,47 +10017,43 @@
       <c r="E24" s="2">
         <v>22050</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
+        <v>432000</v>
+      </c>
+      <c r="G24" s="3">
+        <v>32000</v>
+      </c>
+      <c r="H24" s="3">
         <v>44100</v>
       </c>
-      <c r="G24" s="2">
-        <v>432000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>32000</v>
-      </c>
       <c r="I24" s="3">
-        <v>44100</v>
-      </c>
-      <c r="J24" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:9">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:10">
+    </row>
+    <row r="26" spans="1:9">
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:9">
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:9">
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:9">
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:9">
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:9">
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:9">
       <c r="C32" s="3"/>
     </row>
     <row r="33" spans="3:3">
@@ -10296,8 +10099,8 @@
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="I1:I2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10314,7 +10117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
@@ -10326,27 +10129,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -10365,7 +10168,7 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="12"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="11">
@@ -11070,7 +10873,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -11314,6 +11117,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -11339,27 +11143,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -11378,7 +11182,7 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="12"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="11">
@@ -12071,7 +11875,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B24"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -12080,30 +11884,31 @@
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -12122,7 +11927,7 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="12"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="11">
@@ -12805,27 +12610,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -12844,7 +12649,7 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="12"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="11">
@@ -13530,24 +13335,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="15" t="s">
         <v>52</v>
       </c>
       <c r="K1" s="1"/>
@@ -13557,9 +13362,9 @@
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
@@ -13578,7 +13383,7 @@
       <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="12"/>
+      <c r="J2" s="15"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -14375,35 +14180,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
       <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
@@ -14422,7 +14227,7 @@
       <c r="J2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="12"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="11">
@@ -15277,31 +15082,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
@@ -15320,7 +15125,7 @@
       <c r="I2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="12"/>
+      <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="11">
@@ -16095,7 +15900,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -16109,31 +15914,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
@@ -16152,7 +15957,7 @@
       <c r="I2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="12"/>
+      <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="11">

--- a/const/technologies.xlsx
+++ b/const/technologies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" firstSheet="9" activeTab="19"/>
+    <workbookView xWindow="1660" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="住宅" sheetId="1" r:id="rId1"/>
@@ -1097,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -1199,7 +1199,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -1232,7 +1232,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1272,7 +1272,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1312,10 +1312,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
@@ -1352,10 +1352,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
@@ -1392,10 +1392,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
@@ -1432,10 +1432,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2">
         <f>E10/2</f>
@@ -10117,7 +10117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>

--- a/const/technologies.xlsx
+++ b/const/technologies.xlsx
@@ -1095,10 +1095,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1166,11 +1166,11 @@
       <c r="A3" s="12">
         <v>0</v>
       </c>
-      <c r="B3" s="2">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
+      <c r="B3" s="14">
+        <v>2</v>
+      </c>
+      <c r="C3" s="14">
+        <v>2</v>
       </c>
       <c r="D3" s="12">
         <v>0</v>
@@ -1198,11 +1198,11 @@
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
+      <c r="B4" s="14">
+        <v>3</v>
+      </c>
+      <c r="C4" s="14">
+        <v>2</v>
       </c>
       <c r="D4" s="2">
         <f>E4/2</f>
@@ -1231,14 +1231,14 @@
       <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
+      <c r="B5" s="14">
+        <v>4</v>
+      </c>
+      <c r="C5" s="14">
+        <v>2</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ref="D5:D9" si="0">E5/2</f>
+        <f t="shared" ref="D5:D7" si="0">E5/2</f>
         <v>1250</v>
       </c>
       <c r="E5" s="2">
@@ -1271,11 +1271,11 @@
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
+      <c r="B6" s="14">
+        <v>4</v>
+      </c>
+      <c r="C6" s="14">
+        <v>3</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
@@ -1311,11 +1311,11 @@
       <c r="A7" s="12">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
+      <c r="B7" s="14">
+        <v>4</v>
+      </c>
+      <c r="C7" s="14">
+        <v>4</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
@@ -1348,37 +1348,16 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="2">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>9800</v>
-      </c>
-      <c r="E8" s="3">
-        <v>19600</v>
-      </c>
-      <c r="F8" s="2">
-        <v>9800</v>
-      </c>
-      <c r="G8" s="2">
-        <v>129600</v>
-      </c>
-      <c r="H8" s="3">
-        <v>10200</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
       <c r="K8" s="3"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1388,37 +1367,16 @@
       <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="12">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2">
-        <v>10</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>14450</v>
-      </c>
-      <c r="E9" s="2">
-        <v>28900</v>
-      </c>
-      <c r="F9" s="2">
-        <v>14450</v>
-      </c>
-      <c r="G9" s="3">
-        <v>259200</v>
-      </c>
-      <c r="H9" s="2">
-        <v>17500</v>
-      </c>
-      <c r="I9" s="2">
-        <v>1700</v>
-      </c>
-      <c r="J9" s="2">
-        <v>1</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1428,37 +1386,16 @@
       <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="2">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
-        <f>E10/2</f>
-        <v>22050</v>
-      </c>
-      <c r="E10" s="3">
-        <v>44100</v>
-      </c>
-      <c r="F10" s="2">
-        <v>22050</v>
-      </c>
-      <c r="G10" s="2">
-        <v>432000</v>
-      </c>
-      <c r="H10" s="3">
-        <v>32000</v>
-      </c>
-      <c r="I10" s="3">
-        <v>44100</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
       <c r="K10" s="3"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1469,15 +1406,15 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1488,15 +1425,15 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
       <c r="K12" s="3"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1507,15 +1444,15 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1526,15 +1463,15 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
       <c r="K14" s="3"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1545,15 +1482,15 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1564,15 +1501,15 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
       <c r="K16" s="3"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -1583,15 +1520,15 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -1602,15 +1539,15 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
       <c r="K18" s="3"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1624,7 +1561,7 @@
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="3"/>
+      <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="3"/>
@@ -1679,72 +1616,69 @@
     <row r="22" spans="1:17">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="3"/>
+      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="3"/>
+      <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="3"/>
+      <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -1930,60 +1864,6 @@
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
-    </row>
-    <row r="36" spans="1:16">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-    </row>
-    <row r="37" spans="1:16">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-    </row>
-    <row r="38" spans="1:16">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/const/technologies.xlsx
+++ b/const/technologies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="14960" yWindow="260" windowWidth="25600" windowHeight="16060" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="住宅" sheetId="1" r:id="rId1"/>
@@ -70,10 +70,6 @@
   </si>
   <si>
     <t>Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recourse_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -419,6 +415,9 @@
     <t>earn_score</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>recourse_max</t>
+  </si>
 </sst>
 </file>
 
@@ -427,7 +426,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -494,6 +493,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -512,7 +520,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="58">
+  <cellStyleXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -687,8 +695,32 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -737,8 +769,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="58">
+  <cellStyles count="66">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
@@ -768,6 +806,10 @@
     <cellStyle name="超链接" xfId="52" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="54" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="64" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
@@ -796,6 +838,10 @@
     <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1097,7 +1143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -1116,12 +1162,12 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
@@ -1129,35 +1175,35 @@
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
       <c r="J1" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="15"/>
       <c r="B2" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>94</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>95</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
@@ -1902,10 +1948,10 @@
         <v>7</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
@@ -1913,7 +1959,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1929,7 +1975,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>5</v>
@@ -2641,10 +2687,10 @@
         <v>7</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
@@ -2652,7 +2698,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2668,7 +2714,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>5</v>
@@ -3367,13 +3413,13 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
@@ -3381,7 +3427,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3397,7 +3443,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>5</v>
@@ -4079,13 +4125,13 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>23</v>
-      </c>
       <c r="C1" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
@@ -4093,7 +4139,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -4111,7 +4157,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>5</v>
@@ -4886,13 +4932,13 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
@@ -4900,7 +4946,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4916,7 +4962,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>5</v>
@@ -5599,13 +5645,13 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
@@ -5613,7 +5659,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5629,7 +5675,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>5</v>
@@ -6313,13 +6359,13 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
@@ -6327,7 +6373,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -6343,7 +6389,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>5</v>
@@ -7027,13 +7073,13 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
@@ -7041,7 +7087,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -7057,7 +7103,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>5</v>
@@ -7762,13 +7808,13 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
@@ -7776,7 +7822,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -7792,7 +7838,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>5</v>
@@ -8495,13 +8541,13 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
@@ -8509,7 +8555,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -8525,7 +8571,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>5</v>
@@ -9214,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
@@ -9225,29 +9271,29 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
       <c r="I1" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>83</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>84</v>
       </c>
       <c r="I2" s="15"/>
     </row>
@@ -10010,13 +10056,13 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
@@ -10024,7 +10070,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -10040,7 +10086,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>5</v>
@@ -10765,13 +10811,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -10779,10 +10825,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -10790,10 +10836,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -10801,10 +10847,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -10812,10 +10858,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -10823,10 +10869,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -10834,10 +10880,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -10845,10 +10891,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -10856,10 +10902,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -10867,10 +10913,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -10878,10 +10924,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -10889,10 +10935,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -10900,10 +10946,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -10911,10 +10957,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -10922,10 +10968,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -10933,10 +10979,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -10944,10 +10990,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -10955,10 +11001,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -10966,10 +11012,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -10977,10 +11023,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -10988,10 +11034,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -11030,7 +11076,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
@@ -11038,7 +11084,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -11054,7 +11100,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>5</v>
@@ -11775,7 +11821,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
@@ -11783,7 +11829,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -11799,7 +11845,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>5</v>
@@ -12497,7 +12543,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
@@ -12505,7 +12551,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -12521,7 +12567,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>5</v>
@@ -13197,16 +13243,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="3"/>
-    <col min="2" max="2" width="18.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="3" customWidth="1"/>
     <col min="4" max="8" width="8.83203125" style="3"/>
     <col min="9" max="9" width="13.5" style="3" customWidth="1"/>
@@ -13214,18 +13260,18 @@
     <col min="11" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:14">
       <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>10</v>
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
@@ -13233,17 +13279,16 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15">
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="15"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -13255,7 +13300,7 @@
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>5</v>
@@ -13268,14 +13313,13 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15">
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="11">
         <v>0</v>
       </c>
-      <c r="B3" s="3">
-        <v>600</v>
+      <c r="B3" s="16">
+        <v>1000</v>
       </c>
       <c r="C3" s="3">
         <v>20</v>
@@ -13305,14 +13349,13 @@
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-    </row>
-    <row r="4" spans="1:15">
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
-        <v>1200</v>
+      <c r="B4" s="16">
+        <v>1600</v>
       </c>
       <c r="C4" s="3">
         <v>25</v>
@@ -13341,12 +13384,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:14">
       <c r="A5" s="11">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
-        <v>2700</v>
+      <c r="B5" s="16">
+        <v>3100</v>
       </c>
       <c r="C5" s="3">
         <v>30</v>
@@ -13375,12 +13418,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:14">
       <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
-        <v>4800</v>
+      <c r="B6" s="16">
+        <v>5200</v>
       </c>
       <c r="C6" s="3">
         <v>35</v>
@@ -13409,12 +13452,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:14">
       <c r="A7" s="11">
         <v>4</v>
       </c>
-      <c r="B7" s="3">
-        <v>7500</v>
+      <c r="B7" s="16">
+        <v>7900</v>
       </c>
       <c r="C7" s="3">
         <v>40</v>
@@ -13443,12 +13486,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:14">
       <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="3">
-        <v>10800</v>
+      <c r="B8" s="16">
+        <v>11200</v>
       </c>
       <c r="C8" s="3">
         <v>45</v>
@@ -13477,12 +13520,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:14">
       <c r="A9" s="11">
         <v>6</v>
       </c>
-      <c r="B9" s="3">
-        <v>14700</v>
+      <c r="B9" s="16">
+        <v>15100</v>
       </c>
       <c r="C9" s="3">
         <v>50</v>
@@ -13511,12 +13554,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:14">
       <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="3">
-        <v>19200</v>
+      <c r="B10" s="16">
+        <v>19600</v>
       </c>
       <c r="C10" s="3">
         <v>55</v>
@@ -13545,12 +13588,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:14">
       <c r="A11" s="11">
         <v>8</v>
       </c>
-      <c r="B11" s="3">
-        <v>24300</v>
+      <c r="B11" s="16">
+        <v>24700</v>
       </c>
       <c r="C11" s="3">
         <v>60</v>
@@ -13579,12 +13622,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:14">
       <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="3">
-        <v>30000</v>
+      <c r="B12" s="16">
+        <v>30400</v>
       </c>
       <c r="C12" s="3">
         <v>65</v>
@@ -13613,12 +13656,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:14">
       <c r="A13" s="11">
         <v>10</v>
       </c>
-      <c r="B13" s="3">
-        <v>36300</v>
+      <c r="B13" s="16">
+        <v>36700</v>
       </c>
       <c r="C13" s="3">
         <v>70</v>
@@ -13647,12 +13690,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:14">
       <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="3">
-        <v>43200</v>
+      <c r="B14" s="16">
+        <v>43600</v>
       </c>
       <c r="C14" s="3">
         <v>75</v>
@@ -13681,12 +13724,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:14">
       <c r="A15" s="11">
         <v>12</v>
       </c>
-      <c r="B15" s="3">
-        <v>50700</v>
+      <c r="B15" s="16">
+        <v>51100</v>
       </c>
       <c r="C15" s="3">
         <v>80</v>
@@ -13715,12 +13758,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:14">
       <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="B16" s="3">
-        <v>58800</v>
+      <c r="B16" s="16">
+        <v>59200</v>
       </c>
       <c r="C16" s="3">
         <v>85</v>
@@ -13753,8 +13796,8 @@
       <c r="A17" s="11">
         <v>14</v>
       </c>
-      <c r="B17" s="3">
-        <v>67500</v>
+      <c r="B17" s="16">
+        <v>67900</v>
       </c>
       <c r="C17" s="3">
         <v>90</v>
@@ -13787,8 +13830,8 @@
       <c r="A18" s="3">
         <v>15</v>
       </c>
-      <c r="B18" s="3">
-        <v>76800</v>
+      <c r="B18" s="16">
+        <v>77200</v>
       </c>
       <c r="C18" s="3">
         <v>95</v>
@@ -13821,8 +13864,8 @@
       <c r="A19" s="11">
         <v>16</v>
       </c>
-      <c r="B19" s="3">
-        <v>86700</v>
+      <c r="B19" s="16">
+        <v>87100</v>
       </c>
       <c r="C19" s="3">
         <v>100</v>
@@ -13855,8 +13898,8 @@
       <c r="A20" s="3">
         <v>17</v>
       </c>
-      <c r="B20" s="3">
-        <v>97200</v>
+      <c r="B20" s="16">
+        <v>97600</v>
       </c>
       <c r="C20" s="3">
         <v>105</v>
@@ -13889,8 +13932,8 @@
       <c r="A21" s="11">
         <v>18</v>
       </c>
-      <c r="B21" s="3">
-        <v>108300</v>
+      <c r="B21" s="16">
+        <v>108700</v>
       </c>
       <c r="C21" s="3">
         <v>110</v>
@@ -13923,8 +13966,8 @@
       <c r="A22" s="3">
         <v>19</v>
       </c>
-      <c r="B22" s="3">
-        <v>120000</v>
+      <c r="B22" s="16">
+        <v>120400</v>
       </c>
       <c r="C22" s="3">
         <v>115</v>
@@ -13957,8 +14000,8 @@
       <c r="A23" s="11">
         <v>20</v>
       </c>
-      <c r="B23" s="3">
-        <v>132300</v>
+      <c r="B23" s="16">
+        <v>132700</v>
       </c>
       <c r="C23" s="3">
         <v>120</v>
@@ -13991,8 +14034,8 @@
       <c r="A24" s="3">
         <v>21</v>
       </c>
-      <c r="B24" s="3">
-        <v>144600</v>
+      <c r="B24" s="16">
+        <v>145000</v>
       </c>
       <c r="C24" s="3">
         <v>125</v>
@@ -14025,9 +14068,9 @@
   <mergeCells count="5">
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="J1:J2"/>
+    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14064,16 +14107,16 @@
         <v>7</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>13</v>
-      </c>
       <c r="D1" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
@@ -14081,7 +14124,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -14099,7 +14142,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>5</v>
@@ -14966,13 +15009,13 @@
         <v>7</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
@@ -14980,7 +15023,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -14997,7 +15040,7 @@
         <v>4</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>5</v>
@@ -15798,13 +15841,13 @@
         <v>7</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
@@ -15812,7 +15855,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -15829,7 +15872,7 @@
         <v>4</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>5</v>

--- a/const/technologies.xlsx
+++ b/const/technologies.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14960" yWindow="260" windowWidth="25600" windowHeight="16060" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="11640" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="住宅" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="智慧" sheetId="21" r:id="rId20"/>
     <sheet name="define" sheetId="22" r:id="rId21"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -70,6 +70,10 @@
   </si>
   <si>
     <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recourse_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -415,9 +419,6 @@
     <t>earn_score</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>recourse_max</t>
-  </si>
 </sst>
 </file>
 
@@ -426,7 +427,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,15 +494,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -520,7 +512,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="66">
+  <cellStyleXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -695,32 +687,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -769,15 +737,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="66">
+  <cellStyles count="58">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
@@ -806,43 +772,34 @@
     <cellStyle name="超链接" xfId="52" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="54" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="56" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="58" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="60" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="62" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="64" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="57" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1141,81 +1098,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D16" sqref="D16:K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
     <col min="2" max="3" width="18" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="1"/>
-    <col min="9" max="9" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="1"/>
+    <col min="7" max="7" width="17.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.875" style="1"/>
+    <col min="9" max="9" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="15" t="s">
-        <v>84</v>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
-      <c r="D1" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="D1" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
-      <c r="J1" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="K1" s="15"/>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="15"/>
+      <c r="J1" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" s="16"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A2" s="16"/>
       <c r="B2" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-    </row>
-    <row r="3" spans="1:17" s="12" customFormat="1">
+        <v>95</v>
+      </c>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12">
         <v>0</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="2">
         <v>2</v>
       </c>
       <c r="D3" s="12">
@@ -1240,67 +1197,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="11" customFormat="1">
+    <row r="4" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="2">
         <v>2</v>
       </c>
       <c r="D4" s="2">
         <f>E4/2</f>
-        <v>50</v>
+        <v>1250</v>
       </c>
       <c r="E4" s="2">
-        <v>100</v>
+        <v>2500</v>
       </c>
       <c r="F4" s="2">
-        <v>50</v>
-      </c>
-      <c r="G4" s="2">
-        <v>300</v>
-      </c>
-      <c r="H4" s="3">
-        <v>100</v>
-      </c>
-      <c r="I4" s="3">
-        <v>200</v>
+        <v>1250</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H4" s="2">
+        <v>700</v>
+      </c>
+      <c r="I4" s="2">
+        <v>500</v>
       </c>
       <c r="J4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="2">
         <v>2</v>
       </c>
-      <c r="D5" s="2">
-        <f t="shared" ref="D5:D7" si="0">E5/2</f>
-        <v>1250</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2500</v>
+      <c r="D5" s="3">
+        <f>E5/2</f>
+        <v>5000</v>
+      </c>
+      <c r="E5" s="3">
+        <v>10000</v>
       </c>
       <c r="F5" s="2">
-        <v>1250</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H5" s="2">
-        <v>700</v>
-      </c>
-      <c r="I5" s="2">
-        <v>500</v>
+        <v>5000</v>
+      </c>
+      <c r="G5" s="2">
+        <v>18000</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1000</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
@@ -1313,36 +1270,36 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="2">
         <v>3</v>
       </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="E6" s="3">
-        <v>10000</v>
+      <c r="D6" s="2">
+        <f>E6/2</f>
+        <v>14450</v>
+      </c>
+      <c r="E6" s="2">
+        <v>28900</v>
       </c>
       <c r="F6" s="2">
-        <v>5000</v>
-      </c>
-      <c r="G6" s="2">
-        <v>18000</v>
-      </c>
-      <c r="H6" s="3">
-        <v>4000</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J6" s="3">
+        <v>14450</v>
+      </c>
+      <c r="G6" s="3">
+        <v>259200</v>
+      </c>
+      <c r="H6" s="2">
+        <v>17500</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1700</v>
+      </c>
+      <c r="J6" s="2">
         <v>1</v>
       </c>
       <c r="K6" s="2"/>
@@ -1353,34 +1310,34 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
         <v>4</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="2">
         <v>4</v>
       </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>7200</v>
+      <c r="D7" s="2">
+        <f>E7/2</f>
+        <v>22050</v>
       </c>
       <c r="E7" s="3">
-        <v>14400</v>
+        <v>44100</v>
       </c>
       <c r="F7" s="2">
-        <v>7200</v>
+        <v>22050</v>
       </c>
       <c r="G7" s="2">
-        <v>57600</v>
+        <v>432000</v>
       </c>
       <c r="H7" s="3">
-        <v>6600</v>
+        <v>32000</v>
       </c>
       <c r="I7" s="3">
-        <v>1200</v>
+        <v>44100</v>
       </c>
       <c r="J7" s="3">
         <v>1</v>
@@ -1393,17 +1350,10 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
       <c r="K8" s="3"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1412,17 +1362,10 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A9" s="12"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
       <c r="K9" s="3"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1431,17 +1374,8 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
       <c r="K10" s="3"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1450,17 +1384,11 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="J11" s="2"/>
       <c r="K11" s="3"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1469,17 +1397,17 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1488,17 +1416,17 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
       <c r="K13" s="3"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1507,17 +1435,17 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1526,17 +1454,17 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
       <c r="K15" s="3"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1545,17 +1473,17 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -1564,17 +1492,17 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
       <c r="K17" s="3"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -1583,17 +1511,17 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1602,17 +1530,10 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
       <c r="K19" s="3"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1621,7 +1542,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1640,7 +1561,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1659,79 +1580,82 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
       <c r="K22" s="3"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="Q22" s="2"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="Q23" s="2"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="E24" s="3"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="H24" s="3"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
+      <c r="K24" s="3"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="Q24" s="2"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1749,7 +1673,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1767,7 +1691,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1785,7 +1709,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1803,7 +1727,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1821,7 +1745,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1839,7 +1763,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1857,7 +1781,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1875,7 +1799,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1893,7 +1817,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1910,6 +1834,60 @@
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1937,34 +1915,34 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="26.375" customWidth="1"/>
+    <col min="7" max="7" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
+      <c r="I1" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1975,7 +1953,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>5</v>
@@ -1983,9 +1961,9 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="11">
         <v>0</v>
       </c>
@@ -2014,7 +1992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2044,7 +2022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -2074,7 +2052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2104,7 +2082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -2134,7 +2112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -2164,7 +2142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -2194,7 +2172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -2224,7 +2202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -2254,7 +2232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -2284,7 +2262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -2314,7 +2292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -2344,7 +2322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -2374,7 +2352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -2404,7 +2382,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -2434,7 +2412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -2464,7 +2442,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -2494,7 +2472,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -2524,7 +2502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -2554,7 +2532,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -2584,7 +2562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -2614,7 +2592,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -2670,40 +2648,40 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="24.625" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="17.625" customWidth="1"/>
     <col min="9" max="9" width="18.5" customWidth="1"/>
-    <col min="10" max="10" width="18.1640625" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="18.125" customWidth="1"/>
+    <col min="11" max="11" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
+      <c r="I1" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -2714,7 +2692,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>5</v>
@@ -2722,9 +2700,9 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="11">
         <v>0</v>
       </c>
@@ -2753,7 +2731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2783,7 +2761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -2813,7 +2791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2843,7 +2821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -2873,7 +2851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -2903,7 +2881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -2933,7 +2911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -2963,7 +2941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -2993,7 +2971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -3023,7 +3001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -3053,7 +3031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -3083,7 +3061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -3113,7 +3091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -3143,7 +3121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -3173,7 +3151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -3203,7 +3181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -3233,7 +3211,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -3263,7 +3241,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -3293,7 +3271,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -3323,7 +3301,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -3353,7 +3331,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -3406,33 +3384,36 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="9" max="9" width="10.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
+      <c r="I1" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -3443,7 +3424,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>5</v>
@@ -3451,9 +3432,9 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="11">
         <v>0</v>
       </c>
@@ -3482,7 +3463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -3511,7 +3492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -3540,7 +3521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -3569,7 +3550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -3598,7 +3579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -3627,7 +3608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -3656,7 +3637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -3685,7 +3666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -3714,7 +3695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -3743,7 +3724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -3772,7 +3753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -3801,7 +3782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -3830,7 +3811,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -3859,7 +3840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -3888,7 +3869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -3917,7 +3898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -3946,7 +3927,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -3975,7 +3956,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -4004,7 +3985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -4033,7 +4014,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -4062,7 +4043,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -4117,36 +4098,36 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="15" t="s">
-        <v>51</v>
+      <c r="I1" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -4157,7 +4138,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>5</v>
@@ -4165,11 +4146,11 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="15"/>
+      <c r="I2" s="16"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="11">
         <v>0</v>
       </c>
@@ -4200,7 +4181,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -4232,7 +4213,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -4264,7 +4245,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -4296,7 +4277,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -4328,7 +4309,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -4360,7 +4341,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -4392,7 +4373,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -4424,7 +4405,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -4456,7 +4437,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -4488,7 +4469,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -4520,7 +4501,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -4552,7 +4533,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -4584,7 +4565,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -4616,7 +4597,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -4648,7 +4629,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -4680,7 +4661,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -4712,7 +4693,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -4744,7 +4725,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -4776,7 +4757,7 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -4808,7 +4789,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -4840,7 +4821,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -4872,7 +4853,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -4884,7 +4865,7 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4923,35 +4904,35 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
+      <c r="I1" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -4962,7 +4943,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>5</v>
@@ -4970,9 +4951,9 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="11">
         <v>0</v>
       </c>
@@ -5001,7 +4982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -5030,7 +5011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -5059,7 +5040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -5088,7 +5069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -5117,7 +5098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -5146,7 +5127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -5175,7 +5156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -5204,7 +5185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -5233,7 +5214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -5262,7 +5243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -5291,7 +5272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -5320,7 +5301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -5349,7 +5330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -5378,7 +5359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -5407,7 +5388,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -5436,7 +5417,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -5465,7 +5446,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -5494,7 +5475,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -5523,7 +5504,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -5552,7 +5533,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -5581,7 +5562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -5636,35 +5617,35 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
+      <c r="I1" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -5675,7 +5656,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>5</v>
@@ -5683,9 +5664,9 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="11">
         <v>0</v>
       </c>
@@ -5714,7 +5695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -5743,7 +5724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -5772,7 +5753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -5801,7 +5782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -5830,7 +5811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -5859,7 +5840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -5888,7 +5869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -5917,7 +5898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -5946,7 +5927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -5975,7 +5956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -6004,7 +5985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -6033,7 +6014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -6062,7 +6043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -6091,7 +6072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -6120,7 +6101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -6149,7 +6130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -6178,7 +6159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -6207,7 +6188,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -6236,7 +6217,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -6265,7 +6246,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -6294,7 +6275,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -6349,36 +6330,36 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
+      <c r="I1" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -6389,7 +6370,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>5</v>
@@ -6397,9 +6378,9 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="11">
         <v>0</v>
       </c>
@@ -6428,7 +6409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -6457,7 +6438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -6486,7 +6467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -6515,7 +6496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -6544,7 +6525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -6573,7 +6554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -6602,7 +6583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -6631,7 +6612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -6660,7 +6641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -6689,7 +6670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -6718,7 +6699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -6747,7 +6728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -6776,7 +6757,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -6805,7 +6786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -6834,7 +6815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -6863,7 +6844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -6892,7 +6873,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -6921,7 +6902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -6950,7 +6931,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -6979,7 +6960,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -7008,7 +6989,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -7063,36 +7044,36 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
+      <c r="I1" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -7103,7 +7084,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>5</v>
@@ -7111,9 +7092,9 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="11">
         <v>0</v>
       </c>
@@ -7142,7 +7123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -7172,7 +7153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -7202,7 +7183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -7232,7 +7213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -7262,7 +7243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -7292,7 +7273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -7322,7 +7303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -7352,7 +7333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -7382,7 +7363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -7412,7 +7393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -7442,7 +7423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -7472,7 +7453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -7502,7 +7483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -7532,7 +7513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -7562,7 +7543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -7592,7 +7573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -7622,7 +7603,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -7652,7 +7633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -7682,7 +7663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -7712,7 +7693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -7742,7 +7723,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -7798,36 +7779,36 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
+      <c r="I1" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -7838,7 +7819,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>5</v>
@@ -7846,9 +7827,9 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="11">
         <v>0</v>
       </c>
@@ -7877,7 +7858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -7907,7 +7888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -7937,7 +7918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -7967,7 +7948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -7997,7 +7978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -8027,7 +8008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -8057,7 +8038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -8087,7 +8068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -8117,7 +8098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -8147,7 +8128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -8177,7 +8158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -8207,7 +8188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -8237,7 +8218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -8267,7 +8248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -8297,7 +8278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -8327,7 +8308,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -8357,7 +8338,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -8387,7 +8368,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -8417,7 +8398,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -8447,7 +8428,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -8477,7 +8458,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -8533,34 +8514,34 @@
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
+      <c r="I1" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -8571,7 +8552,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>5</v>
@@ -8579,9 +8560,9 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="11">
         <v>0</v>
       </c>
@@ -8610,7 +8591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -8639,7 +8620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -8668,7 +8649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -8697,7 +8678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -8726,7 +8707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -8755,7 +8736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -8784,7 +8765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -8813,7 +8794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -8842,7 +8823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -8871,7 +8852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -8900,7 +8881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -8929,7 +8910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -8958,7 +8939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -8987,7 +8968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -9016,7 +8997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -9045,7 +9026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -9074,7 +9055,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -9103,7 +9084,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -9132,7 +9113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -9161,7 +9142,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -9190,7 +9171,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -9242,62 +9223,62 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F1:F1048576"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.875" customWidth="1"/>
     <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" customWidth="1"/>
+    <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
-      <c r="I1" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
+      <c r="I1" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="11">
         <v>0</v>
       </c>
@@ -9326,7 +9307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -9356,7 +9337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -9386,7 +9367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -9416,7 +9397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -9446,7 +9427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -9476,7 +9457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -9506,7 +9487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -9536,7 +9517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -9566,7 +9547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -9596,7 +9577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -9626,7 +9607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -9656,7 +9637,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -9686,7 +9667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -9716,7 +9697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -9746,7 +9727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -9776,7 +9757,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -9806,7 +9787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -9836,7 +9817,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -9866,7 +9847,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -9896,7 +9877,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -9926,7 +9907,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -9956,69 +9937,69 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="3:3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="3:3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="3:3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="3:3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="3:3">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="3:3">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="3:3">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="3:3">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="3:3">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="3:3">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="3:3">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="3:3">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="3:3">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C45" s="2"/>
     </row>
   </sheetData>
@@ -10047,35 +10028,35 @@
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
+      <c r="I1" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -10086,7 +10067,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>5</v>
@@ -10094,9 +10075,9 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="11">
         <v>0</v>
       </c>
@@ -10125,7 +10106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -10156,7 +10137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -10187,7 +10168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -10218,7 +10199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -10249,7 +10230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -10280,7 +10261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -10311,7 +10292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -10342,7 +10323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -10373,7 +10354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -10404,7 +10385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -10435,7 +10416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -10466,7 +10447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -10497,7 +10478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -10528,7 +10509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -10559,7 +10540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -10590,7 +10571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -10621,7 +10602,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -10652,7 +10633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -10683,7 +10664,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -10714,7 +10695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -10745,7 +10726,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -10802,242 +10783,242 @@
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="3"/>
-    <col min="3" max="3" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="2" width="8.875" style="3"/>
+    <col min="3" max="3" width="11.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -11060,36 +11041,36 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="6" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="C1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
+      <c r="I1" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -11100,7 +11081,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>5</v>
@@ -11108,9 +11089,9 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="11">
         <v>0</v>
       </c>
@@ -11139,7 +11120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -11169,7 +11150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -11199,7 +11180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -11229,7 +11210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -11259,7 +11240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -11289,7 +11270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -11319,7 +11300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -11349,7 +11330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -11379,7 +11360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -11409,7 +11390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -11439,7 +11420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -11469,7 +11450,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -11499,7 +11480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -11529,7 +11510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -11559,7 +11540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -11589,7 +11570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -11619,7 +11600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -11649,7 +11630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -11679,7 +11660,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -11709,7 +11690,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -11739,7 +11720,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -11769,7 +11750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -11801,40 +11782,40 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.875" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="C1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
+      <c r="I1" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -11845,7 +11826,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>5</v>
@@ -11853,9 +11834,9 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="11">
         <v>0</v>
       </c>
@@ -11884,7 +11865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -11913,7 +11894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -11942,7 +11923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -11971,7 +11952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -12000,7 +11981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -12029,7 +12010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -12058,7 +12039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -12087,7 +12068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -12116,7 +12097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -12145,7 +12126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -12174,7 +12155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -12203,7 +12184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -12232,7 +12213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -12261,7 +12242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -12290,7 +12271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -12319,7 +12300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -12348,7 +12329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -12377,7 +12358,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -12406,7 +12387,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -12435,7 +12416,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -12464,7 +12445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -12493,7 +12474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -12528,35 +12509,35 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
-    <col min="6" max="7" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="6" max="7" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="C1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
+      <c r="I1" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -12567,7 +12548,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>5</v>
@@ -12575,9 +12556,9 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="11">
         <v>0</v>
       </c>
@@ -12606,7 +12587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -12635,7 +12616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -12664,7 +12645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -12693,7 +12674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -12722,7 +12703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -12751,7 +12732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -12780,7 +12761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -12809,7 +12790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -12838,7 +12819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="11">
         <v>9</v>
       </c>
@@ -12867,7 +12848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -12896,7 +12877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -12925,7 +12906,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -12954,7 +12935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -12983,7 +12964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -13012,7 +12993,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="11">
         <v>15</v>
       </c>
@@ -13041,7 +13022,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -13070,7 +13051,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -13099,7 +13080,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -13128,7 +13109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -13157,7 +13138,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -13186,7 +13167,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="11">
         <v>21</v>
       </c>
@@ -13215,7 +13196,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -13243,53 +13224,54 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="3"/>
-    <col min="2" max="2" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="3"/>
+    <col min="2" max="2" width="18.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="18" style="3" customWidth="1"/>
-    <col min="4" max="8" width="8.83203125" style="3"/>
+    <col min="4" max="8" width="8.875" style="3"/>
     <col min="9" max="9" width="13.5" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="3"/>
+    <col min="10" max="10" width="12.625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="D1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="15" t="s">
-        <v>51</v>
+      <c r="J1" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="15"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="15"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
@@ -13300,7 +13282,7 @@
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>5</v>
@@ -13308,18 +13290,19 @@
       <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="15"/>
+      <c r="J2" s="16"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="11">
         <v>0</v>
       </c>
-      <c r="B3" s="16">
-        <v>1000</v>
+      <c r="B3" s="3">
+        <v>1400</v>
       </c>
       <c r="C3" s="3">
         <v>20</v>
@@ -13349,13 +13332,14 @@
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" s="11"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="16">
-        <v>1600</v>
+      <c r="B4" s="3">
+        <v>2240</v>
       </c>
       <c r="C4" s="3">
         <v>25</v>
@@ -13383,13 +13367,14 @@
       <c r="J4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="11">
         <v>2</v>
       </c>
-      <c r="B5" s="16">
-        <v>3100</v>
+      <c r="B5" s="3">
+        <v>4340</v>
       </c>
       <c r="C5" s="3">
         <v>30</v>
@@ -13417,13 +13402,14 @@
       <c r="J5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="16">
-        <v>5200</v>
+      <c r="B6" s="3">
+        <v>7279.9999999999991</v>
       </c>
       <c r="C6" s="3">
         <v>35</v>
@@ -13451,13 +13437,14 @@
       <c r="J6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="11">
         <v>4</v>
       </c>
-      <c r="B7" s="16">
-        <v>7900</v>
+      <c r="B7" s="3">
+        <v>11060</v>
       </c>
       <c r="C7" s="3">
         <v>40</v>
@@ -13485,13 +13472,14 @@
       <c r="J7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="16">
-        <v>11200</v>
+      <c r="B8" s="3">
+        <v>15680</v>
       </c>
       <c r="C8" s="3">
         <v>45</v>
@@ -13519,13 +13507,14 @@
       <c r="J8" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <v>6</v>
       </c>
-      <c r="B9" s="16">
-        <v>15100</v>
+      <c r="B9" s="3">
+        <v>21140</v>
       </c>
       <c r="C9" s="3">
         <v>50</v>
@@ -13553,13 +13542,14 @@
       <c r="J9" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="16">
-        <v>19600</v>
+      <c r="B10" s="3">
+        <v>27440</v>
       </c>
       <c r="C10" s="3">
         <v>55</v>
@@ -13587,13 +13577,14 @@
       <c r="J10" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
         <v>8</v>
       </c>
-      <c r="B11" s="16">
-        <v>24700</v>
+      <c r="B11" s="3">
+        <v>34580</v>
       </c>
       <c r="C11" s="3">
         <v>60</v>
@@ -13621,13 +13612,14 @@
       <c r="J11" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="16">
-        <v>30400</v>
+      <c r="B12" s="3">
+        <v>42560</v>
       </c>
       <c r="C12" s="3">
         <v>65</v>
@@ -13655,13 +13647,14 @@
       <c r="J12" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="K12" s="15"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
         <v>10</v>
       </c>
-      <c r="B13" s="16">
-        <v>36700</v>
+      <c r="B13" s="3">
+        <v>51380</v>
       </c>
       <c r="C13" s="3">
         <v>70</v>
@@ -13689,13 +13682,14 @@
       <c r="J13" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="K13" s="15"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="16">
-        <v>43600</v>
+      <c r="B14" s="3">
+        <v>61039.999999999993</v>
       </c>
       <c r="C14" s="3">
         <v>75</v>
@@ -13723,13 +13717,14 @@
       <c r="J14" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="K14" s="15"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
         <v>12</v>
       </c>
-      <c r="B15" s="16">
-        <v>51100</v>
+      <c r="B15" s="3">
+        <v>71540</v>
       </c>
       <c r="C15" s="3">
         <v>80</v>
@@ -13757,13 +13752,14 @@
       <c r="J15" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="K15" s="15"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="B16" s="16">
-        <v>59200</v>
+      <c r="B16" s="3">
+        <v>82880</v>
       </c>
       <c r="C16" s="3">
         <v>85</v>
@@ -13791,13 +13787,14 @@
       <c r="J16" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" s="15"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="11">
         <v>14</v>
       </c>
-      <c r="B17" s="16">
-        <v>67900</v>
+      <c r="B17" s="3">
+        <v>95060</v>
       </c>
       <c r="C17" s="3">
         <v>90</v>
@@ -13825,13 +13822,14 @@
       <c r="J17" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" s="15"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>15</v>
       </c>
-      <c r="B18" s="16">
-        <v>77200</v>
+      <c r="B18" s="3">
+        <v>108080</v>
       </c>
       <c r="C18" s="3">
         <v>95</v>
@@ -13859,13 +13857,14 @@
       <c r="J18" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18" s="15"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="11">
         <v>16</v>
       </c>
-      <c r="B19" s="16">
-        <v>87100</v>
+      <c r="B19" s="3">
+        <v>121939.99999999999</v>
       </c>
       <c r="C19" s="3">
         <v>100</v>
@@ -13893,13 +13892,14 @@
       <c r="J19" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19" s="15"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>17</v>
       </c>
-      <c r="B20" s="16">
-        <v>97600</v>
+      <c r="B20" s="3">
+        <v>136640</v>
       </c>
       <c r="C20" s="3">
         <v>105</v>
@@ -13927,13 +13927,14 @@
       <c r="J20" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20" s="15"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
         <v>18</v>
       </c>
-      <c r="B21" s="16">
-        <v>108700</v>
+      <c r="B21" s="3">
+        <v>152180</v>
       </c>
       <c r="C21" s="3">
         <v>110</v>
@@ -13961,13 +13962,14 @@
       <c r="J21" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21" s="15"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>19</v>
       </c>
-      <c r="B22" s="16">
-        <v>120400</v>
+      <c r="B22" s="3">
+        <v>168560</v>
       </c>
       <c r="C22" s="3">
         <v>115</v>
@@ -13995,13 +13997,14 @@
       <c r="J22" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22" s="15"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="11">
         <v>20</v>
       </c>
-      <c r="B23" s="16">
-        <v>132700</v>
+      <c r="B23" s="3">
+        <v>185780</v>
       </c>
       <c r="C23" s="3">
         <v>120</v>
@@ -14029,13 +14032,14 @@
       <c r="J23" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23" s="15"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>21</v>
       </c>
-      <c r="B24" s="16">
-        <v>145000</v>
+      <c r="B24" s="3">
+        <v>203000</v>
       </c>
       <c r="C24" s="3">
         <v>125</v>
@@ -14063,14 +14067,15 @@
       <c r="J24" s="3">
         <v>15</v>
       </c>
+      <c r="K24" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="J1:J2"/>
-    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14091,47 +14096,47 @@
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="21.875" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.125" customWidth="1"/>
+    <col min="10" max="10" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="K1" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
       <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
@@ -14142,7 +14147,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>5</v>
@@ -14150,9 +14155,9 @@
       <c r="J2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="15"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="11">
         <v>0</v>
       </c>
@@ -14187,7 +14192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -14224,7 +14229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -14261,7 +14266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -14298,7 +14303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -14335,7 +14340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -14372,7 +14377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -14409,7 +14414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -14446,7 +14451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -14483,7 +14488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -14520,7 +14525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -14557,7 +14562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -14594,7 +14599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -14631,7 +14636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -14668,7 +14673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -14705,7 +14710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -14742,7 +14747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -14779,7 +14784,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -14816,7 +14821,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -14853,7 +14858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -14890,7 +14895,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -14927,7 +14932,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -14964,7 +14969,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="H25" s="2"/>
     </row>
   </sheetData>
@@ -14995,41 +15000,41 @@
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="9" max="9" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="D1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
-      <c r="J1" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
+      <c r="J1" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
@@ -15040,7 +15045,7 @@
         <v>4</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>5</v>
@@ -15048,9 +15053,9 @@
       <c r="I2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="J2" s="16"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="11">
         <v>0</v>
       </c>
@@ -15082,7 +15087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -15116,7 +15121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -15150,7 +15155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -15184,7 +15189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -15218,7 +15223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -15252,7 +15257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -15286,7 +15291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -15320,7 +15325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -15354,7 +15359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -15388,7 +15393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -15422,7 +15427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -15456,7 +15461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -15490,7 +15495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -15524,7 +15529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -15558,7 +15563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -15592,7 +15597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -15626,7 +15631,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -15660,7 +15665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -15694,7 +15699,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -15728,7 +15733,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -15762,7 +15767,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -15796,7 +15801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="G25" s="2"/>
     </row>
   </sheetData>
@@ -15826,42 +15831,42 @@
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="27.125" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="16.625" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="D1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
-      <c r="J1" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
+      <c r="J1" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
@@ -15872,7 +15877,7 @@
         <v>4</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>5</v>
@@ -15880,9 +15885,9 @@
       <c r="I2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="J2" s="16"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="11">
         <v>0</v>
       </c>
@@ -15914,7 +15919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -15947,7 +15952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -15980,7 +15985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -16013,7 +16018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -16046,7 +16051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -16079,7 +16084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -16112,7 +16117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -16145,7 +16150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -16178,7 +16183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -16211,7 +16216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -16244,7 +16249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -16277,7 +16282,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -16310,7 +16315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -16343,7 +16348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -16376,7 +16381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -16409,7 +16414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -16442,7 +16447,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -16475,7 +16480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -16508,7 +16513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -16541,7 +16546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -16574,7 +16579,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>21</v>
       </c>

--- a/const/technologies.xlsx
+++ b/const/technologies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="11640" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="11640" firstSheet="8" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="住宅" sheetId="1" r:id="rId1"/>
@@ -1101,7 +1101,7 @@
   <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:K16"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1912,7 +1912,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2003,7 +2003,8 @@
         <v>100</v>
       </c>
       <c r="D4" s="2">
-        <v>100</v>
+        <f>E4</f>
+        <v>200</v>
       </c>
       <c r="E4" s="2">
         <f>C4*2</f>
@@ -2032,11 +2033,12 @@
       <c r="C5" s="3">
         <v>400</v>
       </c>
-      <c r="D5" s="3">
-        <v>400</v>
+      <c r="D5" s="2">
+        <f t="shared" ref="D5:D24" si="0">E5</f>
+        <v>800</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" ref="E5:E24" si="0">C5*2</f>
+        <f t="shared" ref="E5:E24" si="1">C5*2</f>
         <v>800</v>
       </c>
       <c r="F5" s="2">
@@ -2063,10 +2065,11 @@
         <v>900</v>
       </c>
       <c r="D6" s="2">
-        <v>900</v>
+        <f t="shared" si="0"/>
+        <v>1800</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1800</v>
       </c>
       <c r="F6" s="3">
@@ -2092,11 +2095,12 @@
       <c r="C7" s="3">
         <v>1600</v>
       </c>
-      <c r="D7" s="3">
-        <v>1600</v>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>3200</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3200</v>
       </c>
       <c r="F7" s="2">
@@ -2123,10 +2127,11 @@
         <v>2500</v>
       </c>
       <c r="D8" s="2">
-        <v>2500</v>
+        <f t="shared" si="0"/>
+        <v>5000</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5000</v>
       </c>
       <c r="F8" s="3">
@@ -2152,11 +2157,12 @@
       <c r="C9" s="3">
         <v>3600</v>
       </c>
-      <c r="D9" s="3">
-        <v>3600</v>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>7200</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7200</v>
       </c>
       <c r="F9" s="2">
@@ -2183,10 +2189,11 @@
         <v>4900</v>
       </c>
       <c r="D10" s="2">
-        <v>4900</v>
+        <f t="shared" si="0"/>
+        <v>9800</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9800</v>
       </c>
       <c r="F10" s="3">
@@ -2212,11 +2219,12 @@
       <c r="C11" s="3">
         <v>6400</v>
       </c>
-      <c r="D11" s="3">
-        <v>6400</v>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>12800</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12800</v>
       </c>
       <c r="F11" s="2">
@@ -2243,10 +2251,11 @@
         <v>8100</v>
       </c>
       <c r="D12" s="2">
-        <v>8100</v>
+        <f t="shared" si="0"/>
+        <v>16200</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16200</v>
       </c>
       <c r="F12" s="3">
@@ -2272,11 +2281,12 @@
       <c r="C13" s="3">
         <v>10000</v>
       </c>
-      <c r="D13" s="3">
-        <v>10000</v>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>20000</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20000</v>
       </c>
       <c r="F13" s="2">
@@ -2303,10 +2313,11 @@
         <v>12100</v>
       </c>
       <c r="D14" s="2">
-        <v>12100</v>
+        <f t="shared" si="0"/>
+        <v>24200</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24200</v>
       </c>
       <c r="F14" s="3">
@@ -2332,11 +2343,12 @@
       <c r="C15" s="3">
         <v>14400</v>
       </c>
-      <c r="D15" s="3">
-        <v>14400</v>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>28800</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28800</v>
       </c>
       <c r="F15" s="2">
@@ -2363,10 +2375,11 @@
         <v>16900</v>
       </c>
       <c r="D16" s="2">
-        <v>16900</v>
+        <f t="shared" si="0"/>
+        <v>33800</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33800</v>
       </c>
       <c r="F16" s="3">
@@ -2392,11 +2405,12 @@
       <c r="C17" s="3">
         <v>19600</v>
       </c>
-      <c r="D17" s="3">
-        <v>19600</v>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>39200</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39200</v>
       </c>
       <c r="F17" s="2">
@@ -2423,10 +2437,11 @@
         <v>22500</v>
       </c>
       <c r="D18" s="2">
-        <v>22500</v>
+        <f t="shared" si="0"/>
+        <v>45000</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45000</v>
       </c>
       <c r="F18" s="3">
@@ -2452,11 +2467,12 @@
       <c r="C19" s="3">
         <v>25600</v>
       </c>
-      <c r="D19" s="3">
-        <v>25600</v>
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>51200</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51200</v>
       </c>
       <c r="F19" s="2">
@@ -2483,10 +2499,11 @@
         <v>28900</v>
       </c>
       <c r="D20" s="2">
-        <v>28900</v>
+        <f t="shared" si="0"/>
+        <v>57800</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>57800</v>
       </c>
       <c r="F20" s="3">
@@ -2513,10 +2530,11 @@
         <v>32400</v>
       </c>
       <c r="D21" s="2">
-        <v>32400</v>
+        <f t="shared" si="0"/>
+        <v>64800</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64800</v>
       </c>
       <c r="F21" s="2">
@@ -2542,11 +2560,12 @@
       <c r="C22" s="3">
         <v>36100</v>
       </c>
-      <c r="D22" s="3">
-        <v>36100</v>
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>72200</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>72200</v>
       </c>
       <c r="F22" s="2">
@@ -2573,10 +2592,11 @@
         <v>40000</v>
       </c>
       <c r="D23" s="2">
-        <v>40000</v>
+        <f t="shared" si="0"/>
+        <v>80000</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>80000</v>
       </c>
       <c r="F23" s="3">
@@ -2602,11 +2622,12 @@
       <c r="C24" s="2">
         <v>44100</v>
       </c>
-      <c r="D24" s="3">
-        <v>44100</v>
+      <c r="D24" s="2">
+        <f t="shared" si="0"/>
+        <v>88200</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>88200</v>
       </c>
       <c r="F24" s="2">
@@ -2645,7 +2666,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2745,8 +2766,8 @@
         <v>100</v>
       </c>
       <c r="E4" s="2">
-        <f>C4*1.5</f>
-        <v>150</v>
+        <f>C4*4</f>
+        <v>400</v>
       </c>
       <c r="F4" s="2">
         <v>60</v>
@@ -2775,8 +2796,8 @@
         <v>400</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" ref="E5:E24" si="0">C5*1.5</f>
-        <v>600</v>
+        <f t="shared" ref="E5:E24" si="0">C5*4</f>
+        <v>1600</v>
       </c>
       <c r="F5" s="2">
         <v>300</v>
@@ -2806,7 +2827,7 @@
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>1350</v>
+        <v>3600</v>
       </c>
       <c r="F6" s="3">
         <v>600</v>
@@ -2836,7 +2857,7 @@
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>2400</v>
+        <v>6400</v>
       </c>
       <c r="F7" s="2">
         <v>900</v>
@@ -2866,7 +2887,7 @@
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>3750</v>
+        <v>10000</v>
       </c>
       <c r="F8" s="3">
         <v>1800</v>
@@ -2896,7 +2917,7 @@
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>5400</v>
+        <v>14400</v>
       </c>
       <c r="F9" s="2">
         <v>2700</v>
@@ -2926,7 +2947,7 @@
       </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>7350</v>
+        <v>19600</v>
       </c>
       <c r="F10" s="3">
         <v>3600</v>
@@ -2956,7 +2977,7 @@
       </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>9600</v>
+        <v>25600</v>
       </c>
       <c r="F11" s="2">
         <v>7200</v>
@@ -2986,7 +3007,7 @@
       </c>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>12150</v>
+        <v>32400</v>
       </c>
       <c r="F12" s="3">
         <v>10800</v>
@@ -3016,7 +3037,7 @@
       </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="F13" s="2">
         <v>18000</v>
@@ -3046,7 +3067,7 @@
       </c>
       <c r="E14" s="2">
         <f t="shared" si="0"/>
-        <v>18150</v>
+        <v>48400</v>
       </c>
       <c r="F14" s="3">
         <v>36000</v>
@@ -3076,7 +3097,7 @@
       </c>
       <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>21600</v>
+        <v>57600</v>
       </c>
       <c r="F15" s="2">
         <v>57600</v>
@@ -3106,7 +3127,7 @@
       </c>
       <c r="E16" s="2">
         <f t="shared" si="0"/>
-        <v>25350</v>
+        <v>67600</v>
       </c>
       <c r="F16" s="3">
         <v>86400</v>
@@ -3136,7 +3157,7 @@
       </c>
       <c r="E17" s="2">
         <f t="shared" si="0"/>
-        <v>29400</v>
+        <v>78400</v>
       </c>
       <c r="F17" s="2">
         <v>129600</v>
@@ -3166,7 +3187,7 @@
       </c>
       <c r="E18" s="2">
         <f t="shared" si="0"/>
-        <v>33750</v>
+        <v>90000</v>
       </c>
       <c r="F18" s="3">
         <v>172800</v>
@@ -3196,7 +3217,7 @@
       </c>
       <c r="E19" s="2">
         <f t="shared" si="0"/>
-        <v>38400</v>
+        <v>102400</v>
       </c>
       <c r="F19" s="2">
         <v>216000</v>
@@ -3226,7 +3247,7 @@
       </c>
       <c r="E20" s="2">
         <f t="shared" si="0"/>
-        <v>43350</v>
+        <v>115600</v>
       </c>
       <c r="F20" s="3">
         <v>259200</v>
@@ -3256,7 +3277,7 @@
       </c>
       <c r="E21" s="2">
         <f t="shared" si="0"/>
-        <v>48600</v>
+        <v>129600</v>
       </c>
       <c r="F21" s="2">
         <v>302400</v>
@@ -3286,7 +3307,7 @@
       </c>
       <c r="E22" s="2">
         <f t="shared" si="0"/>
-        <v>54150</v>
+        <v>144400</v>
       </c>
       <c r="F22" s="2">
         <v>345600</v>
@@ -3316,7 +3337,7 @@
       </c>
       <c r="E23" s="2">
         <f t="shared" si="0"/>
-        <v>60000</v>
+        <v>160000</v>
       </c>
       <c r="F23" s="3">
         <v>388800</v>
@@ -3346,7 +3367,7 @@
       </c>
       <c r="E24" s="2">
         <f t="shared" si="0"/>
-        <v>66150</v>
+        <v>176400</v>
       </c>
       <c r="F24" s="2">
         <v>432000</v>
@@ -3384,7 +3405,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3471,13 +3492,14 @@
         <v>0.01</v>
       </c>
       <c r="C4" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D4" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E4" s="2">
-        <v>200</v>
+        <f>D4*1.5</f>
+        <v>300</v>
       </c>
       <c r="F4" s="2">
         <v>60</v>
@@ -3499,14 +3521,15 @@
       <c r="B5" s="4">
         <v>0.02</v>
       </c>
-      <c r="C5" s="3">
-        <v>400</v>
-      </c>
-      <c r="D5" s="3">
-        <v>400</v>
+      <c r="C5" s="2">
+        <v>800</v>
+      </c>
+      <c r="D5" s="2">
+        <v>800</v>
       </c>
       <c r="E5" s="2">
-        <v>800</v>
+        <f t="shared" ref="E5:E24" si="0">D5*1.5</f>
+        <v>1200</v>
       </c>
       <c r="F5" s="2">
         <v>300</v>
@@ -3529,13 +3552,14 @@
         <v>0.03</v>
       </c>
       <c r="C6" s="2">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="D6" s="2">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="E6" s="2">
-        <v>1800</v>
+        <f t="shared" si="0"/>
+        <v>2700</v>
       </c>
       <c r="F6" s="3">
         <v>600</v>
@@ -3557,14 +3581,15 @@
       <c r="B7" s="4">
         <v>0.04</v>
       </c>
-      <c r="C7" s="3">
-        <v>1600</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1600</v>
+      <c r="C7" s="2">
+        <v>3200</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3200</v>
       </c>
       <c r="E7" s="2">
-        <v>3200</v>
+        <f t="shared" si="0"/>
+        <v>4800</v>
       </c>
       <c r="F7" s="2">
         <v>900</v>
@@ -3587,13 +3612,14 @@
         <v>0.05</v>
       </c>
       <c r="C8" s="2">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="D8" s="2">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="E8" s="2">
-        <v>5000</v>
+        <f t="shared" si="0"/>
+        <v>7500</v>
       </c>
       <c r="F8" s="3">
         <v>1800</v>
@@ -3615,14 +3641,15 @@
       <c r="B9" s="4">
         <v>0.06</v>
       </c>
-      <c r="C9" s="3">
-        <v>3600</v>
-      </c>
-      <c r="D9" s="3">
-        <v>3600</v>
+      <c r="C9" s="2">
+        <v>7200</v>
+      </c>
+      <c r="D9" s="2">
+        <v>7200</v>
       </c>
       <c r="E9" s="2">
-        <v>7200</v>
+        <f t="shared" si="0"/>
+        <v>10800</v>
       </c>
       <c r="F9" s="2">
         <v>2700</v>
@@ -3645,13 +3672,14 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C10" s="2">
-        <v>4900</v>
+        <v>9800</v>
       </c>
       <c r="D10" s="2">
-        <v>4900</v>
+        <v>9800</v>
       </c>
       <c r="E10" s="2">
-        <v>9800</v>
+        <f t="shared" si="0"/>
+        <v>14700</v>
       </c>
       <c r="F10" s="3">
         <v>3600</v>
@@ -3673,14 +3701,15 @@
       <c r="B11" s="4">
         <v>0.08</v>
       </c>
-      <c r="C11" s="3">
-        <v>6400</v>
-      </c>
-      <c r="D11" s="3">
-        <v>6400</v>
+      <c r="C11" s="2">
+        <v>12800</v>
+      </c>
+      <c r="D11" s="2">
+        <v>12800</v>
       </c>
       <c r="E11" s="2">
-        <v>12800</v>
+        <f t="shared" si="0"/>
+        <v>19200</v>
       </c>
       <c r="F11" s="2">
         <v>7200</v>
@@ -3703,13 +3732,14 @@
         <v>0.09</v>
       </c>
       <c r="C12" s="2">
-        <v>8100</v>
+        <v>16200</v>
       </c>
       <c r="D12" s="2">
-        <v>8100</v>
+        <v>16200</v>
       </c>
       <c r="E12" s="2">
-        <v>16200</v>
+        <f t="shared" si="0"/>
+        <v>24300</v>
       </c>
       <c r="F12" s="3">
         <v>10800</v>
@@ -3731,14 +3761,15 @@
       <c r="B13" s="4">
         <v>0.1</v>
       </c>
-      <c r="C13" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D13" s="3">
-        <v>10000</v>
+      <c r="C13" s="2">
+        <v>20000</v>
+      </c>
+      <c r="D13" s="2">
+        <v>20000</v>
       </c>
       <c r="E13" s="2">
-        <v>20000</v>
+        <f t="shared" si="0"/>
+        <v>30000</v>
       </c>
       <c r="F13" s="2">
         <v>18000</v>
@@ -3761,13 +3792,14 @@
         <v>0.11</v>
       </c>
       <c r="C14" s="2">
-        <v>12100</v>
+        <v>24200</v>
       </c>
       <c r="D14" s="2">
-        <v>12100</v>
+        <v>24200</v>
       </c>
       <c r="E14" s="2">
-        <v>24200</v>
+        <f t="shared" si="0"/>
+        <v>36300</v>
       </c>
       <c r="F14" s="3">
         <v>36000</v>
@@ -3789,14 +3821,15 @@
       <c r="B15" s="4">
         <v>0.12</v>
       </c>
-      <c r="C15" s="3">
-        <v>14400</v>
-      </c>
-      <c r="D15" s="3">
-        <v>14400</v>
+      <c r="C15" s="2">
+        <v>28800</v>
+      </c>
+      <c r="D15" s="2">
+        <v>28800</v>
       </c>
       <c r="E15" s="2">
-        <v>28800</v>
+        <f t="shared" si="0"/>
+        <v>43200</v>
       </c>
       <c r="F15" s="2">
         <v>57600</v>
@@ -3819,13 +3852,14 @@
         <v>0.13</v>
       </c>
       <c r="C16" s="2">
-        <v>16900</v>
+        <v>33800</v>
       </c>
       <c r="D16" s="2">
-        <v>16900</v>
+        <v>33800</v>
       </c>
       <c r="E16" s="2">
-        <v>33800</v>
+        <f t="shared" si="0"/>
+        <v>50700</v>
       </c>
       <c r="F16" s="3">
         <v>86400</v>
@@ -3847,14 +3881,15 @@
       <c r="B17" s="4">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C17" s="3">
-        <v>19600</v>
-      </c>
-      <c r="D17" s="3">
-        <v>19600</v>
+      <c r="C17" s="2">
+        <v>39200</v>
+      </c>
+      <c r="D17" s="2">
+        <v>39200</v>
       </c>
       <c r="E17" s="2">
-        <v>39200</v>
+        <f t="shared" si="0"/>
+        <v>58800</v>
       </c>
       <c r="F17" s="2">
         <v>129600</v>
@@ -3877,13 +3912,14 @@
         <v>0.15</v>
       </c>
       <c r="C18" s="2">
-        <v>22500</v>
+        <v>45000</v>
       </c>
       <c r="D18" s="2">
-        <v>22500</v>
+        <v>45000</v>
       </c>
       <c r="E18" s="2">
-        <v>45000</v>
+        <f t="shared" si="0"/>
+        <v>67500</v>
       </c>
       <c r="F18" s="3">
         <v>172800</v>
@@ -3905,14 +3941,15 @@
       <c r="B19" s="4">
         <v>0.16</v>
       </c>
-      <c r="C19" s="3">
-        <v>25600</v>
-      </c>
-      <c r="D19" s="3">
-        <v>25600</v>
+      <c r="C19" s="2">
+        <v>51200</v>
+      </c>
+      <c r="D19" s="2">
+        <v>51200</v>
       </c>
       <c r="E19" s="2">
-        <v>51200</v>
+        <f t="shared" si="0"/>
+        <v>76800</v>
       </c>
       <c r="F19" s="2">
         <v>216000</v>
@@ -3935,13 +3972,14 @@
         <v>0.17</v>
       </c>
       <c r="C20" s="2">
-        <v>28900</v>
+        <v>57800</v>
       </c>
       <c r="D20" s="2">
-        <v>28900</v>
+        <v>57800</v>
       </c>
       <c r="E20" s="2">
-        <v>57800</v>
+        <f t="shared" si="0"/>
+        <v>86700</v>
       </c>
       <c r="F20" s="3">
         <v>259200</v>
@@ -3964,13 +4002,14 @@
         <v>0.18</v>
       </c>
       <c r="C21" s="2">
-        <v>32400</v>
+        <v>64800</v>
       </c>
       <c r="D21" s="2">
-        <v>32400</v>
+        <v>64800</v>
       </c>
       <c r="E21" s="2">
-        <v>64800</v>
+        <f t="shared" si="0"/>
+        <v>97200</v>
       </c>
       <c r="F21" s="2">
         <v>302400</v>
@@ -3992,14 +4031,15 @@
       <c r="B22" s="4">
         <v>0.19</v>
       </c>
-      <c r="C22" s="3">
-        <v>36100</v>
-      </c>
-      <c r="D22" s="3">
-        <v>36100</v>
+      <c r="C22" s="2">
+        <v>72200</v>
+      </c>
+      <c r="D22" s="2">
+        <v>72200</v>
       </c>
       <c r="E22" s="2">
-        <v>72200</v>
+        <f t="shared" si="0"/>
+        <v>108300</v>
       </c>
       <c r="F22" s="2">
         <v>345600</v>
@@ -4022,13 +4062,14 @@
         <v>0.2</v>
       </c>
       <c r="C23" s="2">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="D23" s="2">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="E23" s="2">
-        <v>80000</v>
+        <f t="shared" si="0"/>
+        <v>120000</v>
       </c>
       <c r="F23" s="3">
         <v>388800</v>
@@ -4051,13 +4092,14 @@
         <v>0.21</v>
       </c>
       <c r="C24" s="2">
-        <v>44100</v>
-      </c>
-      <c r="D24" s="3">
-        <v>44100</v>
+        <v>88200</v>
+      </c>
+      <c r="D24" s="2">
+        <v>88200</v>
       </c>
       <c r="E24" s="2">
-        <v>88200</v>
+        <f t="shared" si="0"/>
+        <v>132300</v>
       </c>
       <c r="F24" s="2">
         <v>432000</v>
@@ -4095,7 +4137,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4189,14 +4231,15 @@
         <v>0.01</v>
       </c>
       <c r="C4" s="2">
-        <v>100</v>
+        <f>D4*4</f>
+        <v>400</v>
       </c>
       <c r="D4" s="2">
         <v>100</v>
       </c>
       <c r="E4" s="2">
         <f>C4*0.5</f>
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="F4" s="2">
         <v>60</v>
@@ -4220,15 +4263,16 @@
       <c r="B5" s="4">
         <v>0.02</v>
       </c>
-      <c r="C5" s="3">
-        <v>400</v>
+      <c r="C5" s="2">
+        <f t="shared" ref="C5:C24" si="0">D5*4</f>
+        <v>1600</v>
       </c>
       <c r="D5" s="3">
         <v>400</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" ref="E5:E24" si="0">C5*0.5</f>
-        <v>200</v>
+        <f t="shared" ref="E5:E24" si="1">C5*0.5</f>
+        <v>800</v>
       </c>
       <c r="F5" s="2">
         <v>300</v>
@@ -4253,14 +4297,15 @@
         <v>0.03</v>
       </c>
       <c r="C6" s="2">
-        <v>900</v>
+        <f t="shared" si="0"/>
+        <v>3600</v>
       </c>
       <c r="D6" s="2">
         <v>900</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="0"/>
-        <v>450</v>
+        <f t="shared" si="1"/>
+        <v>1800</v>
       </c>
       <c r="F6" s="3">
         <v>600</v>
@@ -4284,15 +4329,16 @@
       <c r="B7" s="4">
         <v>0.04</v>
       </c>
-      <c r="C7" s="3">
-        <v>1600</v>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>6400</v>
       </c>
       <c r="D7" s="3">
         <v>1600</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="0"/>
-        <v>800</v>
+        <f t="shared" si="1"/>
+        <v>3200</v>
       </c>
       <c r="F7" s="2">
         <v>900</v>
@@ -4317,14 +4363,15 @@
         <v>0.05</v>
       </c>
       <c r="C8" s="2">
-        <v>2500</v>
+        <f t="shared" si="0"/>
+        <v>10000</v>
       </c>
       <c r="D8" s="2">
         <v>2500</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="0"/>
-        <v>1250</v>
+        <f t="shared" si="1"/>
+        <v>5000</v>
       </c>
       <c r="F8" s="3">
         <v>1800</v>
@@ -4348,15 +4395,16 @@
       <c r="B9" s="4">
         <v>0.06</v>
       </c>
-      <c r="C9" s="3">
-        <v>3600</v>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>14400</v>
       </c>
       <c r="D9" s="3">
         <v>3600</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="0"/>
-        <v>1800</v>
+        <f t="shared" si="1"/>
+        <v>7200</v>
       </c>
       <c r="F9" s="2">
         <v>2700</v>
@@ -4381,14 +4429,15 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C10" s="2">
-        <v>4900</v>
+        <f t="shared" si="0"/>
+        <v>19600</v>
       </c>
       <c r="D10" s="2">
         <v>4900</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="0"/>
-        <v>2450</v>
+        <f t="shared" si="1"/>
+        <v>9800</v>
       </c>
       <c r="F10" s="3">
         <v>3600</v>
@@ -4412,15 +4461,16 @@
       <c r="B11" s="4">
         <v>0.08</v>
       </c>
-      <c r="C11" s="3">
-        <v>6400</v>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>25600</v>
       </c>
       <c r="D11" s="3">
         <v>6400</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="0"/>
-        <v>3200</v>
+        <f t="shared" si="1"/>
+        <v>12800</v>
       </c>
       <c r="F11" s="2">
         <v>7200</v>
@@ -4445,14 +4495,15 @@
         <v>0.09</v>
       </c>
       <c r="C12" s="2">
-        <v>8100</v>
+        <f t="shared" si="0"/>
+        <v>32400</v>
       </c>
       <c r="D12" s="2">
         <v>8100</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="0"/>
-        <v>4050</v>
+        <f t="shared" si="1"/>
+        <v>16200</v>
       </c>
       <c r="F12" s="3">
         <v>10800</v>
@@ -4476,15 +4527,16 @@
       <c r="B13" s="4">
         <v>0.1</v>
       </c>
-      <c r="C13" s="3">
-        <v>10000</v>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>40000</v>
       </c>
       <c r="D13" s="3">
         <v>10000</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="0"/>
-        <v>5000</v>
+        <f t="shared" si="1"/>
+        <v>20000</v>
       </c>
       <c r="F13" s="2">
         <v>18000</v>
@@ -4509,14 +4561,15 @@
         <v>0.11</v>
       </c>
       <c r="C14" s="2">
-        <v>12100</v>
+        <f t="shared" si="0"/>
+        <v>48400</v>
       </c>
       <c r="D14" s="2">
         <v>12100</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="0"/>
-        <v>6050</v>
+        <f t="shared" si="1"/>
+        <v>24200</v>
       </c>
       <c r="F14" s="3">
         <v>36000</v>
@@ -4540,15 +4593,16 @@
       <c r="B15" s="4">
         <v>0.12</v>
       </c>
-      <c r="C15" s="3">
-        <v>14400</v>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>57600</v>
       </c>
       <c r="D15" s="3">
         <v>14400</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="0"/>
-        <v>7200</v>
+        <f t="shared" si="1"/>
+        <v>28800</v>
       </c>
       <c r="F15" s="2">
         <v>57600</v>
@@ -4573,14 +4627,15 @@
         <v>0.13</v>
       </c>
       <c r="C16" s="2">
-        <v>16900</v>
+        <f t="shared" si="0"/>
+        <v>67600</v>
       </c>
       <c r="D16" s="2">
         <v>16900</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="0"/>
-        <v>8450</v>
+        <f t="shared" si="1"/>
+        <v>33800</v>
       </c>
       <c r="F16" s="3">
         <v>86400</v>
@@ -4604,15 +4659,16 @@
       <c r="B17" s="4">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C17" s="3">
-        <v>19600</v>
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>78400</v>
       </c>
       <c r="D17" s="3">
         <v>19600</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="0"/>
-        <v>9800</v>
+        <f t="shared" si="1"/>
+        <v>39200</v>
       </c>
       <c r="F17" s="2">
         <v>129600</v>
@@ -4637,14 +4693,15 @@
         <v>0.15</v>
       </c>
       <c r="C18" s="2">
-        <v>22500</v>
+        <f t="shared" si="0"/>
+        <v>90000</v>
       </c>
       <c r="D18" s="2">
         <v>22500</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="0"/>
-        <v>11250</v>
+        <f t="shared" si="1"/>
+        <v>45000</v>
       </c>
       <c r="F18" s="3">
         <v>172800</v>
@@ -4668,15 +4725,16 @@
       <c r="B19" s="4">
         <v>0.16</v>
       </c>
-      <c r="C19" s="3">
-        <v>25600</v>
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>102400</v>
       </c>
       <c r="D19" s="3">
         <v>25600</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="0"/>
-        <v>12800</v>
+        <f t="shared" si="1"/>
+        <v>51200</v>
       </c>
       <c r="F19" s="2">
         <v>216000</v>
@@ -4701,14 +4759,15 @@
         <v>0.17</v>
       </c>
       <c r="C20" s="2">
-        <v>28900</v>
+        <f t="shared" si="0"/>
+        <v>115600</v>
       </c>
       <c r="D20" s="2">
         <v>28900</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="0"/>
-        <v>14450</v>
+        <f t="shared" si="1"/>
+        <v>57800</v>
       </c>
       <c r="F20" s="3">
         <v>259200</v>
@@ -4733,14 +4792,15 @@
         <v>0.18</v>
       </c>
       <c r="C21" s="2">
-        <v>32400</v>
+        <f t="shared" si="0"/>
+        <v>129600</v>
       </c>
       <c r="D21" s="2">
         <v>32400</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="0"/>
-        <v>16200</v>
+        <f t="shared" si="1"/>
+        <v>64800</v>
       </c>
       <c r="F21" s="2">
         <v>302400</v>
@@ -4764,15 +4824,16 @@
       <c r="B22" s="4">
         <v>0.19</v>
       </c>
-      <c r="C22" s="3">
-        <v>36100</v>
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>144400</v>
       </c>
       <c r="D22" s="3">
         <v>36100</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="0"/>
-        <v>18050</v>
+        <f t="shared" si="1"/>
+        <v>72200</v>
       </c>
       <c r="F22" s="2">
         <v>345600</v>
@@ -4797,14 +4858,15 @@
         <v>0.2</v>
       </c>
       <c r="C23" s="2">
-        <v>40000</v>
+        <f t="shared" si="0"/>
+        <v>160000</v>
       </c>
       <c r="D23" s="2">
         <v>40000</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="0"/>
-        <v>20000</v>
+        <f t="shared" si="1"/>
+        <v>80000</v>
       </c>
       <c r="F23" s="3">
         <v>388800</v>
@@ -4829,14 +4891,15 @@
         <v>0.21</v>
       </c>
       <c r="C24" s="2">
-        <v>44100</v>
+        <f t="shared" si="0"/>
+        <v>176400</v>
       </c>
       <c r="D24" s="3">
         <v>44100</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="0"/>
-        <v>22050</v>
+        <f t="shared" si="1"/>
+        <v>88200</v>
       </c>
       <c r="F24" s="2">
         <v>432000</v>
@@ -4901,7 +4964,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4996,7 +5059,8 @@
         <v>100</v>
       </c>
       <c r="E4" s="2">
-        <v>50</v>
+        <f>D4*3</f>
+        <v>300</v>
       </c>
       <c r="F4" s="2">
         <v>60</v>
@@ -5024,8 +5088,9 @@
       <c r="D5" s="3">
         <v>400</v>
       </c>
-      <c r="E5" s="3">
-        <v>200</v>
+      <c r="E5" s="2">
+        <f t="shared" ref="E5:E24" si="0">D5*3</f>
+        <v>1200</v>
       </c>
       <c r="F5" s="2">
         <v>300</v>
@@ -5054,7 +5119,8 @@
         <v>900</v>
       </c>
       <c r="E6" s="2">
-        <v>450</v>
+        <f t="shared" si="0"/>
+        <v>2700</v>
       </c>
       <c r="F6" s="3">
         <v>600</v>
@@ -5082,8 +5148,9 @@
       <c r="D7" s="3">
         <v>1600</v>
       </c>
-      <c r="E7" s="3">
-        <v>800</v>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>4800</v>
       </c>
       <c r="F7" s="2">
         <v>900</v>
@@ -5112,7 +5179,8 @@
         <v>2500</v>
       </c>
       <c r="E8" s="2">
-        <v>1250</v>
+        <f t="shared" si="0"/>
+        <v>7500</v>
       </c>
       <c r="F8" s="3">
         <v>1800</v>
@@ -5140,8 +5208,9 @@
       <c r="D9" s="3">
         <v>3600</v>
       </c>
-      <c r="E9" s="3">
-        <v>1800</v>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>10800</v>
       </c>
       <c r="F9" s="2">
         <v>2700</v>
@@ -5170,7 +5239,8 @@
         <v>4900</v>
       </c>
       <c r="E10" s="2">
-        <v>2450</v>
+        <f t="shared" si="0"/>
+        <v>14700</v>
       </c>
       <c r="F10" s="3">
         <v>3600</v>
@@ -5198,8 +5268,9 @@
       <c r="D11" s="3">
         <v>6400</v>
       </c>
-      <c r="E11" s="3">
-        <v>3200</v>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>19200</v>
       </c>
       <c r="F11" s="2">
         <v>7200</v>
@@ -5228,7 +5299,8 @@
         <v>8100</v>
       </c>
       <c r="E12" s="2">
-        <v>4050</v>
+        <f t="shared" si="0"/>
+        <v>24300</v>
       </c>
       <c r="F12" s="3">
         <v>10800</v>
@@ -5256,8 +5328,9 @@
       <c r="D13" s="3">
         <v>10000</v>
       </c>
-      <c r="E13" s="3">
-        <v>5000</v>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>30000</v>
       </c>
       <c r="F13" s="2">
         <v>18000</v>
@@ -5286,7 +5359,8 @@
         <v>12100</v>
       </c>
       <c r="E14" s="2">
-        <v>6050</v>
+        <f t="shared" si="0"/>
+        <v>36300</v>
       </c>
       <c r="F14" s="3">
         <v>36000</v>
@@ -5314,8 +5388,9 @@
       <c r="D15" s="3">
         <v>14400</v>
       </c>
-      <c r="E15" s="3">
-        <v>7200</v>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>43200</v>
       </c>
       <c r="F15" s="2">
         <v>57600</v>
@@ -5344,7 +5419,8 @@
         <v>16900</v>
       </c>
       <c r="E16" s="2">
-        <v>8450</v>
+        <f t="shared" si="0"/>
+        <v>50700</v>
       </c>
       <c r="F16" s="3">
         <v>86400</v>
@@ -5372,8 +5448,9 @@
       <c r="D17" s="3">
         <v>19600</v>
       </c>
-      <c r="E17" s="3">
-        <v>9800</v>
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
+        <v>58800</v>
       </c>
       <c r="F17" s="2">
         <v>129600</v>
@@ -5402,7 +5479,8 @@
         <v>22500</v>
       </c>
       <c r="E18" s="2">
-        <v>11250</v>
+        <f t="shared" si="0"/>
+        <v>67500</v>
       </c>
       <c r="F18" s="3">
         <v>172800</v>
@@ -5430,8 +5508,9 @@
       <c r="D19" s="3">
         <v>25600</v>
       </c>
-      <c r="E19" s="3">
-        <v>12800</v>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>76800</v>
       </c>
       <c r="F19" s="2">
         <v>216000</v>
@@ -5460,7 +5539,8 @@
         <v>28900</v>
       </c>
       <c r="E20" s="2">
-        <v>14450</v>
+        <f t="shared" si="0"/>
+        <v>86700</v>
       </c>
       <c r="F20" s="3">
         <v>259200</v>
@@ -5489,7 +5569,8 @@
         <v>32400</v>
       </c>
       <c r="E21" s="2">
-        <v>16200</v>
+        <f t="shared" si="0"/>
+        <v>97200</v>
       </c>
       <c r="F21" s="2">
         <v>302400</v>
@@ -5517,8 +5598,9 @@
       <c r="D22" s="3">
         <v>36100</v>
       </c>
-      <c r="E22" s="3">
-        <v>18050</v>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>108300</v>
       </c>
       <c r="F22" s="2">
         <v>345600</v>
@@ -5547,7 +5629,8 @@
         <v>40000</v>
       </c>
       <c r="E23" s="2">
-        <v>20000</v>
+        <f t="shared" si="0"/>
+        <v>120000</v>
       </c>
       <c r="F23" s="3">
         <v>388800</v>
@@ -5575,8 +5658,9 @@
       <c r="D24" s="3">
         <v>44100</v>
       </c>
-      <c r="E24" s="3">
-        <v>22050</v>
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>132300</v>
       </c>
       <c r="F24" s="2">
         <v>432000</v>
@@ -5614,7 +5698,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5703,13 +5787,13 @@
         <v>0.01</v>
       </c>
       <c r="C4" s="2">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="D4" s="2">
         <v>100</v>
       </c>
       <c r="E4" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F4" s="2">
         <v>60</v>
@@ -5732,13 +5816,13 @@
         <v>0.02</v>
       </c>
       <c r="C5" s="3">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="D5" s="3">
         <v>400</v>
       </c>
-      <c r="E5" s="3">
-        <v>200</v>
+      <c r="E5" s="2">
+        <v>400</v>
       </c>
       <c r="F5" s="2">
         <v>300</v>
@@ -5761,13 +5845,13 @@
         <v>0.03</v>
       </c>
       <c r="C6" s="2">
-        <v>900</v>
+        <v>3600</v>
       </c>
       <c r="D6" s="2">
         <v>900</v>
       </c>
       <c r="E6" s="2">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="F6" s="3">
         <v>600</v>
@@ -5790,13 +5874,13 @@
         <v>0.04</v>
       </c>
       <c r="C7" s="3">
-        <v>1600</v>
+        <v>6400</v>
       </c>
       <c r="D7" s="3">
         <v>1600</v>
       </c>
-      <c r="E7" s="3">
-        <v>800</v>
+      <c r="E7" s="2">
+        <v>1600</v>
       </c>
       <c r="F7" s="2">
         <v>900</v>
@@ -5819,13 +5903,13 @@
         <v>0.05</v>
       </c>
       <c r="C8" s="2">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="D8" s="2">
         <v>2500</v>
       </c>
       <c r="E8" s="2">
-        <v>1250</v>
+        <v>2500</v>
       </c>
       <c r="F8" s="3">
         <v>1800</v>
@@ -5848,13 +5932,13 @@
         <v>0.06</v>
       </c>
       <c r="C9" s="3">
-        <v>3600</v>
+        <v>14400</v>
       </c>
       <c r="D9" s="3">
         <v>3600</v>
       </c>
-      <c r="E9" s="3">
-        <v>1800</v>
+      <c r="E9" s="2">
+        <v>3600</v>
       </c>
       <c r="F9" s="2">
         <v>2700</v>
@@ -5877,13 +5961,13 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C10" s="2">
-        <v>4900</v>
+        <v>19600</v>
       </c>
       <c r="D10" s="2">
         <v>4900</v>
       </c>
       <c r="E10" s="2">
-        <v>2450</v>
+        <v>4900</v>
       </c>
       <c r="F10" s="3">
         <v>3600</v>
@@ -5906,13 +5990,13 @@
         <v>0.08</v>
       </c>
       <c r="C11" s="3">
-        <v>6400</v>
+        <v>25600</v>
       </c>
       <c r="D11" s="3">
         <v>6400</v>
       </c>
-      <c r="E11" s="3">
-        <v>3200</v>
+      <c r="E11" s="2">
+        <v>6400</v>
       </c>
       <c r="F11" s="2">
         <v>7200</v>
@@ -5935,13 +6019,13 @@
         <v>0.09</v>
       </c>
       <c r="C12" s="2">
-        <v>8100</v>
+        <v>32400</v>
       </c>
       <c r="D12" s="2">
         <v>8100</v>
       </c>
       <c r="E12" s="2">
-        <v>4050</v>
+        <v>8100</v>
       </c>
       <c r="F12" s="3">
         <v>10800</v>
@@ -5964,13 +6048,13 @@
         <v>0.1</v>
       </c>
       <c r="C13" s="3">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="D13" s="3">
         <v>10000</v>
       </c>
-      <c r="E13" s="3">
-        <v>5000</v>
+      <c r="E13" s="2">
+        <v>10000</v>
       </c>
       <c r="F13" s="2">
         <v>18000</v>
@@ -5993,13 +6077,13 @@
         <v>0.11</v>
       </c>
       <c r="C14" s="2">
-        <v>12100</v>
+        <v>48400</v>
       </c>
       <c r="D14" s="2">
         <v>12100</v>
       </c>
       <c r="E14" s="2">
-        <v>6050</v>
+        <v>12100</v>
       </c>
       <c r="F14" s="3">
         <v>36000</v>
@@ -6022,13 +6106,13 @@
         <v>0.12</v>
       </c>
       <c r="C15" s="3">
-        <v>14400</v>
+        <v>57600</v>
       </c>
       <c r="D15" s="3">
         <v>14400</v>
       </c>
-      <c r="E15" s="3">
-        <v>7200</v>
+      <c r="E15" s="2">
+        <v>14400</v>
       </c>
       <c r="F15" s="2">
         <v>57600</v>
@@ -6051,13 +6135,13 @@
         <v>0.13</v>
       </c>
       <c r="C16" s="2">
-        <v>16900</v>
+        <v>67600</v>
       </c>
       <c r="D16" s="2">
         <v>16900</v>
       </c>
       <c r="E16" s="2">
-        <v>8450</v>
+        <v>16900</v>
       </c>
       <c r="F16" s="3">
         <v>86400</v>
@@ -6080,13 +6164,13 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="C17" s="3">
-        <v>19600</v>
+        <v>78400</v>
       </c>
       <c r="D17" s="3">
         <v>19600</v>
       </c>
-      <c r="E17" s="3">
-        <v>9800</v>
+      <c r="E17" s="2">
+        <v>19600</v>
       </c>
       <c r="F17" s="2">
         <v>129600</v>
@@ -6109,13 +6193,13 @@
         <v>0.15</v>
       </c>
       <c r="C18" s="2">
-        <v>22500</v>
+        <v>90000</v>
       </c>
       <c r="D18" s="2">
         <v>22500</v>
       </c>
       <c r="E18" s="2">
-        <v>11250</v>
+        <v>22500</v>
       </c>
       <c r="F18" s="3">
         <v>172800</v>
@@ -6138,13 +6222,13 @@
         <v>0.16</v>
       </c>
       <c r="C19" s="3">
-        <v>25600</v>
+        <v>102400</v>
       </c>
       <c r="D19" s="3">
         <v>25600</v>
       </c>
-      <c r="E19" s="3">
-        <v>12800</v>
+      <c r="E19" s="2">
+        <v>25600</v>
       </c>
       <c r="F19" s="2">
         <v>216000</v>
@@ -6167,13 +6251,13 @@
         <v>0.17</v>
       </c>
       <c r="C20" s="2">
-        <v>28900</v>
+        <v>115600</v>
       </c>
       <c r="D20" s="2">
         <v>28900</v>
       </c>
       <c r="E20" s="2">
-        <v>14450</v>
+        <v>28900</v>
       </c>
       <c r="F20" s="3">
         <v>259200</v>
@@ -6196,13 +6280,13 @@
         <v>0.18</v>
       </c>
       <c r="C21" s="2">
-        <v>32400</v>
+        <v>129600</v>
       </c>
       <c r="D21" s="2">
         <v>32400</v>
       </c>
       <c r="E21" s="2">
-        <v>16200</v>
+        <v>32400</v>
       </c>
       <c r="F21" s="2">
         <v>302400</v>
@@ -6225,13 +6309,13 @@
         <v>0.19</v>
       </c>
       <c r="C22" s="3">
-        <v>36100</v>
+        <v>144400</v>
       </c>
       <c r="D22" s="3">
         <v>36100</v>
       </c>
-      <c r="E22" s="3">
-        <v>18050</v>
+      <c r="E22" s="2">
+        <v>36100</v>
       </c>
       <c r="F22" s="2">
         <v>345600</v>
@@ -6254,13 +6338,13 @@
         <v>0.2</v>
       </c>
       <c r="C23" s="2">
-        <v>40000</v>
+        <v>160000</v>
       </c>
       <c r="D23" s="2">
         <v>40000</v>
       </c>
       <c r="E23" s="2">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="F23" s="3">
         <v>388800</v>
@@ -6283,13 +6367,13 @@
         <v>0.21</v>
       </c>
       <c r="C24" s="2">
-        <v>44100</v>
+        <v>176400</v>
       </c>
       <c r="D24" s="3">
         <v>44100</v>
       </c>
-      <c r="E24" s="3">
-        <v>22050</v>
+      <c r="E24" s="2">
+        <v>44100</v>
       </c>
       <c r="F24" s="2">
         <v>432000</v>
@@ -6327,7 +6411,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6417,13 +6501,13 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="C4" s="2">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D4" s="2">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="E4" s="2">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="F4" s="2">
         <v>60</v>
@@ -6446,13 +6530,13 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C5" s="3">
-        <v>200</v>
-      </c>
-      <c r="D5" s="3">
-        <v>400</v>
-      </c>
-      <c r="E5" s="3">
-        <v>400</v>
+        <v>1000</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1000</v>
       </c>
       <c r="F5" s="2">
         <v>300</v>
@@ -6475,13 +6559,13 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C6" s="2">
-        <v>450</v>
+        <v>2250</v>
       </c>
       <c r="D6" s="2">
-        <v>900</v>
+        <v>2250</v>
       </c>
       <c r="E6" s="2">
-        <v>900</v>
+        <v>2250</v>
       </c>
       <c r="F6" s="3">
         <v>600</v>
@@ -6504,13 +6588,13 @@
         <v>0.01</v>
       </c>
       <c r="C7" s="3">
-        <v>800</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1600</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1600</v>
+        <v>4000</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4000</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4000</v>
       </c>
       <c r="F7" s="2">
         <v>900</v>
@@ -6533,13 +6617,13 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="C8" s="2">
-        <v>1250</v>
+        <v>6250</v>
       </c>
       <c r="D8" s="2">
-        <v>2500</v>
+        <v>6250</v>
       </c>
       <c r="E8" s="2">
-        <v>2500</v>
+        <v>6250</v>
       </c>
       <c r="F8" s="3">
         <v>1800</v>
@@ -6562,13 +6646,13 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C9" s="3">
-        <v>1800</v>
-      </c>
-      <c r="D9" s="3">
-        <v>3600</v>
-      </c>
-      <c r="E9" s="3">
-        <v>3600</v>
+        <v>9000</v>
+      </c>
+      <c r="D9" s="2">
+        <v>9000</v>
+      </c>
+      <c r="E9" s="2">
+        <v>9000</v>
       </c>
       <c r="F9" s="2">
         <v>2700</v>
@@ -6591,13 +6675,13 @@
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="C10" s="2">
-        <v>2450</v>
+        <v>12250</v>
       </c>
       <c r="D10" s="2">
-        <v>4900</v>
+        <v>12250</v>
       </c>
       <c r="E10" s="2">
-        <v>4900</v>
+        <v>12250</v>
       </c>
       <c r="F10" s="3">
         <v>3600</v>
@@ -6620,13 +6704,13 @@
         <v>0.02</v>
       </c>
       <c r="C11" s="3">
-        <v>3200</v>
-      </c>
-      <c r="D11" s="3">
-        <v>6400</v>
-      </c>
-      <c r="E11" s="3">
-        <v>6400</v>
+        <v>16000</v>
+      </c>
+      <c r="D11" s="2">
+        <v>16000</v>
+      </c>
+      <c r="E11" s="2">
+        <v>16000</v>
       </c>
       <c r="F11" s="2">
         <v>7200</v>
@@ -6649,13 +6733,13 @@
         <v>2.2499999999999999E-2</v>
       </c>
       <c r="C12" s="2">
-        <v>4050</v>
+        <v>20250</v>
       </c>
       <c r="D12" s="2">
-        <v>8100</v>
+        <v>20250</v>
       </c>
       <c r="E12" s="2">
-        <v>8100</v>
+        <v>20250</v>
       </c>
       <c r="F12" s="3">
         <v>10800</v>
@@ -6678,13 +6762,13 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C13" s="3">
-        <v>5000</v>
-      </c>
-      <c r="D13" s="3">
-        <v>10000</v>
-      </c>
-      <c r="E13" s="3">
-        <v>10000</v>
+        <v>25000</v>
+      </c>
+      <c r="D13" s="2">
+        <v>25000</v>
+      </c>
+      <c r="E13" s="2">
+        <v>25000</v>
       </c>
       <c r="F13" s="2">
         <v>18000</v>
@@ -6707,13 +6791,13 @@
         <v>2.75E-2</v>
       </c>
       <c r="C14" s="2">
-        <v>6050</v>
+        <v>30250</v>
       </c>
       <c r="D14" s="2">
-        <v>12100</v>
+        <v>30250</v>
       </c>
       <c r="E14" s="2">
-        <v>12100</v>
+        <v>30250</v>
       </c>
       <c r="F14" s="3">
         <v>36000</v>
@@ -6736,13 +6820,13 @@
         <v>0.03</v>
       </c>
       <c r="C15" s="3">
-        <v>7200</v>
-      </c>
-      <c r="D15" s="3">
-        <v>14400</v>
-      </c>
-      <c r="E15" s="3">
-        <v>14400</v>
+        <v>36000</v>
+      </c>
+      <c r="D15" s="2">
+        <v>36000</v>
+      </c>
+      <c r="E15" s="2">
+        <v>36000</v>
       </c>
       <c r="F15" s="2">
         <v>57600</v>
@@ -6765,13 +6849,13 @@
         <v>3.2500000000000001E-2</v>
       </c>
       <c r="C16" s="2">
-        <v>8450</v>
+        <v>42250</v>
       </c>
       <c r="D16" s="2">
-        <v>16900</v>
+        <v>42250</v>
       </c>
       <c r="E16" s="2">
-        <v>16900</v>
+        <v>42250</v>
       </c>
       <c r="F16" s="3">
         <v>86400</v>
@@ -6794,13 +6878,13 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="C17" s="3">
-        <v>9800</v>
-      </c>
-      <c r="D17" s="3">
-        <v>19600</v>
-      </c>
-      <c r="E17" s="3">
-        <v>19600</v>
+        <v>49000</v>
+      </c>
+      <c r="D17" s="2">
+        <v>49000</v>
+      </c>
+      <c r="E17" s="2">
+        <v>49000</v>
       </c>
       <c r="F17" s="2">
         <v>129600</v>
@@ -6823,13 +6907,13 @@
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="C18" s="2">
-        <v>11250</v>
+        <v>56250</v>
       </c>
       <c r="D18" s="2">
-        <v>22500</v>
+        <v>56250</v>
       </c>
       <c r="E18" s="2">
-        <v>22500</v>
+        <v>56250</v>
       </c>
       <c r="F18" s="3">
         <v>172800</v>
@@ -6852,13 +6936,13 @@
         <v>0.04</v>
       </c>
       <c r="C19" s="3">
-        <v>12800</v>
-      </c>
-      <c r="D19" s="3">
-        <v>25600</v>
-      </c>
-      <c r="E19" s="3">
-        <v>25600</v>
+        <v>64000</v>
+      </c>
+      <c r="D19" s="2">
+        <v>64000</v>
+      </c>
+      <c r="E19" s="2">
+        <v>64000</v>
       </c>
       <c r="F19" s="2">
         <v>216000</v>
@@ -6881,13 +6965,13 @@
         <v>4.2500000000000003E-2</v>
       </c>
       <c r="C20" s="2">
-        <v>14450</v>
+        <v>72250</v>
       </c>
       <c r="D20" s="2">
-        <v>28900</v>
+        <v>72250</v>
       </c>
       <c r="E20" s="2">
-        <v>28900</v>
+        <v>72250</v>
       </c>
       <c r="F20" s="3">
         <v>259200</v>
@@ -6910,13 +6994,13 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="C21" s="2">
-        <v>16200</v>
+        <v>81000</v>
       </c>
       <c r="D21" s="2">
-        <v>32400</v>
+        <v>81000</v>
       </c>
       <c r="E21" s="2">
-        <v>32400</v>
+        <v>81000</v>
       </c>
       <c r="F21" s="2">
         <v>302400</v>
@@ -6939,13 +7023,13 @@
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="C22" s="3">
-        <v>18050</v>
-      </c>
-      <c r="D22" s="3">
-        <v>36100</v>
-      </c>
-      <c r="E22" s="3">
-        <v>36100</v>
+        <v>90250</v>
+      </c>
+      <c r="D22" s="2">
+        <v>90250</v>
+      </c>
+      <c r="E22" s="2">
+        <v>90250</v>
       </c>
       <c r="F22" s="2">
         <v>345600</v>
@@ -6968,13 +7052,13 @@
         <v>0.05</v>
       </c>
       <c r="C23" s="2">
-        <v>20000</v>
+        <v>100000</v>
       </c>
       <c r="D23" s="2">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="E23" s="2">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="F23" s="3">
         <v>388800</v>
@@ -6997,13 +7081,13 @@
         <v>5.2499999999999998E-2</v>
       </c>
       <c r="C24" s="2">
-        <v>22050</v>
-      </c>
-      <c r="D24" s="3">
-        <v>44100</v>
-      </c>
-      <c r="E24" s="3">
-        <v>44100</v>
+        <v>110250</v>
+      </c>
+      <c r="D24" s="2">
+        <v>110250</v>
+      </c>
+      <c r="E24" s="2">
+        <v>110250</v>
       </c>
       <c r="F24" s="2">
         <v>432000</v>
@@ -7041,7 +7125,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7131,13 +7215,13 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C4" s="2">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="D4" s="2">
-        <v>100</v>
+        <f>E4*2</f>
+        <v>300</v>
       </c>
       <c r="E4" s="2">
-        <f>C4*1.5</f>
         <v>150</v>
       </c>
       <c r="F4" s="2">
@@ -7161,13 +7245,13 @@
         <v>0.01</v>
       </c>
       <c r="C5" s="3">
-        <v>400</v>
-      </c>
-      <c r="D5" s="3">
-        <v>400</v>
+        <v>1200</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" ref="D5:D24" si="0">E5*2</f>
+        <v>1200</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" ref="E5:E24" si="0">C5*1.5</f>
         <v>600</v>
       </c>
       <c r="F5" s="2">
@@ -7191,13 +7275,13 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C6" s="2">
-        <v>900</v>
+        <v>2700</v>
       </c>
       <c r="D6" s="2">
-        <v>900</v>
+        <f t="shared" si="0"/>
+        <v>2700</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="0"/>
         <v>1350</v>
       </c>
       <c r="F6" s="3">
@@ -7221,13 +7305,13 @@
         <v>0.02</v>
       </c>
       <c r="C7" s="3">
-        <v>1600</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1600</v>
+        <v>4800</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>4800</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="0"/>
         <v>2400</v>
       </c>
       <c r="F7" s="2">
@@ -7251,13 +7335,13 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C8" s="2">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="D8" s="2">
-        <v>2500</v>
+        <f t="shared" si="0"/>
+        <v>7500</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="0"/>
         <v>3750</v>
       </c>
       <c r="F8" s="3">
@@ -7281,13 +7365,13 @@
         <v>0.03</v>
       </c>
       <c r="C9" s="3">
-        <v>3600</v>
-      </c>
-      <c r="D9" s="3">
-        <v>3600</v>
+        <v>10800</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>10800</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="0"/>
         <v>5400</v>
       </c>
       <c r="F9" s="2">
@@ -7311,13 +7395,13 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="C10" s="2">
-        <v>4900</v>
+        <v>14700</v>
       </c>
       <c r="D10" s="2">
-        <v>4900</v>
+        <f t="shared" si="0"/>
+        <v>14700</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="0"/>
         <v>7350</v>
       </c>
       <c r="F10" s="3">
@@ -7341,13 +7425,13 @@
         <v>0.04</v>
       </c>
       <c r="C11" s="3">
-        <v>6400</v>
-      </c>
-      <c r="D11" s="3">
-        <v>6400</v>
+        <v>19200</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>19200</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="0"/>
         <v>9600</v>
       </c>
       <c r="F11" s="2">
@@ -7371,13 +7455,13 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="C12" s="2">
-        <v>8100</v>
+        <v>24300</v>
       </c>
       <c r="D12" s="2">
-        <v>8100</v>
+        <f t="shared" si="0"/>
+        <v>24300</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="0"/>
         <v>12150</v>
       </c>
       <c r="F12" s="3">
@@ -7401,13 +7485,13 @@
         <v>0.05</v>
       </c>
       <c r="C13" s="3">
-        <v>10000</v>
-      </c>
-      <c r="D13" s="3">
-        <v>10000</v>
+        <v>30000</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>30000</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="0"/>
         <v>15000</v>
       </c>
       <c r="F13" s="2">
@@ -7431,13 +7515,13 @@
         <v>5.5E-2</v>
       </c>
       <c r="C14" s="2">
-        <v>12100</v>
+        <v>36300</v>
       </c>
       <c r="D14" s="2">
-        <v>12100</v>
+        <f t="shared" si="0"/>
+        <v>36300</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="0"/>
         <v>18150</v>
       </c>
       <c r="F14" s="3">
@@ -7461,13 +7545,13 @@
         <v>0.06</v>
       </c>
       <c r="C15" s="3">
-        <v>14400</v>
-      </c>
-      <c r="D15" s="3">
-        <v>14400</v>
+        <v>43200</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>43200</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="0"/>
         <v>21600</v>
       </c>
       <c r="F15" s="2">
@@ -7491,13 +7575,13 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="C16" s="2">
-        <v>16900</v>
+        <v>50700</v>
       </c>
       <c r="D16" s="2">
-        <v>16900</v>
+        <f t="shared" si="0"/>
+        <v>50700</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="0"/>
         <v>25350</v>
       </c>
       <c r="F16" s="3">
@@ -7521,13 +7605,13 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C17" s="3">
-        <v>19600</v>
-      </c>
-      <c r="D17" s="3">
-        <v>19600</v>
+        <v>58800</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>58800</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="0"/>
         <v>29400</v>
       </c>
       <c r="F17" s="2">
@@ -7551,13 +7635,13 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="C18" s="2">
-        <v>22500</v>
+        <v>67500</v>
       </c>
       <c r="D18" s="2">
-        <v>22500</v>
+        <f t="shared" si="0"/>
+        <v>67500</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="0"/>
         <v>33750</v>
       </c>
       <c r="F18" s="3">
@@ -7581,13 +7665,13 @@
         <v>0.08</v>
       </c>
       <c r="C19" s="3">
-        <v>25600</v>
-      </c>
-      <c r="D19" s="3">
-        <v>25600</v>
+        <v>76800</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>76800</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="0"/>
         <v>38400</v>
       </c>
       <c r="F19" s="2">
@@ -7611,13 +7695,13 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="C20" s="2">
-        <v>28900</v>
+        <v>86700</v>
       </c>
       <c r="D20" s="2">
-        <v>28900</v>
+        <f t="shared" si="0"/>
+        <v>86700</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="0"/>
         <v>43350</v>
       </c>
       <c r="F20" s="3">
@@ -7641,13 +7725,13 @@
         <v>0.09</v>
       </c>
       <c r="C21" s="2">
-        <v>32400</v>
+        <v>97200</v>
       </c>
       <c r="D21" s="2">
-        <v>32400</v>
+        <f t="shared" si="0"/>
+        <v>97200</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="0"/>
         <v>48600</v>
       </c>
       <c r="F21" s="2">
@@ -7671,13 +7755,13 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="C22" s="3">
-        <v>36100</v>
-      </c>
-      <c r="D22" s="3">
-        <v>36100</v>
+        <v>108300</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>108300</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="0"/>
         <v>54150</v>
       </c>
       <c r="F22" s="2">
@@ -7701,13 +7785,13 @@
         <v>0.1</v>
       </c>
       <c r="C23" s="2">
-        <v>40000</v>
+        <v>120000</v>
       </c>
       <c r="D23" s="2">
-        <v>40000</v>
+        <f t="shared" si="0"/>
+        <v>120000</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="0"/>
         <v>60000</v>
       </c>
       <c r="F23" s="3">
@@ -7731,13 +7815,13 @@
         <v>0.105</v>
       </c>
       <c r="C24" s="2">
-        <v>44100</v>
-      </c>
-      <c r="D24" s="3">
-        <v>44100</v>
+        <v>132300</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="0"/>
+        <v>132300</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="0"/>
         <v>66150</v>
       </c>
       <c r="F24" s="2">
@@ -7776,7 +7860,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7866,14 +7950,14 @@
         <v>0.01</v>
       </c>
       <c r="C4" s="2">
+        <f>D4*2</f>
+        <v>400</v>
+      </c>
+      <c r="D4" s="2">
+        <v>200</v>
+      </c>
+      <c r="E4" s="2">
         <v>100</v>
-      </c>
-      <c r="D4" s="2">
-        <v>100</v>
-      </c>
-      <c r="E4" s="2">
-        <f>C4*2</f>
-        <v>200</v>
       </c>
       <c r="F4" s="2">
         <v>60</v>
@@ -7895,15 +7979,15 @@
       <c r="B5" s="7">
         <v>0.02</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
+        <f>D5*2</f>
+        <v>1600</v>
+      </c>
+      <c r="D5" s="2">
+        <v>800</v>
+      </c>
+      <c r="E5" s="3">
         <v>400</v>
-      </c>
-      <c r="D5" s="3">
-        <v>400</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" ref="E5:E24" si="0">C5*2</f>
-        <v>800</v>
       </c>
       <c r="F5" s="2">
         <v>300</v>
@@ -7926,14 +8010,14 @@
         <v>0.03</v>
       </c>
       <c r="C6" s="2">
+        <f>D6*2</f>
+        <v>3600</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1800</v>
+      </c>
+      <c r="E6" s="2">
         <v>900</v>
-      </c>
-      <c r="D6" s="2">
-        <v>900</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="0"/>
-        <v>1800</v>
       </c>
       <c r="F6" s="3">
         <v>600</v>
@@ -7955,15 +8039,15 @@
       <c r="B7" s="7">
         <v>0.04</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
+        <f>D7*2</f>
+        <v>6400</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3200</v>
+      </c>
+      <c r="E7" s="3">
         <v>1600</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1600</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="0"/>
-        <v>3200</v>
       </c>
       <c r="F7" s="2">
         <v>900</v>
@@ -7986,14 +8070,14 @@
         <v>0.05</v>
       </c>
       <c r="C8" s="2">
+        <f>D8*2</f>
+        <v>10000</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E8" s="2">
         <v>2500</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2500</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" si="0"/>
-        <v>5000</v>
       </c>
       <c r="F8" s="3">
         <v>1800</v>
@@ -8015,15 +8099,15 @@
       <c r="B9" s="7">
         <v>0.06</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
+        <f>D9*2</f>
+        <v>14400</v>
+      </c>
+      <c r="D9" s="2">
+        <v>7200</v>
+      </c>
+      <c r="E9" s="3">
         <v>3600</v>
-      </c>
-      <c r="D9" s="3">
-        <v>3600</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" si="0"/>
-        <v>7200</v>
       </c>
       <c r="F9" s="2">
         <v>2700</v>
@@ -8046,14 +8130,14 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C10" s="2">
+        <f>D10*2</f>
+        <v>19600</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9800</v>
+      </c>
+      <c r="E10" s="2">
         <v>4900</v>
-      </c>
-      <c r="D10" s="2">
-        <v>4900</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="0"/>
-        <v>9800</v>
       </c>
       <c r="F10" s="3">
         <v>3600</v>
@@ -8075,15 +8159,15 @@
       <c r="B11" s="7">
         <v>0.08</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
+        <f>D11*2</f>
+        <v>25600</v>
+      </c>
+      <c r="D11" s="2">
+        <v>12800</v>
+      </c>
+      <c r="E11" s="3">
         <v>6400</v>
-      </c>
-      <c r="D11" s="3">
-        <v>6400</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="0"/>
-        <v>12800</v>
       </c>
       <c r="F11" s="2">
         <v>7200</v>
@@ -8106,14 +8190,14 @@
         <v>0.09</v>
       </c>
       <c r="C12" s="2">
+        <f>D12*2</f>
+        <v>32400</v>
+      </c>
+      <c r="D12" s="2">
+        <v>16200</v>
+      </c>
+      <c r="E12" s="2">
         <v>8100</v>
-      </c>
-      <c r="D12" s="2">
-        <v>8100</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" si="0"/>
-        <v>16200</v>
       </c>
       <c r="F12" s="3">
         <v>10800</v>
@@ -8135,15 +8219,15 @@
       <c r="B13" s="7">
         <v>0.1</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
+        <f>D13*2</f>
+        <v>40000</v>
+      </c>
+      <c r="D13" s="2">
+        <v>20000</v>
+      </c>
+      <c r="E13" s="3">
         <v>10000</v>
-      </c>
-      <c r="D13" s="3">
-        <v>10000</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="0"/>
-        <v>20000</v>
       </c>
       <c r="F13" s="2">
         <v>18000</v>
@@ -8166,14 +8250,14 @@
         <v>0.11</v>
       </c>
       <c r="C14" s="2">
+        <f>D14*2</f>
+        <v>48400</v>
+      </c>
+      <c r="D14" s="2">
+        <v>24200</v>
+      </c>
+      <c r="E14" s="2">
         <v>12100</v>
-      </c>
-      <c r="D14" s="2">
-        <v>12100</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" si="0"/>
-        <v>24200</v>
       </c>
       <c r="F14" s="3">
         <v>36000</v>
@@ -8195,15 +8279,15 @@
       <c r="B15" s="7">
         <v>0.12</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
+        <f>D15*2</f>
+        <v>57600</v>
+      </c>
+      <c r="D15" s="2">
+        <v>28800</v>
+      </c>
+      <c r="E15" s="3">
         <v>14400</v>
-      </c>
-      <c r="D15" s="3">
-        <v>14400</v>
-      </c>
-      <c r="E15" s="2">
-        <f t="shared" si="0"/>
-        <v>28800</v>
       </c>
       <c r="F15" s="2">
         <v>57600</v>
@@ -8226,14 +8310,14 @@
         <v>0.13</v>
       </c>
       <c r="C16" s="2">
+        <f>D16*2</f>
+        <v>67600</v>
+      </c>
+      <c r="D16" s="2">
+        <v>33800</v>
+      </c>
+      <c r="E16" s="2">
         <v>16900</v>
-      </c>
-      <c r="D16" s="2">
-        <v>16900</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" si="0"/>
-        <v>33800</v>
       </c>
       <c r="F16" s="3">
         <v>86400</v>
@@ -8255,15 +8339,15 @@
       <c r="B17" s="7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
+        <f>D17*2</f>
+        <v>78400</v>
+      </c>
+      <c r="D17" s="2">
+        <v>39200</v>
+      </c>
+      <c r="E17" s="3">
         <v>19600</v>
-      </c>
-      <c r="D17" s="3">
-        <v>19600</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="0"/>
-        <v>39200</v>
       </c>
       <c r="F17" s="2">
         <v>129600</v>
@@ -8286,14 +8370,14 @@
         <v>0.15</v>
       </c>
       <c r="C18" s="2">
+        <f>D18*2</f>
+        <v>90000</v>
+      </c>
+      <c r="D18" s="2">
+        <v>45000</v>
+      </c>
+      <c r="E18" s="2">
         <v>22500</v>
-      </c>
-      <c r="D18" s="2">
-        <v>22500</v>
-      </c>
-      <c r="E18" s="2">
-        <f t="shared" si="0"/>
-        <v>45000</v>
       </c>
       <c r="F18" s="3">
         <v>172800</v>
@@ -8315,15 +8399,15 @@
       <c r="B19" s="7">
         <v>0.16</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
+        <f>D19*2</f>
+        <v>102400</v>
+      </c>
+      <c r="D19" s="2">
+        <v>51200</v>
+      </c>
+      <c r="E19" s="3">
         <v>25600</v>
-      </c>
-      <c r="D19" s="3">
-        <v>25600</v>
-      </c>
-      <c r="E19" s="2">
-        <f t="shared" si="0"/>
-        <v>51200</v>
       </c>
       <c r="F19" s="2">
         <v>216000</v>
@@ -8346,14 +8430,14 @@
         <v>0.17</v>
       </c>
       <c r="C20" s="2">
+        <f>D20*2</f>
+        <v>115600</v>
+      </c>
+      <c r="D20" s="2">
+        <v>57800</v>
+      </c>
+      <c r="E20" s="2">
         <v>28900</v>
-      </c>
-      <c r="D20" s="2">
-        <v>28900</v>
-      </c>
-      <c r="E20" s="2">
-        <f t="shared" si="0"/>
-        <v>57800</v>
       </c>
       <c r="F20" s="3">
         <v>259200</v>
@@ -8376,14 +8460,14 @@
         <v>0.18</v>
       </c>
       <c r="C21" s="2">
+        <f>D21*2</f>
+        <v>129600</v>
+      </c>
+      <c r="D21" s="2">
+        <v>64800</v>
+      </c>
+      <c r="E21" s="2">
         <v>32400</v>
-      </c>
-      <c r="D21" s="2">
-        <v>32400</v>
-      </c>
-      <c r="E21" s="2">
-        <f t="shared" si="0"/>
-        <v>64800</v>
       </c>
       <c r="F21" s="2">
         <v>302400</v>
@@ -8405,15 +8489,15 @@
       <c r="B22" s="7">
         <v>0.19</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
+        <f>D22*2</f>
+        <v>144400</v>
+      </c>
+      <c r="D22" s="2">
+        <v>72200</v>
+      </c>
+      <c r="E22" s="3">
         <v>36100</v>
-      </c>
-      <c r="D22" s="3">
-        <v>36100</v>
-      </c>
-      <c r="E22" s="2">
-        <f t="shared" si="0"/>
-        <v>72200</v>
       </c>
       <c r="F22" s="2">
         <v>345600</v>
@@ -8436,14 +8520,14 @@
         <v>0.2</v>
       </c>
       <c r="C23" s="2">
+        <f>D23*2</f>
+        <v>160000</v>
+      </c>
+      <c r="D23" s="2">
+        <v>80000</v>
+      </c>
+      <c r="E23" s="2">
         <v>40000</v>
-      </c>
-      <c r="D23" s="2">
-        <v>40000</v>
-      </c>
-      <c r="E23" s="2">
-        <f t="shared" si="0"/>
-        <v>80000</v>
       </c>
       <c r="F23" s="3">
         <v>388800</v>
@@ -8466,14 +8550,14 @@
         <v>0.21</v>
       </c>
       <c r="C24" s="2">
+        <f>D24*2</f>
+        <v>176400</v>
+      </c>
+      <c r="D24" s="2">
+        <v>88200</v>
+      </c>
+      <c r="E24" s="3">
         <v>44100</v>
-      </c>
-      <c r="D24" s="3">
-        <v>44100</v>
-      </c>
-      <c r="E24" s="2">
-        <f t="shared" si="0"/>
-        <v>88200</v>
       </c>
       <c r="F24" s="2">
         <v>432000</v>
@@ -8511,7 +8595,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8599,13 +8683,13 @@
         <v>0.01</v>
       </c>
       <c r="C4" s="3">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D4" s="2">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="E4" s="3">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="F4" s="2">
         <v>60</v>
@@ -8628,13 +8712,13 @@
         <v>0.02</v>
       </c>
       <c r="C5" s="3">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="D5" s="3">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="E5" s="3">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="F5" s="2">
         <v>300</v>
@@ -8657,13 +8741,13 @@
         <v>0.03</v>
       </c>
       <c r="C6" s="3">
-        <v>1350</v>
+        <v>2700</v>
       </c>
       <c r="D6" s="2">
-        <v>1350</v>
+        <v>2700</v>
       </c>
       <c r="E6" s="3">
-        <v>1350</v>
+        <v>2700</v>
       </c>
       <c r="F6" s="3">
         <v>600</v>
@@ -8686,13 +8770,13 @@
         <v>0.04</v>
       </c>
       <c r="C7" s="3">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="D7" s="3">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="E7" s="3">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="F7" s="2">
         <v>900</v>
@@ -8715,13 +8799,13 @@
         <v>0.05</v>
       </c>
       <c r="C8" s="3">
-        <v>3750</v>
+        <v>7500</v>
       </c>
       <c r="D8" s="2">
-        <v>3750</v>
+        <v>7500</v>
       </c>
       <c r="E8" s="3">
-        <v>3750</v>
+        <v>7500</v>
       </c>
       <c r="F8" s="3">
         <v>1800</v>
@@ -8744,13 +8828,13 @@
         <v>0.06</v>
       </c>
       <c r="C9" s="3">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="D9" s="3">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="E9" s="3">
-        <v>5400</v>
+        <v>10800</v>
       </c>
       <c r="F9" s="2">
         <v>2700</v>
@@ -8773,13 +8857,13 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C10" s="3">
-        <v>7350</v>
+        <v>14700</v>
       </c>
       <c r="D10" s="2">
-        <v>7350</v>
+        <v>14700</v>
       </c>
       <c r="E10" s="3">
-        <v>7350</v>
+        <v>14700</v>
       </c>
       <c r="F10" s="3">
         <v>3600</v>
@@ -8802,13 +8886,13 @@
         <v>0.08</v>
       </c>
       <c r="C11" s="3">
-        <v>9600</v>
+        <v>19200</v>
       </c>
       <c r="D11" s="3">
-        <v>9600</v>
+        <v>19200</v>
       </c>
       <c r="E11" s="3">
-        <v>9600</v>
+        <v>19200</v>
       </c>
       <c r="F11" s="2">
         <v>7200</v>
@@ -8831,13 +8915,13 @@
         <v>0.09</v>
       </c>
       <c r="C12" s="3">
-        <v>12150</v>
+        <v>24300</v>
       </c>
       <c r="D12" s="2">
-        <v>12150</v>
+        <v>24300</v>
       </c>
       <c r="E12" s="3">
-        <v>12150</v>
+        <v>24300</v>
       </c>
       <c r="F12" s="3">
         <v>10800</v>
@@ -8860,13 +8944,13 @@
         <v>0.1</v>
       </c>
       <c r="C13" s="3">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="D13" s="3">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="E13" s="3">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="F13" s="2">
         <v>18000</v>
@@ -8889,13 +8973,13 @@
         <v>0.11</v>
       </c>
       <c r="C14" s="3">
-        <v>18150</v>
+        <v>36300</v>
       </c>
       <c r="D14" s="2">
-        <v>18150</v>
+        <v>36300</v>
       </c>
       <c r="E14" s="3">
-        <v>18150</v>
+        <v>36300</v>
       </c>
       <c r="F14" s="3">
         <v>36000</v>
@@ -8918,13 +9002,13 @@
         <v>0.12</v>
       </c>
       <c r="C15" s="3">
-        <v>21600</v>
+        <v>43200</v>
       </c>
       <c r="D15" s="3">
-        <v>21600</v>
+        <v>43200</v>
       </c>
       <c r="E15" s="3">
-        <v>21600</v>
+        <v>43200</v>
       </c>
       <c r="F15" s="2">
         <v>57600</v>
@@ -8947,13 +9031,13 @@
         <v>0.13</v>
       </c>
       <c r="C16" s="3">
-        <v>25350</v>
+        <v>50700</v>
       </c>
       <c r="D16" s="2">
-        <v>25350</v>
+        <v>50700</v>
       </c>
       <c r="E16" s="3">
-        <v>25350</v>
+        <v>50700</v>
       </c>
       <c r="F16" s="3">
         <v>86400</v>
@@ -8976,13 +9060,13 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="C17" s="3">
-        <v>29400</v>
+        <v>58800</v>
       </c>
       <c r="D17" s="3">
-        <v>29400</v>
+        <v>58800</v>
       </c>
       <c r="E17" s="3">
-        <v>29400</v>
+        <v>58800</v>
       </c>
       <c r="F17" s="2">
         <v>129600</v>
@@ -9005,13 +9089,13 @@
         <v>0.15</v>
       </c>
       <c r="C18" s="3">
-        <v>33750</v>
+        <v>67500</v>
       </c>
       <c r="D18" s="2">
-        <v>33750</v>
+        <v>67500</v>
       </c>
       <c r="E18" s="3">
-        <v>33750</v>
+        <v>67500</v>
       </c>
       <c r="F18" s="3">
         <v>172800</v>
@@ -9034,13 +9118,13 @@
         <v>0.16</v>
       </c>
       <c r="C19" s="3">
-        <v>38400</v>
+        <v>76800</v>
       </c>
       <c r="D19" s="3">
-        <v>38400</v>
+        <v>76800</v>
       </c>
       <c r="E19" s="3">
-        <v>38400</v>
+        <v>76800</v>
       </c>
       <c r="F19" s="2">
         <v>216000</v>
@@ -9063,13 +9147,13 @@
         <v>0.17</v>
       </c>
       <c r="C20" s="3">
-        <v>43350</v>
+        <v>86700</v>
       </c>
       <c r="D20" s="2">
-        <v>43350</v>
+        <v>86700</v>
       </c>
       <c r="E20" s="3">
-        <v>43350</v>
+        <v>86700</v>
       </c>
       <c r="F20" s="3">
         <v>259200</v>
@@ -9092,13 +9176,13 @@
         <v>0.18</v>
       </c>
       <c r="C21" s="3">
-        <v>48600</v>
+        <v>97200</v>
       </c>
       <c r="D21" s="2">
-        <v>48600</v>
+        <v>97200</v>
       </c>
       <c r="E21" s="3">
-        <v>48600</v>
+        <v>97200</v>
       </c>
       <c r="F21" s="2">
         <v>302400</v>
@@ -9121,13 +9205,13 @@
         <v>0.19</v>
       </c>
       <c r="C22" s="3">
-        <v>54150</v>
+        <v>108300</v>
       </c>
       <c r="D22" s="3">
-        <v>54150</v>
+        <v>108300</v>
       </c>
       <c r="E22" s="3">
-        <v>54150</v>
+        <v>108300</v>
       </c>
       <c r="F22" s="2">
         <v>345600</v>
@@ -9150,13 +9234,13 @@
         <v>0.2</v>
       </c>
       <c r="C23" s="3">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="D23" s="2">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="E23" s="3">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="F23" s="3">
         <v>388800</v>
@@ -9179,13 +9263,13 @@
         <v>0.21</v>
       </c>
       <c r="C24" s="3">
-        <v>66150</v>
+        <v>132300</v>
       </c>
       <c r="D24" s="3">
-        <v>66150</v>
+        <v>132300</v>
       </c>
       <c r="E24" s="3">
-        <v>66150</v>
+        <v>132300</v>
       </c>
       <c r="F24" s="2">
         <v>432000</v>
@@ -9223,7 +9307,7 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="D24" sqref="D4:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9315,14 +9399,14 @@
         <v>150</v>
       </c>
       <c r="C4" s="2">
-        <f>D4/2</f>
-        <v>50</v>
+        <f>D4*4</f>
+        <v>400</v>
       </c>
       <c r="D4" s="2">
         <v>100</v>
       </c>
       <c r="E4" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F4" s="2">
         <v>60</v>
@@ -9344,15 +9428,15 @@
       <c r="B5" s="2">
         <v>200</v>
       </c>
-      <c r="C5" s="3">
-        <f>D5/2</f>
-        <v>200</v>
+      <c r="C5" s="2">
+        <f t="shared" ref="C5:C24" si="0">D5*4</f>
+        <v>1600</v>
       </c>
       <c r="D5" s="3">
         <v>400</v>
       </c>
-      <c r="E5" s="2">
-        <v>200</v>
+      <c r="E5" s="3">
+        <v>400</v>
       </c>
       <c r="F5" s="2">
         <v>300</v>
@@ -9375,14 +9459,14 @@
         <v>250</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" ref="C6:C24" si="0">D6/2</f>
-        <v>450</v>
+        <f t="shared" si="0"/>
+        <v>3600</v>
       </c>
       <c r="D6" s="2">
         <v>900</v>
       </c>
       <c r="E6" s="2">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="F6" s="3">
         <v>600</v>
@@ -9404,15 +9488,15 @@
       <c r="B7" s="2">
         <v>300</v>
       </c>
-      <c r="C7" s="3">
-        <f t="shared" si="0"/>
-        <v>800</v>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>6400</v>
       </c>
       <c r="D7" s="3">
         <v>1600</v>
       </c>
-      <c r="E7" s="2">
-        <v>800</v>
+      <c r="E7" s="3">
+        <v>1600</v>
       </c>
       <c r="F7" s="2">
         <v>900</v>
@@ -9436,13 +9520,13 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
-        <v>1250</v>
+        <v>10000</v>
       </c>
       <c r="D8" s="2">
         <v>2500</v>
       </c>
       <c r="E8" s="2">
-        <v>1250</v>
+        <v>2500</v>
       </c>
       <c r="F8" s="3">
         <v>1800</v>
@@ -9464,15 +9548,15 @@
       <c r="B9" s="2">
         <v>400</v>
       </c>
-      <c r="C9" s="3">
-        <f t="shared" si="0"/>
-        <v>1800</v>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>14400</v>
       </c>
       <c r="D9" s="3">
         <v>3600</v>
       </c>
-      <c r="E9" s="2">
-        <v>1800</v>
+      <c r="E9" s="3">
+        <v>3600</v>
       </c>
       <c r="F9" s="2">
         <v>2700</v>
@@ -9496,13 +9580,13 @@
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>2450</v>
+        <v>19600</v>
       </c>
       <c r="D10" s="2">
         <v>4900</v>
       </c>
       <c r="E10" s="2">
-        <v>2450</v>
+        <v>4900</v>
       </c>
       <c r="F10" s="3">
         <v>3600</v>
@@ -9524,15 +9608,15 @@
       <c r="B11" s="2">
         <v>500</v>
       </c>
-      <c r="C11" s="3">
-        <f t="shared" si="0"/>
-        <v>3200</v>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>25600</v>
       </c>
       <c r="D11" s="3">
         <v>6400</v>
       </c>
-      <c r="E11" s="2">
-        <v>3200</v>
+      <c r="E11" s="3">
+        <v>6400</v>
       </c>
       <c r="F11" s="2">
         <v>7200</v>
@@ -9556,13 +9640,13 @@
       </c>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
-        <v>4050</v>
+        <v>32400</v>
       </c>
       <c r="D12" s="2">
         <v>8100</v>
       </c>
       <c r="E12" s="2">
-        <v>4050</v>
+        <v>8100</v>
       </c>
       <c r="F12" s="3">
         <v>10800</v>
@@ -9584,15 +9668,15 @@
       <c r="B13" s="2">
         <v>600</v>
       </c>
-      <c r="C13" s="3">
-        <f t="shared" si="0"/>
-        <v>5000</v>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>40000</v>
       </c>
       <c r="D13" s="3">
         <v>10000</v>
       </c>
-      <c r="E13" s="2">
-        <v>5000</v>
+      <c r="E13" s="3">
+        <v>10000</v>
       </c>
       <c r="F13" s="2">
         <v>18000</v>
@@ -9616,13 +9700,13 @@
       </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>6050</v>
+        <v>48400</v>
       </c>
       <c r="D14" s="2">
         <v>12100</v>
       </c>
       <c r="E14" s="2">
-        <v>6050</v>
+        <v>12100</v>
       </c>
       <c r="F14" s="3">
         <v>36000</v>
@@ -9644,15 +9728,15 @@
       <c r="B15" s="2">
         <v>700</v>
       </c>
-      <c r="C15" s="3">
-        <f t="shared" si="0"/>
-        <v>7200</v>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>57600</v>
       </c>
       <c r="D15" s="3">
         <v>14400</v>
       </c>
-      <c r="E15" s="2">
-        <v>7200</v>
+      <c r="E15" s="3">
+        <v>14400</v>
       </c>
       <c r="F15" s="2">
         <v>57600</v>
@@ -9676,13 +9760,13 @@
       </c>
       <c r="C16" s="2">
         <f t="shared" si="0"/>
-        <v>8450</v>
+        <v>67600</v>
       </c>
       <c r="D16" s="2">
         <v>16900</v>
       </c>
       <c r="E16" s="2">
-        <v>8450</v>
+        <v>16900</v>
       </c>
       <c r="F16" s="3">
         <v>86400</v>
@@ -9704,15 +9788,15 @@
       <c r="B17" s="2">
         <v>800</v>
       </c>
-      <c r="C17" s="3">
-        <f t="shared" si="0"/>
-        <v>9800</v>
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>78400</v>
       </c>
       <c r="D17" s="3">
         <v>19600</v>
       </c>
-      <c r="E17" s="2">
-        <v>9800</v>
+      <c r="E17" s="3">
+        <v>19600</v>
       </c>
       <c r="F17" s="2">
         <v>129600</v>
@@ -9736,13 +9820,13 @@
       </c>
       <c r="C18" s="2">
         <f t="shared" si="0"/>
-        <v>11250</v>
+        <v>90000</v>
       </c>
       <c r="D18" s="2">
         <v>22500</v>
       </c>
       <c r="E18" s="2">
-        <v>11250</v>
+        <v>22500</v>
       </c>
       <c r="F18" s="3">
         <v>172800</v>
@@ -9764,15 +9848,15 @@
       <c r="B19" s="2">
         <v>900</v>
       </c>
-      <c r="C19" s="3">
-        <f t="shared" si="0"/>
-        <v>12800</v>
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>102400</v>
       </c>
       <c r="D19" s="3">
         <v>25600</v>
       </c>
-      <c r="E19" s="2">
-        <v>12800</v>
+      <c r="E19" s="3">
+        <v>25600</v>
       </c>
       <c r="F19" s="2">
         <v>216000</v>
@@ -9796,13 +9880,13 @@
       </c>
       <c r="C20" s="2">
         <f t="shared" si="0"/>
-        <v>14450</v>
+        <v>115600</v>
       </c>
       <c r="D20" s="2">
         <v>28900</v>
       </c>
       <c r="E20" s="2">
-        <v>14450</v>
+        <v>28900</v>
       </c>
       <c r="F20" s="3">
         <v>259200</v>
@@ -9824,15 +9908,15 @@
       <c r="B21" s="2">
         <v>1000</v>
       </c>
-      <c r="C21" s="3">
-        <f t="shared" si="0"/>
-        <v>16200</v>
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>129600</v>
       </c>
       <c r="D21" s="2">
         <v>32400</v>
       </c>
       <c r="E21" s="2">
-        <v>16200</v>
+        <v>32400</v>
       </c>
       <c r="F21" s="2">
         <v>302400</v>
@@ -9856,13 +9940,13 @@
       </c>
       <c r="C22" s="2">
         <f t="shared" si="0"/>
-        <v>18050</v>
+        <v>144400</v>
       </c>
       <c r="D22" s="3">
         <v>36100</v>
       </c>
-      <c r="E22" s="2">
-        <v>18050</v>
+      <c r="E22" s="3">
+        <v>36100</v>
       </c>
       <c r="F22" s="2">
         <v>345600</v>
@@ -9884,15 +9968,15 @@
       <c r="B23" s="2">
         <v>1100</v>
       </c>
-      <c r="C23" s="3">
-        <f t="shared" si="0"/>
-        <v>20000</v>
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>160000</v>
       </c>
       <c r="D23" s="2">
         <v>40000</v>
       </c>
       <c r="E23" s="2">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="F23" s="3">
         <v>388800</v>
@@ -9916,13 +10000,13 @@
       </c>
       <c r="C24" s="2">
         <f t="shared" si="0"/>
-        <v>22050</v>
+        <v>176400</v>
       </c>
       <c r="D24" s="3">
         <v>44100</v>
       </c>
-      <c r="E24" s="2">
-        <v>22050</v>
+      <c r="E24" s="3">
+        <v>44100</v>
       </c>
       <c r="F24" s="2">
         <v>432000</v>
@@ -10024,8 +10108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10114,15 +10198,14 @@
         <v>0.01</v>
       </c>
       <c r="C4" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D4" s="2">
-        <f>C4*1.5</f>
-        <v>150</v>
+        <f>C4*3</f>
+        <v>450</v>
       </c>
       <c r="E4" s="2">
-        <f>C4*1.5</f>
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="F4" s="2">
         <v>60</v>
@@ -10145,15 +10228,14 @@
         <v>0.02</v>
       </c>
       <c r="C5" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ref="D5:D24" si="0">C5*1.5</f>
-        <v>600</v>
+        <f t="shared" ref="D5:D24" si="0">C5*3</f>
+        <v>1800</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" ref="E5:E24" si="1">C5*1.5</f>
-        <v>600</v>
+        <v>1800</v>
       </c>
       <c r="F5" s="2">
         <v>300</v>
@@ -10176,15 +10258,14 @@
         <v>0.03</v>
       </c>
       <c r="C6" s="2">
-        <v>900</v>
+        <v>1350</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>1350</v>
+        <v>4050</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="1"/>
-        <v>1350</v>
+        <v>4050</v>
       </c>
       <c r="F6" s="3">
         <v>600</v>
@@ -10207,15 +10288,14 @@
         <v>0.04</v>
       </c>
       <c r="C7" s="3">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>2400</v>
+        <v>7200</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="1"/>
-        <v>2400</v>
+        <v>7200</v>
       </c>
       <c r="F7" s="2">
         <v>900</v>
@@ -10238,15 +10318,14 @@
         <v>0.05</v>
       </c>
       <c r="C8" s="2">
-        <v>2500</v>
+        <v>3750</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>3750</v>
+        <v>11250</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="1"/>
-        <v>3750</v>
+        <v>11250</v>
       </c>
       <c r="F8" s="3">
         <v>1800</v>
@@ -10269,15 +10348,14 @@
         <v>0.06</v>
       </c>
       <c r="C9" s="3">
-        <v>3600</v>
+        <v>5400</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>5400</v>
+        <v>16200</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="1"/>
-        <v>5400</v>
+        <v>16200</v>
       </c>
       <c r="F9" s="2">
         <v>2700</v>
@@ -10300,15 +10378,14 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C10" s="2">
-        <v>4900</v>
+        <v>7350</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>7350</v>
+        <v>22050</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="1"/>
-        <v>7350</v>
+        <v>22050</v>
       </c>
       <c r="F10" s="3">
         <v>3600</v>
@@ -10331,15 +10408,14 @@
         <v>0.08</v>
       </c>
       <c r="C11" s="3">
-        <v>6400</v>
+        <v>9600</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>9600</v>
+        <v>28800</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="1"/>
-        <v>9600</v>
+        <v>28800</v>
       </c>
       <c r="F11" s="2">
         <v>7200</v>
@@ -10362,15 +10438,14 @@
         <v>0.09</v>
       </c>
       <c r="C12" s="2">
-        <v>8100</v>
+        <v>12150</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
-        <v>12150</v>
+        <v>36450</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="1"/>
-        <v>12150</v>
+        <v>36450</v>
       </c>
       <c r="F12" s="3">
         <v>10800</v>
@@ -10393,15 +10468,14 @@
         <v>0.1</v>
       </c>
       <c r="C13" s="3">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="1"/>
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="F13" s="2">
         <v>18000</v>
@@ -10424,15 +10498,14 @@
         <v>0.11</v>
       </c>
       <c r="C14" s="2">
-        <v>12100</v>
+        <v>18150</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="0"/>
-        <v>18150</v>
+        <v>54450</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="1"/>
-        <v>18150</v>
+        <v>54450</v>
       </c>
       <c r="F14" s="3">
         <v>36000</v>
@@ -10455,15 +10528,14 @@
         <v>0.12</v>
       </c>
       <c r="C15" s="3">
-        <v>14400</v>
+        <v>21600</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="0"/>
-        <v>21600</v>
+        <v>64800</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="1"/>
-        <v>21600</v>
+        <v>64800</v>
       </c>
       <c r="F15" s="2">
         <v>57600</v>
@@ -10486,15 +10558,14 @@
         <v>0.13</v>
       </c>
       <c r="C16" s="2">
-        <v>16900</v>
+        <v>25350</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
-        <v>25350</v>
+        <v>76050</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="1"/>
-        <v>25350</v>
+        <v>76050</v>
       </c>
       <c r="F16" s="3">
         <v>86400</v>
@@ -10517,15 +10588,14 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="C17" s="3">
-        <v>19600</v>
+        <v>29400</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="0"/>
-        <v>29400</v>
+        <v>88200</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="1"/>
-        <v>29400</v>
+        <v>88200</v>
       </c>
       <c r="F17" s="2">
         <v>129600</v>
@@ -10548,15 +10618,14 @@
         <v>0.15</v>
       </c>
       <c r="C18" s="2">
-        <v>22500</v>
+        <v>33750</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="0"/>
-        <v>33750</v>
+        <v>101250</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="1"/>
-        <v>33750</v>
+        <v>101250</v>
       </c>
       <c r="F18" s="3">
         <v>172800</v>
@@ -10579,15 +10648,14 @@
         <v>0.16</v>
       </c>
       <c r="C19" s="3">
-        <v>25600</v>
+        <v>38400</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="0"/>
-        <v>38400</v>
+        <v>115200</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="1"/>
-        <v>38400</v>
+        <v>115200</v>
       </c>
       <c r="F19" s="2">
         <v>216000</v>
@@ -10610,15 +10678,14 @@
         <v>0.17</v>
       </c>
       <c r="C20" s="2">
-        <v>28900</v>
+        <v>43350</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="0"/>
-        <v>43350</v>
+        <v>130050</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="1"/>
-        <v>43350</v>
+        <v>130050</v>
       </c>
       <c r="F20" s="3">
         <v>259200</v>
@@ -10641,15 +10708,14 @@
         <v>0.18</v>
       </c>
       <c r="C21" s="2">
-        <v>32400</v>
+        <v>48600</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="0"/>
-        <v>48600</v>
+        <v>145800</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="1"/>
-        <v>48600</v>
+        <v>145800</v>
       </c>
       <c r="F21" s="2">
         <v>302400</v>
@@ -10672,15 +10738,14 @@
         <v>0.19</v>
       </c>
       <c r="C22" s="3">
-        <v>36100</v>
+        <v>54150</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="0"/>
-        <v>54150</v>
+        <v>162450</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="1"/>
-        <v>54150</v>
+        <v>162450</v>
       </c>
       <c r="F22" s="2">
         <v>345600</v>
@@ -10703,15 +10768,14 @@
         <v>0.2</v>
       </c>
       <c r="C23" s="2">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="0"/>
-        <v>60000</v>
+        <v>180000</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="1"/>
-        <v>60000</v>
+        <v>180000</v>
       </c>
       <c r="F23" s="3">
         <v>388800</v>
@@ -10734,15 +10798,14 @@
         <v>0.21</v>
       </c>
       <c r="C24" s="2">
-        <v>44100</v>
+        <v>66150</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="0"/>
-        <v>66150</v>
+        <v>198450</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="1"/>
-        <v>66150</v>
+        <v>198450</v>
       </c>
       <c r="F24" s="2">
         <v>432000</v>
@@ -11038,7 +11101,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11131,11 +11194,11 @@
         <v>100</v>
       </c>
       <c r="D4" s="2">
-        <f>C4/2</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E4" s="2">
-        <v>50</v>
+        <f>C4*2</f>
+        <v>200</v>
       </c>
       <c r="F4" s="2">
         <v>60</v>
@@ -11161,11 +11224,11 @@
         <v>400</v>
       </c>
       <c r="D5" s="3">
-        <f>C5/2</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E5" s="2">
-        <v>200</v>
+        <f t="shared" ref="E5:E24" si="0">C5*2</f>
+        <v>800</v>
       </c>
       <c r="F5" s="2">
         <v>300</v>
@@ -11191,11 +11254,11 @@
         <v>900</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" ref="D6:D24" si="0">C6/2</f>
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="E6" s="2">
-        <v>450</v>
+        <f t="shared" si="0"/>
+        <v>1800</v>
       </c>
       <c r="F6" s="3">
         <v>600</v>
@@ -11221,11 +11284,11 @@
         <v>1600</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="E7" s="2">
-        <v>800</v>
+        <f t="shared" si="0"/>
+        <v>3200</v>
       </c>
       <c r="F7" s="2">
         <v>900</v>
@@ -11251,11 +11314,11 @@
         <v>2500</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>1250</v>
+        <v>2500</v>
       </c>
       <c r="E8" s="2">
-        <v>1250</v>
+        <f t="shared" si="0"/>
+        <v>5000</v>
       </c>
       <c r="F8" s="3">
         <v>1800</v>
@@ -11281,11 +11344,11 @@
         <v>3600</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="E9" s="2">
-        <v>1800</v>
+        <f t="shared" si="0"/>
+        <v>7200</v>
       </c>
       <c r="F9" s="2">
         <v>2700</v>
@@ -11311,11 +11374,11 @@
         <v>4900</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>2450</v>
+        <v>4900</v>
       </c>
       <c r="E10" s="2">
-        <v>2450</v>
+        <f t="shared" si="0"/>
+        <v>9800</v>
       </c>
       <c r="F10" s="3">
         <v>3600</v>
@@ -11341,11 +11404,11 @@
         <v>6400</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>3200</v>
+        <v>6400</v>
       </c>
       <c r="E11" s="2">
-        <v>3200</v>
+        <f t="shared" si="0"/>
+        <v>12800</v>
       </c>
       <c r="F11" s="2">
         <v>7200</v>
@@ -11371,11 +11434,11 @@
         <v>8100</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="0"/>
-        <v>4050</v>
+        <v>8100</v>
       </c>
       <c r="E12" s="2">
-        <v>4050</v>
+        <f t="shared" si="0"/>
+        <v>16200</v>
       </c>
       <c r="F12" s="3">
         <v>10800</v>
@@ -11401,11 +11464,11 @@
         <v>10000</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="E13" s="2">
-        <v>5000</v>
+        <f t="shared" si="0"/>
+        <v>20000</v>
       </c>
       <c r="F13" s="2">
         <v>18000</v>
@@ -11431,11 +11494,11 @@
         <v>12100</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="0"/>
-        <v>6050</v>
+        <v>12100</v>
       </c>
       <c r="E14" s="2">
-        <v>6050</v>
+        <f t="shared" si="0"/>
+        <v>24200</v>
       </c>
       <c r="F14" s="3">
         <v>36000</v>
@@ -11461,11 +11524,11 @@
         <v>14400</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="0"/>
-        <v>7200</v>
+        <v>14400</v>
       </c>
       <c r="E15" s="2">
-        <v>7200</v>
+        <f t="shared" si="0"/>
+        <v>28800</v>
       </c>
       <c r="F15" s="2">
         <v>57600</v>
@@ -11491,11 +11554,11 @@
         <v>16900</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="0"/>
-        <v>8450</v>
+        <v>16900</v>
       </c>
       <c r="E16" s="2">
-        <v>8450</v>
+        <f t="shared" si="0"/>
+        <v>33800</v>
       </c>
       <c r="F16" s="3">
         <v>86400</v>
@@ -11521,11 +11584,11 @@
         <v>19600</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="0"/>
-        <v>9800</v>
+        <v>19600</v>
       </c>
       <c r="E17" s="2">
-        <v>9800</v>
+        <f t="shared" si="0"/>
+        <v>39200</v>
       </c>
       <c r="F17" s="2">
         <v>129600</v>
@@ -11551,11 +11614,11 @@
         <v>22500</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="0"/>
-        <v>11250</v>
+        <v>22500</v>
       </c>
       <c r="E18" s="2">
-        <v>11250</v>
+        <f t="shared" si="0"/>
+        <v>45000</v>
       </c>
       <c r="F18" s="3">
         <v>172800</v>
@@ -11581,11 +11644,11 @@
         <v>25600</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="0"/>
-        <v>12800</v>
+        <v>25600</v>
       </c>
       <c r="E19" s="2">
-        <v>12800</v>
+        <f t="shared" si="0"/>
+        <v>51200</v>
       </c>
       <c r="F19" s="2">
         <v>216000</v>
@@ -11611,11 +11674,11 @@
         <v>28900</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="0"/>
-        <v>14450</v>
+        <v>28900</v>
       </c>
       <c r="E20" s="2">
-        <v>14450</v>
+        <f t="shared" si="0"/>
+        <v>57800</v>
       </c>
       <c r="F20" s="3">
         <v>259200</v>
@@ -11640,12 +11703,12 @@
       <c r="C21" s="2">
         <v>32400</v>
       </c>
-      <c r="D21" s="3">
-        <f t="shared" si="0"/>
-        <v>16200</v>
+      <c r="D21" s="2">
+        <v>32400</v>
       </c>
       <c r="E21" s="2">
-        <v>16200</v>
+        <f t="shared" si="0"/>
+        <v>64800</v>
       </c>
       <c r="F21" s="2">
         <v>302400</v>
@@ -11670,12 +11733,12 @@
       <c r="C22" s="3">
         <v>36100</v>
       </c>
-      <c r="D22" s="2">
-        <f t="shared" si="0"/>
-        <v>18050</v>
+      <c r="D22" s="3">
+        <v>36100</v>
       </c>
       <c r="E22" s="2">
-        <v>18050</v>
+        <f t="shared" si="0"/>
+        <v>72200</v>
       </c>
       <c r="F22" s="2">
         <v>345600</v>
@@ -11700,12 +11763,12 @@
       <c r="C23" s="2">
         <v>40000</v>
       </c>
-      <c r="D23" s="3">
-        <f t="shared" si="0"/>
-        <v>20000</v>
+      <c r="D23" s="2">
+        <v>40000</v>
       </c>
       <c r="E23" s="2">
-        <v>20000</v>
+        <f t="shared" si="0"/>
+        <v>80000</v>
       </c>
       <c r="F23" s="3">
         <v>388800</v>
@@ -11730,12 +11793,12 @@
       <c r="C24" s="2">
         <v>44100</v>
       </c>
-      <c r="D24" s="2">
-        <f t="shared" si="0"/>
-        <v>22050</v>
+      <c r="D24" s="3">
+        <v>44100</v>
       </c>
       <c r="E24" s="2">
-        <v>22050</v>
+        <f t="shared" si="0"/>
+        <v>88200</v>
       </c>
       <c r="F24" s="2">
         <v>432000</v>
@@ -11782,7 +11845,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11873,13 +11936,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="2">
+        <v>200</v>
+      </c>
+      <c r="D4" s="2">
+        <v>200</v>
+      </c>
+      <c r="E4" s="2">
         <v>100</v>
-      </c>
-      <c r="D4" s="2">
-        <v>100</v>
-      </c>
-      <c r="E4" s="2">
-        <v>50</v>
       </c>
       <c r="F4" s="2">
         <v>60</v>
@@ -11902,13 +11965,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="3">
+        <v>800</v>
+      </c>
+      <c r="D5" s="2">
+        <v>800</v>
+      </c>
+      <c r="E5" s="3">
         <v>400</v>
-      </c>
-      <c r="D5" s="3">
-        <v>400</v>
-      </c>
-      <c r="E5" s="2">
-        <v>200</v>
       </c>
       <c r="F5" s="2">
         <v>300</v>
@@ -11931,13 +11994,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="2">
+        <v>1800</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1800</v>
+      </c>
+      <c r="E6" s="2">
         <v>900</v>
-      </c>
-      <c r="D6" s="2">
-        <v>900</v>
-      </c>
-      <c r="E6" s="2">
-        <v>450</v>
       </c>
       <c r="F6" s="3">
         <v>600</v>
@@ -11960,13 +12023,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="3">
+        <v>3200</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3200</v>
+      </c>
+      <c r="E7" s="3">
         <v>1600</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1600</v>
-      </c>
-      <c r="E7" s="2">
-        <v>800</v>
       </c>
       <c r="F7" s="2">
         <v>900</v>
@@ -11989,13 +12052,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="2">
+        <v>5000</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E8" s="2">
         <v>2500</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2500</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1250</v>
       </c>
       <c r="F8" s="3">
         <v>1800</v>
@@ -12018,13 +12081,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="3">
+        <v>7200</v>
+      </c>
+      <c r="D9" s="2">
+        <v>7200</v>
+      </c>
+      <c r="E9" s="3">
         <v>3600</v>
-      </c>
-      <c r="D9" s="3">
-        <v>3600</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1800</v>
       </c>
       <c r="F9" s="2">
         <v>2700</v>
@@ -12047,13 +12110,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="2">
+        <v>9800</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9800</v>
+      </c>
+      <c r="E10" s="2">
         <v>4900</v>
-      </c>
-      <c r="D10" s="2">
-        <v>4900</v>
-      </c>
-      <c r="E10" s="2">
-        <v>2450</v>
       </c>
       <c r="F10" s="3">
         <v>3600</v>
@@ -12076,13 +12139,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="3">
+        <v>12800</v>
+      </c>
+      <c r="D11" s="2">
+        <v>12800</v>
+      </c>
+      <c r="E11" s="3">
         <v>6400</v>
-      </c>
-      <c r="D11" s="3">
-        <v>6400</v>
-      </c>
-      <c r="E11" s="2">
-        <v>3200</v>
       </c>
       <c r="F11" s="2">
         <v>7200</v>
@@ -12105,13 +12168,13 @@
         <v>11</v>
       </c>
       <c r="C12" s="2">
+        <v>16200</v>
+      </c>
+      <c r="D12" s="2">
+        <v>16200</v>
+      </c>
+      <c r="E12" s="2">
         <v>8100</v>
-      </c>
-      <c r="D12" s="2">
-        <v>8100</v>
-      </c>
-      <c r="E12" s="2">
-        <v>4050</v>
       </c>
       <c r="F12" s="3">
         <v>10800</v>
@@ -12134,13 +12197,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D13" s="2">
+        <v>20000</v>
+      </c>
+      <c r="E13" s="3">
         <v>10000</v>
-      </c>
-      <c r="D13" s="3">
-        <v>10000</v>
-      </c>
-      <c r="E13" s="2">
-        <v>5000</v>
       </c>
       <c r="F13" s="2">
         <v>18000</v>
@@ -12163,13 +12226,13 @@
         <v>13</v>
       </c>
       <c r="C14" s="2">
+        <v>24200</v>
+      </c>
+      <c r="D14" s="2">
+        <v>24200</v>
+      </c>
+      <c r="E14" s="2">
         <v>12100</v>
-      </c>
-      <c r="D14" s="2">
-        <v>12100</v>
-      </c>
-      <c r="E14" s="2">
-        <v>6050</v>
       </c>
       <c r="F14" s="3">
         <v>36000</v>
@@ -12192,13 +12255,13 @@
         <v>14</v>
       </c>
       <c r="C15" s="3">
+        <v>28800</v>
+      </c>
+      <c r="D15" s="2">
+        <v>28800</v>
+      </c>
+      <c r="E15" s="3">
         <v>14400</v>
-      </c>
-      <c r="D15" s="3">
-        <v>14400</v>
-      </c>
-      <c r="E15" s="2">
-        <v>7200</v>
       </c>
       <c r="F15" s="2">
         <v>57600</v>
@@ -12221,13 +12284,13 @@
         <v>15</v>
       </c>
       <c r="C16" s="2">
+        <v>33800</v>
+      </c>
+      <c r="D16" s="2">
+        <v>33800</v>
+      </c>
+      <c r="E16" s="2">
         <v>16900</v>
-      </c>
-      <c r="D16" s="2">
-        <v>16900</v>
-      </c>
-      <c r="E16" s="2">
-        <v>8450</v>
       </c>
       <c r="F16" s="3">
         <v>86400</v>
@@ -12250,13 +12313,13 @@
         <v>16</v>
       </c>
       <c r="C17" s="3">
+        <v>39200</v>
+      </c>
+      <c r="D17" s="2">
+        <v>39200</v>
+      </c>
+      <c r="E17" s="3">
         <v>19600</v>
-      </c>
-      <c r="D17" s="3">
-        <v>19600</v>
-      </c>
-      <c r="E17" s="2">
-        <v>9800</v>
       </c>
       <c r="F17" s="2">
         <v>129600</v>
@@ -12279,13 +12342,13 @@
         <v>17</v>
       </c>
       <c r="C18" s="2">
+        <v>45000</v>
+      </c>
+      <c r="D18" s="2">
+        <v>45000</v>
+      </c>
+      <c r="E18" s="2">
         <v>22500</v>
-      </c>
-      <c r="D18" s="2">
-        <v>22500</v>
-      </c>
-      <c r="E18" s="2">
-        <v>11250</v>
       </c>
       <c r="F18" s="3">
         <v>172800</v>
@@ -12308,13 +12371,13 @@
         <v>18</v>
       </c>
       <c r="C19" s="3">
+        <v>51200</v>
+      </c>
+      <c r="D19" s="2">
+        <v>51200</v>
+      </c>
+      <c r="E19" s="3">
         <v>25600</v>
-      </c>
-      <c r="D19" s="3">
-        <v>25600</v>
-      </c>
-      <c r="E19" s="2">
-        <v>12800</v>
       </c>
       <c r="F19" s="2">
         <v>216000</v>
@@ -12337,13 +12400,13 @@
         <v>19</v>
       </c>
       <c r="C20" s="2">
+        <v>57800</v>
+      </c>
+      <c r="D20" s="2">
+        <v>57800</v>
+      </c>
+      <c r="E20" s="2">
         <v>28900</v>
-      </c>
-      <c r="D20" s="2">
-        <v>28900</v>
-      </c>
-      <c r="E20" s="2">
-        <v>14450</v>
       </c>
       <c r="F20" s="3">
         <v>259200</v>
@@ -12366,13 +12429,13 @@
         <v>20</v>
       </c>
       <c r="C21" s="2">
+        <v>64800</v>
+      </c>
+      <c r="D21" s="2">
+        <v>64800</v>
+      </c>
+      <c r="E21" s="2">
         <v>32400</v>
-      </c>
-      <c r="D21" s="2">
-        <v>32400</v>
-      </c>
-      <c r="E21" s="2">
-        <v>16200</v>
       </c>
       <c r="F21" s="2">
         <v>302400</v>
@@ -12395,13 +12458,13 @@
         <v>21</v>
       </c>
       <c r="C22" s="3">
+        <v>72200</v>
+      </c>
+      <c r="D22" s="2">
+        <v>72200</v>
+      </c>
+      <c r="E22" s="3">
         <v>36100</v>
-      </c>
-      <c r="D22" s="3">
-        <v>36100</v>
-      </c>
-      <c r="E22" s="2">
-        <v>18050</v>
       </c>
       <c r="F22" s="2">
         <v>345600</v>
@@ -12424,13 +12487,13 @@
         <v>22</v>
       </c>
       <c r="C23" s="2">
+        <v>80000</v>
+      </c>
+      <c r="D23" s="2">
+        <v>80000</v>
+      </c>
+      <c r="E23" s="2">
         <v>40000</v>
-      </c>
-      <c r="D23" s="2">
-        <v>40000</v>
-      </c>
-      <c r="E23" s="2">
-        <v>20000</v>
       </c>
       <c r="F23" s="3">
         <v>388800</v>
@@ -12453,13 +12516,13 @@
         <v>23</v>
       </c>
       <c r="C24" s="2">
+        <v>88200</v>
+      </c>
+      <c r="D24" s="2">
+        <v>88200</v>
+      </c>
+      <c r="E24" s="3">
         <v>44100</v>
-      </c>
-      <c r="D24" s="3">
-        <v>44100</v>
-      </c>
-      <c r="E24" s="2">
-        <v>22050</v>
       </c>
       <c r="F24" s="2">
         <v>432000</v>
@@ -12506,7 +12569,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12595,13 +12658,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D4" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E4" s="2">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="F4" s="2">
         <v>60</v>
@@ -12624,13 +12687,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="D5" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="E5" s="2">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="F5" s="2">
         <v>300</v>
@@ -12653,13 +12716,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="2">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="D6" s="2">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="E6" s="2">
-        <v>450</v>
+        <v>1800</v>
       </c>
       <c r="F6" s="3">
         <v>600</v>
@@ -12682,13 +12745,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="3">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="D7" s="3">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="E7" s="2">
-        <v>800</v>
+        <v>3200</v>
       </c>
       <c r="F7" s="2">
         <v>900</v>
@@ -12711,13 +12774,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="2">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="D8" s="2">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="E8" s="2">
-        <v>1250</v>
+        <v>5000</v>
       </c>
       <c r="F8" s="3">
         <v>1800</v>
@@ -12740,13 +12803,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="3">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="D9" s="3">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="E9" s="2">
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="F9" s="2">
         <v>2700</v>
@@ -12769,13 +12832,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="2">
-        <v>4900</v>
+        <v>9800</v>
       </c>
       <c r="D10" s="2">
-        <v>4900</v>
+        <v>9800</v>
       </c>
       <c r="E10" s="2">
-        <v>2450</v>
+        <v>9800</v>
       </c>
       <c r="F10" s="3">
         <v>3600</v>
@@ -12798,13 +12861,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="3">
-        <v>6400</v>
+        <v>12800</v>
       </c>
       <c r="D11" s="3">
-        <v>6400</v>
+        <v>12800</v>
       </c>
       <c r="E11" s="2">
-        <v>3200</v>
+        <v>12800</v>
       </c>
       <c r="F11" s="2">
         <v>7200</v>
@@ -12827,13 +12890,13 @@
         <v>11</v>
       </c>
       <c r="C12" s="2">
-        <v>8100</v>
+        <v>16200</v>
       </c>
       <c r="D12" s="2">
-        <v>8100</v>
+        <v>16200</v>
       </c>
       <c r="E12" s="2">
-        <v>4050</v>
+        <v>16200</v>
       </c>
       <c r="F12" s="3">
         <v>10800</v>
@@ -12856,13 +12919,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="3">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D13" s="3">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E13" s="2">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="F13" s="2">
         <v>18000</v>
@@ -12885,13 +12948,13 @@
         <v>13</v>
       </c>
       <c r="C14" s="2">
-        <v>12100</v>
+        <v>24200</v>
       </c>
       <c r="D14" s="2">
-        <v>12100</v>
+        <v>24200</v>
       </c>
       <c r="E14" s="2">
-        <v>6050</v>
+        <v>24200</v>
       </c>
       <c r="F14" s="3">
         <v>36000</v>
@@ -12914,13 +12977,13 @@
         <v>14</v>
       </c>
       <c r="C15" s="3">
-        <v>14400</v>
+        <v>28800</v>
       </c>
       <c r="D15" s="3">
-        <v>14400</v>
+        <v>28800</v>
       </c>
       <c r="E15" s="2">
-        <v>7200</v>
+        <v>28800</v>
       </c>
       <c r="F15" s="2">
         <v>57600</v>
@@ -12943,13 +13006,13 @@
         <v>15</v>
       </c>
       <c r="C16" s="2">
-        <v>16900</v>
+        <v>33800</v>
       </c>
       <c r="D16" s="2">
-        <v>16900</v>
+        <v>33800</v>
       </c>
       <c r="E16" s="2">
-        <v>8450</v>
+        <v>33800</v>
       </c>
       <c r="F16" s="3">
         <v>86400</v>
@@ -12972,13 +13035,13 @@
         <v>16</v>
       </c>
       <c r="C17" s="3">
-        <v>19600</v>
+        <v>39200</v>
       </c>
       <c r="D17" s="3">
-        <v>19600</v>
+        <v>39200</v>
       </c>
       <c r="E17" s="2">
-        <v>9800</v>
+        <v>39200</v>
       </c>
       <c r="F17" s="2">
         <v>129600</v>
@@ -13001,13 +13064,13 @@
         <v>17</v>
       </c>
       <c r="C18" s="2">
-        <v>22500</v>
+        <v>45000</v>
       </c>
       <c r="D18" s="2">
-        <v>22500</v>
+        <v>45000</v>
       </c>
       <c r="E18" s="2">
-        <v>11250</v>
+        <v>45000</v>
       </c>
       <c r="F18" s="3">
         <v>172800</v>
@@ -13030,13 +13093,13 @@
         <v>18</v>
       </c>
       <c r="C19" s="3">
-        <v>25600</v>
+        <v>51200</v>
       </c>
       <c r="D19" s="3">
-        <v>25600</v>
+        <v>51200</v>
       </c>
       <c r="E19" s="2">
-        <v>12800</v>
+        <v>51200</v>
       </c>
       <c r="F19" s="2">
         <v>216000</v>
@@ -13059,13 +13122,13 @@
         <v>19</v>
       </c>
       <c r="C20" s="2">
-        <v>28900</v>
+        <v>57800</v>
       </c>
       <c r="D20" s="2">
-        <v>28900</v>
+        <v>57800</v>
       </c>
       <c r="E20" s="2">
-        <v>14450</v>
+        <v>57800</v>
       </c>
       <c r="F20" s="3">
         <v>259200</v>
@@ -13088,13 +13151,13 @@
         <v>20</v>
       </c>
       <c r="C21" s="2">
-        <v>32400</v>
+        <v>64800</v>
       </c>
       <c r="D21" s="2">
-        <v>32400</v>
+        <v>64800</v>
       </c>
       <c r="E21" s="2">
-        <v>16200</v>
+        <v>64800</v>
       </c>
       <c r="F21" s="2">
         <v>302400</v>
@@ -13117,13 +13180,13 @@
         <v>21</v>
       </c>
       <c r="C22" s="3">
-        <v>36100</v>
+        <v>72200</v>
       </c>
       <c r="D22" s="3">
-        <v>36100</v>
+        <v>72200</v>
       </c>
       <c r="E22" s="2">
-        <v>18050</v>
+        <v>72200</v>
       </c>
       <c r="F22" s="2">
         <v>345600</v>
@@ -13146,13 +13209,13 @@
         <v>22</v>
       </c>
       <c r="C23" s="2">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="D23" s="2">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="E23" s="2">
-        <v>20000</v>
+        <v>80000</v>
       </c>
       <c r="F23" s="3">
         <v>388800</v>
@@ -13175,13 +13238,13 @@
         <v>23</v>
       </c>
       <c r="C24" s="2">
-        <v>44100</v>
+        <v>88200</v>
       </c>
       <c r="D24" s="3">
-        <v>44100</v>
+        <v>88200</v>
       </c>
       <c r="E24" s="2">
-        <v>22050</v>
+        <v>88200</v>
       </c>
       <c r="F24" s="2">
         <v>432000</v>
@@ -13226,8 +13289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13352,8 +13415,8 @@
         <v>150</v>
       </c>
       <c r="F4" s="2">
-        <f>D4/2</f>
-        <v>50</v>
+        <f>D4*2</f>
+        <v>200</v>
       </c>
       <c r="G4" s="2">
         <v>60</v>
@@ -13387,8 +13450,8 @@
         <v>600</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" ref="F5:F24" si="1">D5/2</f>
-        <v>200</v>
+        <f t="shared" ref="F5:F24" si="1">D5*2</f>
+        <v>800</v>
       </c>
       <c r="G5" s="2">
         <v>300</v>
@@ -13423,7 +13486,7 @@
       </c>
       <c r="F6" s="2">
         <f t="shared" si="1"/>
-        <v>450</v>
+        <v>1800</v>
       </c>
       <c r="G6" s="3">
         <v>600</v>
@@ -13458,7 +13521,7 @@
       </c>
       <c r="F7" s="2">
         <f t="shared" si="1"/>
-        <v>800</v>
+        <v>3200</v>
       </c>
       <c r="G7" s="2">
         <v>900</v>
@@ -13493,7 +13556,7 @@
       </c>
       <c r="F8" s="2">
         <f t="shared" si="1"/>
-        <v>1250</v>
+        <v>5000</v>
       </c>
       <c r="G8" s="3">
         <v>1800</v>
@@ -13528,7 +13591,7 @@
       </c>
       <c r="F9" s="2">
         <f t="shared" si="1"/>
-        <v>1800</v>
+        <v>7200</v>
       </c>
       <c r="G9" s="2">
         <v>2700</v>
@@ -13563,7 +13626,7 @@
       </c>
       <c r="F10" s="2">
         <f t="shared" si="1"/>
-        <v>2450</v>
+        <v>9800</v>
       </c>
       <c r="G10" s="3">
         <v>3600</v>
@@ -13598,7 +13661,7 @@
       </c>
       <c r="F11" s="2">
         <f t="shared" si="1"/>
-        <v>3200</v>
+        <v>12800</v>
       </c>
       <c r="G11" s="2">
         <v>7200</v>
@@ -13633,7 +13696,7 @@
       </c>
       <c r="F12" s="2">
         <f t="shared" si="1"/>
-        <v>4050</v>
+        <v>16200</v>
       </c>
       <c r="G12" s="3">
         <v>10800</v>
@@ -13668,7 +13731,7 @@
       </c>
       <c r="F13" s="2">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="G13" s="2">
         <v>18000</v>
@@ -13703,7 +13766,7 @@
       </c>
       <c r="F14" s="2">
         <f t="shared" si="1"/>
-        <v>6050</v>
+        <v>24200</v>
       </c>
       <c r="G14" s="3">
         <v>36000</v>
@@ -13738,7 +13801,7 @@
       </c>
       <c r="F15" s="2">
         <f t="shared" si="1"/>
-        <v>7200</v>
+        <v>28800</v>
       </c>
       <c r="G15" s="2">
         <v>57600</v>
@@ -13773,7 +13836,7 @@
       </c>
       <c r="F16" s="2">
         <f t="shared" si="1"/>
-        <v>8450</v>
+        <v>33800</v>
       </c>
       <c r="G16" s="3">
         <v>86400</v>
@@ -13808,7 +13871,7 @@
       </c>
       <c r="F17" s="2">
         <f t="shared" si="1"/>
-        <v>9800</v>
+        <v>39200</v>
       </c>
       <c r="G17" s="2">
         <v>129600</v>
@@ -13843,7 +13906,7 @@
       </c>
       <c r="F18" s="2">
         <f t="shared" si="1"/>
-        <v>11250</v>
+        <v>45000</v>
       </c>
       <c r="G18" s="3">
         <v>172800</v>
@@ -13878,7 +13941,7 @@
       </c>
       <c r="F19" s="2">
         <f t="shared" si="1"/>
-        <v>12800</v>
+        <v>51200</v>
       </c>
       <c r="G19" s="2">
         <v>216000</v>
@@ -13913,7 +13976,7 @@
       </c>
       <c r="F20" s="2">
         <f t="shared" si="1"/>
-        <v>14450</v>
+        <v>57800</v>
       </c>
       <c r="G20" s="3">
         <v>259200</v>
@@ -13948,7 +14011,7 @@
       </c>
       <c r="F21" s="2">
         <f t="shared" si="1"/>
-        <v>16200</v>
+        <v>64800</v>
       </c>
       <c r="G21" s="2">
         <v>302400</v>
@@ -13983,7 +14046,7 @@
       </c>
       <c r="F22" s="2">
         <f t="shared" si="1"/>
-        <v>18050</v>
+        <v>72200</v>
       </c>
       <c r="G22" s="2">
         <v>345600</v>
@@ -14018,7 +14081,7 @@
       </c>
       <c r="F23" s="2">
         <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>80000</v>
       </c>
       <c r="G23" s="3">
         <v>388800</v>
@@ -14053,7 +14116,7 @@
       </c>
       <c r="F24" s="2">
         <f t="shared" si="1"/>
-        <v>22050</v>
+        <v>88200</v>
       </c>
       <c r="G24" s="2">
         <v>432000</v>
@@ -14093,7 +14156,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14997,7 +15060,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15098,12 +15161,12 @@
         <v>1</v>
       </c>
       <c r="D4" s="2">
-        <f>F4*0.75</f>
-        <v>75</v>
+        <f>F4*3</f>
+        <v>300</v>
       </c>
       <c r="E4" s="2">
-        <f>F4*0.75</f>
-        <v>75</v>
+        <f>F4*3</f>
+        <v>300</v>
       </c>
       <c r="F4" s="2">
         <v>100</v>
@@ -15132,12 +15195,12 @@
         <v>1</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ref="D5:D24" si="0">F5*0.75</f>
-        <v>300</v>
+        <f t="shared" ref="D5:D24" si="0">F5*3</f>
+        <v>1200</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" ref="E5:E24" si="1">F5*0.75</f>
-        <v>300</v>
+        <f t="shared" ref="E5:E24" si="1">F5*3</f>
+        <v>1200</v>
       </c>
       <c r="F5" s="3">
         <v>400</v>
@@ -15167,11 +15230,11 @@
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>675</v>
+        <v>2700</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="1"/>
-        <v>675</v>
+        <v>2700</v>
       </c>
       <c r="F6" s="2">
         <v>900</v>
@@ -15201,11 +15264,11 @@
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>4800</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>4800</v>
       </c>
       <c r="F7" s="3">
         <v>1600</v>
@@ -15235,11 +15298,11 @@
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>1875</v>
+        <v>7500</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="1"/>
-        <v>1875</v>
+        <v>7500</v>
       </c>
       <c r="F8" s="2">
         <v>2500</v>
@@ -15269,11 +15332,11 @@
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>2700</v>
+        <v>10800</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>2700</v>
+        <v>10800</v>
       </c>
       <c r="F9" s="3">
         <v>3600</v>
@@ -15303,11 +15366,11 @@
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>3675</v>
+        <v>14700</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="1"/>
-        <v>3675</v>
+        <v>14700</v>
       </c>
       <c r="F10" s="2">
         <v>4900</v>
@@ -15337,11 +15400,11 @@
       </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>4800</v>
+        <v>19200</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="1"/>
-        <v>4800</v>
+        <v>19200</v>
       </c>
       <c r="F11" s="3">
         <v>6400</v>
@@ -15371,11 +15434,11 @@
       </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
-        <v>6075</v>
+        <v>24300</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="1"/>
-        <v>6075</v>
+        <v>24300</v>
       </c>
       <c r="F12" s="2">
         <v>8100</v>
@@ -15405,11 +15468,11 @@
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>7500</v>
+        <v>30000</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="1"/>
-        <v>7500</v>
+        <v>30000</v>
       </c>
       <c r="F13" s="3">
         <v>10000</v>
@@ -15439,11 +15502,11 @@
       </c>
       <c r="D14" s="2">
         <f t="shared" si="0"/>
-        <v>9075</v>
+        <v>36300</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="1"/>
-        <v>9075</v>
+        <v>36300</v>
       </c>
       <c r="F14" s="2">
         <v>12100</v>
@@ -15473,11 +15536,11 @@
       </c>
       <c r="D15" s="2">
         <f t="shared" si="0"/>
-        <v>10800</v>
+        <v>43200</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="1"/>
-        <v>10800</v>
+        <v>43200</v>
       </c>
       <c r="F15" s="3">
         <v>14400</v>
@@ -15507,11 +15570,11 @@
       </c>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
-        <v>12675</v>
+        <v>50700</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="1"/>
-        <v>12675</v>
+        <v>50700</v>
       </c>
       <c r="F16" s="2">
         <v>16900</v>
@@ -15541,11 +15604,11 @@
       </c>
       <c r="D17" s="2">
         <f t="shared" si="0"/>
-        <v>14700</v>
+        <v>58800</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="1"/>
-        <v>14700</v>
+        <v>58800</v>
       </c>
       <c r="F17" s="3">
         <v>19600</v>
@@ -15575,11 +15638,11 @@
       </c>
       <c r="D18" s="2">
         <f t="shared" si="0"/>
-        <v>16875</v>
+        <v>67500</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="1"/>
-        <v>16875</v>
+        <v>67500</v>
       </c>
       <c r="F18" s="2">
         <v>22500</v>
@@ -15609,11 +15672,11 @@
       </c>
       <c r="D19" s="2">
         <f t="shared" si="0"/>
-        <v>19200</v>
+        <v>76800</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="1"/>
-        <v>19200</v>
+        <v>76800</v>
       </c>
       <c r="F19" s="3">
         <v>25600</v>
@@ -15643,11 +15706,11 @@
       </c>
       <c r="D20" s="2">
         <f t="shared" si="0"/>
-        <v>21675</v>
+        <v>86700</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="1"/>
-        <v>21675</v>
+        <v>86700</v>
       </c>
       <c r="F20" s="2">
         <v>28900</v>
@@ -15677,11 +15740,11 @@
       </c>
       <c r="D21" s="2">
         <f t="shared" si="0"/>
-        <v>24300</v>
+        <v>97200</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="1"/>
-        <v>24300</v>
+        <v>97200</v>
       </c>
       <c r="F21" s="2">
         <v>32400</v>
@@ -15711,11 +15774,11 @@
       </c>
       <c r="D22" s="2">
         <f t="shared" si="0"/>
-        <v>27075</v>
+        <v>108300</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="1"/>
-        <v>27075</v>
+        <v>108300</v>
       </c>
       <c r="F22" s="3">
         <v>36100</v>
@@ -15745,11 +15808,11 @@
       </c>
       <c r="D23" s="2">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>120000</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="1"/>
-        <v>30000</v>
+        <v>120000</v>
       </c>
       <c r="F23" s="2">
         <v>40000</v>
@@ -15779,11 +15842,11 @@
       </c>
       <c r="D24" s="2">
         <f t="shared" si="0"/>
-        <v>33075</v>
+        <v>132300</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="1"/>
-        <v>33075</v>
+        <v>132300</v>
       </c>
       <c r="F24" s="3">
         <v>44100</v>
@@ -15828,7 +15891,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -15930,13 +15993,13 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="D4" s="2">
-        <v>100</v>
+        <f>F4*3</f>
+        <v>450</v>
       </c>
       <c r="E4" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F4" s="2">
-        <f>D4*1.5</f>
         <v>150</v>
       </c>
       <c r="G4" s="2">
@@ -15962,14 +16025,14 @@
       <c r="C5" s="4">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D5" s="3">
-        <v>400</v>
-      </c>
-      <c r="E5" s="3">
-        <v>400</v>
+      <c r="D5" s="2">
+        <f t="shared" ref="D5:D24" si="0">F5*3</f>
+        <v>1800</v>
+      </c>
+      <c r="E5" s="2">
+        <v>800</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" ref="F5:F24" si="0">D5*1.5</f>
         <v>600</v>
       </c>
       <c r="G5" s="2">
@@ -15996,13 +16059,13 @@
         <v>0.27</v>
       </c>
       <c r="D6" s="2">
-        <v>900</v>
+        <f t="shared" si="0"/>
+        <v>4050</v>
       </c>
       <c r="E6" s="2">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="0"/>
         <v>1350</v>
       </c>
       <c r="G6" s="3">
@@ -16028,14 +16091,14 @@
       <c r="C7" s="4">
         <v>0.26</v>
       </c>
-      <c r="D7" s="3">
-        <v>1600</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1600</v>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>7200</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3200</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="0"/>
         <v>2400</v>
       </c>
       <c r="G7" s="2">
@@ -16062,13 +16125,13 @@
         <v>0.25</v>
       </c>
       <c r="D8" s="2">
-        <v>2500</v>
+        <f t="shared" si="0"/>
+        <v>11250</v>
       </c>
       <c r="E8" s="2">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="0"/>
         <v>3750</v>
       </c>
       <c r="G8" s="3">
@@ -16094,14 +16157,14 @@
       <c r="C9" s="4">
         <v>0.24</v>
       </c>
-      <c r="D9" s="3">
-        <v>3600</v>
-      </c>
-      <c r="E9" s="3">
-        <v>3600</v>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>16200</v>
+      </c>
+      <c r="E9" s="2">
+        <v>7200</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="0"/>
         <v>5400</v>
       </c>
       <c r="G9" s="2">
@@ -16128,13 +16191,13 @@
         <v>0.23</v>
       </c>
       <c r="D10" s="2">
-        <v>4900</v>
+        <f t="shared" si="0"/>
+        <v>22050</v>
       </c>
       <c r="E10" s="2">
-        <v>4900</v>
+        <v>9800</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="0"/>
         <v>7350</v>
       </c>
       <c r="G10" s="3">
@@ -16160,14 +16223,14 @@
       <c r="C11" s="4">
         <v>0.22</v>
       </c>
-      <c r="D11" s="3">
-        <v>6400</v>
-      </c>
-      <c r="E11" s="3">
-        <v>6400</v>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>28800</v>
+      </c>
+      <c r="E11" s="2">
+        <v>12800</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="0"/>
         <v>9600</v>
       </c>
       <c r="G11" s="2">
@@ -16194,13 +16257,13 @@
         <v>0.21</v>
       </c>
       <c r="D12" s="2">
-        <v>8100</v>
+        <f t="shared" si="0"/>
+        <v>36450</v>
       </c>
       <c r="E12" s="2">
-        <v>8100</v>
+        <v>16200</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="0"/>
         <v>12150</v>
       </c>
       <c r="G12" s="3">
@@ -16226,14 +16289,14 @@
       <c r="C13" s="4">
         <v>0.2</v>
       </c>
-      <c r="D13" s="3">
-        <v>10000</v>
-      </c>
-      <c r="E13" s="3">
-        <v>10000</v>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>45000</v>
+      </c>
+      <c r="E13" s="2">
+        <v>20000</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="0"/>
         <v>15000</v>
       </c>
       <c r="G13" s="2">
@@ -16260,13 +16323,13 @@
         <v>0.19</v>
       </c>
       <c r="D14" s="2">
-        <v>12100</v>
+        <f t="shared" si="0"/>
+        <v>54450</v>
       </c>
       <c r="E14" s="2">
-        <v>12100</v>
+        <v>24200</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="0"/>
         <v>18150</v>
       </c>
       <c r="G14" s="3">
@@ -16292,14 +16355,14 @@
       <c r="C15" s="4">
         <v>0.18</v>
       </c>
-      <c r="D15" s="3">
-        <v>14400</v>
-      </c>
-      <c r="E15" s="3">
-        <v>14400</v>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>64800</v>
+      </c>
+      <c r="E15" s="2">
+        <v>28800</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="0"/>
         <v>21600</v>
       </c>
       <c r="G15" s="2">
@@ -16326,13 +16389,13 @@
         <v>0.17</v>
       </c>
       <c r="D16" s="2">
-        <v>16900</v>
+        <f t="shared" si="0"/>
+        <v>76050</v>
       </c>
       <c r="E16" s="2">
-        <v>16900</v>
+        <v>33800</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="0"/>
         <v>25350</v>
       </c>
       <c r="G16" s="3">
@@ -16358,14 +16421,14 @@
       <c r="C17" s="4">
         <v>0.16</v>
       </c>
-      <c r="D17" s="3">
-        <v>19600</v>
-      </c>
-      <c r="E17" s="3">
-        <v>19600</v>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>88200</v>
+      </c>
+      <c r="E17" s="2">
+        <v>39200</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="0"/>
         <v>29400</v>
       </c>
       <c r="G17" s="2">
@@ -16392,13 +16455,13 @@
         <v>0.15</v>
       </c>
       <c r="D18" s="2">
-        <v>22500</v>
+        <f t="shared" si="0"/>
+        <v>101250</v>
       </c>
       <c r="E18" s="2">
-        <v>22500</v>
+        <v>45000</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="0"/>
         <v>33750</v>
       </c>
       <c r="G18" s="3">
@@ -16424,14 +16487,14 @@
       <c r="C19" s="4">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D19" s="3">
-        <v>25600</v>
-      </c>
-      <c r="E19" s="3">
-        <v>25600</v>
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>115200</v>
+      </c>
+      <c r="E19" s="2">
+        <v>51200</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="0"/>
         <v>38400</v>
       </c>
       <c r="G19" s="2">
@@ -16458,13 +16521,13 @@
         <v>0.13</v>
       </c>
       <c r="D20" s="2">
-        <v>28900</v>
+        <f t="shared" si="0"/>
+        <v>130050</v>
       </c>
       <c r="E20" s="2">
-        <v>28900</v>
+        <v>57800</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="0"/>
         <v>43350</v>
       </c>
       <c r="G20" s="3">
@@ -16491,13 +16554,13 @@
         <v>0.12</v>
       </c>
       <c r="D21" s="2">
-        <v>32400</v>
+        <f t="shared" si="0"/>
+        <v>145800</v>
       </c>
       <c r="E21" s="2">
-        <v>32400</v>
+        <v>64800</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="0"/>
         <v>48600</v>
       </c>
       <c r="G21" s="2">
@@ -16523,14 +16586,14 @@
       <c r="C22" s="4">
         <v>0.11</v>
       </c>
-      <c r="D22" s="3">
-        <v>36100</v>
-      </c>
-      <c r="E22" s="3">
-        <v>36100</v>
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>162450</v>
+      </c>
+      <c r="E22" s="2">
+        <v>72200</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="0"/>
         <v>54150</v>
       </c>
       <c r="G22" s="2">
@@ -16557,13 +16620,13 @@
         <v>0.1</v>
       </c>
       <c r="D23" s="2">
-        <v>40000</v>
+        <f t="shared" si="0"/>
+        <v>180000</v>
       </c>
       <c r="E23" s="2">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="0"/>
         <v>60000</v>
       </c>
       <c r="G23" s="3">
@@ -16590,13 +16653,13 @@
         <v>0.09</v>
       </c>
       <c r="D24" s="2">
-        <v>44100</v>
-      </c>
-      <c r="E24" s="3">
-        <v>44100</v>
+        <f t="shared" si="0"/>
+        <v>198450</v>
+      </c>
+      <c r="E24" s="2">
+        <v>88200</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="0"/>
         <v>66150</v>
       </c>
       <c r="G24" s="2">

--- a/const/technologies.xlsx
+++ b/const/technologies.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="11640" firstSheet="8" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27020" windowHeight="14920"/>
   </bookViews>
   <sheets>
     <sheet name="住宅" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="智慧" sheetId="21" r:id="rId20"/>
     <sheet name="define" sheetId="22" r:id="rId21"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -512,11 +512,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="58">
+  <cellStyleXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -741,9 +747,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="58">
+  <cellStyles count="60">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
@@ -772,34 +777,37 @@
     <cellStyle name="超链接" xfId="52" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="54" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="56" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1100,24 +1108,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
     <col min="2" max="3" width="18" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.875" style="1"/>
-    <col min="9" max="9" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.875" style="1"/>
+    <col min="7" max="7" width="17.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="1"/>
+    <col min="9" max="9" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17">
       <c r="A1" s="16" t="s">
         <v>85</v>
       </c>
@@ -1136,7 +1144,7 @@
       </c>
       <c r="K1" s="16"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17">
       <c r="A2" s="16"/>
       <c r="B2" s="12" t="s">
         <v>88</v>
@@ -1165,12 +1173,12 @@
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
     </row>
-    <row r="3" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" s="12" customFormat="1">
       <c r="A3" s="12">
         <v>0</v>
       </c>
       <c r="B3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -1197,25 +1205,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" s="11" customFormat="1">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
       </c>
       <c r="D4" s="2">
-        <f>E4/2</f>
-        <v>1250</v>
+        <v>800</v>
       </c>
       <c r="E4" s="2">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="F4" s="2">
-        <v>1250</v>
+        <v>800</v>
       </c>
       <c r="G4" s="3">
         <v>1800</v>
@@ -1230,12 +1237,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17">
       <c r="A5" s="12">
         <v>2</v>
       </c>
       <c r="B5" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -1270,12 +1277,12 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -1310,12 +1317,12 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17">
       <c r="A7" s="12">
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
@@ -1350,10 +1357,38 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+    <row r="8" spans="1:17">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
+        <f>E8/2</f>
+        <v>42050</v>
+      </c>
+      <c r="E8" s="3">
+        <v>84100</v>
+      </c>
+      <c r="F8" s="2">
+        <v>42050</v>
+      </c>
+      <c r="G8" s="2">
+        <v>632000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>32000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>44100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
       <c r="K8" s="3"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1362,7 +1397,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17">
       <c r="A9" s="12"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1374,7 +1409,7 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:17">
       <c r="A10" s="2"/>
       <c r="K10" s="3"/>
       <c r="L10" s="2"/>
@@ -1384,7 +1419,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1397,7 +1432,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1416,7 +1451,7 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:17">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1435,7 +1470,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:17">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1454,7 +1489,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:17">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1473,7 +1508,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1492,7 +1527,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1511,7 +1546,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1530,7 +1565,7 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1542,7 +1577,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1561,7 +1596,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1580,7 +1615,7 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1599,7 +1634,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1618,7 +1653,7 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1637,7 +1672,7 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
@@ -1655,7 +1690,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1673,7 +1708,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1691,7 +1726,7 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1709,7 +1744,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1727,7 +1762,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1745,7 +1780,7 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1763,7 +1798,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1781,7 +1816,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1799,7 +1834,7 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1817,7 +1852,7 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1835,7 +1870,7 @@
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1853,7 +1888,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1871,7 +1906,7 @@
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1915,13 +1950,13 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="26.375" customWidth="1"/>
-    <col min="7" max="7" width="18.125" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
@@ -1940,7 +1975,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="5" t="s">
@@ -1963,7 +1998,7 @@
       </c>
       <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="11">
         <v>0</v>
       </c>
@@ -1992,7 +2027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2023,7 +2058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -2054,7 +2089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2085,7 +2120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -2116,7 +2151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -2147,7 +2182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -2178,7 +2213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -2209,7 +2244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -2240,7 +2275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -2271,7 +2306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -2302,7 +2337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -2333,7 +2368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -2364,7 +2399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -2395,7 +2430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -2426,7 +2461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -2457,7 +2492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -2488,7 +2523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -2519,7 +2554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -2550,7 +2585,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -2581,7 +2616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -2612,7 +2647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -2669,19 +2704,19 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
-    <col min="2" max="2" width="24.625" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="17.625" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
     <col min="9" max="9" width="18.5" customWidth="1"/>
-    <col min="10" max="10" width="18.125" customWidth="1"/>
-    <col min="11" max="11" width="17.625" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
@@ -2700,7 +2735,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="5" t="s">
@@ -2723,7 +2758,7 @@
       </c>
       <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="11">
         <v>0</v>
       </c>
@@ -2752,7 +2787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2782,7 +2817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -2812,7 +2847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2842,7 +2877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -2872,7 +2907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -2902,7 +2937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -2932,7 +2967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -2962,7 +2997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -2992,7 +3027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -3022,7 +3057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -3052,7 +3087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -3082,7 +3117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -3112,7 +3147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -3142,7 +3177,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -3172,7 +3207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -3202,7 +3237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -3232,7 +3267,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -3262,7 +3297,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -3292,7 +3327,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -3322,7 +3357,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -3352,7 +3387,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -3408,12 +3443,12 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="16" t="s">
         <v>22</v>
       </c>
@@ -3432,7 +3467,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="5" t="s">
@@ -3455,7 +3490,7 @@
       </c>
       <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="11">
         <v>0</v>
       </c>
@@ -3484,7 +3519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -3514,7 +3549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -3544,7 +3579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -3574,7 +3609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -3604,7 +3639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -3634,7 +3669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -3664,7 +3699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -3694,7 +3729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -3724,7 +3759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -3754,7 +3789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -3784,7 +3819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -3814,7 +3849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -3844,7 +3879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -3874,7 +3909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -3904,7 +3939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -3934,7 +3969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -3964,7 +3999,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -3994,7 +4029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -4024,7 +4059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -4054,7 +4089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -4084,7 +4119,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -4140,13 +4175,13 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="16" t="s">
         <v>22</v>
       </c>
@@ -4167,7 +4202,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="5" t="s">
@@ -4192,7 +4227,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" s="11">
         <v>0</v>
       </c>
@@ -4223,7 +4258,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -4256,7 +4291,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -4289,7 +4324,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -4322,7 +4357,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -4355,7 +4390,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -4388,7 +4423,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -4421,7 +4456,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -4454,7 +4489,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -4487,7 +4522,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -4520,7 +4555,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -4553,7 +4588,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -4586,7 +4621,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -4619,7 +4654,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -4652,7 +4687,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -4685,7 +4720,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -4718,7 +4753,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -4751,7 +4786,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -4784,7 +4819,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -4817,7 +4852,7 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -4850,7 +4885,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -4883,7 +4918,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -4916,7 +4951,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11">
       <c r="A25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -4928,7 +4963,7 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4967,14 +5002,14 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="16" t="s">
         <v>22</v>
       </c>
@@ -4993,7 +5028,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="5" t="s">
@@ -5016,7 +5051,7 @@
       </c>
       <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="11">
         <v>0</v>
       </c>
@@ -5045,7 +5080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -5075,7 +5110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -5105,7 +5140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -5135,7 +5170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -5165,7 +5200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -5195,7 +5230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -5225,7 +5260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -5255,7 +5290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -5285,7 +5320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -5315,7 +5350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -5345,7 +5380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -5375,7 +5410,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -5405,7 +5440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -5435,7 +5470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -5465,7 +5500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -5495,7 +5530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -5525,7 +5560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -5555,7 +5590,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -5585,7 +5620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -5615,7 +5650,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -5645,7 +5680,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -5701,14 +5736,14 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="16" t="s">
         <v>22</v>
       </c>
@@ -5727,7 +5762,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="5" t="s">
@@ -5750,7 +5785,7 @@
       </c>
       <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="11">
         <v>0</v>
       </c>
@@ -5779,7 +5814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -5808,7 +5843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -5837,7 +5872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -5866,7 +5901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -5895,7 +5930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -5924,7 +5959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -5953,7 +5988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -5982,7 +6017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -6011,7 +6046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -6040,7 +6075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -6069,7 +6104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -6098,7 +6133,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -6127,7 +6162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -6156,7 +6191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -6185,7 +6220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -6214,7 +6249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -6243,7 +6278,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -6272,7 +6307,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -6301,7 +6336,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -6330,7 +6365,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -6359,7 +6394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -6414,15 +6449,15 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="16" t="s">
         <v>22</v>
       </c>
@@ -6441,7 +6476,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="5" t="s">
@@ -6464,7 +6499,7 @@
       </c>
       <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="11">
         <v>0</v>
       </c>
@@ -6493,7 +6528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -6522,7 +6557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -6551,7 +6586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -6580,7 +6615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -6609,7 +6644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -6638,7 +6673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -6667,7 +6702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -6696,7 +6731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -6725,7 +6760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -6754,7 +6789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -6783,7 +6818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -6812,7 +6847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -6841,7 +6876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -6870,7 +6905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -6899,7 +6934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -6928,7 +6963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -6957,7 +6992,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -6986,7 +7021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -7015,7 +7050,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -7044,7 +7079,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -7073,7 +7108,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -7128,15 +7163,15 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="16" t="s">
         <v>22</v>
       </c>
@@ -7155,7 +7190,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="5" t="s">
@@ -7178,7 +7213,7 @@
       </c>
       <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="11">
         <v>0</v>
       </c>
@@ -7207,7 +7242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -7237,7 +7272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -7267,7 +7302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -7297,7 +7332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -7327,7 +7362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -7357,7 +7392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -7387,7 +7422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -7417,7 +7452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -7447,7 +7482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -7477,7 +7512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -7507,7 +7542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -7537,7 +7572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -7567,7 +7602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -7597,7 +7632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -7627,7 +7662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -7657,7 +7692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -7687,7 +7722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -7717,7 +7752,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -7747,7 +7782,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -7777,7 +7812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -7807,7 +7842,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -7863,15 +7898,15 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="16" t="s">
         <v>22</v>
       </c>
@@ -7890,7 +7925,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="5" t="s">
@@ -7913,7 +7948,7 @@
       </c>
       <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="11">
         <v>0</v>
       </c>
@@ -7942,7 +7977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -7950,7 +7985,7 @@
         <v>0.01</v>
       </c>
       <c r="C4" s="2">
-        <f>D4*2</f>
+        <f t="shared" ref="C4:C24" si="0">D4*2</f>
         <v>400</v>
       </c>
       <c r="D4" s="2">
@@ -7972,7 +8007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -7980,7 +8015,7 @@
         <v>0.02</v>
       </c>
       <c r="C5" s="2">
-        <f>D5*2</f>
+        <f t="shared" si="0"/>
         <v>1600</v>
       </c>
       <c r="D5" s="2">
@@ -8002,7 +8037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -8010,7 +8045,7 @@
         <v>0.03</v>
       </c>
       <c r="C6" s="2">
-        <f>D6*2</f>
+        <f t="shared" si="0"/>
         <v>3600</v>
       </c>
       <c r="D6" s="2">
@@ -8032,7 +8067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -8040,7 +8075,7 @@
         <v>0.04</v>
       </c>
       <c r="C7" s="2">
-        <f>D7*2</f>
+        <f t="shared" si="0"/>
         <v>6400</v>
       </c>
       <c r="D7" s="2">
@@ -8062,7 +8097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -8070,7 +8105,7 @@
         <v>0.05</v>
       </c>
       <c r="C8" s="2">
-        <f>D8*2</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="D8" s="2">
@@ -8092,7 +8127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -8100,7 +8135,7 @@
         <v>0.06</v>
       </c>
       <c r="C9" s="2">
-        <f>D9*2</f>
+        <f t="shared" si="0"/>
         <v>14400</v>
       </c>
       <c r="D9" s="2">
@@ -8122,7 +8157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -8130,7 +8165,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C10" s="2">
-        <f>D10*2</f>
+        <f t="shared" si="0"/>
         <v>19600</v>
       </c>
       <c r="D10" s="2">
@@ -8152,7 +8187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -8160,7 +8195,7 @@
         <v>0.08</v>
       </c>
       <c r="C11" s="2">
-        <f>D11*2</f>
+        <f t="shared" si="0"/>
         <v>25600</v>
       </c>
       <c r="D11" s="2">
@@ -8182,7 +8217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -8190,7 +8225,7 @@
         <v>0.09</v>
       </c>
       <c r="C12" s="2">
-        <f>D12*2</f>
+        <f t="shared" si="0"/>
         <v>32400</v>
       </c>
       <c r="D12" s="2">
@@ -8212,7 +8247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -8220,7 +8255,7 @@
         <v>0.1</v>
       </c>
       <c r="C13" s="2">
-        <f>D13*2</f>
+        <f t="shared" si="0"/>
         <v>40000</v>
       </c>
       <c r="D13" s="2">
@@ -8242,7 +8277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -8250,7 +8285,7 @@
         <v>0.11</v>
       </c>
       <c r="C14" s="2">
-        <f>D14*2</f>
+        <f t="shared" si="0"/>
         <v>48400</v>
       </c>
       <c r="D14" s="2">
@@ -8272,7 +8307,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -8280,7 +8315,7 @@
         <v>0.12</v>
       </c>
       <c r="C15" s="2">
-        <f>D15*2</f>
+        <f t="shared" si="0"/>
         <v>57600</v>
       </c>
       <c r="D15" s="2">
@@ -8302,7 +8337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -8310,7 +8345,7 @@
         <v>0.13</v>
       </c>
       <c r="C16" s="2">
-        <f>D16*2</f>
+        <f t="shared" si="0"/>
         <v>67600</v>
       </c>
       <c r="D16" s="2">
@@ -8332,7 +8367,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -8340,7 +8375,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="C17" s="2">
-        <f>D17*2</f>
+        <f t="shared" si="0"/>
         <v>78400</v>
       </c>
       <c r="D17" s="2">
@@ -8362,7 +8397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -8370,7 +8405,7 @@
         <v>0.15</v>
       </c>
       <c r="C18" s="2">
-        <f>D18*2</f>
+        <f t="shared" si="0"/>
         <v>90000</v>
       </c>
       <c r="D18" s="2">
@@ -8392,7 +8427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -8400,7 +8435,7 @@
         <v>0.16</v>
       </c>
       <c r="C19" s="2">
-        <f>D19*2</f>
+        <f t="shared" si="0"/>
         <v>102400</v>
       </c>
       <c r="D19" s="2">
@@ -8422,7 +8457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -8430,7 +8465,7 @@
         <v>0.17</v>
       </c>
       <c r="C20" s="2">
-        <f>D20*2</f>
+        <f t="shared" si="0"/>
         <v>115600</v>
       </c>
       <c r="D20" s="2">
@@ -8452,7 +8487,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -8460,7 +8495,7 @@
         <v>0.18</v>
       </c>
       <c r="C21" s="2">
-        <f>D21*2</f>
+        <f t="shared" si="0"/>
         <v>129600</v>
       </c>
       <c r="D21" s="2">
@@ -8482,7 +8517,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -8490,7 +8525,7 @@
         <v>0.19</v>
       </c>
       <c r="C22" s="2">
-        <f>D22*2</f>
+        <f t="shared" si="0"/>
         <v>144400</v>
       </c>
       <c r="D22" s="2">
@@ -8512,7 +8547,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -8520,7 +8555,7 @@
         <v>0.2</v>
       </c>
       <c r="C23" s="2">
-        <f>D23*2</f>
+        <f t="shared" si="0"/>
         <v>160000</v>
       </c>
       <c r="D23" s="2">
@@ -8542,7 +8577,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -8550,7 +8585,7 @@
         <v>0.21</v>
       </c>
       <c r="C24" s="2">
-        <f>D24*2</f>
+        <f t="shared" si="0"/>
         <v>176400</v>
       </c>
       <c r="D24" s="2">
@@ -8598,13 +8633,13 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="16" t="s">
         <v>22</v>
       </c>
@@ -8623,7 +8658,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="5" t="s">
@@ -8646,7 +8681,7 @@
       </c>
       <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="11">
         <v>0</v>
       </c>
@@ -8675,7 +8710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -8704,7 +8739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -8733,7 +8768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -8762,7 +8797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -8791,7 +8826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -8820,7 +8855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -8849,7 +8884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -8878,7 +8913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -8907,7 +8942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -8936,7 +8971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -8965,7 +9000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -8994,7 +9029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -9023,7 +9058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -9052,7 +9087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -9081,7 +9116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -9110,7 +9145,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -9139,7 +9174,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -9168,7 +9203,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -9197,7 +9232,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -9226,7 +9261,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -9255,7 +9290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -9310,17 +9345,17 @@
       <selection activeCell="D24" sqref="D4:D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="20.875" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
     <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.125" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -9339,7 +9374,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="10" t="s">
@@ -9362,7 +9397,7 @@
       </c>
       <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="11">
         <v>0</v>
       </c>
@@ -9391,7 +9426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -9421,7 +9456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -9451,7 +9486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -9481,7 +9516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -9511,7 +9546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -9541,7 +9576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -9571,7 +9606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -9601,7 +9636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -9631,7 +9666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -9661,7 +9696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -9691,7 +9726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -9721,7 +9756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -9751,7 +9786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -9781,7 +9816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -9811,7 +9846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -9841,7 +9876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -9871,7 +9906,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -9901,7 +9936,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -9931,7 +9966,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -9961,7 +9996,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -9991,7 +10026,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -10021,69 +10056,69 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9">
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9">
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9">
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:3">
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:3">
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:3">
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:3">
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:3">
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:3">
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="3:3">
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:3">
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="3:3">
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:3">
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="3:3">
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:3">
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="3:3">
       <c r="C45" s="2"/>
     </row>
   </sheetData>
@@ -10108,18 +10143,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="16" t="s">
         <v>22</v>
       </c>
@@ -10138,7 +10173,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="5" t="s">
@@ -10161,7 +10196,7 @@
       </c>
       <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="11">
         <v>0</v>
       </c>
@@ -10190,7 +10225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -10220,7 +10255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -10250,7 +10285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -10280,7 +10315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -10310,7 +10345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -10340,7 +10375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -10370,7 +10405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -10400,7 +10435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -10430,7 +10465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -10460,7 +10495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -10490,7 +10525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -10520,7 +10555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -10550,7 +10585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -10580,7 +10615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -10610,7 +10645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -10640,7 +10675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -10670,7 +10705,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -10700,7 +10735,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -10730,7 +10765,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -10760,7 +10795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -10790,7 +10825,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -10846,14 +10881,14 @@
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="8.875" style="3"/>
-    <col min="3" max="3" width="11.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.875" style="3"/>
+    <col min="1" max="2" width="8.83203125" style="3"/>
+    <col min="3" max="3" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
         <v>54</v>
       </c>
@@ -10864,7 +10899,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -10875,7 +10910,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -10886,7 +10921,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -10897,7 +10932,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -10908,7 +10943,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -10919,7 +10954,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -10930,7 +10965,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -10941,7 +10976,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -10952,7 +10987,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -10963,7 +10998,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -10974,7 +11009,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -10985,7 +11020,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -10996,7 +11031,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -11007,7 +11042,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -11018,7 +11053,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -11029,7 +11064,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -11040,7 +11075,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -11051,7 +11086,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -11062,7 +11097,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -11073,7 +11108,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -11104,15 +11139,15 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="6" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -11131,7 +11166,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="5" t="s">
@@ -11154,7 +11189,7 @@
       </c>
       <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="11">
         <v>0</v>
       </c>
@@ -11183,7 +11218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -11213,7 +11248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -11243,7 +11278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -11273,7 +11308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -11303,7 +11338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -11333,7 +11368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -11363,7 +11398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -11393,7 +11428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -11423,7 +11458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -11453,7 +11488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -11483,7 +11518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -11513,7 +11548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -11543,7 +11578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -11573,7 +11608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -11603,7 +11638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -11633,7 +11668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -11663,7 +11698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -11693,7 +11728,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -11723,7 +11758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -11753,7 +11788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -11783,7 +11818,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -11813,7 +11848,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -11848,16 +11883,16 @@
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.875" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
-    <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -11876,7 +11911,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="5" t="s">
@@ -11899,7 +11934,7 @@
       </c>
       <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="11">
         <v>0</v>
       </c>
@@ -11928,7 +11963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -11957,7 +11992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -11986,7 +12021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -12015,7 +12050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -12044,7 +12079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -12073,7 +12108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -12102,7 +12137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -12131,7 +12166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -12160,7 +12195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -12189,7 +12224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -12218,7 +12253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -12247,7 +12282,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -12276,7 +12311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -12305,7 +12340,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -12334,7 +12369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -12363,7 +12398,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -12392,7 +12427,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -12421,7 +12456,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -12450,7 +12485,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -12479,7 +12514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -12508,7 +12543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -12537,7 +12572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -12572,14 +12607,14 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
-    <col min="6" max="7" width="15.875" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="6" max="7" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -12598,7 +12633,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="5" t="s">
@@ -12621,7 +12656,7 @@
       </c>
       <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="11">
         <v>0</v>
       </c>
@@ -12650,7 +12685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -12679,7 +12714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -12708,7 +12743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="11">
         <v>3</v>
       </c>
@@ -12737,7 +12772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -12766,7 +12801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -12795,7 +12830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -12824,7 +12859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -12853,7 +12888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -12882,7 +12917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="11">
         <v>9</v>
       </c>
@@ -12911,7 +12946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -12940,7 +12975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -12969,7 +13004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -12998,7 +13033,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -13027,7 +13062,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -13056,7 +13091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" s="11">
         <v>15</v>
       </c>
@@ -13085,7 +13120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -13114,7 +13149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -13143,7 +13178,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -13172,7 +13207,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -13201,7 +13236,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -13230,7 +13265,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24" s="11">
         <v>21</v>
       </c>
@@ -13259,7 +13294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -13293,18 +13328,18 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="3"/>
-    <col min="2" max="2" width="18.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="3"/>
+    <col min="2" max="2" width="18.1640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="18" style="3" customWidth="1"/>
-    <col min="4" max="8" width="8.875" style="3"/>
+    <col min="4" max="8" width="8.83203125" style="3"/>
     <col min="9" max="9" width="13.5" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.625" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="8.875" style="3"/>
+    <col min="10" max="10" width="12.6640625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
@@ -13331,7 +13366,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -13360,7 +13395,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15">
       <c r="A3" s="11">
         <v>0</v>
       </c>
@@ -13397,7 +13432,7 @@
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -13432,7 +13467,7 @@
       </c>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -13467,7 +13502,7 @@
       </c>
       <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -13502,7 +13537,7 @@
       </c>
       <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -13537,7 +13572,7 @@
       </c>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -13572,7 +13607,7 @@
       </c>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -13607,7 +13642,7 @@
       </c>
       <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -13642,7 +13677,7 @@
       </c>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -13677,7 +13712,7 @@
       </c>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -13712,7 +13747,7 @@
       </c>
       <c r="K12" s="15"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -13747,7 +13782,7 @@
       </c>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -13782,7 +13817,7 @@
       </c>
       <c r="K14" s="15"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -13817,7 +13852,7 @@
       </c>
       <c r="K15" s="15"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -13852,7 +13887,7 @@
       </c>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -13887,7 +13922,7 @@
       </c>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -13922,7 +13957,7 @@
       </c>
       <c r="K18" s="15"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -13957,7 +13992,7 @@
       </c>
       <c r="K19" s="15"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -13992,7 +14027,7 @@
       </c>
       <c r="K20" s="15"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -14027,7 +14062,7 @@
       </c>
       <c r="K21" s="15"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -14062,7 +14097,7 @@
       </c>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -14097,7 +14132,7 @@
       </c>
       <c r="K23" s="15"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -14159,18 +14194,18 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.375" customWidth="1"/>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
-    <col min="3" max="3" width="13.625" customWidth="1"/>
-    <col min="4" max="4" width="21.875" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="13.125" customWidth="1"/>
-    <col min="10" max="10" width="13.375" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
@@ -14195,7 +14230,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -14220,7 +14255,7 @@
       </c>
       <c r="K2" s="16"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" s="11">
         <v>0</v>
       </c>
@@ -14255,7 +14290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -14292,7 +14327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -14329,7 +14364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -14366,7 +14401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -14403,7 +14438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -14440,7 +14475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -14477,7 +14512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -14514,7 +14549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -14551,7 +14586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -14588,7 +14623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -14625,7 +14660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -14662,7 +14697,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -14699,7 +14734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -14736,7 +14771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -14773,7 +14808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -14810,7 +14845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -14847,7 +14882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -14884,7 +14919,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -14921,7 +14956,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -14958,7 +14993,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -14995,7 +15030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -15032,7 +15067,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11">
       <c r="H25" s="2"/>
     </row>
   </sheetData>
@@ -15063,16 +15098,16 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="7" max="7" width="10.875" customWidth="1"/>
-    <col min="8" max="8" width="15.125" customWidth="1"/>
-    <col min="9" max="9" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
@@ -15094,7 +15129,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -15118,7 +15153,7 @@
       </c>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" s="11">
         <v>0</v>
       </c>
@@ -15150,7 +15185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -15184,7 +15219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -15218,7 +15253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -15252,7 +15287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -15286,7 +15321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -15320,7 +15355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -15354,7 +15389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -15388,7 +15423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -15422,7 +15457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -15456,7 +15491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -15490,7 +15525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -15524,7 +15559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -15558,7 +15593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -15592,7 +15627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -15626,7 +15661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -15660,7 +15695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -15694,7 +15729,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -15728,7 +15763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -15762,7 +15797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -15796,7 +15831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -15830,7 +15865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -15864,7 +15899,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10">
       <c r="G25" s="2"/>
     </row>
   </sheetData>
@@ -15894,17 +15929,17 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.625" customWidth="1"/>
-    <col min="2" max="2" width="27.125" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="16.625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
@@ -15926,7 +15961,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -15950,7 +15985,7 @@
       </c>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3" s="11">
         <v>0</v>
       </c>
@@ -15982,7 +16017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -16015,7 +16050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -16048,7 +16083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -16081,7 +16116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -16114,7 +16149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -16147,7 +16182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10">
       <c r="A9" s="11">
         <v>6</v>
       </c>
@@ -16180,7 +16215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -16213,7 +16248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10">
       <c r="A11" s="11">
         <v>8</v>
       </c>
@@ -16246,7 +16281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -16279,7 +16314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10">
       <c r="A13" s="11">
         <v>10</v>
       </c>
@@ -16312,7 +16347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -16345,7 +16380,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10">
       <c r="A15" s="11">
         <v>12</v>
       </c>
@@ -16378,7 +16413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -16411,7 +16446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10">
       <c r="A17" s="11">
         <v>14</v>
       </c>
@@ -16444,7 +16479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -16477,7 +16512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10">
       <c r="A19" s="11">
         <v>16</v>
       </c>
@@ -16510,7 +16545,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -16543,7 +16578,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10">
       <c r="A21" s="11">
         <v>18</v>
       </c>
@@ -16576,7 +16611,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -16609,7 +16644,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10">
       <c r="A23" s="11">
         <v>20</v>
       </c>
@@ -16642,7 +16677,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10">
       <c r="A24" s="3">
         <v>21</v>
       </c>

--- a/const/technologies.xlsx
+++ b/const/technologies.xlsx
@@ -1109,7 +1109,7 @@
   <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/const/technologies.xlsx
+++ b/const/technologies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27020" windowHeight="14920"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="29940" windowHeight="18640" firstSheet="10" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="住宅" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="掠夺" sheetId="19" r:id="rId19"/>
     <sheet name="智慧" sheetId="21" r:id="rId20"/>
     <sheet name="define" sheetId="22" r:id="rId21"/>
+    <sheet name="描述" sheetId="23" r:id="rId22"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="969">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,6 +418,2877 @@
   </si>
   <si>
     <t>earn_score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掠夺资源+2%</t>
+  </si>
+  <si>
+    <t>ResourceRob+2%</t>
+  </si>
+  <si>
+    <t>掠夺资源+3%</t>
+  </si>
+  <si>
+    <t>ResourceRob+3%</t>
+  </si>
+  <si>
+    <t>掠夺资源+4%</t>
+  </si>
+  <si>
+    <t>ResourceRob+4%</t>
+  </si>
+  <si>
+    <t>掠夺资源+5%</t>
+  </si>
+  <si>
+    <t>ResourceRob+5%</t>
+  </si>
+  <si>
+    <t>掠夺资源+6%</t>
+  </si>
+  <si>
+    <t>ResourceRob+6%</t>
+  </si>
+  <si>
+    <t>掠夺资源+7%</t>
+  </si>
+  <si>
+    <t>ResourceRob+7%</t>
+  </si>
+  <si>
+    <t>掠夺资源+8%</t>
+  </si>
+  <si>
+    <t>ResourceRob+8%</t>
+  </si>
+  <si>
+    <t>掠夺资源+9%</t>
+  </si>
+  <si>
+    <t>ResourceRob+9%</t>
+  </si>
+  <si>
+    <t>掠夺资源+10%</t>
+  </si>
+  <si>
+    <t>ResourceRob+10%</t>
+  </si>
+  <si>
+    <t>掠夺资源+11%</t>
+  </si>
+  <si>
+    <t>ResourceRob+11%</t>
+  </si>
+  <si>
+    <t>掠夺资源+12%</t>
+  </si>
+  <si>
+    <t>ResourceRob+12%</t>
+  </si>
+  <si>
+    <t>掠夺资源+13%</t>
+  </si>
+  <si>
+    <t>ResourceRob+13%</t>
+  </si>
+  <si>
+    <t>掠夺资源+14%</t>
+  </si>
+  <si>
+    <t>ResourceRob+14%</t>
+  </si>
+  <si>
+    <t>掠夺资源+15%</t>
+  </si>
+  <si>
+    <t>ResourceRob+15%</t>
+  </si>
+  <si>
+    <t>掠夺资源+16%</t>
+  </si>
+  <si>
+    <t>ResourceRob+16%</t>
+  </si>
+  <si>
+    <t>掠夺资源+17%</t>
+  </si>
+  <si>
+    <t>ResourceRob+17%</t>
+  </si>
+  <si>
+    <t>掠夺资源+18%</t>
+  </si>
+  <si>
+    <t>ResourceRob+18%</t>
+  </si>
+  <si>
+    <t>掠夺资源+19%</t>
+  </si>
+  <si>
+    <t>ResourceRob+19%</t>
+  </si>
+  <si>
+    <t>掠夺资源+20%</t>
+  </si>
+  <si>
+    <t>ResourceRob+20%</t>
+  </si>
+  <si>
+    <t>掠夺资源+21%</t>
+  </si>
+  <si>
+    <t>ResourceRob+21%</t>
+  </si>
+  <si>
+    <t>cn</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>en</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>en</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉类/h</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>meat/h</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>en</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>产量/h</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>produce/h</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>产量/h</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>produce/h</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源容量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>孵化时间减少</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>hatchhaste</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>科研时间减少</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>upgradehaste</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Def+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>掠夺资源+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceRob+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>掠夺资源+0%</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceRob+0%</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>掠夺资源+1%</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceRob+1%</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>兽栏容量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>工人总数</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果/h</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>fruit/h</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源上限:1400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源上限:2240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源上限:4340</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源上限:7280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源上限:11060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源上限:15680</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源上限:21140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源上限:27440</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源上限:34580</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源上限:42560</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源上限:51380</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源上限:61040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源上限:71540</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源上限:82880</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源上限:95060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源上限:108080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源上限:121940</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源上限:136640</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源上限:152180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源上限:168560</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源上限:185780</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源上限:203000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceMax</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceMax:1400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceMax:2240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceMax:4340</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceMax:7280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceMax:11060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceMax:15680</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceMax:21140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceMax:27440</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceMax:34580</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceMax:42560</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceMax:51380</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceMax:61040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceMax:71540</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceMax:82880</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceMax:95060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceMax:108080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceMax:121940</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceMax:136640</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceMax:152180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceMax:168560</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceMax:185780</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceMax:203000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果:2/h</t>
+  </si>
+  <si>
+    <t>水果:4/h</t>
+  </si>
+  <si>
+    <t>水果:5/h</t>
+  </si>
+  <si>
+    <t>水果:6/h</t>
+  </si>
+  <si>
+    <t>水果:7/h</t>
+  </si>
+  <si>
+    <t>水果:8/h</t>
+  </si>
+  <si>
+    <t>水果:9/h</t>
+  </si>
+  <si>
+    <t>水果:10/h</t>
+  </si>
+  <si>
+    <t>水果:11/h</t>
+  </si>
+  <si>
+    <t>水果:12/h</t>
+  </si>
+  <si>
+    <t>水果:13/h</t>
+  </si>
+  <si>
+    <t>水果:14/h</t>
+  </si>
+  <si>
+    <t>水果:15/h</t>
+  </si>
+  <si>
+    <t>水果:16/h</t>
+  </si>
+  <si>
+    <t>水果:17/h</t>
+  </si>
+  <si>
+    <t>水果:18/h</t>
+  </si>
+  <si>
+    <t>水果:19/h</t>
+  </si>
+  <si>
+    <t>水果:20/h</t>
+  </si>
+  <si>
+    <t>水果:21/h</t>
+  </si>
+  <si>
+    <t>水果:22/h</t>
+  </si>
+  <si>
+    <t>水果:23/h</t>
+  </si>
+  <si>
+    <t>水果:3/h</t>
+  </si>
+  <si>
+    <t>Wood:1150/h</t>
+  </si>
+  <si>
+    <t>Fruit:2/h</t>
+  </si>
+  <si>
+    <t>Fruit:4/h</t>
+  </si>
+  <si>
+    <t>Fruit:5/h</t>
+  </si>
+  <si>
+    <t>Fruit:6/h</t>
+  </si>
+  <si>
+    <t>Fruit:7/h</t>
+  </si>
+  <si>
+    <t>Fruit:8/h</t>
+  </si>
+  <si>
+    <t>Fruit:9/h</t>
+  </si>
+  <si>
+    <t>Fruit:10/h</t>
+  </si>
+  <si>
+    <t>Fruit:11/h</t>
+  </si>
+  <si>
+    <t>Fruit:12/h</t>
+  </si>
+  <si>
+    <t>Fruit:13/h</t>
+  </si>
+  <si>
+    <t>Fruit:14/h</t>
+  </si>
+  <si>
+    <t>Fruit:15/h</t>
+  </si>
+  <si>
+    <t>Fruit:16/h</t>
+  </si>
+  <si>
+    <t>Fruit:17/h</t>
+  </si>
+  <si>
+    <t>Fruit:18/h</t>
+  </si>
+  <si>
+    <t>Fruit:19/h</t>
+  </si>
+  <si>
+    <t>Fruit:20/h</t>
+  </si>
+  <si>
+    <t>Fruit:21/h</t>
+  </si>
+  <si>
+    <t>Fruit:22/h</t>
+  </si>
+  <si>
+    <t>Fruit:23/h</t>
+  </si>
+  <si>
+    <t>肉类:2/h</t>
+  </si>
+  <si>
+    <t>肉类:3/h</t>
+  </si>
+  <si>
+    <t>肉类:4/h</t>
+  </si>
+  <si>
+    <t>肉类:5/h</t>
+  </si>
+  <si>
+    <t>肉类:6/h</t>
+  </si>
+  <si>
+    <t>肉类:7/h</t>
+  </si>
+  <si>
+    <t>肉类:8/h</t>
+  </si>
+  <si>
+    <t>肉类:9/h</t>
+  </si>
+  <si>
+    <t>肉类:10/h</t>
+  </si>
+  <si>
+    <t>肉类:11/h</t>
+  </si>
+  <si>
+    <t>肉类:12/h</t>
+  </si>
+  <si>
+    <t>肉类:13/h</t>
+  </si>
+  <si>
+    <t>肉类:14/h</t>
+  </si>
+  <si>
+    <t>肉类:15/h</t>
+  </si>
+  <si>
+    <t>肉类:16/h</t>
+  </si>
+  <si>
+    <t>肉类:17/h</t>
+  </si>
+  <si>
+    <t>肉类:18/h</t>
+  </si>
+  <si>
+    <t>肉类:19/h</t>
+  </si>
+  <si>
+    <t>肉类:20/h</t>
+  </si>
+  <si>
+    <t>肉类:21/h</t>
+  </si>
+  <si>
+    <t>肉类:22/h</t>
+  </si>
+  <si>
+    <t>肉类:23/h</t>
+  </si>
+  <si>
+    <t>Meat:2/h</t>
+  </si>
+  <si>
+    <t>Meat:3/h</t>
+  </si>
+  <si>
+    <t>Meat:4/h</t>
+  </si>
+  <si>
+    <t>Meat:5/h</t>
+  </si>
+  <si>
+    <t>Meat:6/h</t>
+  </si>
+  <si>
+    <t>Meat:7/h</t>
+  </si>
+  <si>
+    <t>Meat:8/h</t>
+  </si>
+  <si>
+    <t>Meat:9/h</t>
+  </si>
+  <si>
+    <t>Meat:10/h</t>
+  </si>
+  <si>
+    <t>Meat:11/h</t>
+  </si>
+  <si>
+    <t>Meat:12/h</t>
+  </si>
+  <si>
+    <t>Meat:13/h</t>
+  </si>
+  <si>
+    <t>Meat:14/h</t>
+  </si>
+  <si>
+    <t>Meat:15/h</t>
+  </si>
+  <si>
+    <t>Meat:16/h</t>
+  </si>
+  <si>
+    <t>Meat:17/h</t>
+  </si>
+  <si>
+    <t>Meat:18/h</t>
+  </si>
+  <si>
+    <t>Meat:19/h</t>
+  </si>
+  <si>
+    <t>Meat:20/h</t>
+  </si>
+  <si>
+    <t>Meat:21/h</t>
+  </si>
+  <si>
+    <t>Meat:22/h</t>
+  </si>
+  <si>
+    <t>Meat:23/h</t>
+  </si>
+  <si>
+    <t>石头:100/h</t>
+  </si>
+  <si>
+    <t>石头:150/h</t>
+  </si>
+  <si>
+    <t>石头:200/h</t>
+  </si>
+  <si>
+    <t>石头:250/h</t>
+  </si>
+  <si>
+    <t>石头:300/h</t>
+  </si>
+  <si>
+    <t>石头:350/h</t>
+  </si>
+  <si>
+    <t>石头:400/h</t>
+  </si>
+  <si>
+    <t>石头:450/h</t>
+  </si>
+  <si>
+    <t>石头:500/h</t>
+  </si>
+  <si>
+    <t>石头:550/h</t>
+  </si>
+  <si>
+    <t>石头:600/h</t>
+  </si>
+  <si>
+    <t>石头:650/h</t>
+  </si>
+  <si>
+    <t>石头:700/h</t>
+  </si>
+  <si>
+    <t>石头:750/h</t>
+  </si>
+  <si>
+    <t>石头:800/h</t>
+  </si>
+  <si>
+    <t>石头:850/h</t>
+  </si>
+  <si>
+    <t>石头:900/h</t>
+  </si>
+  <si>
+    <t>石头:950/h</t>
+  </si>
+  <si>
+    <t>石头:1000/h</t>
+  </si>
+  <si>
+    <t>石头:1050/h</t>
+  </si>
+  <si>
+    <t>石头:1100/h</t>
+  </si>
+  <si>
+    <t>石头:1150/h</t>
+  </si>
+  <si>
+    <t>Stone:100/h</t>
+  </si>
+  <si>
+    <t>Stone:150/h</t>
+  </si>
+  <si>
+    <t>Stone:200/h</t>
+  </si>
+  <si>
+    <t>Stone:250/h</t>
+  </si>
+  <si>
+    <t>Stone:300/h</t>
+  </si>
+  <si>
+    <t>Stone:350/h</t>
+  </si>
+  <si>
+    <t>Stone:400/h</t>
+  </si>
+  <si>
+    <t>Stone:450/h</t>
+  </si>
+  <si>
+    <t>Stone:500/h</t>
+  </si>
+  <si>
+    <t>Stone:550/h</t>
+  </si>
+  <si>
+    <t>Stone:600/h</t>
+  </si>
+  <si>
+    <t>Stone:650/h</t>
+  </si>
+  <si>
+    <t>Stone:700/h</t>
+  </si>
+  <si>
+    <t>Stone:750/h</t>
+  </si>
+  <si>
+    <t>Stone:800/h</t>
+  </si>
+  <si>
+    <t>Stone:850/h</t>
+  </si>
+  <si>
+    <t>Stone:900/h</t>
+  </si>
+  <si>
+    <t>Stone:950/h</t>
+  </si>
+  <si>
+    <t>Stone:1000/h</t>
+  </si>
+  <si>
+    <t>Stone:1050/h</t>
+  </si>
+  <si>
+    <t>Stone:1100/h</t>
+  </si>
+  <si>
+    <t>Stone:1150/h</t>
+  </si>
+  <si>
+    <t>木头:100/h</t>
+  </si>
+  <si>
+    <t>木头:150/h</t>
+  </si>
+  <si>
+    <t>木头:200/h</t>
+  </si>
+  <si>
+    <t>木头:250/h</t>
+  </si>
+  <si>
+    <t>木头:300/h</t>
+  </si>
+  <si>
+    <t>木头:350/h</t>
+  </si>
+  <si>
+    <t>木头:400/h</t>
+  </si>
+  <si>
+    <t>木头:450/h</t>
+  </si>
+  <si>
+    <t>木头:500/h</t>
+  </si>
+  <si>
+    <t>木头:550/h</t>
+  </si>
+  <si>
+    <t>木头:600/h</t>
+  </si>
+  <si>
+    <t>木头:650/h</t>
+  </si>
+  <si>
+    <t>木头:700/h</t>
+  </si>
+  <si>
+    <t>木头:750/h</t>
+  </si>
+  <si>
+    <t>木头:800/h</t>
+  </si>
+  <si>
+    <t>木头:850/h</t>
+  </si>
+  <si>
+    <t>木头:900/h</t>
+  </si>
+  <si>
+    <t>木头:950/h</t>
+  </si>
+  <si>
+    <t>木头:1000/h</t>
+  </si>
+  <si>
+    <t>木头:1050/h</t>
+  </si>
+  <si>
+    <t>木头:1100/h</t>
+  </si>
+  <si>
+    <t>木头:1150/h</t>
+  </si>
+  <si>
+    <t>Wood:100/h</t>
+  </si>
+  <si>
+    <t>Wood:150/h</t>
+  </si>
+  <si>
+    <t>Wood:200/h</t>
+  </si>
+  <si>
+    <t>Wood:250/h</t>
+  </si>
+  <si>
+    <t>Wood:300/h</t>
+  </si>
+  <si>
+    <t>Wood:350/h</t>
+  </si>
+  <si>
+    <t>Wood:400/h</t>
+  </si>
+  <si>
+    <t>Wood:450/h</t>
+  </si>
+  <si>
+    <t>Wood:500/h</t>
+  </si>
+  <si>
+    <t>Wood:550/h</t>
+  </si>
+  <si>
+    <t>Wood:600/h</t>
+  </si>
+  <si>
+    <t>Wood:650/h</t>
+  </si>
+  <si>
+    <t>Wood:700/h</t>
+  </si>
+  <si>
+    <t>Wood:750/h</t>
+  </si>
+  <si>
+    <t>Wood:800/h</t>
+  </si>
+  <si>
+    <t>Wood:850/h</t>
+  </si>
+  <si>
+    <t>Wood:900/h</t>
+  </si>
+  <si>
+    <t>Wood:950/h</t>
+  </si>
+  <si>
+    <t>Wood:1000/h</t>
+  </si>
+  <si>
+    <t>Wood:1050/h</t>
+  </si>
+  <si>
+    <t>Wood:1100/h</t>
+  </si>
+  <si>
+    <t>Fruit:3/h</t>
+  </si>
+  <si>
+    <t>Hatchtime-0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hatchtime-1%</t>
+  </si>
+  <si>
+    <t>Hatchtime-2%</t>
+  </si>
+  <si>
+    <t>Hatchtime-3%</t>
+  </si>
+  <si>
+    <t>Hatchtime-4%</t>
+  </si>
+  <si>
+    <t>Hatchtime-5%</t>
+  </si>
+  <si>
+    <t>Hatchtime-6%</t>
+  </si>
+  <si>
+    <t>Hatchtime-7%</t>
+  </si>
+  <si>
+    <t>Hatchtime-8%</t>
+  </si>
+  <si>
+    <t>Hatchtime-9%</t>
+  </si>
+  <si>
+    <t>Hatchtime-10%</t>
+  </si>
+  <si>
+    <t>Hatchtime-11%</t>
+  </si>
+  <si>
+    <t>Hatchtime-12%</t>
+  </si>
+  <si>
+    <t>Hatchtime-13%</t>
+  </si>
+  <si>
+    <t>Hatchtime-14%</t>
+  </si>
+  <si>
+    <t>Hatchtime-15%</t>
+  </si>
+  <si>
+    <t>Hatchtime-16%</t>
+  </si>
+  <si>
+    <t>Hatchtime-17%</t>
+  </si>
+  <si>
+    <t>Hatchtime-18%</t>
+  </si>
+  <si>
+    <t>Hatchtime-19%</t>
+  </si>
+  <si>
+    <t>Hatchtime-20%</t>
+  </si>
+  <si>
+    <t>Hatchtime-21%</t>
+  </si>
+  <si>
+    <t>孵化时间-0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孵化时间-1%</t>
+  </si>
+  <si>
+    <t>孵化时间-2%</t>
+  </si>
+  <si>
+    <t>孵化时间-3%</t>
+  </si>
+  <si>
+    <t>孵化时间-4%</t>
+  </si>
+  <si>
+    <t>孵化时间-5%</t>
+  </si>
+  <si>
+    <t>孵化时间-6%</t>
+  </si>
+  <si>
+    <t>孵化时间-7%</t>
+  </si>
+  <si>
+    <t>孵化时间-8%</t>
+  </si>
+  <si>
+    <t>孵化时间-9%</t>
+  </si>
+  <si>
+    <t>孵化时间-10%</t>
+  </si>
+  <si>
+    <t>孵化时间-11%</t>
+  </si>
+  <si>
+    <t>孵化时间-12%</t>
+  </si>
+  <si>
+    <t>孵化时间-13%</t>
+  </si>
+  <si>
+    <t>孵化时间-14%</t>
+  </si>
+  <si>
+    <t>孵化时间-15%</t>
+  </si>
+  <si>
+    <t>孵化时间-16%</t>
+  </si>
+  <si>
+    <t>孵化时间-17%</t>
+  </si>
+  <si>
+    <t>孵化时间-18%</t>
+  </si>
+  <si>
+    <t>孵化时间-19%</t>
+  </si>
+  <si>
+    <t>孵化时间-20%</t>
+  </si>
+  <si>
+    <t>孵化时间-21%</t>
+  </si>
+  <si>
+    <t>科研时间-1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科研时间-1.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科研时间-2%</t>
+  </si>
+  <si>
+    <t>科研时间-3%</t>
+  </si>
+  <si>
+    <t>科研时间-1.6%</t>
+  </si>
+  <si>
+    <t>科研时间-4%</t>
+  </si>
+  <si>
+    <t>科研时间-5%</t>
+  </si>
+  <si>
+    <t>科研时间-1.7%</t>
+  </si>
+  <si>
+    <t>科研时间-6%</t>
+  </si>
+  <si>
+    <t>科研时间-7%</t>
+  </si>
+  <si>
+    <t>科研时间-1.8%</t>
+  </si>
+  <si>
+    <t>科研时间-8%</t>
+  </si>
+  <si>
+    <t>科研时间-9%</t>
+  </si>
+  <si>
+    <t>科研时间-1.9%</t>
+  </si>
+  <si>
+    <t>科研时间-10%</t>
+  </si>
+  <si>
+    <t>科研时间-11%</t>
+  </si>
+  <si>
+    <t>科研时间-1.10%</t>
+  </si>
+  <si>
+    <t>科研时间-1.11%</t>
+  </si>
+  <si>
+    <t>科研时间-0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科研时间-1.12%</t>
+  </si>
+  <si>
+    <t>科研时间-1.13%</t>
+  </si>
+  <si>
+    <t>科研时间-1.14%</t>
+  </si>
+  <si>
+    <t>Upgradetime-0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgradetime-1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgradetime-1.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgradetime-2%</t>
+  </si>
+  <si>
+    <t>Upgradetime-1.6%</t>
+  </si>
+  <si>
+    <t>Upgradetime-3%</t>
+  </si>
+  <si>
+    <t>Upgradetime-1.7%</t>
+  </si>
+  <si>
+    <t>Upgradetime-4%</t>
+  </si>
+  <si>
+    <t>Upgradetime-1.8%</t>
+  </si>
+  <si>
+    <t>Upgradetime-5%</t>
+  </si>
+  <si>
+    <t>Upgradetime-1.9%</t>
+  </si>
+  <si>
+    <t>Upgradetime-6%</t>
+  </si>
+  <si>
+    <t>Upgradetime-1.10%</t>
+  </si>
+  <si>
+    <t>Upgradetime-7%</t>
+  </si>
+  <si>
+    <t>Upgradetime-1.11%</t>
+  </si>
+  <si>
+    <t>Upgradetime-8%</t>
+  </si>
+  <si>
+    <t>Upgradetime-1.12%</t>
+  </si>
+  <si>
+    <t>Upgradetime-9%</t>
+  </si>
+  <si>
+    <t>Upgradetime-1.13%</t>
+  </si>
+  <si>
+    <t>Upgradetime-10%</t>
+  </si>
+  <si>
+    <t>Upgradetime-1.14%</t>
+  </si>
+  <si>
+    <t>Upgradetime-11%</t>
+  </si>
+  <si>
+    <t>hp+0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp+1%</t>
+  </si>
+  <si>
+    <t>hp+2%</t>
+  </si>
+  <si>
+    <t>hp+3%</t>
+  </si>
+  <si>
+    <t>hp+4%</t>
+  </si>
+  <si>
+    <t>hp+5%</t>
+  </si>
+  <si>
+    <t>hp+6%</t>
+  </si>
+  <si>
+    <t>hp+7%</t>
+  </si>
+  <si>
+    <t>hp+8%</t>
+  </si>
+  <si>
+    <t>hp+9%</t>
+  </si>
+  <si>
+    <t>hp+10%</t>
+  </si>
+  <si>
+    <t>hp+11%</t>
+  </si>
+  <si>
+    <t>hp+12%</t>
+  </si>
+  <si>
+    <t>hp+13%</t>
+  </si>
+  <si>
+    <t>hp+14%</t>
+  </si>
+  <si>
+    <t>hp+15%</t>
+  </si>
+  <si>
+    <t>hp+16%</t>
+  </si>
+  <si>
+    <t>hp+17%</t>
+  </si>
+  <si>
+    <t>hp+18%</t>
+  </si>
+  <si>
+    <t>hp+19%</t>
+  </si>
+  <si>
+    <t>hp+20%</t>
+  </si>
+  <si>
+    <t>hp+21%</t>
+  </si>
+  <si>
+    <t>hp+0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击+0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击+1%</t>
+  </si>
+  <si>
+    <t>攻击+2%</t>
+  </si>
+  <si>
+    <t>攻击+3%</t>
+  </si>
+  <si>
+    <t>攻击+4%</t>
+  </si>
+  <si>
+    <t>攻击+5%</t>
+  </si>
+  <si>
+    <t>攻击+6%</t>
+  </si>
+  <si>
+    <t>攻击+7%</t>
+  </si>
+  <si>
+    <t>攻击+8%</t>
+  </si>
+  <si>
+    <t>攻击+9%</t>
+  </si>
+  <si>
+    <t>攻击+10%</t>
+  </si>
+  <si>
+    <t>攻击+11%</t>
+  </si>
+  <si>
+    <t>攻击+12%</t>
+  </si>
+  <si>
+    <t>攻击+13%</t>
+  </si>
+  <si>
+    <t>攻击+14%</t>
+  </si>
+  <si>
+    <t>攻击+15%</t>
+  </si>
+  <si>
+    <t>攻击+16%</t>
+  </si>
+  <si>
+    <t>攻击+17%</t>
+  </si>
+  <si>
+    <t>攻击+18%</t>
+  </si>
+  <si>
+    <t>攻击+19%</t>
+  </si>
+  <si>
+    <t>攻击+20%</t>
+  </si>
+  <si>
+    <t>攻击+21%</t>
+  </si>
+  <si>
+    <t>Attack+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack+0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack+1%</t>
+  </si>
+  <si>
+    <t>Attack+2%</t>
+  </si>
+  <si>
+    <t>Attack+3%</t>
+  </si>
+  <si>
+    <t>Attack+4%</t>
+  </si>
+  <si>
+    <t>Attack+5%</t>
+  </si>
+  <si>
+    <t>Attack+6%</t>
+  </si>
+  <si>
+    <t>Attack+7%</t>
+  </si>
+  <si>
+    <t>Attack+8%</t>
+  </si>
+  <si>
+    <t>Attack+9%</t>
+  </si>
+  <si>
+    <t>Attack+10%</t>
+  </si>
+  <si>
+    <t>Attack+11%</t>
+  </si>
+  <si>
+    <t>Attack+12%</t>
+  </si>
+  <si>
+    <t>Attack+13%</t>
+  </si>
+  <si>
+    <t>Attack+14%</t>
+  </si>
+  <si>
+    <t>Attack+15%</t>
+  </si>
+  <si>
+    <t>Attack+16%</t>
+  </si>
+  <si>
+    <t>Attack+17%</t>
+  </si>
+  <si>
+    <t>Attack+18%</t>
+  </si>
+  <si>
+    <t>Attack+19%</t>
+  </si>
+  <si>
+    <t>Attack+20%</t>
+  </si>
+  <si>
+    <t>Attack+21%</t>
+  </si>
+  <si>
+    <t>防御力+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御力+0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御力+1%</t>
+  </si>
+  <si>
+    <t>防御力+2%</t>
+  </si>
+  <si>
+    <t>防御力+3%</t>
+  </si>
+  <si>
+    <t>防御力+4%</t>
+  </si>
+  <si>
+    <t>防御力+5%</t>
+  </si>
+  <si>
+    <t>防御力+6%</t>
+  </si>
+  <si>
+    <t>防御力+7%</t>
+  </si>
+  <si>
+    <t>防御力+8%</t>
+  </si>
+  <si>
+    <t>防御力+9%</t>
+  </si>
+  <si>
+    <t>防御力+10%</t>
+  </si>
+  <si>
+    <t>防御力+11%</t>
+  </si>
+  <si>
+    <t>防御力+12%</t>
+  </si>
+  <si>
+    <t>防御力+13%</t>
+  </si>
+  <si>
+    <t>防御力+14%</t>
+  </si>
+  <si>
+    <t>防御力+15%</t>
+  </si>
+  <si>
+    <t>防御力+16%</t>
+  </si>
+  <si>
+    <t>防御力+17%</t>
+  </si>
+  <si>
+    <t>防御力+18%</t>
+  </si>
+  <si>
+    <t>防御力+19%</t>
+  </si>
+  <si>
+    <t>防御力+20%</t>
+  </si>
+  <si>
+    <t>防御力+21%</t>
+  </si>
+  <si>
+    <t>Def+0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Def+1%</t>
+  </si>
+  <si>
+    <t>Def+2%</t>
+  </si>
+  <si>
+    <t>Def+3%</t>
+  </si>
+  <si>
+    <t>Def+4%</t>
+  </si>
+  <si>
+    <t>Def+5%</t>
+  </si>
+  <si>
+    <t>Def+6%</t>
+  </si>
+  <si>
+    <t>Def+7%</t>
+  </si>
+  <si>
+    <t>Def+8%</t>
+  </si>
+  <si>
+    <t>Def+9%</t>
+  </si>
+  <si>
+    <t>Def+10%</t>
+  </si>
+  <si>
+    <t>Def+11%</t>
+  </si>
+  <si>
+    <t>Def+12%</t>
+  </si>
+  <si>
+    <t>Def+13%</t>
+  </si>
+  <si>
+    <t>Def+14%</t>
+  </si>
+  <si>
+    <t>Def+15%</t>
+  </si>
+  <si>
+    <t>Def+16%</t>
+  </si>
+  <si>
+    <t>Def+17%</t>
+  </si>
+  <si>
+    <t>Def+18%</t>
+  </si>
+  <si>
+    <t>Def+19%</t>
+  </si>
+  <si>
+    <t>Def+20%</t>
+  </si>
+  <si>
+    <t>Def+21%</t>
+  </si>
+  <si>
+    <t>伤害+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害+0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害+1%</t>
+  </si>
+  <si>
+    <t>伤害+2%</t>
+  </si>
+  <si>
+    <t>伤害+3%</t>
+  </si>
+  <si>
+    <t>伤害+4%</t>
+  </si>
+  <si>
+    <t>伤害+5%</t>
+  </si>
+  <si>
+    <t>伤害+6%</t>
+  </si>
+  <si>
+    <t>伤害+7%</t>
+  </si>
+  <si>
+    <t>伤害+8%</t>
+  </si>
+  <si>
+    <t>伤害+9%</t>
+  </si>
+  <si>
+    <t>伤害+10%</t>
+  </si>
+  <si>
+    <t>伤害+11%</t>
+  </si>
+  <si>
+    <t>伤害+12%</t>
+  </si>
+  <si>
+    <t>伤害+13%</t>
+  </si>
+  <si>
+    <t>伤害+14%</t>
+  </si>
+  <si>
+    <t>伤害+15%</t>
+  </si>
+  <si>
+    <t>伤害+16%</t>
+  </si>
+  <si>
+    <t>伤害+17%</t>
+  </si>
+  <si>
+    <t>伤害+18%</t>
+  </si>
+  <si>
+    <t>伤害+19%</t>
+  </si>
+  <si>
+    <t>伤害+20%</t>
+  </si>
+  <si>
+    <t>伤害+21%</t>
+  </si>
+  <si>
+    <t>Damage+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage+0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage+1%</t>
+  </si>
+  <si>
+    <t>Damage+2%</t>
+  </si>
+  <si>
+    <t>Damage+3%</t>
+  </si>
+  <si>
+    <t>Damage+4%</t>
+  </si>
+  <si>
+    <t>Damage+5%</t>
+  </si>
+  <si>
+    <t>Damage+6%</t>
+  </si>
+  <si>
+    <t>Damage+7%</t>
+  </si>
+  <si>
+    <t>Damage+8%</t>
+  </si>
+  <si>
+    <t>Damage+9%</t>
+  </si>
+  <si>
+    <t>Damage+10%</t>
+  </si>
+  <si>
+    <t>Damage+11%</t>
+  </si>
+  <si>
+    <t>Damage+12%</t>
+  </si>
+  <si>
+    <t>Damage+13%</t>
+  </si>
+  <si>
+    <t>Damage+14%</t>
+  </si>
+  <si>
+    <t>Damage+15%</t>
+  </si>
+  <si>
+    <t>Damage+16%</t>
+  </si>
+  <si>
+    <t>Damage+17%</t>
+  </si>
+  <si>
+    <t>Damage+18%</t>
+  </si>
+  <si>
+    <t>Damage+19%</t>
+  </si>
+  <si>
+    <t>Damage+20%</t>
+  </si>
+  <si>
+    <t>Damage+21%</t>
+  </si>
+  <si>
+    <t>技能触发+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发+2.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发+3.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrigerChance+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家经验+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家经验+0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家经验+1%</t>
+  </si>
+  <si>
+    <t>玩家经验+2%</t>
+  </si>
+  <si>
+    <t>玩家经验+3%</t>
+  </si>
+  <si>
+    <t>玩家经验+4%</t>
+  </si>
+  <si>
+    <t>玩家经验+5%</t>
+  </si>
+  <si>
+    <t>玩家经验+6%</t>
+  </si>
+  <si>
+    <t>玩家经验+7%</t>
+  </si>
+  <si>
+    <t>玩家经验+8%</t>
+  </si>
+  <si>
+    <t>玩家经验+9%</t>
+  </si>
+  <si>
+    <t>玩家经验+10%</t>
+  </si>
+  <si>
+    <t>玩家经验+11%</t>
+  </si>
+  <si>
+    <t>玩家经验+12%</t>
+  </si>
+  <si>
+    <t>玩家经验+13%</t>
+  </si>
+  <si>
+    <t>玩家经验+14%</t>
+  </si>
+  <si>
+    <t>玩家经验+15%</t>
+  </si>
+  <si>
+    <t>玩家经验+16%</t>
+  </si>
+  <si>
+    <t>玩家经验+17%</t>
+  </si>
+  <si>
+    <t>玩家经验+18%</t>
+  </si>
+  <si>
+    <t>玩家经验+19%</t>
+  </si>
+  <si>
+    <t>玩家经验+20%</t>
+  </si>
+  <si>
+    <t>玩家经验+21%</t>
+  </si>
+  <si>
+    <t>PlayerExp+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerExp+0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerExp+1%</t>
+  </si>
+  <si>
+    <t>PlayerExp+2%</t>
+  </si>
+  <si>
+    <t>PlayerExp+3%</t>
+  </si>
+  <si>
+    <t>PlayerExp+4%</t>
+  </si>
+  <si>
+    <t>PlayerExp+5%</t>
+  </si>
+  <si>
+    <t>PlayerExp+6%</t>
+  </si>
+  <si>
+    <t>PlayerExp+7%</t>
+  </si>
+  <si>
+    <t>PlayerExp+8%</t>
+  </si>
+  <si>
+    <t>PlayerExp+9%</t>
+  </si>
+  <si>
+    <t>PlayerExp+10%</t>
+  </si>
+  <si>
+    <t>PlayerExp+11%</t>
+  </si>
+  <si>
+    <t>PlayerExp+12%</t>
+  </si>
+  <si>
+    <t>PlayerExp+13%</t>
+  </si>
+  <si>
+    <t>PlayerExp+14%</t>
+  </si>
+  <si>
+    <t>PlayerExp+15%</t>
+  </si>
+  <si>
+    <t>PlayerExp+16%</t>
+  </si>
+  <si>
+    <t>PlayerExp+17%</t>
+  </si>
+  <si>
+    <t>PlayerExp+18%</t>
+  </si>
+  <si>
+    <t>PlayerExp+19%</t>
+  </si>
+  <si>
+    <t>PlayerExp+20%</t>
+  </si>
+  <si>
+    <t>PlayerExp+21%</t>
+  </si>
+  <si>
+    <t>税率减少</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>税率-0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税率-1%</t>
+  </si>
+  <si>
+    <t>税率-2%</t>
+  </si>
+  <si>
+    <t>税率-3%</t>
+  </si>
+  <si>
+    <t>税率-4%</t>
+  </si>
+  <si>
+    <t>税率-5%</t>
+  </si>
+  <si>
+    <t>税率-6%</t>
+  </si>
+  <si>
+    <t>税率-7%</t>
+  </si>
+  <si>
+    <t>税率-8%</t>
+  </si>
+  <si>
+    <t>税率-9%</t>
+  </si>
+  <si>
+    <t>税率-10%</t>
+  </si>
+  <si>
+    <t>税率-11%</t>
+  </si>
+  <si>
+    <t>税率-12%</t>
+  </si>
+  <si>
+    <t>税率-13%</t>
+  </si>
+  <si>
+    <t>税率-14%</t>
+  </si>
+  <si>
+    <t>税率-15%</t>
+  </si>
+  <si>
+    <t>税率-16%</t>
+  </si>
+  <si>
+    <t>税率-17%</t>
+  </si>
+  <si>
+    <t>税率-18%</t>
+  </si>
+  <si>
+    <t>税率-19%</t>
+  </si>
+  <si>
+    <t>税率-20%</t>
+  </si>
+  <si>
+    <t>税率-21%</t>
+  </si>
+  <si>
+    <t>taxoff</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>tax-0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tax-1%</t>
+  </si>
+  <si>
+    <t>tax-2%</t>
+  </si>
+  <si>
+    <t>tax-3%</t>
+  </si>
+  <si>
+    <t>tax-4%</t>
+  </si>
+  <si>
+    <t>tax-5%</t>
+  </si>
+  <si>
+    <t>tax-6%</t>
+  </si>
+  <si>
+    <t>tax-7%</t>
+  </si>
+  <si>
+    <t>tax-8%</t>
+  </si>
+  <si>
+    <t>tax-9%</t>
+  </si>
+  <si>
+    <t>tax-10%</t>
+  </si>
+  <si>
+    <t>tax-11%</t>
+  </si>
+  <si>
+    <t>tax-12%</t>
+  </si>
+  <si>
+    <t>tax-13%</t>
+  </si>
+  <si>
+    <t>tax-14%</t>
+  </si>
+  <si>
+    <t>tax-15%</t>
+  </si>
+  <si>
+    <t>tax-16%</t>
+  </si>
+  <si>
+    <t>tax-17%</t>
+  </si>
+  <si>
+    <t>tax-18%</t>
+  </si>
+  <si>
+    <t>tax-19%</t>
+  </si>
+  <si>
+    <t>tax-20%</t>
+  </si>
+  <si>
+    <t>tax-21%</t>
+  </si>
+  <si>
+    <t>金矿收入+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金+0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金+1%</t>
+  </si>
+  <si>
+    <t>黄金+2%</t>
+  </si>
+  <si>
+    <t>黄金+3%</t>
+  </si>
+  <si>
+    <t>黄金+4%</t>
+  </si>
+  <si>
+    <t>黄金+5%</t>
+  </si>
+  <si>
+    <t>黄金+6%</t>
+  </si>
+  <si>
+    <t>黄金+7%</t>
+  </si>
+  <si>
+    <t>黄金+8%</t>
+  </si>
+  <si>
+    <t>黄金+9%</t>
+  </si>
+  <si>
+    <t>黄金+10%</t>
+  </si>
+  <si>
+    <t>黄金+11%</t>
+  </si>
+  <si>
+    <t>黄金+12%</t>
+  </si>
+  <si>
+    <t>黄金+13%</t>
+  </si>
+  <si>
+    <t>黄金+14%</t>
+  </si>
+  <si>
+    <t>黄金+15%</t>
+  </si>
+  <si>
+    <t>黄金+16%</t>
+  </si>
+  <si>
+    <t>黄金+17%</t>
+  </si>
+  <si>
+    <t>黄金+18%</t>
+  </si>
+  <si>
+    <t>黄金+19%</t>
+  </si>
+  <si>
+    <t>黄金+20%</t>
+  </si>
+  <si>
+    <t>黄金+21%</t>
+  </si>
+  <si>
+    <t>GoldMine+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold+0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold+1%</t>
+  </si>
+  <si>
+    <t>Gold+2%</t>
+  </si>
+  <si>
+    <t>Gold+3%</t>
+  </si>
+  <si>
+    <t>Gold+4%</t>
+  </si>
+  <si>
+    <t>Gold+5%</t>
+  </si>
+  <si>
+    <t>Gold+6%</t>
+  </si>
+  <si>
+    <t>Gold+7%</t>
+  </si>
+  <si>
+    <t>Gold+8%</t>
+  </si>
+  <si>
+    <t>Gold+9%</t>
+  </si>
+  <si>
+    <t>Gold+10%</t>
+  </si>
+  <si>
+    <t>Gold+11%</t>
+  </si>
+  <si>
+    <t>Gold+12%</t>
+  </si>
+  <si>
+    <t>Gold+13%</t>
+  </si>
+  <si>
+    <t>Gold+14%</t>
+  </si>
+  <si>
+    <t>Gold+15%</t>
+  </si>
+  <si>
+    <t>Gold+16%</t>
+  </si>
+  <si>
+    <t>Gold+17%</t>
+  </si>
+  <si>
+    <t>Gold+18%</t>
+  </si>
+  <si>
+    <t>Gold+19%</t>
+  </si>
+  <si>
+    <t>Gold+20%</t>
+  </si>
+  <si>
+    <t>Gold+21%</t>
+  </si>
+  <si>
+    <t>工人总数：3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工人总数：4</t>
+  </si>
+  <si>
+    <t>工人总数：5</t>
+  </si>
+  <si>
+    <t>工人总数：6</t>
+  </si>
+  <si>
+    <t>工人总数：7</t>
+  </si>
+  <si>
+    <t>工人总数：8</t>
+  </si>
+  <si>
+    <t>WorkerMax</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkerMax：3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkerMax：4</t>
+  </si>
+  <si>
+    <t>WorkerMax：5</t>
+  </si>
+  <si>
+    <t>WorkerMax：6</t>
+  </si>
+  <si>
+    <t>WorkerMax：7</t>
+  </si>
+  <si>
+    <t>WorkerMax：8</t>
+  </si>
+  <si>
+    <t>龙蛋掉率+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蛋掉率+0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蛋掉率+0.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蛋掉率+1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蛋掉率+1.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蛋掉率+2%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蛋掉率+2.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蛋掉率+3%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蛋掉率+3.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蛋掉率+4%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蛋掉率+4.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蛋掉率+5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蛋掉率+5.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蛋掉率+6%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蛋掉率+6.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蛋掉率+7%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蛋掉率+7.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蛋掉率+8%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蛋掉率+8.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蛋掉率+9%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蛋掉率+9.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蛋掉率+10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蛋掉率+10.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eggdrop+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggdrop+0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggdrop+0.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggdrop+1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggdrop+1.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggdrop+2%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggdrop+2.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggdrop+3%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggdrop+3.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggdrop+4%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggdrop+4.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggdrop+5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggdrop+5.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggdrop+6%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggdrop+6.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggdrop+7%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggdrop+7.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggdrop+8%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggdrop+8.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggdrop+9%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggdrop+9.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggdrop+10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggdrop+10.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐龙栏位：5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐龙栏位：6</t>
+  </si>
+  <si>
+    <t>恐龙栏位：7</t>
+  </si>
+  <si>
+    <t>恐龙栏位：8</t>
+  </si>
+  <si>
+    <t>恐龙栏位：9</t>
+  </si>
+  <si>
+    <t>恐龙栏位：10</t>
+  </si>
+  <si>
+    <t>恐龙栏位：11</t>
+  </si>
+  <si>
+    <t>恐龙栏位：12</t>
+  </si>
+  <si>
+    <t>恐龙栏位：13</t>
+  </si>
+  <si>
+    <t>恐龙栏位：14</t>
+  </si>
+  <si>
+    <t>恐龙栏位：15</t>
+  </si>
+  <si>
+    <t>恐龙栏位：16</t>
+  </si>
+  <si>
+    <t>恐龙栏位：17</t>
+  </si>
+  <si>
+    <t>恐龙栏位：18</t>
+  </si>
+  <si>
+    <t>恐龙栏位：19</t>
+  </si>
+  <si>
+    <t>恐龙栏位：20</t>
+  </si>
+  <si>
+    <t>恐龙栏位：21</t>
+  </si>
+  <si>
+    <t>恐龙栏位：22</t>
+  </si>
+  <si>
+    <t>恐龙栏位：23</t>
+  </si>
+  <si>
+    <t>恐龙栏位：24</t>
+  </si>
+  <si>
+    <t>恐龙栏位：25</t>
+  </si>
+  <si>
+    <t>恐龙栏位：26</t>
+  </si>
+  <si>
+    <t>DinoMax</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>DinoMax：5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DinoMax：6</t>
+  </si>
+  <si>
+    <t>DinoMax：7</t>
+  </si>
+  <si>
+    <t>DinoMax：8</t>
+  </si>
+  <si>
+    <t>DinoMax：9</t>
+  </si>
+  <si>
+    <t>DinoMax：10</t>
+  </si>
+  <si>
+    <t>DinoMax：11</t>
+  </si>
+  <si>
+    <t>DinoMax：12</t>
+  </si>
+  <si>
+    <t>DinoMax：13</t>
+  </si>
+  <si>
+    <t>DinoMax：14</t>
+  </si>
+  <si>
+    <t>DinoMax：15</t>
+  </si>
+  <si>
+    <t>DinoMax：16</t>
+  </si>
+  <si>
+    <t>DinoMax：17</t>
+  </si>
+  <si>
+    <t>DinoMax：18</t>
+  </si>
+  <si>
+    <t>DinoMax：19</t>
+  </si>
+  <si>
+    <t>DinoMax：20</t>
+  </si>
+  <si>
+    <t>DinoMax：21</t>
+  </si>
+  <si>
+    <t>DinoMax：22</t>
+  </si>
+  <si>
+    <t>DinoMax：23</t>
+  </si>
+  <si>
+    <t>DinoMax：24</t>
+  </si>
+  <si>
+    <t>DinoMax：25</t>
+  </si>
+  <si>
+    <t>DinoMax：26</t>
+  </si>
+  <si>
+    <t>圣灵几率+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>神灵几率+0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神灵几率+1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神灵几率+1.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神灵几率+2%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神灵几率+2.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神灵几率+3%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神灵几率+3.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神灵几率+4%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神灵几率+4.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神灵几率+5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神灵几率+5.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神灵几率+6%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神灵几率+6.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神灵几率+7%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神灵几率+7.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神灵几率+8%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神灵几率+8.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神灵几率+9%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神灵几率+9.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神灵几率+10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神灵几率+10.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神灵几率+11%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Godchance+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>GodTriger+0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GodTriger+1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GodTriger+1.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GodTriger+2%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GodTriger+2.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GodTriger+3%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GodTriger+3.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GodTriger+4%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GodTriger+4.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GodTriger+5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GodTriger+5.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GodTriger+6%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GodTriger+6.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GodTriger+7%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GodTriger+7.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GodTriger+8%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GodTriger+8.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GodTriger+9%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GodTriger+9.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GodTriger+10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GodTriger+10.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GodTriger+11%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发+0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发+1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发+1.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发+2%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发+3%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发+4%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发+4.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发+5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发+5.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发+6%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发+6.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发+7%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发+7.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发+8%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发+8.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发+9%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发+9.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发+10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发+10.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发+11%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTriger+0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTriger+1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTriger+1.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTriger+2%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTriger+2.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTriger+3%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTriger+3.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTriger+4%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTriger+4.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTriger+5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTriger+5.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTriger+6%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTriger+6.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTriger+7%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTriger+7.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTriger+8%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTriger+8.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTriger+9%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTriger+9.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTriger+10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTriger+10.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTriger+11%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,7 +3299,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,6 +3361,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -694,7 +3573,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -742,6 +3621,16 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1108,8 +3997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1126,26 +4015,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>85</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="16"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="16"/>
+      <c r="A2" s="20"/>
       <c r="B2" s="12" t="s">
         <v>88</v>
       </c>
@@ -1170,8 +4059,8 @@
       <c r="I2" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:17" s="12" customFormat="1">
       <c r="A3" s="12">
@@ -1957,27 +4846,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1996,7 +4885,7 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="16"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="11">
@@ -2717,27 +5606,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -2756,7 +5645,7 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="16"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="11">
@@ -3439,8 +6328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3449,27 +6338,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -3488,7 +6377,7 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="16"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="11">
@@ -3524,7 +6413,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="C4" s="2">
         <v>200</v>
@@ -3554,7 +6443,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="C5" s="2">
         <v>800</v>
@@ -3584,7 +6473,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="C6" s="2">
         <v>1800</v>
@@ -3614,7 +6503,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="C7" s="2">
         <v>3200</v>
@@ -3644,7 +6533,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4">
-        <v>0.05</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C8" s="2">
         <v>5000</v>
@@ -3674,7 +6563,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4">
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="C9" s="2">
         <v>7200</v>
@@ -3704,7 +6593,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="4">
-        <v>7.0000000000000007E-2</v>
+        <v>0.18</v>
       </c>
       <c r="C10" s="2">
         <v>9800</v>
@@ -3734,7 +6623,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="4">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="C11" s="2">
         <v>12800</v>
@@ -3764,7 +6653,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="4">
-        <v>0.09</v>
+        <v>0.21</v>
       </c>
       <c r="C12" s="2">
         <v>16200</v>
@@ -3794,7 +6683,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="4">
-        <v>0.1</v>
+        <v>0.22</v>
       </c>
       <c r="C13" s="2">
         <v>20000</v>
@@ -3824,7 +6713,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="4">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
       <c r="C14" s="2">
         <v>24200</v>
@@ -3854,7 +6743,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4">
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="C15" s="2">
         <v>28800</v>
@@ -3884,7 +6773,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="4">
-        <v>0.13</v>
+        <v>0.25</v>
       </c>
       <c r="C16" s="2">
         <v>33800</v>
@@ -3914,7 +6803,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="4">
-        <v>0.14000000000000001</v>
+        <v>0.26</v>
       </c>
       <c r="C17" s="2">
         <v>39200</v>
@@ -3944,7 +6833,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="4">
-        <v>0.15</v>
+        <v>0.27</v>
       </c>
       <c r="C18" s="2">
         <v>45000</v>
@@ -3974,7 +6863,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="4">
-        <v>0.16</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C19" s="2">
         <v>51200</v>
@@ -4004,7 +6893,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="4">
-        <v>0.17</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C20" s="2">
         <v>57800</v>
@@ -4034,7 +6923,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="4">
-        <v>0.18</v>
+        <v>0.3</v>
       </c>
       <c r="C21" s="2">
         <v>64800</v>
@@ -4064,7 +6953,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="4">
-        <v>0.19</v>
+        <v>0.31</v>
       </c>
       <c r="C22" s="2">
         <v>72200</v>
@@ -4094,7 +6983,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="4">
-        <v>0.2</v>
+        <v>0.32</v>
       </c>
       <c r="C23" s="2">
         <v>80000</v>
@@ -4124,7 +7013,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="4">
-        <v>0.21</v>
+        <v>0.33</v>
       </c>
       <c r="C24" s="2">
         <v>88200</v>
@@ -4182,29 +7071,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="20" t="s">
         <v>52</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -4223,7 +7112,7 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="16"/>
+      <c r="I2" s="20"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
@@ -5010,27 +7899,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -5049,7 +7938,7 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="16"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="11">
@@ -5744,27 +8633,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -5783,7 +8672,7 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="16"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="11">
@@ -6446,7 +9335,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6458,27 +9347,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -6497,7 +9386,7 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="16"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="11">
@@ -6533,7 +9422,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="7">
-        <v>2.5000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="C4" s="2">
         <v>250</v>
@@ -6562,7 +9451,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="7">
-        <v>5.0000000000000001E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="C5" s="3">
         <v>1000</v>
@@ -6591,7 +9480,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="7">
-        <v>7.4999999999999997E-3</v>
+        <v>0.02</v>
       </c>
       <c r="C6" s="2">
         <v>2250</v>
@@ -6620,7 +9509,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="7">
-        <v>0.01</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C7" s="3">
         <v>4000</v>
@@ -6649,7 +9538,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="7">
-        <v>1.2500000000000001E-2</v>
+        <v>0.03</v>
       </c>
       <c r="C8" s="2">
         <v>6250</v>
@@ -6678,7 +9567,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="7">
-        <v>1.4999999999999999E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="C9" s="3">
         <v>9000</v>
@@ -6707,7 +9596,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="7">
-        <v>1.7500000000000002E-2</v>
+        <v>0.04</v>
       </c>
       <c r="C10" s="2">
         <v>12250</v>
@@ -6736,7 +9625,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="7">
-        <v>0.02</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="C11" s="3">
         <v>16000</v>
@@ -6765,7 +9654,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="7">
-        <v>2.2499999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C12" s="2">
         <v>20250</v>
@@ -6794,7 +9683,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="7">
-        <v>2.5000000000000001E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="C13" s="3">
         <v>25000</v>
@@ -6823,7 +9712,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="7">
-        <v>2.75E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C14" s="2">
         <v>30250</v>
@@ -6852,7 +9741,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="7">
-        <v>0.03</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C15" s="3">
         <v>36000</v>
@@ -6881,7 +9770,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="7">
-        <v>3.2500000000000001E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C16" s="2">
         <v>42250</v>
@@ -6910,7 +9799,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="7">
-        <v>3.5000000000000003E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C17" s="3">
         <v>49000</v>
@@ -6939,7 +9828,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="7">
-        <v>3.7499999999999999E-2</v>
+        <v>0.08</v>
       </c>
       <c r="C18" s="2">
         <v>56250</v>
@@ -6968,7 +9857,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="7">
-        <v>0.04</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="C19" s="3">
         <v>64000</v>
@@ -6997,7 +9886,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="7">
-        <v>4.2500000000000003E-2</v>
+        <v>0.09</v>
       </c>
       <c r="C20" s="2">
         <v>72250</v>
@@ -7026,7 +9915,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="7">
-        <v>4.4999999999999998E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="C21" s="2">
         <v>81000</v>
@@ -7055,7 +9944,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="7">
-        <v>4.7500000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="C22" s="3">
         <v>90250</v>
@@ -7084,7 +9973,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="7">
-        <v>0.05</v>
+        <v>0.105</v>
       </c>
       <c r="C23" s="2">
         <v>100000</v>
@@ -7113,7 +10002,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="7">
-        <v>5.2499999999999998E-2</v>
+        <v>0.11</v>
       </c>
       <c r="C24" s="2">
         <v>110250</v>
@@ -7172,27 +10061,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -7211,7 +10100,7 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="16"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="11">
@@ -7907,27 +10796,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -7946,7 +10835,7 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="16"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="11">
@@ -8640,27 +11529,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -8679,7 +11568,7 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="16"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="11">
@@ -9342,7 +12231,7 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D4:D24"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -9356,27 +12245,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="20" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="10" t="s">
         <v>79</v>
       </c>
@@ -9395,7 +12284,7 @@
       <c r="H2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="16"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="11">
@@ -10155,27 +13044,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -10194,7 +13083,7 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="16"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="11">
@@ -11131,6 +14020,3108 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AO25"/>
+  <sheetViews>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AP2" sqref="AP2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41">
+      <c r="A1" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="20">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20">
+        <v>2</v>
+      </c>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20">
+        <v>3</v>
+      </c>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20">
+        <v>4</v>
+      </c>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20">
+        <v>5</v>
+      </c>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20">
+        <v>6</v>
+      </c>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20">
+        <v>7</v>
+      </c>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20">
+        <v>9</v>
+      </c>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20">
+        <v>10</v>
+      </c>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20">
+        <v>11</v>
+      </c>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20">
+        <v>12</v>
+      </c>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20">
+        <v>13</v>
+      </c>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20">
+        <v>14</v>
+      </c>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20">
+        <v>15</v>
+      </c>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20">
+        <v>16</v>
+      </c>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20">
+        <v>17</v>
+      </c>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20">
+        <v>18</v>
+      </c>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20">
+        <v>19</v>
+      </c>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="20">
+        <v>20</v>
+      </c>
+      <c r="AO1" s="20"/>
+    </row>
+    <row r="2" spans="1:41">
+      <c r="A2" s="20"/>
+      <c r="B2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="S2" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="T2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="U2" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="V2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="W2" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="X2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y2" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA2" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC2" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE2" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG2" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI2" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK2" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM2" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO2" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41">
+      <c r="A3" s="20"/>
+      <c r="B3" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>783</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>858</v>
+      </c>
+      <c r="R3" s="16" t="s">
+        <v>685</v>
+      </c>
+      <c r="S3" s="16" t="s">
+        <v>708</v>
+      </c>
+      <c r="T3" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="U3" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="V3" s="16" t="s">
+        <v>881</v>
+      </c>
+      <c r="W3" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="X3" s="16" t="s">
+        <v>731</v>
+      </c>
+      <c r="Y3" s="16" t="s">
+        <v>754</v>
+      </c>
+      <c r="Z3" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA3" s="16" t="s">
+        <v>521</v>
+      </c>
+      <c r="AB3" s="16" t="s">
+        <v>544</v>
+      </c>
+      <c r="AC3" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD3" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE3" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="AF3" s="16" t="s">
+        <v>635</v>
+      </c>
+      <c r="AG3" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="AH3" s="16" t="s">
+        <v>790</v>
+      </c>
+      <c r="AI3" s="16" t="s">
+        <v>813</v>
+      </c>
+      <c r="AJ3" s="16" t="s">
+        <v>589</v>
+      </c>
+      <c r="AK3" s="16" t="s">
+        <v>612</v>
+      </c>
+      <c r="AL3" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM3" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="AN3" s="16" t="s">
+        <v>639</v>
+      </c>
+      <c r="AO3" s="16" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41">
+      <c r="A4" s="17">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>784</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>836</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>859</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>882</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="AF4" s="7" t="s">
+        <v>927</v>
+      </c>
+      <c r="AG4" s="7" t="s">
+        <v>947</v>
+      </c>
+      <c r="AH4" s="6" t="s">
+        <v>791</v>
+      </c>
+      <c r="AI4" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="AK4" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="AL4" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AM4" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AN4" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="AO4" s="4" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41">
+      <c r="A5" s="17">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>785</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>837</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>860</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>883</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="AF5" s="7" t="s">
+        <v>928</v>
+      </c>
+      <c r="AG5" s="7" t="s">
+        <v>948</v>
+      </c>
+      <c r="AH5" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="AI5" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="AJ5" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="AK5" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="AL5" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM5" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AN5" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="AO5" s="4" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
+      <c r="A6" s="17">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>786</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>838</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>861</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>907</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="AF6" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="AG6" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="AH6" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="AI6" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="AJ6" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="AK6" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="AL6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN6" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="AO6" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41">
+      <c r="A7" s="17">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>787</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>839</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>862</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>885</v>
+      </c>
+      <c r="W7" s="7" t="s">
+        <v>908</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="AE7" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="AF7" s="7" t="s">
+        <v>930</v>
+      </c>
+      <c r="AG7" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="AH7" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="AI7" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="AJ7" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="AK7" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="AL7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AM7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN7" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="AO7" s="4" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41">
+      <c r="A8" s="17">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>788</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>840</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>863</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>886</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>909</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="AB8" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="AC8" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="AD8" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="AE8" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="AF8" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="AG8" s="7" t="s">
+        <v>951</v>
+      </c>
+      <c r="AH8" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="AI8" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="AJ8" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="AK8" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="AL8" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM8" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN8" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="AO8" s="4" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41">
+      <c r="A9" s="17">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>789</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>864</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>887</v>
+      </c>
+      <c r="W9" s="7" t="s">
+        <v>910</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="AB9" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="AC9" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="AD9" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="AE9" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="AF9" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="AG9" s="7" t="s">
+        <v>952</v>
+      </c>
+      <c r="AH9" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="AI9" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="AJ9" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="AK9" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="AL9" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM9" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN9" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="AO9" s="4" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41">
+      <c r="A10" s="17">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>842</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>865</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="U10" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="V10" s="7" t="s">
+        <v>888</v>
+      </c>
+      <c r="W10" s="7" t="s">
+        <v>911</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="AE10" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="AF10" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="AG10" s="7" t="s">
+        <v>953</v>
+      </c>
+      <c r="AH10" s="6" t="s">
+        <v>797</v>
+      </c>
+      <c r="AI10" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="AJ10" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="AK10" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="AL10" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AM10" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN10" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="AO10" s="4" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41">
+      <c r="A11" s="17">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>843</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>866</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>889</v>
+      </c>
+      <c r="W11" s="7" t="s">
+        <v>912</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="AA11" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="AB11" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="AC11" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="AD11" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="AE11" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="AF11" s="7" t="s">
+        <v>932</v>
+      </c>
+      <c r="AG11" s="7" t="s">
+        <v>954</v>
+      </c>
+      <c r="AH11" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="AI11" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="AJ11" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="AK11" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="AL11" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM11" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN11" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="AO11" s="4" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41">
+      <c r="A12" s="17">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>844</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>867</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="U12" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="V12" s="7" t="s">
+        <v>890</v>
+      </c>
+      <c r="W12" s="7" t="s">
+        <v>913</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="AA12" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="AB12" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="AC12" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="AD12" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="AE12" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="AF12" s="7" t="s">
+        <v>933</v>
+      </c>
+      <c r="AG12" s="7" t="s">
+        <v>955</v>
+      </c>
+      <c r="AH12" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="AI12" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="AJ12" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="AK12" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="AL12" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM12" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN12" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="AO12" s="4" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41">
+      <c r="A13" s="17">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>845</v>
+      </c>
+      <c r="Q13" s="14" t="s">
+        <v>868</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="U13" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="V13" s="7" t="s">
+        <v>891</v>
+      </c>
+      <c r="W13" s="7" t="s">
+        <v>914</v>
+      </c>
+      <c r="X13" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="AA13" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="AB13" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="AC13" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="AD13" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="AE13" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="AF13" s="7" t="s">
+        <v>934</v>
+      </c>
+      <c r="AG13" s="7" t="s">
+        <v>956</v>
+      </c>
+      <c r="AH13" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="AI13" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="AJ13" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="AK13" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="AL13" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM13" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN13" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="AO13" s="4" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41">
+      <c r="A14" s="17">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>846</v>
+      </c>
+      <c r="Q14" s="14" t="s">
+        <v>869</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="U14" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="V14" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="W14" s="7" t="s">
+        <v>915</v>
+      </c>
+      <c r="X14" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="Y14" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="Z14" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="AA14" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="AB14" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="AC14" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="AD14" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="AE14" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="AF14" s="7" t="s">
+        <v>935</v>
+      </c>
+      <c r="AG14" s="7" t="s">
+        <v>957</v>
+      </c>
+      <c r="AH14" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="AI14" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="AJ14" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="AK14" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="AL14" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM14" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN14" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="AO14" s="4" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41">
+      <c r="A15" s="17">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>847</v>
+      </c>
+      <c r="Q15" s="14" t="s">
+        <v>870</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="T15" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="U15" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="V15" s="7" t="s">
+        <v>893</v>
+      </c>
+      <c r="W15" s="7" t="s">
+        <v>916</v>
+      </c>
+      <c r="X15" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="Y15" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="Z15" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="AA15" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="AB15" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="AC15" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="AD15" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="AE15" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="AF15" s="7" t="s">
+        <v>936</v>
+      </c>
+      <c r="AG15" s="7" t="s">
+        <v>958</v>
+      </c>
+      <c r="AH15" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="AI15" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="AJ15" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="AK15" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="AL15" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM15" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN15" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="AO15" s="4" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41">
+      <c r="A16" s="17">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="P16" s="14" t="s">
+        <v>848</v>
+      </c>
+      <c r="Q16" s="14" t="s">
+        <v>871</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="T16" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="U16" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="V16" s="7" t="s">
+        <v>894</v>
+      </c>
+      <c r="W16" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="X16" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="Z16" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="AA16" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="AB16" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="AC16" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="AD16" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="AE16" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="AF16" s="7" t="s">
+        <v>937</v>
+      </c>
+      <c r="AG16" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="AH16" s="6" t="s">
+        <v>803</v>
+      </c>
+      <c r="AI16" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="AJ16" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="AK16" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="AL16" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM16" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AN16" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="AO16" s="4" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41">
+      <c r="A17" s="17">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="P17" s="14" t="s">
+        <v>849</v>
+      </c>
+      <c r="Q17" s="14" t="s">
+        <v>872</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="T17" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="U17" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="V17" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="W17" s="7" t="s">
+        <v>918</v>
+      </c>
+      <c r="X17" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="Y17" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="Z17" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="AA17" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="AB17" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="AC17" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="AD17" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="AE17" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="AF17" s="7" t="s">
+        <v>938</v>
+      </c>
+      <c r="AG17" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="AH17" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="AI17" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="AJ17" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="AK17" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="AL17" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM17" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN17" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="AO17" s="4" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41">
+      <c r="A18" s="17">
+        <v>14</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="P18" s="14" t="s">
+        <v>850</v>
+      </c>
+      <c r="Q18" s="14" t="s">
+        <v>873</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="U18" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="V18" s="7" t="s">
+        <v>896</v>
+      </c>
+      <c r="W18" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="X18" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="Y18" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="Z18" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="AA18" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="AB18" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="AC18" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="AD18" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="AE18" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="AF18" s="7" t="s">
+        <v>939</v>
+      </c>
+      <c r="AG18" s="7" t="s">
+        <v>961</v>
+      </c>
+      <c r="AH18" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="AI18" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="AJ18" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="AK18" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="AL18" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM18" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN18" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="AO18" s="4" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41">
+      <c r="A19" s="17">
+        <v>15</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>851</v>
+      </c>
+      <c r="Q19" s="14" t="s">
+        <v>874</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="T19" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="U19" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="V19" s="7" t="s">
+        <v>897</v>
+      </c>
+      <c r="W19" s="7" t="s">
+        <v>920</v>
+      </c>
+      <c r="X19" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="Y19" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="Z19" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="AA19" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="AB19" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="AC19" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="AD19" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="AE19" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="AF19" s="7" t="s">
+        <v>940</v>
+      </c>
+      <c r="AG19" s="7" t="s">
+        <v>962</v>
+      </c>
+      <c r="AH19" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="AI19" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="AJ19" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="AK19" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="AL19" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM19" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN19" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="AO19" s="4" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41">
+      <c r="A20" s="17">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>852</v>
+      </c>
+      <c r="Q20" s="14" t="s">
+        <v>875</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="T20" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="U20" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="V20" s="7" t="s">
+        <v>898</v>
+      </c>
+      <c r="W20" s="7" t="s">
+        <v>921</v>
+      </c>
+      <c r="X20" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="Y20" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="Z20" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="AA20" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="AB20" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="AC20" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="AD20" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="AE20" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="AF20" s="7" t="s">
+        <v>941</v>
+      </c>
+      <c r="AG20" s="7" t="s">
+        <v>963</v>
+      </c>
+      <c r="AH20" s="6" t="s">
+        <v>807</v>
+      </c>
+      <c r="AI20" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="AJ20" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="AK20" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="AL20" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM20" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AN20" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="AO20" s="4" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41">
+      <c r="A21" s="17">
+        <v>17</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>853</v>
+      </c>
+      <c r="Q21" s="14" t="s">
+        <v>876</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="T21" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="U21" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="V21" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="W21" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="X21" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="Y21" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="Z21" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="AA21" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="AB21" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="AC21" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="AD21" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="AE21" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="AF21" s="7" t="s">
+        <v>942</v>
+      </c>
+      <c r="AG21" s="7" t="s">
+        <v>964</v>
+      </c>
+      <c r="AH21" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="AI21" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="AJ21" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="AK21" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="AL21" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM21" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN21" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="AO21" s="4" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41">
+      <c r="A22" s="17">
+        <v>18</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="P22" s="14" t="s">
+        <v>854</v>
+      </c>
+      <c r="Q22" s="14" t="s">
+        <v>877</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="T22" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="U22" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="V22" s="7" t="s">
+        <v>900</v>
+      </c>
+      <c r="W22" s="7" t="s">
+        <v>923</v>
+      </c>
+      <c r="X22" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="Y22" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="Z22" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="AA22" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="AB22" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="AC22" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="AD22" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="AE22" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="AF22" s="7" t="s">
+        <v>943</v>
+      </c>
+      <c r="AG22" s="7" t="s">
+        <v>965</v>
+      </c>
+      <c r="AH22" s="6" t="s">
+        <v>809</v>
+      </c>
+      <c r="AI22" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="AJ22" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="AK22" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="AL22" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM22" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN22" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="AO22" s="4" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41">
+      <c r="A23" s="17">
+        <v>19</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="P23" s="14" t="s">
+        <v>855</v>
+      </c>
+      <c r="Q23" s="14" t="s">
+        <v>878</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="T23" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="U23" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="V23" s="7" t="s">
+        <v>901</v>
+      </c>
+      <c r="W23" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="X23" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="Y23" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="Z23" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="AA23" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="AB23" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="AC23" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="AD23" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="AE23" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="AF23" s="7" t="s">
+        <v>944</v>
+      </c>
+      <c r="AG23" s="7" t="s">
+        <v>966</v>
+      </c>
+      <c r="AH23" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="AI23" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="AJ23" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="AK23" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="AL23" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AM23" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AN23" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="AO23" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41">
+      <c r="A24" s="17">
+        <v>20</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="P24" s="14" t="s">
+        <v>856</v>
+      </c>
+      <c r="Q24" s="14" t="s">
+        <v>879</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="T24" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="U24" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="V24" s="7" t="s">
+        <v>902</v>
+      </c>
+      <c r="W24" s="7" t="s">
+        <v>925</v>
+      </c>
+      <c r="X24" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="Y24" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="Z24" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="AA24" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="AB24" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="AC24" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="AD24" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="AE24" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="AF24" s="7" t="s">
+        <v>945</v>
+      </c>
+      <c r="AG24" s="7" t="s">
+        <v>967</v>
+      </c>
+      <c r="AH24" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="AI24" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="AJ24" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="AK24" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="AL24" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM24" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN24" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="AO24" s="4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41">
+      <c r="A25" s="17">
+        <v>21</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="P25" s="14" t="s">
+        <v>857</v>
+      </c>
+      <c r="Q25" s="14" t="s">
+        <v>880</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="T25" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="U25" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="V25" s="7" t="s">
+        <v>903</v>
+      </c>
+      <c r="W25" s="7" t="s">
+        <v>926</v>
+      </c>
+      <c r="X25" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="Y25" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="Z25" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="AA25" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="AB25" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="AC25" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="AD25" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="AE25" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="AF25" s="7" t="s">
+        <v>946</v>
+      </c>
+      <c r="AG25" s="7" t="s">
+        <v>968</v>
+      </c>
+      <c r="AH25" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="AI25" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="AJ25" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="AK25" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="AL25" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM25" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN25" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="AO25" s="4" t="s">
+        <v>684</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
@@ -11148,27 +17139,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -11187,7 +17178,7 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="16"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="11">
@@ -11893,27 +17884,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -11932,7 +17923,7 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="16"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="11">
@@ -12615,27 +18606,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -12654,7 +18645,7 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="16"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="11">
@@ -13340,24 +19331,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="20" t="s">
         <v>52</v>
       </c>
       <c r="K1" s="1"/>
@@ -13367,9 +19358,9 @@
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
@@ -13388,7 +19379,7 @@
       <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="16"/>
+      <c r="J2" s="20"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -14206,35 +20197,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
@@ -14253,7 +20244,7 @@
       <c r="J2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="16"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="11">
@@ -15108,31 +21099,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
@@ -15151,7 +21142,7 @@
       <c r="I2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="16"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="11">
@@ -15940,31 +21931,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
@@ -15983,7 +21974,7 @@
       <c r="I2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="16"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="11">

--- a/const/technologies.xlsx
+++ b/const/technologies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27020" windowHeight="14920"/>
+    <workbookView xWindow="1460" yWindow="0" windowWidth="29940" windowHeight="18640" firstSheet="10" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="住宅" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="掠夺" sheetId="19" r:id="rId19"/>
     <sheet name="智慧" sheetId="21" r:id="rId20"/>
     <sheet name="define" sheetId="22" r:id="rId21"/>
+    <sheet name="描述" sheetId="23" r:id="rId22"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="969">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,6 +418,2877 @@
   </si>
   <si>
     <t>earn_score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掠夺资源+2%</t>
+  </si>
+  <si>
+    <t>ResourceRob+2%</t>
+  </si>
+  <si>
+    <t>掠夺资源+3%</t>
+  </si>
+  <si>
+    <t>ResourceRob+3%</t>
+  </si>
+  <si>
+    <t>掠夺资源+4%</t>
+  </si>
+  <si>
+    <t>ResourceRob+4%</t>
+  </si>
+  <si>
+    <t>掠夺资源+5%</t>
+  </si>
+  <si>
+    <t>ResourceRob+5%</t>
+  </si>
+  <si>
+    <t>掠夺资源+6%</t>
+  </si>
+  <si>
+    <t>ResourceRob+6%</t>
+  </si>
+  <si>
+    <t>掠夺资源+7%</t>
+  </si>
+  <si>
+    <t>ResourceRob+7%</t>
+  </si>
+  <si>
+    <t>掠夺资源+8%</t>
+  </si>
+  <si>
+    <t>ResourceRob+8%</t>
+  </si>
+  <si>
+    <t>掠夺资源+9%</t>
+  </si>
+  <si>
+    <t>ResourceRob+9%</t>
+  </si>
+  <si>
+    <t>掠夺资源+10%</t>
+  </si>
+  <si>
+    <t>ResourceRob+10%</t>
+  </si>
+  <si>
+    <t>掠夺资源+11%</t>
+  </si>
+  <si>
+    <t>ResourceRob+11%</t>
+  </si>
+  <si>
+    <t>掠夺资源+12%</t>
+  </si>
+  <si>
+    <t>ResourceRob+12%</t>
+  </si>
+  <si>
+    <t>掠夺资源+13%</t>
+  </si>
+  <si>
+    <t>ResourceRob+13%</t>
+  </si>
+  <si>
+    <t>掠夺资源+14%</t>
+  </si>
+  <si>
+    <t>ResourceRob+14%</t>
+  </si>
+  <si>
+    <t>掠夺资源+15%</t>
+  </si>
+  <si>
+    <t>ResourceRob+15%</t>
+  </si>
+  <si>
+    <t>掠夺资源+16%</t>
+  </si>
+  <si>
+    <t>ResourceRob+16%</t>
+  </si>
+  <si>
+    <t>掠夺资源+17%</t>
+  </si>
+  <si>
+    <t>ResourceRob+17%</t>
+  </si>
+  <si>
+    <t>掠夺资源+18%</t>
+  </si>
+  <si>
+    <t>ResourceRob+18%</t>
+  </si>
+  <si>
+    <t>掠夺资源+19%</t>
+  </si>
+  <si>
+    <t>ResourceRob+19%</t>
+  </si>
+  <si>
+    <t>掠夺资源+20%</t>
+  </si>
+  <si>
+    <t>ResourceRob+20%</t>
+  </si>
+  <si>
+    <t>掠夺资源+21%</t>
+  </si>
+  <si>
+    <t>ResourceRob+21%</t>
+  </si>
+  <si>
+    <t>cn</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>en</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>en</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉类/h</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>meat/h</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>en</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>产量/h</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>produce/h</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>产量/h</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>produce/h</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源容量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>孵化时间减少</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>hatchhaste</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>科研时间减少</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>upgradehaste</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Def+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>掠夺资源+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceRob+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>掠夺资源+0%</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceRob+0%</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>掠夺资源+1%</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceRob+1%</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>兽栏容量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>工人总数</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果/h</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>fruit/h</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源上限:1400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源上限:2240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源上限:4340</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源上限:7280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源上限:11060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源上限:15680</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源上限:21140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源上限:27440</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源上限:34580</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源上限:42560</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源上限:51380</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源上限:61040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源上限:71540</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源上限:82880</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源上限:95060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源上限:108080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源上限:121940</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源上限:136640</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源上限:152180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源上限:168560</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源上限:185780</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源上限:203000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceMax</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceMax:1400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceMax:2240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceMax:4340</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceMax:7280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceMax:11060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceMax:15680</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceMax:21140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceMax:27440</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceMax:34580</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceMax:42560</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceMax:51380</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceMax:61040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceMax:71540</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceMax:82880</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceMax:95060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceMax:108080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceMax:121940</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceMax:136640</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceMax:152180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceMax:168560</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceMax:185780</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResourceMax:203000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果:2/h</t>
+  </si>
+  <si>
+    <t>水果:4/h</t>
+  </si>
+  <si>
+    <t>水果:5/h</t>
+  </si>
+  <si>
+    <t>水果:6/h</t>
+  </si>
+  <si>
+    <t>水果:7/h</t>
+  </si>
+  <si>
+    <t>水果:8/h</t>
+  </si>
+  <si>
+    <t>水果:9/h</t>
+  </si>
+  <si>
+    <t>水果:10/h</t>
+  </si>
+  <si>
+    <t>水果:11/h</t>
+  </si>
+  <si>
+    <t>水果:12/h</t>
+  </si>
+  <si>
+    <t>水果:13/h</t>
+  </si>
+  <si>
+    <t>水果:14/h</t>
+  </si>
+  <si>
+    <t>水果:15/h</t>
+  </si>
+  <si>
+    <t>水果:16/h</t>
+  </si>
+  <si>
+    <t>水果:17/h</t>
+  </si>
+  <si>
+    <t>水果:18/h</t>
+  </si>
+  <si>
+    <t>水果:19/h</t>
+  </si>
+  <si>
+    <t>水果:20/h</t>
+  </si>
+  <si>
+    <t>水果:21/h</t>
+  </si>
+  <si>
+    <t>水果:22/h</t>
+  </si>
+  <si>
+    <t>水果:23/h</t>
+  </si>
+  <si>
+    <t>水果:3/h</t>
+  </si>
+  <si>
+    <t>Wood:1150/h</t>
+  </si>
+  <si>
+    <t>Fruit:2/h</t>
+  </si>
+  <si>
+    <t>Fruit:4/h</t>
+  </si>
+  <si>
+    <t>Fruit:5/h</t>
+  </si>
+  <si>
+    <t>Fruit:6/h</t>
+  </si>
+  <si>
+    <t>Fruit:7/h</t>
+  </si>
+  <si>
+    <t>Fruit:8/h</t>
+  </si>
+  <si>
+    <t>Fruit:9/h</t>
+  </si>
+  <si>
+    <t>Fruit:10/h</t>
+  </si>
+  <si>
+    <t>Fruit:11/h</t>
+  </si>
+  <si>
+    <t>Fruit:12/h</t>
+  </si>
+  <si>
+    <t>Fruit:13/h</t>
+  </si>
+  <si>
+    <t>Fruit:14/h</t>
+  </si>
+  <si>
+    <t>Fruit:15/h</t>
+  </si>
+  <si>
+    <t>Fruit:16/h</t>
+  </si>
+  <si>
+    <t>Fruit:17/h</t>
+  </si>
+  <si>
+    <t>Fruit:18/h</t>
+  </si>
+  <si>
+    <t>Fruit:19/h</t>
+  </si>
+  <si>
+    <t>Fruit:20/h</t>
+  </si>
+  <si>
+    <t>Fruit:21/h</t>
+  </si>
+  <si>
+    <t>Fruit:22/h</t>
+  </si>
+  <si>
+    <t>Fruit:23/h</t>
+  </si>
+  <si>
+    <t>肉类:2/h</t>
+  </si>
+  <si>
+    <t>肉类:3/h</t>
+  </si>
+  <si>
+    <t>肉类:4/h</t>
+  </si>
+  <si>
+    <t>肉类:5/h</t>
+  </si>
+  <si>
+    <t>肉类:6/h</t>
+  </si>
+  <si>
+    <t>肉类:7/h</t>
+  </si>
+  <si>
+    <t>肉类:8/h</t>
+  </si>
+  <si>
+    <t>肉类:9/h</t>
+  </si>
+  <si>
+    <t>肉类:10/h</t>
+  </si>
+  <si>
+    <t>肉类:11/h</t>
+  </si>
+  <si>
+    <t>肉类:12/h</t>
+  </si>
+  <si>
+    <t>肉类:13/h</t>
+  </si>
+  <si>
+    <t>肉类:14/h</t>
+  </si>
+  <si>
+    <t>肉类:15/h</t>
+  </si>
+  <si>
+    <t>肉类:16/h</t>
+  </si>
+  <si>
+    <t>肉类:17/h</t>
+  </si>
+  <si>
+    <t>肉类:18/h</t>
+  </si>
+  <si>
+    <t>肉类:19/h</t>
+  </si>
+  <si>
+    <t>肉类:20/h</t>
+  </si>
+  <si>
+    <t>肉类:21/h</t>
+  </si>
+  <si>
+    <t>肉类:22/h</t>
+  </si>
+  <si>
+    <t>肉类:23/h</t>
+  </si>
+  <si>
+    <t>Meat:2/h</t>
+  </si>
+  <si>
+    <t>Meat:3/h</t>
+  </si>
+  <si>
+    <t>Meat:4/h</t>
+  </si>
+  <si>
+    <t>Meat:5/h</t>
+  </si>
+  <si>
+    <t>Meat:6/h</t>
+  </si>
+  <si>
+    <t>Meat:7/h</t>
+  </si>
+  <si>
+    <t>Meat:8/h</t>
+  </si>
+  <si>
+    <t>Meat:9/h</t>
+  </si>
+  <si>
+    <t>Meat:10/h</t>
+  </si>
+  <si>
+    <t>Meat:11/h</t>
+  </si>
+  <si>
+    <t>Meat:12/h</t>
+  </si>
+  <si>
+    <t>Meat:13/h</t>
+  </si>
+  <si>
+    <t>Meat:14/h</t>
+  </si>
+  <si>
+    <t>Meat:15/h</t>
+  </si>
+  <si>
+    <t>Meat:16/h</t>
+  </si>
+  <si>
+    <t>Meat:17/h</t>
+  </si>
+  <si>
+    <t>Meat:18/h</t>
+  </si>
+  <si>
+    <t>Meat:19/h</t>
+  </si>
+  <si>
+    <t>Meat:20/h</t>
+  </si>
+  <si>
+    <t>Meat:21/h</t>
+  </si>
+  <si>
+    <t>Meat:22/h</t>
+  </si>
+  <si>
+    <t>Meat:23/h</t>
+  </si>
+  <si>
+    <t>石头:100/h</t>
+  </si>
+  <si>
+    <t>石头:150/h</t>
+  </si>
+  <si>
+    <t>石头:200/h</t>
+  </si>
+  <si>
+    <t>石头:250/h</t>
+  </si>
+  <si>
+    <t>石头:300/h</t>
+  </si>
+  <si>
+    <t>石头:350/h</t>
+  </si>
+  <si>
+    <t>石头:400/h</t>
+  </si>
+  <si>
+    <t>石头:450/h</t>
+  </si>
+  <si>
+    <t>石头:500/h</t>
+  </si>
+  <si>
+    <t>石头:550/h</t>
+  </si>
+  <si>
+    <t>石头:600/h</t>
+  </si>
+  <si>
+    <t>石头:650/h</t>
+  </si>
+  <si>
+    <t>石头:700/h</t>
+  </si>
+  <si>
+    <t>石头:750/h</t>
+  </si>
+  <si>
+    <t>石头:800/h</t>
+  </si>
+  <si>
+    <t>石头:850/h</t>
+  </si>
+  <si>
+    <t>石头:900/h</t>
+  </si>
+  <si>
+    <t>石头:950/h</t>
+  </si>
+  <si>
+    <t>石头:1000/h</t>
+  </si>
+  <si>
+    <t>石头:1050/h</t>
+  </si>
+  <si>
+    <t>石头:1100/h</t>
+  </si>
+  <si>
+    <t>石头:1150/h</t>
+  </si>
+  <si>
+    <t>Stone:100/h</t>
+  </si>
+  <si>
+    <t>Stone:150/h</t>
+  </si>
+  <si>
+    <t>Stone:200/h</t>
+  </si>
+  <si>
+    <t>Stone:250/h</t>
+  </si>
+  <si>
+    <t>Stone:300/h</t>
+  </si>
+  <si>
+    <t>Stone:350/h</t>
+  </si>
+  <si>
+    <t>Stone:400/h</t>
+  </si>
+  <si>
+    <t>Stone:450/h</t>
+  </si>
+  <si>
+    <t>Stone:500/h</t>
+  </si>
+  <si>
+    <t>Stone:550/h</t>
+  </si>
+  <si>
+    <t>Stone:600/h</t>
+  </si>
+  <si>
+    <t>Stone:650/h</t>
+  </si>
+  <si>
+    <t>Stone:700/h</t>
+  </si>
+  <si>
+    <t>Stone:750/h</t>
+  </si>
+  <si>
+    <t>Stone:800/h</t>
+  </si>
+  <si>
+    <t>Stone:850/h</t>
+  </si>
+  <si>
+    <t>Stone:900/h</t>
+  </si>
+  <si>
+    <t>Stone:950/h</t>
+  </si>
+  <si>
+    <t>Stone:1000/h</t>
+  </si>
+  <si>
+    <t>Stone:1050/h</t>
+  </si>
+  <si>
+    <t>Stone:1100/h</t>
+  </si>
+  <si>
+    <t>Stone:1150/h</t>
+  </si>
+  <si>
+    <t>木头:100/h</t>
+  </si>
+  <si>
+    <t>木头:150/h</t>
+  </si>
+  <si>
+    <t>木头:200/h</t>
+  </si>
+  <si>
+    <t>木头:250/h</t>
+  </si>
+  <si>
+    <t>木头:300/h</t>
+  </si>
+  <si>
+    <t>木头:350/h</t>
+  </si>
+  <si>
+    <t>木头:400/h</t>
+  </si>
+  <si>
+    <t>木头:450/h</t>
+  </si>
+  <si>
+    <t>木头:500/h</t>
+  </si>
+  <si>
+    <t>木头:550/h</t>
+  </si>
+  <si>
+    <t>木头:600/h</t>
+  </si>
+  <si>
+    <t>木头:650/h</t>
+  </si>
+  <si>
+    <t>木头:700/h</t>
+  </si>
+  <si>
+    <t>木头:750/h</t>
+  </si>
+  <si>
+    <t>木头:800/h</t>
+  </si>
+  <si>
+    <t>木头:850/h</t>
+  </si>
+  <si>
+    <t>木头:900/h</t>
+  </si>
+  <si>
+    <t>木头:950/h</t>
+  </si>
+  <si>
+    <t>木头:1000/h</t>
+  </si>
+  <si>
+    <t>木头:1050/h</t>
+  </si>
+  <si>
+    <t>木头:1100/h</t>
+  </si>
+  <si>
+    <t>木头:1150/h</t>
+  </si>
+  <si>
+    <t>Wood:100/h</t>
+  </si>
+  <si>
+    <t>Wood:150/h</t>
+  </si>
+  <si>
+    <t>Wood:200/h</t>
+  </si>
+  <si>
+    <t>Wood:250/h</t>
+  </si>
+  <si>
+    <t>Wood:300/h</t>
+  </si>
+  <si>
+    <t>Wood:350/h</t>
+  </si>
+  <si>
+    <t>Wood:400/h</t>
+  </si>
+  <si>
+    <t>Wood:450/h</t>
+  </si>
+  <si>
+    <t>Wood:500/h</t>
+  </si>
+  <si>
+    <t>Wood:550/h</t>
+  </si>
+  <si>
+    <t>Wood:600/h</t>
+  </si>
+  <si>
+    <t>Wood:650/h</t>
+  </si>
+  <si>
+    <t>Wood:700/h</t>
+  </si>
+  <si>
+    <t>Wood:750/h</t>
+  </si>
+  <si>
+    <t>Wood:800/h</t>
+  </si>
+  <si>
+    <t>Wood:850/h</t>
+  </si>
+  <si>
+    <t>Wood:900/h</t>
+  </si>
+  <si>
+    <t>Wood:950/h</t>
+  </si>
+  <si>
+    <t>Wood:1000/h</t>
+  </si>
+  <si>
+    <t>Wood:1050/h</t>
+  </si>
+  <si>
+    <t>Wood:1100/h</t>
+  </si>
+  <si>
+    <t>Fruit:3/h</t>
+  </si>
+  <si>
+    <t>Hatchtime-0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hatchtime-1%</t>
+  </si>
+  <si>
+    <t>Hatchtime-2%</t>
+  </si>
+  <si>
+    <t>Hatchtime-3%</t>
+  </si>
+  <si>
+    <t>Hatchtime-4%</t>
+  </si>
+  <si>
+    <t>Hatchtime-5%</t>
+  </si>
+  <si>
+    <t>Hatchtime-6%</t>
+  </si>
+  <si>
+    <t>Hatchtime-7%</t>
+  </si>
+  <si>
+    <t>Hatchtime-8%</t>
+  </si>
+  <si>
+    <t>Hatchtime-9%</t>
+  </si>
+  <si>
+    <t>Hatchtime-10%</t>
+  </si>
+  <si>
+    <t>Hatchtime-11%</t>
+  </si>
+  <si>
+    <t>Hatchtime-12%</t>
+  </si>
+  <si>
+    <t>Hatchtime-13%</t>
+  </si>
+  <si>
+    <t>Hatchtime-14%</t>
+  </si>
+  <si>
+    <t>Hatchtime-15%</t>
+  </si>
+  <si>
+    <t>Hatchtime-16%</t>
+  </si>
+  <si>
+    <t>Hatchtime-17%</t>
+  </si>
+  <si>
+    <t>Hatchtime-18%</t>
+  </si>
+  <si>
+    <t>Hatchtime-19%</t>
+  </si>
+  <si>
+    <t>Hatchtime-20%</t>
+  </si>
+  <si>
+    <t>Hatchtime-21%</t>
+  </si>
+  <si>
+    <t>孵化时间-0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孵化时间-1%</t>
+  </si>
+  <si>
+    <t>孵化时间-2%</t>
+  </si>
+  <si>
+    <t>孵化时间-3%</t>
+  </si>
+  <si>
+    <t>孵化时间-4%</t>
+  </si>
+  <si>
+    <t>孵化时间-5%</t>
+  </si>
+  <si>
+    <t>孵化时间-6%</t>
+  </si>
+  <si>
+    <t>孵化时间-7%</t>
+  </si>
+  <si>
+    <t>孵化时间-8%</t>
+  </si>
+  <si>
+    <t>孵化时间-9%</t>
+  </si>
+  <si>
+    <t>孵化时间-10%</t>
+  </si>
+  <si>
+    <t>孵化时间-11%</t>
+  </si>
+  <si>
+    <t>孵化时间-12%</t>
+  </si>
+  <si>
+    <t>孵化时间-13%</t>
+  </si>
+  <si>
+    <t>孵化时间-14%</t>
+  </si>
+  <si>
+    <t>孵化时间-15%</t>
+  </si>
+  <si>
+    <t>孵化时间-16%</t>
+  </si>
+  <si>
+    <t>孵化时间-17%</t>
+  </si>
+  <si>
+    <t>孵化时间-18%</t>
+  </si>
+  <si>
+    <t>孵化时间-19%</t>
+  </si>
+  <si>
+    <t>孵化时间-20%</t>
+  </si>
+  <si>
+    <t>孵化时间-21%</t>
+  </si>
+  <si>
+    <t>科研时间-1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科研时间-1.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科研时间-2%</t>
+  </si>
+  <si>
+    <t>科研时间-3%</t>
+  </si>
+  <si>
+    <t>科研时间-1.6%</t>
+  </si>
+  <si>
+    <t>科研时间-4%</t>
+  </si>
+  <si>
+    <t>科研时间-5%</t>
+  </si>
+  <si>
+    <t>科研时间-1.7%</t>
+  </si>
+  <si>
+    <t>科研时间-6%</t>
+  </si>
+  <si>
+    <t>科研时间-7%</t>
+  </si>
+  <si>
+    <t>科研时间-1.8%</t>
+  </si>
+  <si>
+    <t>科研时间-8%</t>
+  </si>
+  <si>
+    <t>科研时间-9%</t>
+  </si>
+  <si>
+    <t>科研时间-1.9%</t>
+  </si>
+  <si>
+    <t>科研时间-10%</t>
+  </si>
+  <si>
+    <t>科研时间-11%</t>
+  </si>
+  <si>
+    <t>科研时间-1.10%</t>
+  </si>
+  <si>
+    <t>科研时间-1.11%</t>
+  </si>
+  <si>
+    <t>科研时间-0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科研时间-1.12%</t>
+  </si>
+  <si>
+    <t>科研时间-1.13%</t>
+  </si>
+  <si>
+    <t>科研时间-1.14%</t>
+  </si>
+  <si>
+    <t>Upgradetime-0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgradetime-1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgradetime-1.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgradetime-2%</t>
+  </si>
+  <si>
+    <t>Upgradetime-1.6%</t>
+  </si>
+  <si>
+    <t>Upgradetime-3%</t>
+  </si>
+  <si>
+    <t>Upgradetime-1.7%</t>
+  </si>
+  <si>
+    <t>Upgradetime-4%</t>
+  </si>
+  <si>
+    <t>Upgradetime-1.8%</t>
+  </si>
+  <si>
+    <t>Upgradetime-5%</t>
+  </si>
+  <si>
+    <t>Upgradetime-1.9%</t>
+  </si>
+  <si>
+    <t>Upgradetime-6%</t>
+  </si>
+  <si>
+    <t>Upgradetime-1.10%</t>
+  </si>
+  <si>
+    <t>Upgradetime-7%</t>
+  </si>
+  <si>
+    <t>Upgradetime-1.11%</t>
+  </si>
+  <si>
+    <t>Upgradetime-8%</t>
+  </si>
+  <si>
+    <t>Upgradetime-1.12%</t>
+  </si>
+  <si>
+    <t>Upgradetime-9%</t>
+  </si>
+  <si>
+    <t>Upgradetime-1.13%</t>
+  </si>
+  <si>
+    <t>Upgradetime-10%</t>
+  </si>
+  <si>
+    <t>Upgradetime-1.14%</t>
+  </si>
+  <si>
+    <t>Upgradetime-11%</t>
+  </si>
+  <si>
+    <t>hp+0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp+1%</t>
+  </si>
+  <si>
+    <t>hp+2%</t>
+  </si>
+  <si>
+    <t>hp+3%</t>
+  </si>
+  <si>
+    <t>hp+4%</t>
+  </si>
+  <si>
+    <t>hp+5%</t>
+  </si>
+  <si>
+    <t>hp+6%</t>
+  </si>
+  <si>
+    <t>hp+7%</t>
+  </si>
+  <si>
+    <t>hp+8%</t>
+  </si>
+  <si>
+    <t>hp+9%</t>
+  </si>
+  <si>
+    <t>hp+10%</t>
+  </si>
+  <si>
+    <t>hp+11%</t>
+  </si>
+  <si>
+    <t>hp+12%</t>
+  </si>
+  <si>
+    <t>hp+13%</t>
+  </si>
+  <si>
+    <t>hp+14%</t>
+  </si>
+  <si>
+    <t>hp+15%</t>
+  </si>
+  <si>
+    <t>hp+16%</t>
+  </si>
+  <si>
+    <t>hp+17%</t>
+  </si>
+  <si>
+    <t>hp+18%</t>
+  </si>
+  <si>
+    <t>hp+19%</t>
+  </si>
+  <si>
+    <t>hp+20%</t>
+  </si>
+  <si>
+    <t>hp+21%</t>
+  </si>
+  <si>
+    <t>hp+0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击+0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击+1%</t>
+  </si>
+  <si>
+    <t>攻击+2%</t>
+  </si>
+  <si>
+    <t>攻击+3%</t>
+  </si>
+  <si>
+    <t>攻击+4%</t>
+  </si>
+  <si>
+    <t>攻击+5%</t>
+  </si>
+  <si>
+    <t>攻击+6%</t>
+  </si>
+  <si>
+    <t>攻击+7%</t>
+  </si>
+  <si>
+    <t>攻击+8%</t>
+  </si>
+  <si>
+    <t>攻击+9%</t>
+  </si>
+  <si>
+    <t>攻击+10%</t>
+  </si>
+  <si>
+    <t>攻击+11%</t>
+  </si>
+  <si>
+    <t>攻击+12%</t>
+  </si>
+  <si>
+    <t>攻击+13%</t>
+  </si>
+  <si>
+    <t>攻击+14%</t>
+  </si>
+  <si>
+    <t>攻击+15%</t>
+  </si>
+  <si>
+    <t>攻击+16%</t>
+  </si>
+  <si>
+    <t>攻击+17%</t>
+  </si>
+  <si>
+    <t>攻击+18%</t>
+  </si>
+  <si>
+    <t>攻击+19%</t>
+  </si>
+  <si>
+    <t>攻击+20%</t>
+  </si>
+  <si>
+    <t>攻击+21%</t>
+  </si>
+  <si>
+    <t>Attack+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack+0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack+1%</t>
+  </si>
+  <si>
+    <t>Attack+2%</t>
+  </si>
+  <si>
+    <t>Attack+3%</t>
+  </si>
+  <si>
+    <t>Attack+4%</t>
+  </si>
+  <si>
+    <t>Attack+5%</t>
+  </si>
+  <si>
+    <t>Attack+6%</t>
+  </si>
+  <si>
+    <t>Attack+7%</t>
+  </si>
+  <si>
+    <t>Attack+8%</t>
+  </si>
+  <si>
+    <t>Attack+9%</t>
+  </si>
+  <si>
+    <t>Attack+10%</t>
+  </si>
+  <si>
+    <t>Attack+11%</t>
+  </si>
+  <si>
+    <t>Attack+12%</t>
+  </si>
+  <si>
+    <t>Attack+13%</t>
+  </si>
+  <si>
+    <t>Attack+14%</t>
+  </si>
+  <si>
+    <t>Attack+15%</t>
+  </si>
+  <si>
+    <t>Attack+16%</t>
+  </si>
+  <si>
+    <t>Attack+17%</t>
+  </si>
+  <si>
+    <t>Attack+18%</t>
+  </si>
+  <si>
+    <t>Attack+19%</t>
+  </si>
+  <si>
+    <t>Attack+20%</t>
+  </si>
+  <si>
+    <t>Attack+21%</t>
+  </si>
+  <si>
+    <t>防御力+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御力+0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御力+1%</t>
+  </si>
+  <si>
+    <t>防御力+2%</t>
+  </si>
+  <si>
+    <t>防御力+3%</t>
+  </si>
+  <si>
+    <t>防御力+4%</t>
+  </si>
+  <si>
+    <t>防御力+5%</t>
+  </si>
+  <si>
+    <t>防御力+6%</t>
+  </si>
+  <si>
+    <t>防御力+7%</t>
+  </si>
+  <si>
+    <t>防御力+8%</t>
+  </si>
+  <si>
+    <t>防御力+9%</t>
+  </si>
+  <si>
+    <t>防御力+10%</t>
+  </si>
+  <si>
+    <t>防御力+11%</t>
+  </si>
+  <si>
+    <t>防御力+12%</t>
+  </si>
+  <si>
+    <t>防御力+13%</t>
+  </si>
+  <si>
+    <t>防御力+14%</t>
+  </si>
+  <si>
+    <t>防御力+15%</t>
+  </si>
+  <si>
+    <t>防御力+16%</t>
+  </si>
+  <si>
+    <t>防御力+17%</t>
+  </si>
+  <si>
+    <t>防御力+18%</t>
+  </si>
+  <si>
+    <t>防御力+19%</t>
+  </si>
+  <si>
+    <t>防御力+20%</t>
+  </si>
+  <si>
+    <t>防御力+21%</t>
+  </si>
+  <si>
+    <t>Def+0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Def+1%</t>
+  </si>
+  <si>
+    <t>Def+2%</t>
+  </si>
+  <si>
+    <t>Def+3%</t>
+  </si>
+  <si>
+    <t>Def+4%</t>
+  </si>
+  <si>
+    <t>Def+5%</t>
+  </si>
+  <si>
+    <t>Def+6%</t>
+  </si>
+  <si>
+    <t>Def+7%</t>
+  </si>
+  <si>
+    <t>Def+8%</t>
+  </si>
+  <si>
+    <t>Def+9%</t>
+  </si>
+  <si>
+    <t>Def+10%</t>
+  </si>
+  <si>
+    <t>Def+11%</t>
+  </si>
+  <si>
+    <t>Def+12%</t>
+  </si>
+  <si>
+    <t>Def+13%</t>
+  </si>
+  <si>
+    <t>Def+14%</t>
+  </si>
+  <si>
+    <t>Def+15%</t>
+  </si>
+  <si>
+    <t>Def+16%</t>
+  </si>
+  <si>
+    <t>Def+17%</t>
+  </si>
+  <si>
+    <t>Def+18%</t>
+  </si>
+  <si>
+    <t>Def+19%</t>
+  </si>
+  <si>
+    <t>Def+20%</t>
+  </si>
+  <si>
+    <t>Def+21%</t>
+  </si>
+  <si>
+    <t>伤害+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害+0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害+1%</t>
+  </si>
+  <si>
+    <t>伤害+2%</t>
+  </si>
+  <si>
+    <t>伤害+3%</t>
+  </si>
+  <si>
+    <t>伤害+4%</t>
+  </si>
+  <si>
+    <t>伤害+5%</t>
+  </si>
+  <si>
+    <t>伤害+6%</t>
+  </si>
+  <si>
+    <t>伤害+7%</t>
+  </si>
+  <si>
+    <t>伤害+8%</t>
+  </si>
+  <si>
+    <t>伤害+9%</t>
+  </si>
+  <si>
+    <t>伤害+10%</t>
+  </si>
+  <si>
+    <t>伤害+11%</t>
+  </si>
+  <si>
+    <t>伤害+12%</t>
+  </si>
+  <si>
+    <t>伤害+13%</t>
+  </si>
+  <si>
+    <t>伤害+14%</t>
+  </si>
+  <si>
+    <t>伤害+15%</t>
+  </si>
+  <si>
+    <t>伤害+16%</t>
+  </si>
+  <si>
+    <t>伤害+17%</t>
+  </si>
+  <si>
+    <t>伤害+18%</t>
+  </si>
+  <si>
+    <t>伤害+19%</t>
+  </si>
+  <si>
+    <t>伤害+20%</t>
+  </si>
+  <si>
+    <t>伤害+21%</t>
+  </si>
+  <si>
+    <t>Damage+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage+0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage+1%</t>
+  </si>
+  <si>
+    <t>Damage+2%</t>
+  </si>
+  <si>
+    <t>Damage+3%</t>
+  </si>
+  <si>
+    <t>Damage+4%</t>
+  </si>
+  <si>
+    <t>Damage+5%</t>
+  </si>
+  <si>
+    <t>Damage+6%</t>
+  </si>
+  <si>
+    <t>Damage+7%</t>
+  </si>
+  <si>
+    <t>Damage+8%</t>
+  </si>
+  <si>
+    <t>Damage+9%</t>
+  </si>
+  <si>
+    <t>Damage+10%</t>
+  </si>
+  <si>
+    <t>Damage+11%</t>
+  </si>
+  <si>
+    <t>Damage+12%</t>
+  </si>
+  <si>
+    <t>Damage+13%</t>
+  </si>
+  <si>
+    <t>Damage+14%</t>
+  </si>
+  <si>
+    <t>Damage+15%</t>
+  </si>
+  <si>
+    <t>Damage+16%</t>
+  </si>
+  <si>
+    <t>Damage+17%</t>
+  </si>
+  <si>
+    <t>Damage+18%</t>
+  </si>
+  <si>
+    <t>Damage+19%</t>
+  </si>
+  <si>
+    <t>Damage+20%</t>
+  </si>
+  <si>
+    <t>Damage+21%</t>
+  </si>
+  <si>
+    <t>技能触发+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发+2.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发+3.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrigerChance+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家经验+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家经验+0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家经验+1%</t>
+  </si>
+  <si>
+    <t>玩家经验+2%</t>
+  </si>
+  <si>
+    <t>玩家经验+3%</t>
+  </si>
+  <si>
+    <t>玩家经验+4%</t>
+  </si>
+  <si>
+    <t>玩家经验+5%</t>
+  </si>
+  <si>
+    <t>玩家经验+6%</t>
+  </si>
+  <si>
+    <t>玩家经验+7%</t>
+  </si>
+  <si>
+    <t>玩家经验+8%</t>
+  </si>
+  <si>
+    <t>玩家经验+9%</t>
+  </si>
+  <si>
+    <t>玩家经验+10%</t>
+  </si>
+  <si>
+    <t>玩家经验+11%</t>
+  </si>
+  <si>
+    <t>玩家经验+12%</t>
+  </si>
+  <si>
+    <t>玩家经验+13%</t>
+  </si>
+  <si>
+    <t>玩家经验+14%</t>
+  </si>
+  <si>
+    <t>玩家经验+15%</t>
+  </si>
+  <si>
+    <t>玩家经验+16%</t>
+  </si>
+  <si>
+    <t>玩家经验+17%</t>
+  </si>
+  <si>
+    <t>玩家经验+18%</t>
+  </si>
+  <si>
+    <t>玩家经验+19%</t>
+  </si>
+  <si>
+    <t>玩家经验+20%</t>
+  </si>
+  <si>
+    <t>玩家经验+21%</t>
+  </si>
+  <si>
+    <t>PlayerExp+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerExp+0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerExp+1%</t>
+  </si>
+  <si>
+    <t>PlayerExp+2%</t>
+  </si>
+  <si>
+    <t>PlayerExp+3%</t>
+  </si>
+  <si>
+    <t>PlayerExp+4%</t>
+  </si>
+  <si>
+    <t>PlayerExp+5%</t>
+  </si>
+  <si>
+    <t>PlayerExp+6%</t>
+  </si>
+  <si>
+    <t>PlayerExp+7%</t>
+  </si>
+  <si>
+    <t>PlayerExp+8%</t>
+  </si>
+  <si>
+    <t>PlayerExp+9%</t>
+  </si>
+  <si>
+    <t>PlayerExp+10%</t>
+  </si>
+  <si>
+    <t>PlayerExp+11%</t>
+  </si>
+  <si>
+    <t>PlayerExp+12%</t>
+  </si>
+  <si>
+    <t>PlayerExp+13%</t>
+  </si>
+  <si>
+    <t>PlayerExp+14%</t>
+  </si>
+  <si>
+    <t>PlayerExp+15%</t>
+  </si>
+  <si>
+    <t>PlayerExp+16%</t>
+  </si>
+  <si>
+    <t>PlayerExp+17%</t>
+  </si>
+  <si>
+    <t>PlayerExp+18%</t>
+  </si>
+  <si>
+    <t>PlayerExp+19%</t>
+  </si>
+  <si>
+    <t>PlayerExp+20%</t>
+  </si>
+  <si>
+    <t>PlayerExp+21%</t>
+  </si>
+  <si>
+    <t>税率减少</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>税率-0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税率-1%</t>
+  </si>
+  <si>
+    <t>税率-2%</t>
+  </si>
+  <si>
+    <t>税率-3%</t>
+  </si>
+  <si>
+    <t>税率-4%</t>
+  </si>
+  <si>
+    <t>税率-5%</t>
+  </si>
+  <si>
+    <t>税率-6%</t>
+  </si>
+  <si>
+    <t>税率-7%</t>
+  </si>
+  <si>
+    <t>税率-8%</t>
+  </si>
+  <si>
+    <t>税率-9%</t>
+  </si>
+  <si>
+    <t>税率-10%</t>
+  </si>
+  <si>
+    <t>税率-11%</t>
+  </si>
+  <si>
+    <t>税率-12%</t>
+  </si>
+  <si>
+    <t>税率-13%</t>
+  </si>
+  <si>
+    <t>税率-14%</t>
+  </si>
+  <si>
+    <t>税率-15%</t>
+  </si>
+  <si>
+    <t>税率-16%</t>
+  </si>
+  <si>
+    <t>税率-17%</t>
+  </si>
+  <si>
+    <t>税率-18%</t>
+  </si>
+  <si>
+    <t>税率-19%</t>
+  </si>
+  <si>
+    <t>税率-20%</t>
+  </si>
+  <si>
+    <t>税率-21%</t>
+  </si>
+  <si>
+    <t>taxoff</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>tax-0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tax-1%</t>
+  </si>
+  <si>
+    <t>tax-2%</t>
+  </si>
+  <si>
+    <t>tax-3%</t>
+  </si>
+  <si>
+    <t>tax-4%</t>
+  </si>
+  <si>
+    <t>tax-5%</t>
+  </si>
+  <si>
+    <t>tax-6%</t>
+  </si>
+  <si>
+    <t>tax-7%</t>
+  </si>
+  <si>
+    <t>tax-8%</t>
+  </si>
+  <si>
+    <t>tax-9%</t>
+  </si>
+  <si>
+    <t>tax-10%</t>
+  </si>
+  <si>
+    <t>tax-11%</t>
+  </si>
+  <si>
+    <t>tax-12%</t>
+  </si>
+  <si>
+    <t>tax-13%</t>
+  </si>
+  <si>
+    <t>tax-14%</t>
+  </si>
+  <si>
+    <t>tax-15%</t>
+  </si>
+  <si>
+    <t>tax-16%</t>
+  </si>
+  <si>
+    <t>tax-17%</t>
+  </si>
+  <si>
+    <t>tax-18%</t>
+  </si>
+  <si>
+    <t>tax-19%</t>
+  </si>
+  <si>
+    <t>tax-20%</t>
+  </si>
+  <si>
+    <t>tax-21%</t>
+  </si>
+  <si>
+    <t>金矿收入+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金+0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金+1%</t>
+  </si>
+  <si>
+    <t>黄金+2%</t>
+  </si>
+  <si>
+    <t>黄金+3%</t>
+  </si>
+  <si>
+    <t>黄金+4%</t>
+  </si>
+  <si>
+    <t>黄金+5%</t>
+  </si>
+  <si>
+    <t>黄金+6%</t>
+  </si>
+  <si>
+    <t>黄金+7%</t>
+  </si>
+  <si>
+    <t>黄金+8%</t>
+  </si>
+  <si>
+    <t>黄金+9%</t>
+  </si>
+  <si>
+    <t>黄金+10%</t>
+  </si>
+  <si>
+    <t>黄金+11%</t>
+  </si>
+  <si>
+    <t>黄金+12%</t>
+  </si>
+  <si>
+    <t>黄金+13%</t>
+  </si>
+  <si>
+    <t>黄金+14%</t>
+  </si>
+  <si>
+    <t>黄金+15%</t>
+  </si>
+  <si>
+    <t>黄金+16%</t>
+  </si>
+  <si>
+    <t>黄金+17%</t>
+  </si>
+  <si>
+    <t>黄金+18%</t>
+  </si>
+  <si>
+    <t>黄金+19%</t>
+  </si>
+  <si>
+    <t>黄金+20%</t>
+  </si>
+  <si>
+    <t>黄金+21%</t>
+  </si>
+  <si>
+    <t>GoldMine+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold+0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold+1%</t>
+  </si>
+  <si>
+    <t>Gold+2%</t>
+  </si>
+  <si>
+    <t>Gold+3%</t>
+  </si>
+  <si>
+    <t>Gold+4%</t>
+  </si>
+  <si>
+    <t>Gold+5%</t>
+  </si>
+  <si>
+    <t>Gold+6%</t>
+  </si>
+  <si>
+    <t>Gold+7%</t>
+  </si>
+  <si>
+    <t>Gold+8%</t>
+  </si>
+  <si>
+    <t>Gold+9%</t>
+  </si>
+  <si>
+    <t>Gold+10%</t>
+  </si>
+  <si>
+    <t>Gold+11%</t>
+  </si>
+  <si>
+    <t>Gold+12%</t>
+  </si>
+  <si>
+    <t>Gold+13%</t>
+  </si>
+  <si>
+    <t>Gold+14%</t>
+  </si>
+  <si>
+    <t>Gold+15%</t>
+  </si>
+  <si>
+    <t>Gold+16%</t>
+  </si>
+  <si>
+    <t>Gold+17%</t>
+  </si>
+  <si>
+    <t>Gold+18%</t>
+  </si>
+  <si>
+    <t>Gold+19%</t>
+  </si>
+  <si>
+    <t>Gold+20%</t>
+  </si>
+  <si>
+    <t>Gold+21%</t>
+  </si>
+  <si>
+    <t>工人总数：3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工人总数：4</t>
+  </si>
+  <si>
+    <t>工人总数：5</t>
+  </si>
+  <si>
+    <t>工人总数：6</t>
+  </si>
+  <si>
+    <t>工人总数：7</t>
+  </si>
+  <si>
+    <t>工人总数：8</t>
+  </si>
+  <si>
+    <t>WorkerMax</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkerMax：3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkerMax：4</t>
+  </si>
+  <si>
+    <t>WorkerMax：5</t>
+  </si>
+  <si>
+    <t>WorkerMax：6</t>
+  </si>
+  <si>
+    <t>WorkerMax：7</t>
+  </si>
+  <si>
+    <t>WorkerMax：8</t>
+  </si>
+  <si>
+    <t>龙蛋掉率+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蛋掉率+0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蛋掉率+0.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蛋掉率+1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蛋掉率+1.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蛋掉率+2%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蛋掉率+2.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蛋掉率+3%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蛋掉率+3.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蛋掉率+4%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蛋掉率+4.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蛋掉率+5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蛋掉率+5.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蛋掉率+6%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蛋掉率+6.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蛋掉率+7%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蛋掉率+7.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蛋掉率+8%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蛋掉率+8.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蛋掉率+9%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蛋掉率+9.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蛋掉率+10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙蛋掉率+10.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eggdrop+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggdrop+0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggdrop+0.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggdrop+1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggdrop+1.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggdrop+2%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggdrop+2.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggdrop+3%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggdrop+3.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggdrop+4%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggdrop+4.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggdrop+5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggdrop+5.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggdrop+6%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggdrop+6.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggdrop+7%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggdrop+7.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggdrop+8%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggdrop+8.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggdrop+9%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggdrop+9.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggdrop+10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eggdrop+10.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐龙栏位：5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐龙栏位：6</t>
+  </si>
+  <si>
+    <t>恐龙栏位：7</t>
+  </si>
+  <si>
+    <t>恐龙栏位：8</t>
+  </si>
+  <si>
+    <t>恐龙栏位：9</t>
+  </si>
+  <si>
+    <t>恐龙栏位：10</t>
+  </si>
+  <si>
+    <t>恐龙栏位：11</t>
+  </si>
+  <si>
+    <t>恐龙栏位：12</t>
+  </si>
+  <si>
+    <t>恐龙栏位：13</t>
+  </si>
+  <si>
+    <t>恐龙栏位：14</t>
+  </si>
+  <si>
+    <t>恐龙栏位：15</t>
+  </si>
+  <si>
+    <t>恐龙栏位：16</t>
+  </si>
+  <si>
+    <t>恐龙栏位：17</t>
+  </si>
+  <si>
+    <t>恐龙栏位：18</t>
+  </si>
+  <si>
+    <t>恐龙栏位：19</t>
+  </si>
+  <si>
+    <t>恐龙栏位：20</t>
+  </si>
+  <si>
+    <t>恐龙栏位：21</t>
+  </si>
+  <si>
+    <t>恐龙栏位：22</t>
+  </si>
+  <si>
+    <t>恐龙栏位：23</t>
+  </si>
+  <si>
+    <t>恐龙栏位：24</t>
+  </si>
+  <si>
+    <t>恐龙栏位：25</t>
+  </si>
+  <si>
+    <t>恐龙栏位：26</t>
+  </si>
+  <si>
+    <t>DinoMax</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>DinoMax：5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DinoMax：6</t>
+  </si>
+  <si>
+    <t>DinoMax：7</t>
+  </si>
+  <si>
+    <t>DinoMax：8</t>
+  </si>
+  <si>
+    <t>DinoMax：9</t>
+  </si>
+  <si>
+    <t>DinoMax：10</t>
+  </si>
+  <si>
+    <t>DinoMax：11</t>
+  </si>
+  <si>
+    <t>DinoMax：12</t>
+  </si>
+  <si>
+    <t>DinoMax：13</t>
+  </si>
+  <si>
+    <t>DinoMax：14</t>
+  </si>
+  <si>
+    <t>DinoMax：15</t>
+  </si>
+  <si>
+    <t>DinoMax：16</t>
+  </si>
+  <si>
+    <t>DinoMax：17</t>
+  </si>
+  <si>
+    <t>DinoMax：18</t>
+  </si>
+  <si>
+    <t>DinoMax：19</t>
+  </si>
+  <si>
+    <t>DinoMax：20</t>
+  </si>
+  <si>
+    <t>DinoMax：21</t>
+  </si>
+  <si>
+    <t>DinoMax：22</t>
+  </si>
+  <si>
+    <t>DinoMax：23</t>
+  </si>
+  <si>
+    <t>DinoMax：24</t>
+  </si>
+  <si>
+    <t>DinoMax：25</t>
+  </si>
+  <si>
+    <t>DinoMax：26</t>
+  </si>
+  <si>
+    <t>圣灵几率+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>神灵几率+0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神灵几率+1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神灵几率+1.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神灵几率+2%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神灵几率+2.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神灵几率+3%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神灵几率+3.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神灵几率+4%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神灵几率+4.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神灵几率+5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神灵几率+5.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神灵几率+6%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神灵几率+6.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神灵几率+7%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神灵几率+7.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神灵几率+8%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神灵几率+8.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神灵几率+9%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神灵几率+9.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神灵几率+10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神灵几率+10.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神灵几率+11%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Godchance+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>GodTriger+0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GodTriger+1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GodTriger+1.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GodTriger+2%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GodTriger+2.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GodTriger+3%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GodTriger+3.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GodTriger+4%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GodTriger+4.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GodTriger+5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GodTriger+5.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GodTriger+6%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GodTriger+6.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GodTriger+7%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GodTriger+7.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GodTriger+8%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GodTriger+8.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GodTriger+9%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GodTriger+9.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GodTriger+10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GodTriger+10.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GodTriger+11%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发+0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发+1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发+1.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发+2%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发+3%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发+4%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发+4.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发+5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发+5.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发+6%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发+6.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发+7%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发+7.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发+8%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发+8.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发+9%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发+9.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发+10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发+10.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能触发+11%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTriger+0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTriger+1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTriger+1.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTriger+2%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTriger+2.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTriger+3%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTriger+3.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTriger+4%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTriger+4.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTriger+5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTriger+5.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTriger+6%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTriger+6.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTriger+7%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTriger+7.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTriger+8%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTriger+8.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTriger+9%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTriger+9.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTriger+10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTriger+10.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillTriger+11%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,7 +3299,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,6 +3361,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -694,7 +3573,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -742,6 +3621,16 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1108,8 +3997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1126,26 +4015,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>85</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="16"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="16"/>
+      <c r="A2" s="20"/>
       <c r="B2" s="12" t="s">
         <v>88</v>
       </c>
@@ -1170,8 +4059,8 @@
       <c r="I2" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:17" s="12" customFormat="1">
       <c r="A3" s="12">
@@ -1957,27 +4846,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1996,7 +4885,7 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="16"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="11">
@@ -2717,27 +5606,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -2756,7 +5645,7 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="16"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="11">
@@ -3439,8 +6328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3449,27 +6338,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -3488,7 +6377,7 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="16"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="11">
@@ -3524,7 +6413,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="C4" s="2">
         <v>200</v>
@@ -3554,7 +6443,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="C5" s="2">
         <v>800</v>
@@ -3584,7 +6473,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="C6" s="2">
         <v>1800</v>
@@ -3614,7 +6503,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="C7" s="2">
         <v>3200</v>
@@ -3644,7 +6533,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4">
-        <v>0.05</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C8" s="2">
         <v>5000</v>
@@ -3674,7 +6563,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4">
-        <v>0.06</v>
+        <v>0.15</v>
       </c>
       <c r="C9" s="2">
         <v>7200</v>
@@ -3704,7 +6593,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="4">
-        <v>7.0000000000000007E-2</v>
+        <v>0.16</v>
       </c>
       <c r="C10" s="2">
         <v>9800</v>
@@ -3734,7 +6623,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="4">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="C11" s="2">
         <v>12800</v>
@@ -3764,7 +6653,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="4">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="C12" s="2">
         <v>16200</v>
@@ -3794,7 +6683,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="4">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="C13" s="2">
         <v>20000</v>
@@ -3824,7 +6713,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="4">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="C14" s="2">
         <v>24200</v>
@@ -3854,7 +6743,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4">
-        <v>0.12</v>
+        <v>0.21</v>
       </c>
       <c r="C15" s="2">
         <v>28800</v>
@@ -3884,7 +6773,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="4">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="C16" s="2">
         <v>33800</v>
@@ -3914,7 +6803,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="4">
-        <v>0.14000000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="C17" s="2">
         <v>39200</v>
@@ -3944,7 +6833,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="4">
-        <v>0.15</v>
+        <v>0.24</v>
       </c>
       <c r="C18" s="2">
         <v>45000</v>
@@ -3974,7 +6863,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="4">
-        <v>0.16</v>
+        <v>0.25</v>
       </c>
       <c r="C19" s="2">
         <v>51200</v>
@@ -4004,7 +6893,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="4">
-        <v>0.17</v>
+        <v>0.26</v>
       </c>
       <c r="C20" s="2">
         <v>57800</v>
@@ -4034,7 +6923,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="4">
-        <v>0.18</v>
+        <v>0.27</v>
       </c>
       <c r="C21" s="2">
         <v>64800</v>
@@ -4064,7 +6953,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="4">
-        <v>0.19</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C22" s="2">
         <v>72200</v>
@@ -4094,7 +6983,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="4">
-        <v>0.2</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C23" s="2">
         <v>80000</v>
@@ -4124,7 +7013,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="4">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
       <c r="C24" s="2">
         <v>88200</v>
@@ -4182,29 +7071,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="20" t="s">
         <v>52</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -4223,7 +7112,7 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="16"/>
+      <c r="I2" s="20"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
@@ -5010,27 +7899,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -5049,7 +7938,7 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="16"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="11">
@@ -5744,27 +8633,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -5783,7 +8672,7 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="16"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="11">
@@ -6446,7 +9335,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6458,27 +9347,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -6497,7 +9386,7 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="16"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="11">
@@ -6533,7 +9422,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="7">
-        <v>2.5000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="C4" s="2">
         <v>250</v>
@@ -6562,7 +9451,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="7">
-        <v>5.0000000000000001E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="C5" s="3">
         <v>1000</v>
@@ -6591,7 +9480,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="7">
-        <v>7.4999999999999997E-3</v>
+        <v>0.02</v>
       </c>
       <c r="C6" s="2">
         <v>2250</v>
@@ -6620,7 +9509,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="7">
-        <v>0.01</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C7" s="3">
         <v>4000</v>
@@ -6649,7 +9538,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="7">
-        <v>1.2500000000000001E-2</v>
+        <v>0.03</v>
       </c>
       <c r="C8" s="2">
         <v>6250</v>
@@ -6678,7 +9567,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="7">
-        <v>1.4999999999999999E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="C9" s="3">
         <v>9000</v>
@@ -6707,7 +9596,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="7">
-        <v>1.7500000000000002E-2</v>
+        <v>0.04</v>
       </c>
       <c r="C10" s="2">
         <v>12250</v>
@@ -6736,7 +9625,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="7">
-        <v>0.02</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="C11" s="3">
         <v>16000</v>
@@ -6765,7 +9654,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="7">
-        <v>2.2499999999999999E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C12" s="2">
         <v>20250</v>
@@ -6794,7 +9683,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="7">
-        <v>2.5000000000000001E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="C13" s="3">
         <v>25000</v>
@@ -6823,7 +9712,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="7">
-        <v>2.75E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C14" s="2">
         <v>30250</v>
@@ -6852,7 +9741,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="7">
-        <v>0.03</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C15" s="3">
         <v>36000</v>
@@ -6881,7 +9770,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="7">
-        <v>3.2500000000000001E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C16" s="2">
         <v>42250</v>
@@ -6910,7 +9799,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="7">
-        <v>3.5000000000000003E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C17" s="3">
         <v>49000</v>
@@ -6939,7 +9828,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="7">
-        <v>3.7499999999999999E-2</v>
+        <v>0.08</v>
       </c>
       <c r="C18" s="2">
         <v>56250</v>
@@ -6968,7 +9857,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="7">
-        <v>0.04</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="C19" s="3">
         <v>64000</v>
@@ -6997,7 +9886,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="7">
-        <v>4.2500000000000003E-2</v>
+        <v>0.09</v>
       </c>
       <c r="C20" s="2">
         <v>72250</v>
@@ -7026,7 +9915,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="7">
-        <v>4.4999999999999998E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="C21" s="2">
         <v>81000</v>
@@ -7055,7 +9944,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="7">
-        <v>4.7500000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="C22" s="3">
         <v>90250</v>
@@ -7084,7 +9973,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="7">
-        <v>0.05</v>
+        <v>0.105</v>
       </c>
       <c r="C23" s="2">
         <v>100000</v>
@@ -7113,7 +10002,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="7">
-        <v>5.2499999999999998E-2</v>
+        <v>0.11</v>
       </c>
       <c r="C24" s="2">
         <v>110250</v>
@@ -7172,27 +10061,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -7211,7 +10100,7 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="16"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="11">
@@ -7907,27 +10796,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -7946,7 +10835,7 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="16"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="11">
@@ -8640,27 +11529,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -8679,7 +11568,7 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="16"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="11">
@@ -9342,7 +12231,7 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D4:D24"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -9356,27 +12245,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="20" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="10" t="s">
         <v>79</v>
       </c>
@@ -9395,7 +12284,7 @@
       <c r="H2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="16"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="11">
@@ -10155,27 +13044,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -10194,7 +13083,7 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="16"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="11">
@@ -11131,6 +14020,3108 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AO25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41">
+      <c r="A1" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="20">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20">
+        <v>2</v>
+      </c>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20">
+        <v>3</v>
+      </c>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20">
+        <v>4</v>
+      </c>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20">
+        <v>5</v>
+      </c>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20">
+        <v>6</v>
+      </c>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20">
+        <v>7</v>
+      </c>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20">
+        <v>9</v>
+      </c>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20">
+        <v>10</v>
+      </c>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20">
+        <v>11</v>
+      </c>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20">
+        <v>12</v>
+      </c>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20">
+        <v>13</v>
+      </c>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20">
+        <v>14</v>
+      </c>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20">
+        <v>15</v>
+      </c>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20">
+        <v>16</v>
+      </c>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20">
+        <v>17</v>
+      </c>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20">
+        <v>18</v>
+      </c>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20">
+        <v>19</v>
+      </c>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="20">
+        <v>20</v>
+      </c>
+      <c r="AO1" s="20"/>
+    </row>
+    <row r="2" spans="1:41">
+      <c r="A2" s="20"/>
+      <c r="B2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="S2" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="T2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="U2" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="V2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="W2" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="X2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y2" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA2" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC2" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE2" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG2" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI2" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK2" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM2" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN2" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO2" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41">
+      <c r="A3" s="20"/>
+      <c r="B3" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>783</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>858</v>
+      </c>
+      <c r="R3" s="16" t="s">
+        <v>685</v>
+      </c>
+      <c r="S3" s="16" t="s">
+        <v>708</v>
+      </c>
+      <c r="T3" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="U3" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="V3" s="16" t="s">
+        <v>881</v>
+      </c>
+      <c r="W3" s="16" t="s">
+        <v>904</v>
+      </c>
+      <c r="X3" s="16" t="s">
+        <v>731</v>
+      </c>
+      <c r="Y3" s="16" t="s">
+        <v>754</v>
+      </c>
+      <c r="Z3" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA3" s="16" t="s">
+        <v>521</v>
+      </c>
+      <c r="AB3" s="16" t="s">
+        <v>544</v>
+      </c>
+      <c r="AC3" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD3" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE3" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="AF3" s="16" t="s">
+        <v>635</v>
+      </c>
+      <c r="AG3" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="AH3" s="16" t="s">
+        <v>790</v>
+      </c>
+      <c r="AI3" s="16" t="s">
+        <v>813</v>
+      </c>
+      <c r="AJ3" s="16" t="s">
+        <v>589</v>
+      </c>
+      <c r="AK3" s="16" t="s">
+        <v>612</v>
+      </c>
+      <c r="AL3" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM3" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="AN3" s="16" t="s">
+        <v>639</v>
+      </c>
+      <c r="AO3" s="16" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41">
+      <c r="A4" s="17">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>784</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>836</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>859</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>882</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="AF4" s="7" t="s">
+        <v>927</v>
+      </c>
+      <c r="AG4" s="7" t="s">
+        <v>947</v>
+      </c>
+      <c r="AH4" s="6" t="s">
+        <v>791</v>
+      </c>
+      <c r="AI4" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="AK4" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="AL4" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AM4" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AN4" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="AO4" s="4" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41">
+      <c r="A5" s="17">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>785</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>837</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>860</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>883</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="AF5" s="7" t="s">
+        <v>928</v>
+      </c>
+      <c r="AG5" s="7" t="s">
+        <v>948</v>
+      </c>
+      <c r="AH5" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="AI5" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="AJ5" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="AK5" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="AL5" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM5" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AN5" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="AO5" s="4" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
+      <c r="A6" s="17">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>786</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>838</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>861</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>907</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="AF6" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="AG6" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="AH6" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="AI6" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="AJ6" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="AK6" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="AL6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN6" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="AO6" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41">
+      <c r="A7" s="17">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>787</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>839</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>862</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>885</v>
+      </c>
+      <c r="W7" s="7" t="s">
+        <v>908</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="AE7" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="AF7" s="7" t="s">
+        <v>930</v>
+      </c>
+      <c r="AG7" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="AH7" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="AI7" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="AJ7" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="AK7" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="AL7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AM7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN7" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="AO7" s="4" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41">
+      <c r="A8" s="17">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>788</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>840</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>863</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>886</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>909</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="AB8" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="AC8" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="AD8" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="AE8" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="AF8" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="AG8" s="7" t="s">
+        <v>951</v>
+      </c>
+      <c r="AH8" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="AI8" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="AJ8" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="AK8" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="AL8" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM8" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN8" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="AO8" s="4" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41">
+      <c r="A9" s="17">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>789</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>864</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>887</v>
+      </c>
+      <c r="W9" s="7" t="s">
+        <v>910</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="AB9" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="AC9" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="AD9" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="AE9" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="AF9" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="AG9" s="7" t="s">
+        <v>952</v>
+      </c>
+      <c r="AH9" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="AI9" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="AJ9" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="AK9" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="AL9" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM9" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN9" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="AO9" s="4" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41">
+      <c r="A10" s="17">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>842</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>865</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="U10" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="V10" s="7" t="s">
+        <v>888</v>
+      </c>
+      <c r="W10" s="7" t="s">
+        <v>911</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="AE10" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="AF10" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="AG10" s="7" t="s">
+        <v>953</v>
+      </c>
+      <c r="AH10" s="6" t="s">
+        <v>797</v>
+      </c>
+      <c r="AI10" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="AJ10" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="AK10" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="AL10" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AM10" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN10" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="AO10" s="4" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41">
+      <c r="A11" s="17">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>843</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>866</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>889</v>
+      </c>
+      <c r="W11" s="7" t="s">
+        <v>912</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="AA11" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="AB11" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="AC11" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="AD11" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="AE11" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="AF11" s="7" t="s">
+        <v>932</v>
+      </c>
+      <c r="AG11" s="7" t="s">
+        <v>954</v>
+      </c>
+      <c r="AH11" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="AI11" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="AJ11" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="AK11" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="AL11" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM11" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN11" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="AO11" s="4" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41">
+      <c r="A12" s="17">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>844</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>867</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="U12" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="V12" s="7" t="s">
+        <v>890</v>
+      </c>
+      <c r="W12" s="7" t="s">
+        <v>913</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="AA12" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="AB12" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="AC12" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="AD12" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="AE12" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="AF12" s="7" t="s">
+        <v>933</v>
+      </c>
+      <c r="AG12" s="7" t="s">
+        <v>955</v>
+      </c>
+      <c r="AH12" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="AI12" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="AJ12" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="AK12" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="AL12" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM12" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN12" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="AO12" s="4" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41">
+      <c r="A13" s="17">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>845</v>
+      </c>
+      <c r="Q13" s="14" t="s">
+        <v>868</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="U13" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="V13" s="7" t="s">
+        <v>891</v>
+      </c>
+      <c r="W13" s="7" t="s">
+        <v>914</v>
+      </c>
+      <c r="X13" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="AA13" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="AB13" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="AC13" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="AD13" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="AE13" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="AF13" s="7" t="s">
+        <v>934</v>
+      </c>
+      <c r="AG13" s="7" t="s">
+        <v>956</v>
+      </c>
+      <c r="AH13" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="AI13" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="AJ13" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="AK13" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="AL13" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM13" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN13" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="AO13" s="4" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41">
+      <c r="A14" s="17">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>846</v>
+      </c>
+      <c r="Q14" s="14" t="s">
+        <v>869</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="U14" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="V14" s="7" t="s">
+        <v>892</v>
+      </c>
+      <c r="W14" s="7" t="s">
+        <v>915</v>
+      </c>
+      <c r="X14" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="Y14" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="Z14" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="AA14" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="AB14" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="AC14" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="AD14" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="AE14" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="AF14" s="7" t="s">
+        <v>935</v>
+      </c>
+      <c r="AG14" s="7" t="s">
+        <v>957</v>
+      </c>
+      <c r="AH14" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="AI14" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="AJ14" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="AK14" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="AL14" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM14" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN14" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="AO14" s="4" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41">
+      <c r="A15" s="17">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>847</v>
+      </c>
+      <c r="Q15" s="14" t="s">
+        <v>870</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="T15" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="U15" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="V15" s="7" t="s">
+        <v>893</v>
+      </c>
+      <c r="W15" s="7" t="s">
+        <v>916</v>
+      </c>
+      <c r="X15" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="Y15" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="Z15" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="AA15" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="AB15" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="AC15" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="AD15" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="AE15" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="AF15" s="7" t="s">
+        <v>936</v>
+      </c>
+      <c r="AG15" s="7" t="s">
+        <v>958</v>
+      </c>
+      <c r="AH15" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="AI15" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="AJ15" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="AK15" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="AL15" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM15" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN15" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="AO15" s="4" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41">
+      <c r="A16" s="17">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="P16" s="14" t="s">
+        <v>848</v>
+      </c>
+      <c r="Q16" s="14" t="s">
+        <v>871</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="T16" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="U16" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="V16" s="7" t="s">
+        <v>894</v>
+      </c>
+      <c r="W16" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="X16" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="Z16" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="AA16" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="AB16" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="AC16" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="AD16" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="AE16" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="AF16" s="7" t="s">
+        <v>937</v>
+      </c>
+      <c r="AG16" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="AH16" s="6" t="s">
+        <v>803</v>
+      </c>
+      <c r="AI16" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="AJ16" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="AK16" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="AL16" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM16" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AN16" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="AO16" s="4" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41">
+      <c r="A17" s="17">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="P17" s="14" t="s">
+        <v>849</v>
+      </c>
+      <c r="Q17" s="14" t="s">
+        <v>872</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="T17" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="U17" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="V17" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="W17" s="7" t="s">
+        <v>918</v>
+      </c>
+      <c r="X17" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="Y17" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="Z17" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="AA17" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="AB17" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="AC17" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="AD17" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="AE17" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="AF17" s="7" t="s">
+        <v>938</v>
+      </c>
+      <c r="AG17" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="AH17" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="AI17" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="AJ17" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="AK17" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="AL17" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM17" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN17" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="AO17" s="4" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41">
+      <c r="A18" s="17">
+        <v>14</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="P18" s="14" t="s">
+        <v>850</v>
+      </c>
+      <c r="Q18" s="14" t="s">
+        <v>873</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="U18" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="V18" s="7" t="s">
+        <v>896</v>
+      </c>
+      <c r="W18" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="X18" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="Y18" s="4" t="s">
+        <v>769</v>
+      </c>
+      <c r="Z18" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="AA18" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="AB18" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="AC18" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="AD18" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="AE18" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="AF18" s="7" t="s">
+        <v>939</v>
+      </c>
+      <c r="AG18" s="7" t="s">
+        <v>961</v>
+      </c>
+      <c r="AH18" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="AI18" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="AJ18" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="AK18" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="AL18" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM18" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN18" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="AO18" s="4" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41">
+      <c r="A19" s="17">
+        <v>15</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>851</v>
+      </c>
+      <c r="Q19" s="14" t="s">
+        <v>874</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="T19" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="U19" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="V19" s="7" t="s">
+        <v>897</v>
+      </c>
+      <c r="W19" s="7" t="s">
+        <v>920</v>
+      </c>
+      <c r="X19" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="Y19" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="Z19" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="AA19" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="AB19" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="AC19" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="AD19" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="AE19" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="AF19" s="7" t="s">
+        <v>940</v>
+      </c>
+      <c r="AG19" s="7" t="s">
+        <v>962</v>
+      </c>
+      <c r="AH19" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="AI19" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="AJ19" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="AK19" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="AL19" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM19" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN19" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="AO19" s="4" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41">
+      <c r="A20" s="17">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>852</v>
+      </c>
+      <c r="Q20" s="14" t="s">
+        <v>875</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="T20" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="U20" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="V20" s="7" t="s">
+        <v>898</v>
+      </c>
+      <c r="W20" s="7" t="s">
+        <v>921</v>
+      </c>
+      <c r="X20" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="Y20" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="Z20" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="AA20" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="AB20" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="AC20" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="AD20" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="AE20" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="AF20" s="7" t="s">
+        <v>941</v>
+      </c>
+      <c r="AG20" s="7" t="s">
+        <v>963</v>
+      </c>
+      <c r="AH20" s="6" t="s">
+        <v>807</v>
+      </c>
+      <c r="AI20" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="AJ20" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="AK20" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="AL20" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM20" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AN20" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="AO20" s="4" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41">
+      <c r="A21" s="17">
+        <v>17</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>853</v>
+      </c>
+      <c r="Q21" s="14" t="s">
+        <v>876</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="T21" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="U21" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="V21" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="W21" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="X21" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="Y21" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="Z21" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="AA21" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="AB21" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="AC21" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="AD21" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="AE21" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="AF21" s="7" t="s">
+        <v>942</v>
+      </c>
+      <c r="AG21" s="7" t="s">
+        <v>964</v>
+      </c>
+      <c r="AH21" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="AI21" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="AJ21" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="AK21" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="AL21" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM21" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN21" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="AO21" s="4" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41">
+      <c r="A22" s="17">
+        <v>18</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="P22" s="14" t="s">
+        <v>854</v>
+      </c>
+      <c r="Q22" s="14" t="s">
+        <v>877</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="T22" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="U22" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="V22" s="7" t="s">
+        <v>900</v>
+      </c>
+      <c r="W22" s="7" t="s">
+        <v>923</v>
+      </c>
+      <c r="X22" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="Y22" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="Z22" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="AA22" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="AB22" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="AC22" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="AD22" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="AE22" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="AF22" s="7" t="s">
+        <v>943</v>
+      </c>
+      <c r="AG22" s="7" t="s">
+        <v>965</v>
+      </c>
+      <c r="AH22" s="6" t="s">
+        <v>809</v>
+      </c>
+      <c r="AI22" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="AJ22" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="AK22" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="AL22" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM22" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN22" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="AO22" s="4" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41">
+      <c r="A23" s="17">
+        <v>19</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="P23" s="14" t="s">
+        <v>855</v>
+      </c>
+      <c r="Q23" s="14" t="s">
+        <v>878</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="T23" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="U23" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="V23" s="7" t="s">
+        <v>901</v>
+      </c>
+      <c r="W23" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="X23" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="Y23" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="Z23" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="AA23" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="AB23" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="AC23" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="AD23" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="AE23" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="AF23" s="7" t="s">
+        <v>944</v>
+      </c>
+      <c r="AG23" s="7" t="s">
+        <v>966</v>
+      </c>
+      <c r="AH23" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="AI23" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="AJ23" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="AK23" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="AL23" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AM23" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AN23" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="AO23" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41">
+      <c r="A24" s="17">
+        <v>20</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="P24" s="14" t="s">
+        <v>856</v>
+      </c>
+      <c r="Q24" s="14" t="s">
+        <v>879</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="T24" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="U24" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="V24" s="7" t="s">
+        <v>902</v>
+      </c>
+      <c r="W24" s="7" t="s">
+        <v>925</v>
+      </c>
+      <c r="X24" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="Y24" s="4" t="s">
+        <v>775</v>
+      </c>
+      <c r="Z24" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="AA24" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="AB24" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="AC24" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="AD24" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="AE24" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="AF24" s="7" t="s">
+        <v>945</v>
+      </c>
+      <c r="AG24" s="7" t="s">
+        <v>967</v>
+      </c>
+      <c r="AH24" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="AI24" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="AJ24" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="AK24" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="AL24" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM24" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN24" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="AO24" s="4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41">
+      <c r="A25" s="17">
+        <v>21</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="P25" s="14" t="s">
+        <v>857</v>
+      </c>
+      <c r="Q25" s="14" t="s">
+        <v>880</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="T25" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="U25" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="V25" s="7" t="s">
+        <v>903</v>
+      </c>
+      <c r="W25" s="7" t="s">
+        <v>926</v>
+      </c>
+      <c r="X25" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="Y25" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="Z25" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="AA25" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="AB25" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="AC25" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="AD25" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="AE25" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="AF25" s="7" t="s">
+        <v>946</v>
+      </c>
+      <c r="AG25" s="7" t="s">
+        <v>968</v>
+      </c>
+      <c r="AH25" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="AI25" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="AJ25" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="AK25" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="AL25" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM25" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN25" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="AO25" s="4" t="s">
+        <v>684</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AB1:AC1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
@@ -11148,27 +17139,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -11187,7 +17178,7 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="16"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="11">
@@ -11893,27 +17884,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -11932,7 +17923,7 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="16"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="11">
@@ -12615,27 +18606,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -12654,7 +18645,7 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="16"/>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="11">
@@ -13340,24 +19331,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="20" t="s">
         <v>52</v>
       </c>
       <c r="K1" s="1"/>
@@ -13367,9 +19358,9 @@
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
@@ -13388,7 +19379,7 @@
       <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="16"/>
+      <c r="J2" s="20"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -14206,35 +20197,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
@@ -14253,7 +20244,7 @@
       <c r="J2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="16"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="11">
@@ -15108,31 +21099,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
@@ -15151,7 +21142,7 @@
       <c r="I2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="16"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="11">
@@ -15940,31 +21931,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
@@ -15983,7 +21974,7 @@
       <c r="I2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="16"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="11">

--- a/const/technologies.xlsx
+++ b/const/technologies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="0" windowWidth="29940" windowHeight="18640" firstSheet="10" activeTab="11"/>
+    <workbookView xWindow="1460" yWindow="0" windowWidth="29940" windowHeight="18640" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="住宅" sheetId="1" r:id="rId1"/>
@@ -6329,7 +6329,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6383,7 +6383,7 @@
       <c r="A3" s="11">
         <v>0</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="6">
         <v>0</v>
       </c>
       <c r="C3" s="11">
@@ -6412,7 +6412,7 @@
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="6">
         <v>0.05</v>
       </c>
       <c r="C4" s="2">
@@ -6442,7 +6442,7 @@
       <c r="A5" s="11">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="6">
         <v>0.08</v>
       </c>
       <c r="C5" s="2">
@@ -6472,7 +6472,7 @@
       <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="6">
         <v>0.1</v>
       </c>
       <c r="C6" s="2">
@@ -6502,7 +6502,7 @@
       <c r="A7" s="11">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="6">
         <v>0.12</v>
       </c>
       <c r="C7" s="2">
@@ -6532,7 +6532,7 @@
       <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="6">
         <v>0.14000000000000001</v>
       </c>
       <c r="C8" s="2">
@@ -6562,7 +6562,7 @@
       <c r="A9" s="11">
         <v>6</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="6">
         <v>0.15</v>
       </c>
       <c r="C9" s="2">
@@ -6592,8 +6592,8 @@
       <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="4">
-        <v>0.16</v>
+      <c r="B10" s="6">
+        <v>0.155</v>
       </c>
       <c r="C10" s="2">
         <v>9800</v>
@@ -6622,8 +6622,8 @@
       <c r="A11" s="11">
         <v>8</v>
       </c>
-      <c r="B11" s="4">
-        <v>0.17</v>
+      <c r="B11" s="6">
+        <v>0.16</v>
       </c>
       <c r="C11" s="2">
         <v>12800</v>
@@ -6652,8 +6652,8 @@
       <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="4">
-        <v>0.18</v>
+      <c r="B12" s="6">
+        <v>0.16500000000000001</v>
       </c>
       <c r="C12" s="2">
         <v>16200</v>
@@ -6682,8 +6682,8 @@
       <c r="A13" s="11">
         <v>10</v>
       </c>
-      <c r="B13" s="4">
-        <v>0.19</v>
+      <c r="B13" s="6">
+        <v>0.17</v>
       </c>
       <c r="C13" s="2">
         <v>20000</v>
@@ -6712,8 +6712,8 @@
       <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="4">
-        <v>0.2</v>
+      <c r="B14" s="6">
+        <v>0.17499999999999999</v>
       </c>
       <c r="C14" s="2">
         <v>24200</v>
@@ -6742,8 +6742,8 @@
       <c r="A15" s="11">
         <v>12</v>
       </c>
-      <c r="B15" s="4">
-        <v>0.21</v>
+      <c r="B15" s="6">
+        <v>0.18</v>
       </c>
       <c r="C15" s="2">
         <v>28800</v>
@@ -6772,8 +6772,8 @@
       <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="B16" s="4">
-        <v>0.22</v>
+      <c r="B16" s="6">
+        <v>0.185</v>
       </c>
       <c r="C16" s="2">
         <v>33800</v>
@@ -6802,8 +6802,8 @@
       <c r="A17" s="11">
         <v>14</v>
       </c>
-      <c r="B17" s="4">
-        <v>0.23</v>
+      <c r="B17" s="6">
+        <v>0.19</v>
       </c>
       <c r="C17" s="2">
         <v>39200</v>
@@ -6832,8 +6832,8 @@
       <c r="A18" s="3">
         <v>15</v>
       </c>
-      <c r="B18" s="4">
-        <v>0.24</v>
+      <c r="B18" s="6">
+        <v>0.19500000000000001</v>
       </c>
       <c r="C18" s="2">
         <v>45000</v>
@@ -6862,8 +6862,8 @@
       <c r="A19" s="11">
         <v>16</v>
       </c>
-      <c r="B19" s="4">
-        <v>0.25</v>
+      <c r="B19" s="6">
+        <v>0.2</v>
       </c>
       <c r="C19" s="2">
         <v>51200</v>
@@ -6892,8 +6892,8 @@
       <c r="A20" s="3">
         <v>17</v>
       </c>
-      <c r="B20" s="4">
-        <v>0.26</v>
+      <c r="B20" s="6">
+        <v>0.20499999999999999</v>
       </c>
       <c r="C20" s="2">
         <v>57800</v>
@@ -6922,8 +6922,8 @@
       <c r="A21" s="11">
         <v>18</v>
       </c>
-      <c r="B21" s="4">
-        <v>0.27</v>
+      <c r="B21" s="6">
+        <v>0.21</v>
       </c>
       <c r="C21" s="2">
         <v>64800</v>
@@ -6952,8 +6952,8 @@
       <c r="A22" s="3">
         <v>19</v>
       </c>
-      <c r="B22" s="4">
-        <v>0.28000000000000003</v>
+      <c r="B22" s="6">
+        <v>0.215</v>
       </c>
       <c r="C22" s="2">
         <v>72200</v>
@@ -6982,8 +6982,8 @@
       <c r="A23" s="11">
         <v>20</v>
       </c>
-      <c r="B23" s="4">
-        <v>0.28999999999999998</v>
+      <c r="B23" s="6">
+        <v>0.22</v>
       </c>
       <c r="C23" s="2">
         <v>80000</v>
@@ -7012,8 +7012,8 @@
       <c r="A24" s="3">
         <v>21</v>
       </c>
-      <c r="B24" s="4">
-        <v>0.3</v>
+      <c r="B24" s="6">
+        <v>0.22500000000000001</v>
       </c>
       <c r="C24" s="2">
         <v>88200</v>
@@ -17089,6 +17089,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="H1:I1"/>
@@ -17100,16 +17110,6 @@
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AB1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/const/technologies.xlsx
+++ b/const/technologies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="29940" windowHeight="18640" firstSheet="10" activeTab="11"/>
+    <workbookView xWindow="7500" yWindow="60" windowWidth="29940" windowHeight="18640" firstSheet="10" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="住宅" sheetId="1" r:id="rId1"/>
@@ -6329,7 +6329,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6383,7 +6383,7 @@
       <c r="A3" s="11">
         <v>0</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="6">
         <v>0</v>
       </c>
       <c r="C3" s="11">
@@ -6412,7 +6412,7 @@
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="6">
         <v>0.05</v>
       </c>
       <c r="C4" s="2">
@@ -6442,7 +6442,7 @@
       <c r="A5" s="11">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="6">
         <v>0.08</v>
       </c>
       <c r="C5" s="2">
@@ -6472,7 +6472,7 @@
       <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="6">
         <v>0.1</v>
       </c>
       <c r="C6" s="2">
@@ -6502,7 +6502,7 @@
       <c r="A7" s="11">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="6">
         <v>0.12</v>
       </c>
       <c r="C7" s="2">
@@ -6532,8 +6532,8 @@
       <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="4">
-        <v>0.14000000000000001</v>
+      <c r="B8" s="6">
+        <v>0.13</v>
       </c>
       <c r="C8" s="2">
         <v>5000</v>
@@ -6562,8 +6562,8 @@
       <c r="A9" s="11">
         <v>6</v>
       </c>
-      <c r="B9" s="4">
-        <v>0.16</v>
+      <c r="B9" s="6">
+        <v>0.14000000000000001</v>
       </c>
       <c r="C9" s="2">
         <v>7200</v>
@@ -6592,8 +6592,8 @@
       <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="4">
-        <v>0.18</v>
+      <c r="B10" s="6">
+        <v>0.15</v>
       </c>
       <c r="C10" s="2">
         <v>9800</v>
@@ -6622,8 +6622,8 @@
       <c r="A11" s="11">
         <v>8</v>
       </c>
-      <c r="B11" s="4">
-        <v>0.2</v>
+      <c r="B11" s="6">
+        <v>0.16</v>
       </c>
       <c r="C11" s="2">
         <v>12800</v>
@@ -6652,8 +6652,8 @@
       <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="4">
-        <v>0.21</v>
+      <c r="B12" s="6">
+        <v>0.16500000000000001</v>
       </c>
       <c r="C12" s="2">
         <v>16200</v>
@@ -6682,8 +6682,8 @@
       <c r="A13" s="11">
         <v>10</v>
       </c>
-      <c r="B13" s="4">
-        <v>0.22</v>
+      <c r="B13" s="6">
+        <v>0.17</v>
       </c>
       <c r="C13" s="2">
         <v>20000</v>
@@ -6712,8 +6712,8 @@
       <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="4">
-        <v>0.23</v>
+      <c r="B14" s="6">
+        <v>0.17499999999999999</v>
       </c>
       <c r="C14" s="2">
         <v>24200</v>
@@ -6742,8 +6742,8 @@
       <c r="A15" s="11">
         <v>12</v>
       </c>
-      <c r="B15" s="4">
-        <v>0.24</v>
+      <c r="B15" s="6">
+        <v>0.18</v>
       </c>
       <c r="C15" s="2">
         <v>28800</v>
@@ -6772,8 +6772,8 @@
       <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="B16" s="4">
-        <v>0.25</v>
+      <c r="B16" s="6">
+        <v>0.185</v>
       </c>
       <c r="C16" s="2">
         <v>33800</v>
@@ -6802,8 +6802,8 @@
       <c r="A17" s="11">
         <v>14</v>
       </c>
-      <c r="B17" s="4">
-        <v>0.26</v>
+      <c r="B17" s="6">
+        <v>0.19</v>
       </c>
       <c r="C17" s="2">
         <v>39200</v>
@@ -6832,8 +6832,8 @@
       <c r="A18" s="3">
         <v>15</v>
       </c>
-      <c r="B18" s="4">
-        <v>0.27</v>
+      <c r="B18" s="6">
+        <v>0.19500000000000001</v>
       </c>
       <c r="C18" s="2">
         <v>45000</v>
@@ -6862,8 +6862,8 @@
       <c r="A19" s="11">
         <v>16</v>
       </c>
-      <c r="B19" s="4">
-        <v>0.28000000000000003</v>
+      <c r="B19" s="6">
+        <v>0.2</v>
       </c>
       <c r="C19" s="2">
         <v>51200</v>
@@ -6892,8 +6892,8 @@
       <c r="A20" s="3">
         <v>17</v>
       </c>
-      <c r="B20" s="4">
-        <v>0.28999999999999998</v>
+      <c r="B20" s="6">
+        <v>0.20499999999999999</v>
       </c>
       <c r="C20" s="2">
         <v>57800</v>
@@ -6922,8 +6922,8 @@
       <c r="A21" s="11">
         <v>18</v>
       </c>
-      <c r="B21" s="4">
-        <v>0.3</v>
+      <c r="B21" s="6">
+        <v>0.21</v>
       </c>
       <c r="C21" s="2">
         <v>64800</v>
@@ -6952,8 +6952,8 @@
       <c r="A22" s="3">
         <v>19</v>
       </c>
-      <c r="B22" s="4">
-        <v>0.31</v>
+      <c r="B22" s="6">
+        <v>0.215</v>
       </c>
       <c r="C22" s="2">
         <v>72200</v>
@@ -6982,8 +6982,8 @@
       <c r="A23" s="11">
         <v>20</v>
       </c>
-      <c r="B23" s="4">
-        <v>0.32</v>
+      <c r="B23" s="6">
+        <v>0.22</v>
       </c>
       <c r="C23" s="2">
         <v>80000</v>
@@ -7012,8 +7012,8 @@
       <c r="A24" s="3">
         <v>21</v>
       </c>
-      <c r="B24" s="4">
-        <v>0.33</v>
+      <c r="B24" s="6">
+        <v>0.22500000000000001</v>
       </c>
       <c r="C24" s="2">
         <v>88200</v>
@@ -17089,12 +17089,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="AJ1:AK1"/>
-    <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="AN1:AO1"/>
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="R1:S1"/>
@@ -17103,10 +17097,16 @@
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="V1:W1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>

--- a/const/technologies.xlsx
+++ b/const/technologies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="60" windowWidth="29940" windowHeight="18640" firstSheet="10" activeTab="11"/>
+    <workbookView xWindow="820" yWindow="40" windowWidth="29940" windowHeight="18640" tabRatio="887" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="住宅" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="1011">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3289,6 +3289,174 @@
   </si>
   <si>
     <t>SkillTriger+11%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc_cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc_en</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Workers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库容量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少孵化时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兽栏容量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少科研时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加神灵触发几率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加金矿产量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加恐龙攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加恐龙防御力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加恐龙血量上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加恐龙技能出发几率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加打野掉宝率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加恐龙造成的伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加资源抢夺量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高角色经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warehouse Capacity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reduce hatching time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase beastiary Capacity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reduce research time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase gods effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase goldmine output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase dinosaur's attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase dinosaur's defense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase dinosaur's hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enhance dinosaur's skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase player's xp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reduce trade tax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase props dropping chance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase robbing resource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Make more damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木材产量/小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石料产量/小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉类产量/小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果产量/小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stone produced / h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood produced / h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meat produced / h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fruit produced / h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少交易税</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3391,11 +3559,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="60">
+  <cellStyleXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3636,7 +3810,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="60">
+  <cellStyles count="62">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
@@ -3667,6 +3841,7 @@
     <cellStyle name="超链接" xfId="54" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="56" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="60" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
@@ -3696,6 +3871,7 @@
     <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6328,7 +6504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
@@ -13764,20 +13940,22 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="8.83203125" style="3"/>
     <col min="3" max="3" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="3"/>
+    <col min="4" max="4" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.6640625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="9" t="s">
         <v>54</v>
       </c>
@@ -13787,8 +13965,14 @@
       <c r="C1" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -13798,8 +13982,14 @@
       <c r="C2" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -13809,8 +13999,14 @@
       <c r="C3" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -13820,8 +14016,14 @@
       <c r="C4" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -13831,8 +14033,14 @@
       <c r="C5" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -13842,8 +14050,14 @@
       <c r="C6" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -13853,8 +14067,14 @@
       <c r="C7" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -13864,8 +14084,14 @@
       <c r="C8" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -13875,8 +14101,14 @@
       <c r="C9" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -13886,8 +14118,14 @@
       <c r="C10" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -13897,8 +14135,14 @@
       <c r="C11" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -13908,8 +14152,14 @@
       <c r="C12" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -13919,8 +14169,14 @@
       <c r="C13" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -13930,8 +14186,14 @@
       <c r="C14" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -13941,8 +14203,14 @@
       <c r="C15" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -13952,8 +14220,14 @@
       <c r="C16" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -13963,8 +14237,14 @@
       <c r="C17" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -13974,8 +14254,14 @@
       <c r="C18" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -13985,8 +14271,14 @@
       <c r="C19" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -13996,8 +14288,14 @@
       <c r="C20" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -14006,6 +14304,12 @@
       </c>
       <c r="C21" s="3" t="s">
         <v>76</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>997</v>
       </c>
     </row>
   </sheetData>
@@ -14024,8 +14328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO25"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AP2" sqref="AP2"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -17089,16 +17393,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="H1:I1"/>
@@ -17110,10 +17404,20 @@
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AB1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/const/technologies.xlsx
+++ b/const/technologies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="40" windowWidth="29940" windowHeight="18640" tabRatio="887" activeTab="20"/>
+    <workbookView xWindow="2900" yWindow="0" windowWidth="29940" windowHeight="18640" tabRatio="887" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="住宅" sheetId="1" r:id="rId1"/>
@@ -3300,163 +3300,139 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工人数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Workers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库容量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减少孵化时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兽栏容量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减少科研时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加神灵触发几率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加金矿产量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加恐龙攻击力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加恐龙防御力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加恐龙血量上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加恐龙技能出发几率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加打野掉宝率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加恐龙造成的伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加资源抢夺量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提高角色经验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Warehouse Capacity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reduce hatching time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Increase beastiary Capacity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reduce research time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Increase gods effect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Increase goldmine output</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Increase dinosaur's attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Increase dinosaur's defense</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Increase dinosaur's hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enhance dinosaur's skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Increase player's xp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reduce trade tax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Increase props dropping chance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Increase robbing resource</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Make more damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木材产量/小时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石料产量/小时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肉类产量/小时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水果产量/小时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stone produced / h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wood produced / h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Meat produced / h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fruit produced / h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减少交易税</t>
+    <t>木材产量%d/小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石料产量%d/小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉类产量%d/小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果产量%d/小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库容量: %d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兽栏容量: %d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加金矿产量: %d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warehouse Capacity: %d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase beastiary Capacity: %d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood produced %d /h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stone produced %d /h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meat produced %d /h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fruit produced %d /h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少孵化时间: %.1f%%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少科研时间: %.1f%%</t>
+  </si>
+  <si>
+    <t>Reduce research time: %.1f%%</t>
+  </si>
+  <si>
+    <t>增加神灵触发几率: %.1f%%</t>
+  </si>
+  <si>
+    <t>Increase gods effect: %.1f%%</t>
+  </si>
+  <si>
+    <t>Increase goldmine output: %.1f%%</t>
+  </si>
+  <si>
+    <t>增加恐龙攻击力: %.1f%%</t>
+  </si>
+  <si>
+    <t>Increase dinosaur's attack: %.1f%%</t>
+  </si>
+  <si>
+    <t>增加恐龙防御力: %.1f%%</t>
+  </si>
+  <si>
+    <t>Increase dinosaur's defense: %.1f%%</t>
+  </si>
+  <si>
+    <t>增加恐龙血量上限: %.1f%%</t>
+  </si>
+  <si>
+    <t>Increase dinosaur's hp: %.1f%%</t>
+  </si>
+  <si>
+    <t>增加恐龙技能出发几率: %.1f%%</t>
+  </si>
+  <si>
+    <t>Enhance dinosaur's skill: %.1f%%</t>
+  </si>
+  <si>
+    <t>增加打野掉宝率: %.1f%%</t>
+  </si>
+  <si>
+    <t>Increase props dropping chance: %.1f%%</t>
+  </si>
+  <si>
+    <t>增加恐龙造成的伤害: %.1f%%</t>
+  </si>
+  <si>
+    <t>Make more damage: %.1f%%</t>
+  </si>
+  <si>
+    <t>增加资源抢夺量: %.1f%%</t>
+  </si>
+  <si>
+    <t>Increase robbing resource: %.1f%%</t>
+  </si>
+  <si>
+    <t>提高角色经验: %.1f%%</t>
+  </si>
+  <si>
+    <t>Increase player's xp: %.1f%%</t>
+  </si>
+  <si>
+    <t>Reduce hatching time: %.1f%%</t>
+  </si>
+  <si>
+    <t>减少交易税: %.1f%%</t>
+  </si>
+  <si>
+    <t>Reduce trade tax: %.1f%%</t>
+  </si>
+  <si>
+    <t>Workers: %d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工人数: %d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13943,15 +13919,15 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="8.83203125" style="3"/>
     <col min="3" max="3" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.5" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
@@ -13983,10 +13959,10 @@
         <v>57</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>971</v>
+        <v>1010</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>972</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -14000,10 +13976,10 @@
         <v>58</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1002</v>
+        <v>971</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>1007</v>
+        <v>980</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -14017,10 +13993,10 @@
         <v>59</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1003</v>
+        <v>972</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1006</v>
+        <v>981</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -14034,10 +14010,10 @@
         <v>60</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1004</v>
+        <v>973</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1008</v>
+        <v>982</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -14051,10 +14027,10 @@
         <v>61</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1005</v>
+        <v>974</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1009</v>
+        <v>983</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -14068,10 +14044,10 @@
         <v>62</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>987</v>
+        <v>978</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -14085,10 +14061,10 @@
         <v>63</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>974</v>
+        <v>984</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>988</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -14102,10 +14078,10 @@
         <v>64</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>989</v>
+        <v>979</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -14119,10 +14095,10 @@
         <v>65</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>998</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -14136,10 +14112,10 @@
         <v>66</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>976</v>
+        <v>985</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -14153,10 +14129,10 @@
         <v>67</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>977</v>
+        <v>987</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -14170,10 +14146,10 @@
         <v>68</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -14187,10 +14163,10 @@
         <v>69</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>979</v>
+        <v>990</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -14204,10 +14180,10 @@
         <v>70</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>980</v>
+        <v>992</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -14221,7 +14197,7 @@
         <v>71</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>981</v>
+        <v>994</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>995</v>
@@ -14238,10 +14214,10 @@
         <v>72</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>982</v>
+        <v>996</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -14255,7 +14231,7 @@
         <v>73</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>983</v>
+        <v>998</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>999</v>
@@ -14272,7 +14248,7 @@
         <v>74</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>984</v>
+        <v>1000</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>1001</v>
@@ -14289,10 +14265,10 @@
         <v>75</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>985</v>
+        <v>1002</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -14306,10 +14282,10 @@
         <v>76</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>986</v>
+        <v>1004</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>997</v>
+        <v>1005</v>
       </c>
     </row>
   </sheetData>
@@ -17393,6 +17369,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="H1:I1"/>
@@ -17404,16 +17390,6 @@
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AB1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/const/technologies.xlsx
+++ b/const/technologies.xlsx
@@ -3300,139 +3300,140 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>石料产量%d/小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉类产量%d/小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果产量%d/小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库容量: %d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加金矿产量: %d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warehouse Capacity: %d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood produced %d /h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stone produced %d /h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meat produced %d /h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fruit produced %d /h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少孵化时间: %.1f%%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少科研时间: %.1f%%</t>
+  </si>
+  <si>
+    <t>Reduce research time: %.1f%%</t>
+  </si>
+  <si>
+    <t>增加神灵触发几率: %.1f%%</t>
+  </si>
+  <si>
+    <t>Increase gods effect: %.1f%%</t>
+  </si>
+  <si>
+    <t>Increase goldmine output: %.1f%%</t>
+  </si>
+  <si>
+    <t>增加恐龙攻击力: %.1f%%</t>
+  </si>
+  <si>
+    <t>Increase dinosaur's attack: %.1f%%</t>
+  </si>
+  <si>
+    <t>增加恐龙防御力: %.1f%%</t>
+  </si>
+  <si>
+    <t>Increase dinosaur's defense: %.1f%%</t>
+  </si>
+  <si>
+    <t>增加恐龙血量上限: %.1f%%</t>
+  </si>
+  <si>
+    <t>Increase dinosaur's hp: %.1f%%</t>
+  </si>
+  <si>
+    <t>Enhance dinosaur's skill: %.1f%%</t>
+  </si>
+  <si>
+    <t>增加打野掉宝率: %.1f%%</t>
+  </si>
+  <si>
+    <t>Increase props dropping chance: %.1f%%</t>
+  </si>
+  <si>
+    <t>增加恐龙造成的伤害: %.1f%%</t>
+  </si>
+  <si>
+    <t>Make more damage: %.1f%%</t>
+  </si>
+  <si>
+    <t>增加资源抢夺量: %.1f%%</t>
+  </si>
+  <si>
+    <t>Increase robbing resource: %.1f%%</t>
+  </si>
+  <si>
+    <t>提高角色经验: %.1f%%</t>
+  </si>
+  <si>
+    <t>Increase player's xp: %.1f%%</t>
+  </si>
+  <si>
+    <t>Reduce hatching time: %.1f%%</t>
+  </si>
+  <si>
+    <t>减少交易税: %.1f%%</t>
+  </si>
+  <si>
+    <t>Reduce trade tax: %.1f%%</t>
+  </si>
+  <si>
+    <t>Workers: %d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工人数: %d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兽栏容量+: %d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase beastiary Capacity+: %d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加恐龙技能触发几率: %.1f%%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>木材产量%d/小时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石料产量%d/小时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肉类产量%d/小时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水果产量%d/小时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库容量: %d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兽栏容量: %d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加金矿产量: %d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Warehouse Capacity: %d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Increase beastiary Capacity: %d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wood produced %d /h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stone produced %d /h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Meat produced %d /h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fruit produced %d /h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减少孵化时间: %.1f%%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减少科研时间: %.1f%%</t>
-  </si>
-  <si>
-    <t>Reduce research time: %.1f%%</t>
-  </si>
-  <si>
-    <t>增加神灵触发几率: %.1f%%</t>
-  </si>
-  <si>
-    <t>Increase gods effect: %.1f%%</t>
-  </si>
-  <si>
-    <t>Increase goldmine output: %.1f%%</t>
-  </si>
-  <si>
-    <t>增加恐龙攻击力: %.1f%%</t>
-  </si>
-  <si>
-    <t>Increase dinosaur's attack: %.1f%%</t>
-  </si>
-  <si>
-    <t>增加恐龙防御力: %.1f%%</t>
-  </si>
-  <si>
-    <t>Increase dinosaur's defense: %.1f%%</t>
-  </si>
-  <si>
-    <t>增加恐龙血量上限: %.1f%%</t>
-  </si>
-  <si>
-    <t>Increase dinosaur's hp: %.1f%%</t>
-  </si>
-  <si>
-    <t>增加恐龙技能出发几率: %.1f%%</t>
-  </si>
-  <si>
-    <t>Enhance dinosaur's skill: %.1f%%</t>
-  </si>
-  <si>
-    <t>增加打野掉宝率: %.1f%%</t>
-  </si>
-  <si>
-    <t>Increase props dropping chance: %.1f%%</t>
-  </si>
-  <si>
-    <t>增加恐龙造成的伤害: %.1f%%</t>
-  </si>
-  <si>
-    <t>Make more damage: %.1f%%</t>
-  </si>
-  <si>
-    <t>增加资源抢夺量: %.1f%%</t>
-  </si>
-  <si>
-    <t>Increase robbing resource: %.1f%%</t>
-  </si>
-  <si>
-    <t>提高角色经验: %.1f%%</t>
-  </si>
-  <si>
-    <t>Increase player's xp: %.1f%%</t>
-  </si>
-  <si>
-    <t>Reduce hatching time: %.1f%%</t>
-  </si>
-  <si>
-    <t>减少交易税: %.1f%%</t>
-  </si>
-  <si>
-    <t>Reduce trade tax: %.1f%%</t>
-  </si>
-  <si>
-    <t>Workers: %d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工人数: %d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13919,7 +13920,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -13959,10 +13960,10 @@
         <v>57</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -13976,10 +13977,10 @@
         <v>58</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>971</v>
+        <v>1010</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -13993,10 +13994,10 @@
         <v>59</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -14010,10 +14011,10 @@
         <v>60</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -14027,10 +14028,10 @@
         <v>61</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -14044,10 +14045,10 @@
         <v>62</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -14061,10 +14062,10 @@
         <v>63</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -14078,10 +14079,10 @@
         <v>64</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>976</v>
+        <v>1007</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>979</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -14095,10 +14096,10 @@
         <v>65</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -14112,10 +14113,10 @@
         <v>66</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -14129,10 +14130,10 @@
         <v>67</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -14146,10 +14147,10 @@
         <v>68</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -14163,10 +14164,10 @@
         <v>69</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -14180,10 +14181,10 @@
         <v>70</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -14197,10 +14198,10 @@
         <v>71</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -14214,10 +14215,10 @@
         <v>72</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>996</v>
+        <v>1009</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -14231,10 +14232,10 @@
         <v>73</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -14248,10 +14249,10 @@
         <v>74</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -14265,10 +14266,10 @@
         <v>75</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -14282,10 +14283,10 @@
         <v>76</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
     </row>
   </sheetData>
@@ -17369,16 +17370,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="H1:I1"/>
@@ -17390,6 +17381,16 @@
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AB1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/const/technologies.xlsx
+++ b/const/technologies.xlsx
@@ -3316,10 +3316,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>增加金矿产量: %d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Warehouse Capacity: %d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3421,19 +3417,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>兽栏容量+: %d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Increase beastiary Capacity+: %d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>增加恐龙技能触发几率: %.1f%%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>木材产量%d/小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加金矿产量: %.1f%%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兽栏基础容量: %d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase basic beastiary: %d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4989,7 +4989,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5690,35 +5690,15 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="3">
-        <v>21</v>
-      </c>
-      <c r="B24" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="C24" s="2">
-        <v>44100</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" si="0"/>
-        <v>88200</v>
-      </c>
-      <c r="E24" s="2">
-        <f t="shared" si="1"/>
-        <v>88200</v>
-      </c>
-      <c r="F24" s="2">
-        <v>432000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>32000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>44100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>15</v>
-      </c>
+      <c r="A24" s="3"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5743,7 +5723,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6430,34 +6410,15 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="3">
-        <v>21</v>
-      </c>
-      <c r="B24" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="C24" s="2">
-        <v>44100</v>
-      </c>
-      <c r="D24" s="3">
-        <v>44100</v>
-      </c>
-      <c r="E24" s="2">
-        <f t="shared" si="0"/>
-        <v>176400</v>
-      </c>
-      <c r="F24" s="2">
-        <v>432000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>32000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>44100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>15</v>
-      </c>
+      <c r="A24" s="3"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6482,7 +6443,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7162,34 +7123,15 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="3">
-        <v>21</v>
-      </c>
-      <c r="B24" s="6">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="C24" s="2">
-        <v>88200</v>
-      </c>
-      <c r="D24" s="2">
-        <v>88200</v>
-      </c>
-      <c r="E24" s="2">
-        <f t="shared" si="0"/>
-        <v>132300</v>
-      </c>
-      <c r="F24" s="2">
-        <v>432000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>32000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>44100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>15</v>
-      </c>
+      <c r="A24" s="3"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7214,7 +7156,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7961,35 +7903,15 @@
       <c r="K23" s="3"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="3">
-        <v>21</v>
-      </c>
-      <c r="B24" s="4">
-        <v>0.21</v>
-      </c>
-      <c r="C24" s="2">
-        <f t="shared" si="0"/>
-        <v>176400</v>
-      </c>
-      <c r="D24" s="3">
-        <v>44100</v>
-      </c>
-      <c r="E24" s="2">
-        <f t="shared" si="1"/>
-        <v>88200</v>
-      </c>
-      <c r="F24" s="2">
-        <v>432000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>32000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>44100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>15</v>
-      </c>
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
@@ -8041,7 +7963,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -8723,34 +8645,15 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="3">
-        <v>21</v>
-      </c>
-      <c r="B24" s="4">
-        <v>0.21</v>
-      </c>
-      <c r="C24" s="2">
-        <v>44100</v>
-      </c>
-      <c r="D24" s="3">
-        <v>44100</v>
-      </c>
-      <c r="E24" s="2">
-        <f t="shared" si="0"/>
-        <v>132300</v>
-      </c>
-      <c r="F24" s="2">
-        <v>432000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>32000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>44100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>15</v>
-      </c>
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8775,7 +8678,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -9437,33 +9340,15 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="3">
-        <v>21</v>
-      </c>
-      <c r="B24" s="4">
-        <v>0.21</v>
-      </c>
-      <c r="C24" s="2">
-        <v>176400</v>
-      </c>
-      <c r="D24" s="3">
-        <v>44100</v>
-      </c>
-      <c r="E24" s="2">
-        <v>44100</v>
-      </c>
-      <c r="F24" s="2">
-        <v>432000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>32000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>44100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>15</v>
-      </c>
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -9488,7 +9373,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10151,33 +10036,15 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="3">
-        <v>21</v>
-      </c>
-      <c r="B24" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="C24" s="2">
-        <v>110250</v>
-      </c>
-      <c r="D24" s="2">
-        <v>110250</v>
-      </c>
-      <c r="E24" s="2">
-        <v>110250</v>
-      </c>
-      <c r="F24" s="2">
-        <v>432000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>32000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>44100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>15</v>
-      </c>
+      <c r="A24" s="3"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10202,7 +10069,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10885,34 +10752,15 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="3">
-        <v>21</v>
-      </c>
-      <c r="B24" s="6">
-        <v>0.105</v>
-      </c>
-      <c r="C24" s="2">
-        <v>132300</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" si="0"/>
-        <v>132300</v>
-      </c>
-      <c r="E24" s="2">
-        <v>66150</v>
-      </c>
-      <c r="F24" s="2">
-        <v>432000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>32000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>44100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>15</v>
-      </c>
+      <c r="A24" s="3"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10937,7 +10785,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -11620,34 +11468,15 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="3">
-        <v>21</v>
-      </c>
-      <c r="B24" s="7">
-        <v>0.21</v>
-      </c>
-      <c r="C24" s="2">
-        <f t="shared" si="0"/>
-        <v>176400</v>
-      </c>
-      <c r="D24" s="2">
-        <v>88200</v>
-      </c>
-      <c r="E24" s="3">
-        <v>44100</v>
-      </c>
-      <c r="F24" s="2">
-        <v>432000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>32000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>44100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>15</v>
-      </c>
+      <c r="A24" s="3"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -11672,7 +11501,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -12333,33 +12162,15 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="3">
-        <v>21</v>
-      </c>
-      <c r="B24" s="4">
-        <v>0.21</v>
-      </c>
-      <c r="C24" s="3">
-        <v>132300</v>
-      </c>
-      <c r="D24" s="3">
-        <v>132300</v>
-      </c>
-      <c r="E24" s="3">
-        <v>132300</v>
-      </c>
-      <c r="F24" s="2">
-        <v>432000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>32000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>44100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>15</v>
-      </c>
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -12384,7 +12195,7 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -13069,34 +12880,15 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="2">
-        <v>21</v>
-      </c>
-      <c r="B24" s="2">
-        <v>1150</v>
-      </c>
-      <c r="C24" s="2">
-        <f t="shared" si="0"/>
-        <v>176400</v>
-      </c>
-      <c r="D24" s="3">
-        <v>44100</v>
-      </c>
-      <c r="E24" s="3">
-        <v>44100</v>
-      </c>
-      <c r="F24" s="2">
-        <v>432000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>32000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>44100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>15</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="2"/>
@@ -13186,7 +12978,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -13868,34 +13660,15 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="3">
-        <v>21</v>
-      </c>
-      <c r="B24" s="4">
-        <v>0.21</v>
-      </c>
-      <c r="C24" s="2">
-        <v>66150</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" si="0"/>
-        <v>198450</v>
-      </c>
-      <c r="E24" s="2">
-        <v>198450</v>
-      </c>
-      <c r="F24" s="2">
-        <v>432000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>32000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>44100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>15</v>
-      </c>
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -13920,7 +13693,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -13960,10 +13733,10 @@
         <v>57</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -13977,10 +13750,10 @@
         <v>58</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -13997,7 +13770,7 @@
         <v>971</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -14014,7 +13787,7 @@
         <v>972</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -14031,7 +13804,7 @@
         <v>973</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -14048,7 +13821,7 @@
         <v>974</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -14062,10 +13835,10 @@
         <v>63</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -14079,10 +13852,10 @@
         <v>64</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -14096,10 +13869,10 @@
         <v>65</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>1003</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -14113,10 +13886,10 @@
         <v>66</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>982</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -14130,10 +13903,10 @@
         <v>67</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>984</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -14147,10 +13920,10 @@
         <v>68</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>975</v>
+        <v>1008</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -14164,10 +13937,10 @@
         <v>69</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>987</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -14181,10 +13954,10 @@
         <v>70</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>989</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -14198,10 +13971,10 @@
         <v>71</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>991</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -14215,10 +13988,10 @@
         <v>72</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -14232,10 +14005,10 @@
         <v>73</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>993</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>994</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -14249,10 +14022,10 @@
         <v>74</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>996</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -14266,10 +14039,10 @@
         <v>75</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>998</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -14283,10 +14056,10 @@
         <v>76</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>1000</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>1001</v>
       </c>
     </row>
   </sheetData>
@@ -17408,7 +17181,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -18091,34 +17864,15 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="2">
-        <v>21</v>
-      </c>
-      <c r="B24" s="13">
-        <v>1150</v>
-      </c>
-      <c r="C24" s="2">
-        <v>44100</v>
-      </c>
-      <c r="D24" s="3">
-        <v>44100</v>
-      </c>
-      <c r="E24" s="2">
-        <f t="shared" si="0"/>
-        <v>88200</v>
-      </c>
-      <c r="F24" s="2">
-        <v>432000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>32000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>44100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>15</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="2"/>
@@ -18152,7 +17906,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -18816,33 +18570,15 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="2">
-        <v>21</v>
-      </c>
-      <c r="B24" s="2">
-        <v>23</v>
-      </c>
-      <c r="C24" s="2">
-        <v>88200</v>
-      </c>
-      <c r="D24" s="2">
-        <v>88200</v>
-      </c>
-      <c r="E24" s="3">
-        <v>44100</v>
-      </c>
-      <c r="F24" s="2">
-        <v>432000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>32000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>44100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>15</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="2"/>
@@ -18876,7 +18612,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -19538,33 +19274,15 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="11">
-        <v>21</v>
-      </c>
-      <c r="B24" s="2">
-        <v>23</v>
-      </c>
-      <c r="C24" s="2">
-        <v>88200</v>
-      </c>
-      <c r="D24" s="3">
-        <v>88200</v>
-      </c>
-      <c r="E24" s="2">
-        <v>88200</v>
-      </c>
-      <c r="F24" s="2">
-        <v>432000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>32000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>44100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>15</v>
-      </c>
+      <c r="A24" s="11"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="2"/>
@@ -19597,7 +19315,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -20405,38 +20123,9 @@
       <c r="K23" s="15"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="3">
-        <v>21</v>
-      </c>
-      <c r="B24" s="3">
-        <v>203000</v>
-      </c>
-      <c r="C24" s="3">
-        <v>125</v>
-      </c>
-      <c r="D24" s="3">
-        <v>44100</v>
-      </c>
-      <c r="E24" s="2">
-        <f t="shared" si="0"/>
-        <v>66150</v>
-      </c>
-      <c r="F24" s="2">
-        <f t="shared" si="1"/>
-        <v>88200</v>
-      </c>
-      <c r="G24" s="2">
-        <v>432000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>32000</v>
-      </c>
-      <c r="I24" s="3">
-        <v>44100</v>
-      </c>
-      <c r="J24" s="3">
-        <v>15</v>
-      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
       <c r="K24" s="15"/>
     </row>
   </sheetData>
@@ -20463,7 +20152,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -21303,41 +20992,17 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="3">
-        <v>21</v>
-      </c>
-      <c r="B24" s="3">
-        <v>24</v>
-      </c>
-      <c r="C24" s="3">
-        <v>5</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0.21</v>
-      </c>
-      <c r="E24" s="2">
-        <f t="shared" si="0"/>
-        <v>66150</v>
-      </c>
-      <c r="F24" s="3">
-        <v>44100</v>
-      </c>
-      <c r="G24" s="2">
-        <f t="shared" si="1"/>
-        <v>22050</v>
-      </c>
-      <c r="H24" s="2">
-        <v>432000</v>
-      </c>
-      <c r="I24" s="3">
-        <v>32000</v>
-      </c>
-      <c r="J24" s="3">
-        <v>44100</v>
-      </c>
-      <c r="K24" s="3">
-        <v>15</v>
-      </c>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
     </row>
     <row r="25" spans="1:11">
       <c r="H25" s="2"/>
@@ -21367,7 +21032,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -22138,38 +21803,16 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="3">
-        <v>21</v>
-      </c>
-      <c r="B24" s="14">
-        <v>26</v>
-      </c>
-      <c r="C24" s="3">
-        <v>5</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" si="0"/>
-        <v>132300</v>
-      </c>
-      <c r="E24" s="2">
-        <f t="shared" si="1"/>
-        <v>132300</v>
-      </c>
-      <c r="F24" s="3">
-        <v>44100</v>
-      </c>
-      <c r="G24" s="2">
-        <v>432000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>32000</v>
-      </c>
-      <c r="I24" s="3">
-        <v>44100</v>
-      </c>
-      <c r="J24" s="3">
-        <v>15</v>
-      </c>
+      <c r="A24" s="3"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10">
       <c r="G25" s="2"/>
@@ -22198,7 +21841,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -22950,37 +22593,16 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="3">
-        <v>21</v>
-      </c>
-      <c r="B24" s="4">
-        <v>0.21</v>
-      </c>
-      <c r="C24" s="4">
-        <v>0.09</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" si="0"/>
-        <v>198450</v>
-      </c>
-      <c r="E24" s="2">
-        <v>88200</v>
-      </c>
-      <c r="F24" s="2">
-        <v>66150</v>
-      </c>
-      <c r="G24" s="2">
-        <v>432000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>32000</v>
-      </c>
-      <c r="I24" s="3">
-        <v>44100</v>
-      </c>
-      <c r="J24" s="3">
-        <v>15</v>
-      </c>
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
